--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -48391,7 +48391,7 @@
         <v>823</v>
       </c>
       <c r="D93" s="1">
-        <v>205.58375017864799</v>
+        <v>205.58375549316406</v>
       </c>
       <c r="E93" t="s">
         <v>833</v>
@@ -48408,7 +48408,7 @@
         <v>823</v>
       </c>
       <c r="D94" s="1">
-        <v>190.41594429444365</v>
+        <v>190.41593933105469</v>
       </c>
       <c r="E94" t="s">
         <v>833</v>
@@ -48425,7 +48425,7 @@
         <v>823</v>
       </c>
       <c r="D95" s="1">
-        <v>194.18161691186972</v>
+        <v>194.18161010742188</v>
       </c>
       <c r="E95" t="s">
         <v>833</v>
@@ -48442,7 +48442,7 @@
         <v>823</v>
       </c>
       <c r="D96" s="1">
-        <v>205.43424657534246</v>
+        <v>205.43424987792969</v>
       </c>
       <c r="E96" t="s">
         <v>833</v>
@@ -48459,7 +48459,7 @@
         <v>823</v>
       </c>
       <c r="D97" s="1">
-        <v>209.28161499639509</v>
+        <v>209.2816162109375</v>
       </c>
       <c r="E97" t="s">
         <v>833</v>
@@ -48476,7 +48476,7 @@
         <v>823</v>
       </c>
       <c r="D98" s="1">
-        <v>200.19867597846647</v>
+        <v>200.19866943359375</v>
       </c>
       <c r="E98" t="s">
         <v>833</v>
@@ -48493,7 +48493,7 @@
         <v>823</v>
       </c>
       <c r="D99" s="1">
-        <v>209.26652467685076</v>
+        <v>209.26652526855469</v>
       </c>
       <c r="E99" t="s">
         <v>833</v>
@@ -48510,7 +48510,7 @@
         <v>823</v>
       </c>
       <c r="D100" s="1">
-        <v>208.24453411592077</v>
+        <v>208.24453735351563</v>
       </c>
       <c r="E100" t="s">
         <v>833</v>
@@ -48527,7 +48527,7 @@
         <v>823</v>
       </c>
       <c r="D101" s="1">
-        <v>200.11442970429113</v>
+        <v>200.11442565917969</v>
       </c>
       <c r="E101" t="s">
         <v>833</v>
@@ -48544,7 +48544,7 @@
         <v>823</v>
       </c>
       <c r="D102" s="1">
-        <v>208.89598595848597</v>
+        <v>208.89598083496094</v>
       </c>
       <c r="E102" t="s">
         <v>833</v>
@@ -48561,7 +48561,7 @@
         <v>823</v>
       </c>
       <c r="D103" s="1">
-        <v>200.33312921004287</v>
+        <v>200.3331298828125</v>
       </c>
       <c r="E103" t="s">
         <v>833</v>
@@ -48578,7 +48578,7 @@
         <v>823</v>
       </c>
       <c r="D104" s="1">
-        <v>193.43079315707621</v>
+        <v>193.4307861328125</v>
       </c>
       <c r="E104" t="s">
         <v>833</v>
@@ -48595,7 +48595,7 @@
         <v>823</v>
       </c>
       <c r="D105" s="1">
-        <v>204.1257251847731</v>
+        <v>204.125732421875</v>
       </c>
       <c r="E105" t="s">
         <v>833</v>
@@ -48612,7 +48612,7 @@
         <v>823</v>
       </c>
       <c r="D106" s="1">
-        <v>188.44129392971246</v>
+        <v>188.44129943847656</v>
       </c>
       <c r="E106" t="s">
         <v>833</v>
@@ -48629,7 +48629,7 @@
         <v>823</v>
       </c>
       <c r="D107" s="1">
-        <v>199.71033490528336</v>
+        <v>199.71034240722656</v>
       </c>
       <c r="E107" t="s">
         <v>833</v>
@@ -48646,7 +48646,7 @@
         <v>823</v>
       </c>
       <c r="D108" s="1">
-        <v>201.01643136316503</v>
+        <v>201.01643371582031</v>
       </c>
       <c r="E108" t="s">
         <v>833</v>
@@ -48663,7 +48663,7 @@
         <v>823</v>
       </c>
       <c r="D109" s="1">
-        <v>204.11813446969697</v>
+        <v>204.11813354492188</v>
       </c>
       <c r="E109" t="s">
         <v>833</v>
@@ -48680,7 +48680,7 @@
         <v>823</v>
       </c>
       <c r="D110" s="1">
-        <v>199.38968278894473</v>
+        <v>199.38967895507813</v>
       </c>
       <c r="E110" t="s">
         <v>833</v>
@@ -48697,7 +48697,7 @@
         <v>823</v>
       </c>
       <c r="D111" s="1">
-        <v>208.34473497116676</v>
+        <v>208.34474182128906</v>
       </c>
       <c r="E111" t="s">
         <v>833</v>
@@ -48714,7 +48714,7 @@
         <v>823</v>
       </c>
       <c r="D112" s="1">
-        <v>204.27129262490087</v>
+        <v>204.27128601074219</v>
       </c>
       <c r="E112" t="s">
         <v>833</v>
@@ -48731,7 +48731,7 @@
         <v>823</v>
       </c>
       <c r="D113" s="1">
-        <v>203.89047123769902</v>
+        <v>203.89047241210938</v>
       </c>
       <c r="E113" t="s">
         <v>833</v>
@@ -48748,7 +48748,7 @@
         <v>823</v>
       </c>
       <c r="D114" s="1">
-        <v>211.29950273090404</v>
+        <v>211.29949951171875</v>
       </c>
       <c r="E114" t="s">
         <v>833</v>
@@ -48765,7 +48765,7 @@
         <v>823</v>
       </c>
       <c r="D115" s="1">
-        <v>197.49093233202845</v>
+        <v>197.49093627929688</v>
       </c>
       <c r="E115" t="s">
         <v>833</v>
@@ -48782,7 +48782,7 @@
         <v>823</v>
       </c>
       <c r="D116" s="1">
-        <v>198.14967657414232</v>
+        <v>198.14967346191406</v>
       </c>
       <c r="E116" t="s">
         <v>833</v>
@@ -48799,7 +48799,7 @@
         <v>823</v>
       </c>
       <c r="D117" s="1">
-        <v>202.95831317529431</v>
+        <v>202.95831298828125</v>
       </c>
       <c r="E117" t="s">
         <v>833</v>
@@ -48816,7 +48816,7 @@
         <v>823</v>
       </c>
       <c r="D118" s="1">
-        <v>189.64970678120096</v>
+        <v>189.64970397949219</v>
       </c>
       <c r="E118" t="s">
         <v>833</v>
@@ -48833,7 +48833,7 @@
         <v>823</v>
       </c>
       <c r="D119" s="1">
-        <v>199.32932537120723</v>
+        <v>199.32933044433594</v>
       </c>
       <c r="E119" t="s">
         <v>833</v>
@@ -48850,7 +48850,7 @@
         <v>823</v>
       </c>
       <c r="D120" s="1">
-        <v>202.81613162118779</v>
+        <v>202.81613159179688</v>
       </c>
       <c r="E120" t="s">
         <v>833</v>
@@ -48867,7 +48867,7 @@
         <v>823</v>
       </c>
       <c r="D121" s="1">
-        <v>199.84943944418129</v>
+        <v>199.84944152832031</v>
       </c>
       <c r="E121" t="s">
         <v>833</v>
@@ -48884,7 +48884,7 @@
         <v>823</v>
       </c>
       <c r="D122" s="1">
-        <v>201.6310764579521</v>
+        <v>201.63107299804688</v>
       </c>
       <c r="E122" t="s">
         <v>833</v>
@@ -48901,7 +48901,7 @@
         <v>823</v>
       </c>
       <c r="D123" s="1">
-        <v>208.84014691791759</v>
+        <v>208.84014892578125</v>
       </c>
       <c r="E123" t="s">
         <v>833</v>
@@ -48918,7 +48918,7 @@
         <v>823</v>
       </c>
       <c r="D124" s="1">
-        <v>202.17637820009423</v>
+        <v>202.17637634277344</v>
       </c>
       <c r="E124" t="s">
         <v>833</v>
@@ -48935,7 +48935,7 @@
         <v>823</v>
       </c>
       <c r="D125" s="1">
-        <v>198.47415514899737</v>
+        <v>198.47415161132813</v>
       </c>
       <c r="E125" t="s">
         <v>833</v>
@@ -48952,7 +48952,7 @@
         <v>823</v>
       </c>
       <c r="D126" s="1">
-        <v>208.40461501482253</v>
+        <v>208.40461730957031</v>
       </c>
       <c r="E126" t="s">
         <v>833</v>
@@ -48969,7 +48969,7 @@
         <v>823</v>
       </c>
       <c r="D127" s="1">
-        <v>191.849606918239</v>
+        <v>191.849609375</v>
       </c>
       <c r="E127" t="s">
         <v>833</v>
@@ -48986,7 +48986,7 @@
         <v>823</v>
       </c>
       <c r="D128" s="1">
-        <v>195.61753082516597</v>
+        <v>195.61753845214844</v>
       </c>
       <c r="E128" t="s">
         <v>833</v>
@@ -49003,7 +49003,7 @@
         <v>823</v>
       </c>
       <c r="D129" s="1">
-        <v>200.35922253698459</v>
+        <v>200.35922241210938</v>
       </c>
       <c r="E129" t="s">
         <v>833</v>
@@ -49020,7 +49020,7 @@
         <v>823</v>
       </c>
       <c r="D130" s="1">
-        <v>194.44204685573365</v>
+        <v>194.44204711914063</v>
       </c>
       <c r="E130" t="s">
         <v>833</v>
@@ -49037,7 +49037,7 @@
         <v>823</v>
       </c>
       <c r="D131" s="1">
-        <v>198.94898115520147</v>
+        <v>198.948974609375</v>
       </c>
       <c r="E131" t="s">
         <v>833</v>
@@ -49054,7 +49054,7 @@
         <v>823</v>
       </c>
       <c r="D132" s="1">
-        <v>200.93413855970829</v>
+        <v>200.93414306640625</v>
       </c>
       <c r="E132" t="s">
         <v>833</v>
@@ -49071,7 +49071,7 @@
         <v>823</v>
       </c>
       <c r="D133" s="1">
-        <v>202.97276647250169</v>
+        <v>202.97276306152344</v>
       </c>
       <c r="E133" t="s">
         <v>833</v>
@@ -49088,7 +49088,7 @@
         <v>823</v>
       </c>
       <c r="D134" s="1">
-        <v>200.75245608812148</v>
+        <v>200.75245666503906</v>
       </c>
       <c r="E134" t="s">
         <v>833</v>
@@ -49105,7 +49105,7 @@
         <v>823</v>
       </c>
       <c r="D135" s="1">
-        <v>203.96461630337413</v>
+        <v>203.96461486816406</v>
       </c>
       <c r="E135" t="s">
         <v>833</v>
@@ -49122,7 +49122,7 @@
         <v>823</v>
       </c>
       <c r="D136" s="1">
-        <v>204.90628478147957</v>
+        <v>204.90628051757813</v>
       </c>
       <c r="E136" t="s">
         <v>833</v>
@@ -49139,7 +49139,7 @@
         <v>823</v>
       </c>
       <c r="D137" s="1">
-        <v>197.18524541691306</v>
+        <v>197.18524169921875</v>
       </c>
       <c r="E137" t="s">
         <v>833</v>
@@ -49156,7 +49156,7 @@
         <v>823</v>
       </c>
       <c r="D138" s="1">
-        <v>201.33406193078324</v>
+        <v>201.33406066894531</v>
       </c>
       <c r="E138" t="s">
         <v>833</v>
@@ -49173,7 +49173,7 @@
         <v>823</v>
       </c>
       <c r="D139" s="1">
-        <v>194.55671160609614</v>
+        <v>194.55671691894531</v>
       </c>
       <c r="E139" t="s">
         <v>833</v>
@@ -49190,7 +49190,7 @@
         <v>823</v>
       </c>
       <c r="D140" s="1">
-        <v>193.53651706094774</v>
+        <v>193.53651428222656</v>
       </c>
       <c r="E140" t="s">
         <v>833</v>
@@ -49207,7 +49207,7 @@
         <v>823</v>
       </c>
       <c r="D141" s="1">
-        <v>202.58800205595125</v>
+        <v>202.58799743652344</v>
       </c>
       <c r="E141" t="s">
         <v>833</v>
@@ -49224,7 +49224,7 @@
         <v>823</v>
       </c>
       <c r="D142" s="1">
-        <v>183.74801178203239</v>
+        <v>183.74801635742188</v>
       </c>
       <c r="E142" t="s">
         <v>833</v>
@@ -49241,7 +49241,7 @@
         <v>823</v>
       </c>
       <c r="D143" s="1">
-        <v>197.79705496428051</v>
+        <v>197.79705810546875</v>
       </c>
       <c r="E143" t="s">
         <v>833</v>
@@ -49258,7 +49258,7 @@
         <v>823</v>
       </c>
       <c r="D144" s="1">
-        <v>192.14106674438938</v>
+        <v>192.14106750488281</v>
       </c>
       <c r="E144" t="s">
         <v>833</v>
@@ -49275,7 +49275,7 @@
         <v>823</v>
       </c>
       <c r="D145" s="1">
-        <v>207.36817119485832</v>
+        <v>207.3681640625</v>
       </c>
       <c r="E145" t="s">
         <v>833</v>
@@ -49292,7 +49292,7 @@
         <v>823</v>
       </c>
       <c r="D146" s="1">
-        <v>206.27230115717006</v>
+        <v>206.27230834960938</v>
       </c>
       <c r="E146" t="s">
         <v>833</v>
@@ -49309,7 +49309,7 @@
         <v>823</v>
       </c>
       <c r="D147" s="1">
-        <v>201.10862690299331</v>
+        <v>201.10862731933594</v>
       </c>
       <c r="E147" t="s">
         <v>833</v>
@@ -49326,7 +49326,7 @@
         <v>823</v>
       </c>
       <c r="D148" s="1">
-        <v>210.02533313808757</v>
+        <v>210.02532958984375</v>
       </c>
       <c r="E148" t="s">
         <v>833</v>
@@ -49343,7 +49343,7 @@
         <v>823</v>
       </c>
       <c r="D149" s="1">
-        <v>198.49861313868612</v>
+        <v>198.49861145019531</v>
       </c>
       <c r="E149" t="s">
         <v>833</v>
@@ -49360,7 +49360,7 @@
         <v>823</v>
       </c>
       <c r="D150" s="1">
-        <v>204.47862058866599</v>
+        <v>204.47862243652344</v>
       </c>
       <c r="E150" t="s">
         <v>833</v>
@@ -49377,7 +49377,7 @@
         <v>823</v>
       </c>
       <c r="D151" s="1">
-        <v>202.22663551401868</v>
+        <v>202.22663879394531</v>
       </c>
       <c r="E151" t="s">
         <v>833</v>
@@ -49394,7 +49394,7 @@
         <v>823</v>
       </c>
       <c r="D152" s="1">
-        <v>195.28885771247138</v>
+        <v>195.28886413574219</v>
       </c>
       <c r="E152" t="s">
         <v>833</v>
@@ -49411,7 +49411,7 @@
         <v>823</v>
       </c>
       <c r="D153" s="1">
-        <v>205.79014261435012</v>
+        <v>205.79014587402344</v>
       </c>
       <c r="E153" t="s">
         <v>833</v>
@@ -49428,7 +49428,7 @@
         <v>823</v>
       </c>
       <c r="D154" s="1">
-        <v>187.81231585150266</v>
+        <v>187.81231689453125</v>
       </c>
       <c r="E154" t="s">
         <v>833</v>
@@ -49445,7 +49445,7 @@
         <v>823</v>
       </c>
       <c r="D155" s="1">
-        <v>197.1499255952381</v>
+        <v>197.14993286132813</v>
       </c>
       <c r="E155" t="s">
         <v>833</v>
@@ -49462,7 +49462,7 @@
         <v>823</v>
       </c>
       <c r="D156" s="1">
-        <v>199.76333555901772</v>
+        <v>199.76333618164063</v>
       </c>
       <c r="E156" t="s">
         <v>833</v>
@@ -49479,7 +49479,7 @@
         <v>823</v>
       </c>
       <c r="D157" s="1">
-        <v>209.47521822754845</v>
+        <v>209.4752197265625</v>
       </c>
       <c r="E157" t="s">
         <v>833</v>
@@ -49496,7 +49496,7 @@
         <v>823</v>
       </c>
       <c r="D158" s="1">
-        <v>202.86300965863009</v>
+        <v>202.86300659179688</v>
       </c>
       <c r="E158" t="s">
         <v>833</v>
@@ -49513,7 +49513,7 @@
         <v>823</v>
       </c>
       <c r="D159" s="1">
-        <v>201.20439949804384</v>
+        <v>201.20440673828125</v>
       </c>
       <c r="E159" t="s">
         <v>833</v>
@@ -49530,7 +49530,7 @@
         <v>823</v>
       </c>
       <c r="D160" s="1">
-        <v>207.80294836654568</v>
+        <v>207.80294799804688</v>
       </c>
       <c r="E160" t="s">
         <v>833</v>
@@ -49547,7 +49547,7 @@
         <v>823</v>
       </c>
       <c r="D161" s="1">
-        <v>197.76803856136448</v>
+        <v>197.76803588867188</v>
       </c>
       <c r="E161" t="s">
         <v>833</v>
@@ -49564,7 +49564,7 @@
         <v>823</v>
       </c>
       <c r="D162" s="1">
-        <v>210.68909495548962</v>
+        <v>210.68910217285156</v>
       </c>
       <c r="E162" t="s">
         <v>833</v>
@@ -49581,7 +49581,7 @@
         <v>823</v>
       </c>
       <c r="D163" s="1">
-        <v>201.148156424581</v>
+        <v>201.14816284179688</v>
       </c>
       <c r="E163" t="s">
         <v>833</v>
@@ -49598,7 +49598,7 @@
         <v>823</v>
       </c>
       <c r="D164" s="1">
-        <v>192.11128620741408</v>
+        <v>192.11128234863281</v>
       </c>
       <c r="E164" t="s">
         <v>833</v>
@@ -49615,7 +49615,7 @@
         <v>823</v>
       </c>
       <c r="D165" s="1">
-        <v>202.35997591630917</v>
+        <v>202.35997009277344</v>
       </c>
       <c r="E165" t="s">
         <v>833</v>
@@ -49632,7 +49632,7 @@
         <v>823</v>
       </c>
       <c r="D166" s="1">
-        <v>188.87690574539994</v>
+        <v>188.87690734863281</v>
       </c>
       <c r="E166" t="s">
         <v>833</v>
@@ -49649,7 +49649,7 @@
         <v>823</v>
       </c>
       <c r="D167" s="1">
-        <v>204.38146874065211</v>
+        <v>204.3814697265625</v>
       </c>
       <c r="E167" t="s">
         <v>833</v>
@@ -49666,7 +49666,7 @@
         <v>823</v>
       </c>
       <c r="D168" s="1">
-        <v>191.54379239162489</v>
+        <v>191.54379272460938</v>
       </c>
       <c r="E168" t="s">
         <v>833</v>
@@ -49683,7 +49683,7 @@
         <v>823</v>
       </c>
       <c r="D169" s="1">
-        <v>205.08945309616945</v>
+        <v>205.08944702148438</v>
       </c>
       <c r="E169" t="s">
         <v>833</v>
@@ -49700,7 +49700,7 @@
         <v>823</v>
       </c>
       <c r="D170" s="1">
-        <v>198.73851099583547</v>
+        <v>198.73851013183594</v>
       </c>
       <c r="E170" t="s">
         <v>833</v>
@@ -49717,7 +49717,7 @@
         <v>823</v>
       </c>
       <c r="D171" s="1">
-        <v>212.43689675343668</v>
+        <v>212.4368896484375</v>
       </c>
       <c r="E171" t="s">
         <v>833</v>
@@ -49734,7 +49734,7 @@
         <v>823</v>
       </c>
       <c r="D172" s="1">
-        <v>211.79240172754558</v>
+        <v>211.79240417480469</v>
       </c>
       <c r="E172" t="s">
         <v>833</v>
@@ -49751,7 +49751,7 @@
         <v>823</v>
       </c>
       <c r="D173" s="1">
-        <v>194.40775993606044</v>
+        <v>194.40776062011719</v>
       </c>
       <c r="E173" t="s">
         <v>833</v>
@@ -49768,7 +49768,7 @@
         <v>823</v>
       </c>
       <c r="D174" s="1">
-        <v>214.76665221788758</v>
+        <v>214.76664733886719</v>
       </c>
       <c r="E174" t="s">
         <v>833</v>
@@ -49785,7 +49785,7 @@
         <v>823</v>
       </c>
       <c r="D175" s="1">
-        <v>202.33613080596152</v>
+        <v>202.33613586425781</v>
       </c>
       <c r="E175" t="s">
         <v>833</v>
@@ -49802,7 +49802,7 @@
         <v>823</v>
       </c>
       <c r="D176" s="1">
-        <v>196.39716567153442</v>
+        <v>196.39717102050781</v>
       </c>
       <c r="E176" t="s">
         <v>833</v>
@@ -49819,7 +49819,7 @@
         <v>823</v>
       </c>
       <c r="D177" s="1">
-        <v>200.92636887608069</v>
+        <v>200.92637634277344</v>
       </c>
       <c r="E177" t="s">
         <v>833</v>
@@ -49836,7 +49836,7 @@
         <v>823</v>
       </c>
       <c r="D178" s="1">
-        <v>194.70150119660599</v>
+        <v>194.70150756835938</v>
       </c>
       <c r="E178" t="s">
         <v>833</v>
@@ -49853,7 +49853,7 @@
         <v>823</v>
       </c>
       <c r="D179" s="1">
-        <v>205.5211196296832</v>
+        <v>205.5211181640625</v>
       </c>
       <c r="E179" t="s">
         <v>833</v>
@@ -49870,7 +49870,7 @@
         <v>823</v>
       </c>
       <c r="D180" s="1">
-        <v>175.09862401844248</v>
+        <v>175.09861755371094</v>
       </c>
       <c r="E180" t="s">
         <v>833</v>
@@ -49887,7 +49887,7 @@
         <v>823</v>
       </c>
       <c r="D181" s="1">
-        <v>169.9867617107943</v>
+        <v>169.98675537109375</v>
       </c>
       <c r="E181" t="s">
         <v>833</v>
@@ -49904,7 +49904,7 @@
         <v>823</v>
       </c>
       <c r="D182" s="1">
-        <v>177.43942699243746</v>
+        <v>177.43942260742188</v>
       </c>
       <c r="E182" t="s">
         <v>833</v>
@@ -49921,7 +49921,7 @@
         <v>823</v>
       </c>
       <c r="D183" s="1">
-        <v>188.41021728072087</v>
+        <v>188.41021728515625</v>
       </c>
       <c r="E183" t="s">
         <v>833</v>
@@ -53032,7 +53032,7 @@
         <v>826</v>
       </c>
       <c r="D366" s="1">
-        <v>1322.7658935604857</v>
+        <v>1322.765869140625</v>
       </c>
       <c r="E366" t="s">
         <v>836</v>
@@ -53049,7 +53049,7 @@
         <v>826</v>
       </c>
       <c r="D367" s="1">
-        <v>1500.7820684593446</v>
+        <v>1500.7821044921875</v>
       </c>
       <c r="E367" t="s">
         <v>836</v>
@@ -53066,7 +53066,7 @@
         <v>826</v>
       </c>
       <c r="D368" s="1">
-        <v>1477.1937438708385</v>
+        <v>1477.1937255859375</v>
       </c>
       <c r="E368" t="s">
         <v>836</v>
@@ -53083,7 +53083,7 @@
         <v>826</v>
       </c>
       <c r="D369" s="1">
-        <v>1587.8801392002008</v>
+        <v>1587.880126953125</v>
       </c>
       <c r="E369" t="s">
         <v>836</v>
@@ -53100,7 +53100,7 @@
         <v>826</v>
       </c>
       <c r="D370" s="1">
-        <v>1588.5479307316466</v>
+        <v>1588.5479736328125</v>
       </c>
       <c r="E370" t="s">
         <v>836</v>
@@ -53117,7 +53117,7 @@
         <v>826</v>
       </c>
       <c r="D371" s="1">
-        <v>1618.3179412315517</v>
+        <v>1618.3179931640625</v>
       </c>
       <c r="E371" t="s">
         <v>836</v>
@@ -53134,7 +53134,7 @@
         <v>826</v>
       </c>
       <c r="D372" s="1">
-        <v>1683.5560111533227</v>
+        <v>1683.5560302734375</v>
       </c>
       <c r="E372" t="s">
         <v>836</v>
@@ -53151,7 +53151,7 @@
         <v>826</v>
       </c>
       <c r="D373" s="1">
-        <v>1703.8461599777781</v>
+        <v>1703.84619140625</v>
       </c>
       <c r="E373" t="s">
         <v>836</v>
@@ -53168,7 +53168,7 @@
         <v>826</v>
       </c>
       <c r="D374" s="1">
-        <v>1674.9017864099808</v>
+        <v>1674.9017333984375</v>
       </c>
       <c r="E374" t="s">
         <v>836</v>
@@ -53185,7 +53185,7 @@
         <v>826</v>
       </c>
       <c r="D375" s="1">
-        <v>1886.429660241344</v>
+        <v>1886.4296875</v>
       </c>
       <c r="E375" t="s">
         <v>836</v>
@@ -53202,7 +53202,7 @@
         <v>826</v>
       </c>
       <c r="D376" s="1">
-        <v>2176.1387218604955</v>
+        <v>2176.138671875</v>
       </c>
       <c r="E376" t="s">
         <v>836</v>
@@ -53219,7 +53219,7 @@
         <v>826</v>
       </c>
       <c r="D377" s="1">
-        <v>2110.1850422238908</v>
+        <v>2110.18505859375</v>
       </c>
       <c r="E377" t="s">
         <v>836</v>
@@ -53236,7 +53236,7 @@
         <v>826</v>
       </c>
       <c r="D378" s="1">
-        <v>1740.5582261905663</v>
+        <v>1740.5582275390625</v>
       </c>
       <c r="E378" t="s">
         <v>836</v>
@@ -53253,7 +53253,7 @@
         <v>826</v>
       </c>
       <c r="D379" s="1">
-        <v>1817.8704143773616</v>
+        <v>1817.870361328125</v>
       </c>
       <c r="E379" t="s">
         <v>836</v>
@@ -53270,7 +53270,7 @@
         <v>826</v>
       </c>
       <c r="D380" s="1">
-        <v>2108.5473214534823</v>
+        <v>2108.54736328125</v>
       </c>
       <c r="E380" t="s">
         <v>836</v>
@@ -53287,7 +53287,7 @@
         <v>826</v>
       </c>
       <c r="D381" s="1">
-        <v>2161.8511466744681</v>
+        <v>2161.85107421875</v>
       </c>
       <c r="E381" t="s">
         <v>836</v>
@@ -53304,7 +53304,7 @@
         <v>826</v>
       </c>
       <c r="D382" s="1">
-        <v>2304.3950997812904</v>
+        <v>2304.39501953125</v>
       </c>
       <c r="E382" t="s">
         <v>836</v>
@@ -53321,7 +53321,7 @@
         <v>826</v>
       </c>
       <c r="D383" s="1">
-        <v>2261.2554606480094</v>
+        <v>2261.25537109375</v>
       </c>
       <c r="E383" t="s">
         <v>836</v>
@@ -53338,7 +53338,7 @@
         <v>826</v>
       </c>
       <c r="D384" s="1">
-        <v>2058.333977503255</v>
+        <v>2058.333984375</v>
       </c>
       <c r="E384" t="s">
         <v>836</v>
@@ -53355,7 +53355,7 @@
         <v>826</v>
       </c>
       <c r="D385" s="1">
-        <v>2030.1503987342401</v>
+        <v>2030.150390625</v>
       </c>
       <c r="E385" t="s">
         <v>836</v>
@@ -53372,7 +53372,7 @@
         <v>826</v>
       </c>
       <c r="D386" s="1">
-        <v>2259.1381096220944</v>
+        <v>2259.13818359375</v>
       </c>
       <c r="E386" t="s">
         <v>836</v>
@@ -53389,7 +53389,7 @@
         <v>826</v>
       </c>
       <c r="D387" s="1">
-        <v>2385.7007605025287</v>
+        <v>2385.70068359375</v>
       </c>
       <c r="E387" t="s">
         <v>836</v>
@@ -53406,7 +53406,7 @@
         <v>826</v>
       </c>
       <c r="D388" s="1">
-        <v>2440.8570659923512</v>
+        <v>2440.857177734375</v>
       </c>
       <c r="E388" t="s">
         <v>836</v>
@@ -53423,7 +53423,7 @@
         <v>826</v>
       </c>
       <c r="D389" s="1">
-        <v>2572.7603324169868</v>
+        <v>2572.76025390625</v>
       </c>
       <c r="E389" t="s">
         <v>836</v>
@@ -53440,7 +53440,7 @@
         <v>826</v>
       </c>
       <c r="D390" s="1">
-        <v>1782.1575341628463</v>
+        <v>1782.1575927734375</v>
       </c>
       <c r="E390" t="s">
         <v>836</v>
@@ -53457,7 +53457,7 @@
         <v>826</v>
       </c>
       <c r="D391" s="1">
-        <v>1911.7696497658985</v>
+        <v>1911.7696533203125</v>
       </c>
       <c r="E391" t="s">
         <v>836</v>
@@ -53474,7 +53474,7 @@
         <v>826</v>
       </c>
       <c r="D392" s="1">
-        <v>2183.1036532686344</v>
+        <v>2183.103759765625</v>
       </c>
       <c r="E392" t="s">
         <v>836</v>
@@ -53491,7 +53491,7 @@
         <v>826</v>
       </c>
       <c r="D393" s="1">
-        <v>2083.3181767249202</v>
+        <v>2083.318115234375</v>
       </c>
       <c r="E393" t="s">
         <v>836</v>
@@ -53508,7 +53508,7 @@
         <v>826</v>
       </c>
       <c r="D394" s="1">
-        <v>2202.4210204919145</v>
+        <v>2202.4208984375</v>
       </c>
       <c r="E394" t="s">
         <v>836</v>
@@ -53525,7 +53525,7 @@
         <v>826</v>
       </c>
       <c r="D395" s="1">
-        <v>2238.8548408005008</v>
+        <v>2238.854736328125</v>
       </c>
       <c r="E395" t="s">
         <v>836</v>
@@ -53542,7 +53542,7 @@
         <v>826</v>
       </c>
       <c r="D396" s="1">
-        <v>2164.5376141778443</v>
+        <v>2164.53759765625</v>
       </c>
       <c r="E396" t="s">
         <v>836</v>
@@ -53559,7 +53559,7 @@
         <v>826</v>
       </c>
       <c r="D397" s="1">
-        <v>2303.813392464981</v>
+        <v>2303.8134765625</v>
       </c>
       <c r="E397" t="s">
         <v>836</v>
@@ -53576,7 +53576,7 @@
         <v>826</v>
       </c>
       <c r="D398" s="1">
-        <v>2366.8857161473748</v>
+        <v>2366.8857421875</v>
       </c>
       <c r="E398" t="s">
         <v>836</v>
@@ -53593,7 +53593,7 @@
         <v>826</v>
       </c>
       <c r="D399" s="1">
-        <v>2361.735987139964</v>
+        <v>2361.736083984375</v>
       </c>
       <c r="E399" t="s">
         <v>836</v>
@@ -53610,7 +53610,7 @@
         <v>826</v>
       </c>
       <c r="D400" s="1">
-        <v>2498.6768309154222</v>
+        <v>2498.6767578125</v>
       </c>
       <c r="E400" t="s">
         <v>836</v>
@@ -53627,7 +53627,7 @@
         <v>826</v>
       </c>
       <c r="D401" s="1">
-        <v>2386.9005367318782</v>
+        <v>2386.900634765625</v>
       </c>
       <c r="E401" t="s">
         <v>836</v>
@@ -53644,7 +53644,7 @@
         <v>826</v>
       </c>
       <c r="D402" s="1">
-        <v>1717.9946386104968</v>
+        <v>1717.99462890625</v>
       </c>
       <c r="E402" t="s">
         <v>836</v>
@@ -53661,7 +53661,7 @@
         <v>826</v>
       </c>
       <c r="D403" s="1">
-        <v>1836.3234072277965</v>
+        <v>1836.3233642578125</v>
       </c>
       <c r="E403" t="s">
         <v>836</v>
@@ -53678,7 +53678,7 @@
         <v>826</v>
       </c>
       <c r="D404" s="1">
-        <v>2104.0282567774939</v>
+        <v>2104.0283203125</v>
       </c>
       <c r="E404" t="s">
         <v>836</v>
@@ -53695,7 +53695,7 @@
         <v>826</v>
       </c>
       <c r="D405" s="1">
-        <v>2059.3267503341549</v>
+        <v>2059.32666015625</v>
       </c>
       <c r="E405" t="s">
         <v>836</v>
@@ -53712,7 +53712,7 @@
         <v>826</v>
       </c>
       <c r="D406" s="1">
-        <v>2156.2463776680579</v>
+        <v>2156.246337890625</v>
       </c>
       <c r="E406" t="s">
         <v>836</v>
@@ -53729,7 +53729,7 @@
         <v>826</v>
       </c>
       <c r="D407" s="1">
-        <v>2007.4779044581976</v>
+        <v>2007.4779052734375</v>
       </c>
       <c r="E407" t="s">
         <v>836</v>
@@ -53746,7 +53746,7 @@
         <v>826</v>
       </c>
       <c r="D408" s="1">
-        <v>1950.0437530624574</v>
+        <v>1950.043701171875</v>
       </c>
       <c r="E408" t="s">
         <v>836</v>
@@ -53763,7 +53763,7 @@
         <v>826</v>
       </c>
       <c r="D409" s="1">
-        <v>2115.7207430915155</v>
+        <v>2115.720703125</v>
       </c>
       <c r="E409" t="s">
         <v>836</v>
@@ -53780,7 +53780,7 @@
         <v>826</v>
       </c>
       <c r="D410" s="1">
-        <v>2121.4376838233939</v>
+        <v>2121.437744140625</v>
       </c>
       <c r="E410" t="s">
         <v>836</v>
@@ -53797,7 +53797,7 @@
         <v>826</v>
       </c>
       <c r="D411" s="1">
-        <v>2205.6311528645642</v>
+        <v>2205.631103515625</v>
       </c>
       <c r="E411" t="s">
         <v>836</v>
@@ -53814,7 +53814,7 @@
         <v>826</v>
       </c>
       <c r="D412" s="1">
-        <v>2425.1752215067163</v>
+        <v>2425.17529296875</v>
       </c>
       <c r="E412" t="s">
         <v>836</v>
@@ -53831,7 +53831,7 @@
         <v>826</v>
       </c>
       <c r="D413" s="1">
-        <v>2208.1407166927688</v>
+        <v>2208.140625</v>
       </c>
       <c r="E413" t="s">
         <v>836</v>
@@ -53848,7 +53848,7 @@
         <v>826</v>
       </c>
       <c r="D414" s="1">
-        <v>1424.0725364045061</v>
+        <v>1424.072509765625</v>
       </c>
       <c r="E414" t="s">
         <v>836</v>
@@ -53865,7 +53865,7 @@
         <v>826</v>
       </c>
       <c r="D415" s="1">
-        <v>1984.544448555971</v>
+        <v>1984.54443359375</v>
       </c>
       <c r="E415" t="s">
         <v>836</v>
@@ -53882,7 +53882,7 @@
         <v>826</v>
       </c>
       <c r="D416" s="1">
-        <v>2110.6609522738736</v>
+        <v>2110.660888671875</v>
       </c>
       <c r="E416" t="s">
         <v>836</v>
@@ -53899,7 +53899,7 @@
         <v>826</v>
       </c>
       <c r="D417" s="1">
-        <v>1968.2283739867078</v>
+        <v>1968.2283935546875</v>
       </c>
       <c r="E417" t="s">
         <v>836</v>
@@ -53916,7 +53916,7 @@
         <v>826</v>
       </c>
       <c r="D418" s="1">
-        <v>2102.252459226494</v>
+        <v>2102.25244140625</v>
       </c>
       <c r="E418" t="s">
         <v>836</v>
@@ -53933,7 +53933,7 @@
         <v>826</v>
       </c>
       <c r="D419" s="1">
-        <v>2094.9160156713833</v>
+        <v>2094.916015625</v>
       </c>
       <c r="E419" t="s">
         <v>836</v>
@@ -53950,7 +53950,7 @@
         <v>826</v>
       </c>
       <c r="D420" s="1">
-        <v>2142.7270252996655</v>
+        <v>2142.72705078125</v>
       </c>
       <c r="E420" t="s">
         <v>836</v>
@@ -53967,7 +53967,7 @@
         <v>826</v>
       </c>
       <c r="D421" s="1">
-        <v>2231.7057534291203</v>
+        <v>2231.705810546875</v>
       </c>
       <c r="E421" t="s">
         <v>836</v>
@@ -53984,7 +53984,7 @@
         <v>826</v>
       </c>
       <c r="D422" s="1">
-        <v>2235.2990162260839</v>
+        <v>2235.299072265625</v>
       </c>
       <c r="E422" t="s">
         <v>836</v>
@@ -54001,7 +54001,7 @@
         <v>826</v>
       </c>
       <c r="D423" s="1">
-        <v>2471.0095516306724</v>
+        <v>2471.009521484375</v>
       </c>
       <c r="E423" t="s">
         <v>836</v>
@@ -54018,7 +54018,7 @@
         <v>826</v>
       </c>
       <c r="D424" s="1">
-        <v>2516.9486876328265</v>
+        <v>2516.94873046875</v>
       </c>
       <c r="E424" t="s">
         <v>836</v>
@@ -54035,7 +54035,7 @@
         <v>826</v>
       </c>
       <c r="D425" s="1">
-        <v>2273.1577821166038</v>
+        <v>2273.15771484375</v>
       </c>
       <c r="E425" t="s">
         <v>836</v>
@@ -54052,7 +54052,7 @@
         <v>826</v>
       </c>
       <c r="D426" s="1">
-        <v>1608.0682094421982</v>
+        <v>1608.0682373046875</v>
       </c>
       <c r="E426" t="s">
         <v>836</v>
@@ -54069,7 +54069,7 @@
         <v>826</v>
       </c>
       <c r="D427" s="1">
-        <v>1866.6747136849635</v>
+        <v>1866.6746826171875</v>
       </c>
       <c r="E427" t="s">
         <v>836</v>
@@ -54086,7 +54086,7 @@
         <v>826</v>
       </c>
       <c r="D428" s="1">
-        <v>2330.5091661176589</v>
+        <v>2330.50927734375</v>
       </c>
       <c r="E428" t="s">
         <v>836</v>
@@ -54103,7 +54103,7 @@
         <v>826</v>
       </c>
       <c r="D429" s="1">
-        <v>2267.4992609739288</v>
+        <v>2267.499267578125</v>
       </c>
       <c r="E429" t="s">
         <v>836</v>
@@ -54120,7 +54120,7 @@
         <v>826</v>
       </c>
       <c r="D430" s="1">
-        <v>2234.7200237605198</v>
+        <v>2234.719970703125</v>
       </c>
       <c r="E430" t="s">
         <v>836</v>
@@ -54137,7 +54137,7 @@
         <v>826</v>
       </c>
       <c r="D431" s="1">
-        <v>2206.8014843215906</v>
+        <v>2206.801513671875</v>
       </c>
       <c r="E431" t="s">
         <v>836</v>
@@ -54154,7 +54154,7 @@
         <v>826</v>
       </c>
       <c r="D432" s="1">
-        <v>2136.897727533586</v>
+        <v>2136.897705078125</v>
       </c>
       <c r="E432" t="s">
         <v>836</v>
@@ -54171,7 +54171,7 @@
         <v>826</v>
       </c>
       <c r="D433" s="1">
-        <v>2287.5383598386979</v>
+        <v>2287.538330078125</v>
       </c>
       <c r="E433" t="s">
         <v>836</v>
@@ -54188,7 +54188,7 @@
         <v>826</v>
       </c>
       <c r="D434" s="1">
-        <v>2371.4552978080951</v>
+        <v>2371.455322265625</v>
       </c>
       <c r="E434" t="s">
         <v>836</v>
@@ -54205,7 +54205,7 @@
         <v>826</v>
       </c>
       <c r="D435" s="1">
-        <v>2465.6078752839571</v>
+        <v>2465.60791015625</v>
       </c>
       <c r="E435" t="s">
         <v>836</v>
@@ -54222,7 +54222,7 @@
         <v>826</v>
       </c>
       <c r="D436" s="1">
-        <v>2545.7562494399617</v>
+        <v>2545.75634765625</v>
       </c>
       <c r="E436" t="s">
         <v>836</v>
@@ -54239,7 +54239,7 @@
         <v>826</v>
       </c>
       <c r="D437" s="1">
-        <v>2311.8974883520905</v>
+        <v>2311.8974609375</v>
       </c>
       <c r="E437" t="s">
         <v>836</v>
@@ -54256,7 +54256,7 @@
         <v>826</v>
       </c>
       <c r="D438" s="1">
-        <v>1869.6913308237204</v>
+        <v>1869.6912841796875</v>
       </c>
       <c r="E438" t="s">
         <v>836</v>
@@ -54273,7 +54273,7 @@
         <v>826</v>
       </c>
       <c r="D439" s="1">
-        <v>2384.1937869743269</v>
+        <v>2384.19384765625</v>
       </c>
       <c r="E439" t="s">
         <v>836</v>
@@ -54290,7 +54290,7 @@
         <v>826</v>
       </c>
       <c r="D440" s="1">
-        <v>2206.2226712722418</v>
+        <v>2206.22265625</v>
       </c>
       <c r="E440" t="s">
         <v>836</v>
@@ -54307,7 +54307,7 @@
         <v>826</v>
       </c>
       <c r="D441" s="1">
-        <v>2459.6990721053353</v>
+        <v>2459.698974609375</v>
       </c>
       <c r="E441" t="s">
         <v>836</v>
@@ -54324,7 +54324,7 @@
         <v>826</v>
       </c>
       <c r="D442" s="1">
-        <v>2518.440707658111</v>
+        <v>2518.440673828125</v>
       </c>
       <c r="E442" t="s">
         <v>836</v>
@@ -54341,7 +54341,7 @@
         <v>826</v>
       </c>
       <c r="D443" s="1">
-        <v>2639.0145638057766</v>
+        <v>2639.0146484375</v>
       </c>
       <c r="E443" t="s">
         <v>836</v>
@@ -54358,7 +54358,7 @@
         <v>826</v>
       </c>
       <c r="D444" s="1">
-        <v>2408.5097272661874</v>
+        <v>2408.509765625</v>
       </c>
       <c r="E444" t="s">
         <v>836</v>
@@ -54375,7 +54375,7 @@
         <v>826</v>
       </c>
       <c r="D445" s="1">
-        <v>2343.3099751764739</v>
+        <v>2343.31005859375</v>
       </c>
       <c r="E445" t="s">
         <v>836</v>
@@ -54392,7 +54392,7 @@
         <v>826</v>
       </c>
       <c r="D446" s="1">
-        <v>2672.9518775956344</v>
+        <v>2672.951904296875</v>
       </c>
       <c r="E446" t="s">
         <v>836</v>
@@ -54409,7 +54409,7 @@
         <v>826</v>
       </c>
       <c r="D447" s="1">
-        <v>2822.939699021907</v>
+        <v>2822.939697265625</v>
       </c>
       <c r="E447" t="s">
         <v>836</v>
@@ -54426,7 +54426,7 @@
         <v>826</v>
       </c>
       <c r="D448" s="1">
-        <v>2734.6378114516979</v>
+        <v>2734.6376953125</v>
       </c>
       <c r="E448" t="s">
         <v>836</v>
@@ -54443,7 +54443,7 @@
         <v>826</v>
       </c>
       <c r="D449" s="1">
-        <v>2425.0217884209424</v>
+        <v>2425.021728515625</v>
       </c>
       <c r="E449" t="s">
         <v>836</v>
@@ -54460,7 +54460,7 @@
         <v>826</v>
       </c>
       <c r="D450" s="1">
-        <v>1917.7954522068039</v>
+        <v>1917.79541015625</v>
       </c>
       <c r="E450" t="s">
         <v>836</v>
@@ -54477,7 +54477,7 @@
         <v>826</v>
       </c>
       <c r="D451" s="1">
-        <v>2344.116589887306</v>
+        <v>2344.11669921875</v>
       </c>
       <c r="E451" t="s">
         <v>836</v>
@@ -54494,7 +54494,7 @@
         <v>826</v>
       </c>
       <c r="D452" s="1">
-        <v>2203.8341570837342</v>
+        <v>2203.834228515625</v>
       </c>
       <c r="E452" t="s">
         <v>836</v>
@@ -54511,7 +54511,7 @@
         <v>826</v>
       </c>
       <c r="D453" s="1">
-        <v>2105.579718718689</v>
+        <v>2105.579833984375</v>
       </c>
       <c r="E453" t="s">
         <v>836</v>
@@ -54528,7 +54528,7 @@
         <v>826</v>
       </c>
       <c r="D454" s="1">
-        <v>1978.1268633961599</v>
+        <v>1978.1268310546875</v>
       </c>
       <c r="E454" t="s">
         <v>836</v>
@@ -54545,7 +54545,7 @@
         <v>826</v>
       </c>
       <c r="D455" s="1">
-        <v>2099.9087346270426</v>
+        <v>2099.90869140625</v>
       </c>
       <c r="E455" t="s">
         <v>836</v>
@@ -54562,7 +54562,7 @@
         <v>826</v>
       </c>
       <c r="D456" s="1">
-        <v>2673.6252634731218</v>
+        <v>2673.625244140625</v>
       </c>
       <c r="E456" t="s">
         <v>836</v>
@@ -54579,7 +54579,7 @@
         <v>827</v>
       </c>
       <c r="D457" s="1">
-        <v>271.93917300657495</v>
+        <v>271.93917846679688</v>
       </c>
       <c r="E457" t="s">
         <v>837</v>
@@ -54596,7 +54596,7 @@
         <v>827</v>
       </c>
       <c r="D458" s="1">
-        <v>285.77283474585448</v>
+        <v>285.77285766601563</v>
       </c>
       <c r="E458" t="s">
         <v>837</v>
@@ -54613,7 +54613,7 @@
         <v>827</v>
       </c>
       <c r="D459" s="1">
-        <v>286.84386967693774</v>
+        <v>286.8438720703125</v>
       </c>
       <c r="E459" t="s">
         <v>837</v>
@@ -54630,7 +54630,7 @@
         <v>827</v>
       </c>
       <c r="D460" s="1">
-        <v>326.20496004854317</v>
+        <v>326.2049560546875</v>
       </c>
       <c r="E460" t="s">
         <v>837</v>
@@ -54647,7 +54647,7 @@
         <v>827</v>
       </c>
       <c r="D461" s="1">
-        <v>332.45387644270056</v>
+        <v>332.45388793945313</v>
       </c>
       <c r="E461" t="s">
         <v>837</v>
@@ -54664,7 +54664,7 @@
         <v>827</v>
       </c>
       <c r="D462" s="1">
-        <v>323.98510914675438</v>
+        <v>323.985107421875</v>
       </c>
       <c r="E462" t="s">
         <v>837</v>
@@ -54681,7 +54681,7 @@
         <v>827</v>
       </c>
       <c r="D463" s="1">
-        <v>352.31191555287722</v>
+        <v>352.31192016601563</v>
       </c>
       <c r="E463" t="s">
         <v>837</v>
@@ -54698,7 +54698,7 @@
         <v>827</v>
       </c>
       <c r="D464" s="1">
-        <v>354.81664978977307</v>
+        <v>354.816650390625</v>
       </c>
       <c r="E464" t="s">
         <v>837</v>
@@ -54715,7 +54715,7 @@
         <v>827</v>
       </c>
       <c r="D465" s="1">
-        <v>335.17201579813172</v>
+        <v>335.17202758789063</v>
       </c>
       <c r="E465" t="s">
         <v>837</v>
@@ -54732,7 +54732,7 @@
         <v>827</v>
       </c>
       <c r="D466" s="1">
-        <v>394.0675838174472</v>
+        <v>394.06759643554688</v>
       </c>
       <c r="E466" t="s">
         <v>837</v>
@@ -54749,7 +54749,7 @@
         <v>827</v>
       </c>
       <c r="D467" s="1">
-        <v>435.95267974545612</v>
+        <v>435.95269775390625</v>
       </c>
       <c r="E467" t="s">
         <v>837</v>
@@ -54766,7 +54766,7 @@
         <v>827</v>
       </c>
       <c r="D468" s="1">
-        <v>408.17476642556551</v>
+        <v>408.17477416992188</v>
       </c>
       <c r="E468" t="s">
         <v>837</v>
@@ -54783,7 +54783,7 @@
         <v>827</v>
       </c>
       <c r="D469" s="1">
-        <v>355.29271014747167</v>
+        <v>355.292724609375</v>
       </c>
       <c r="E469" t="s">
         <v>837</v>
@@ -54800,7 +54800,7 @@
         <v>827</v>
       </c>
       <c r="D470" s="1">
-        <v>342.56185308181256</v>
+        <v>342.56182861328125</v>
       </c>
       <c r="E470" t="s">
         <v>837</v>
@@ -54817,7 +54817,7 @@
         <v>827</v>
       </c>
       <c r="D471" s="1">
-        <v>421.09869173111315</v>
+        <v>421.09869384765625</v>
       </c>
       <c r="E471" t="s">
         <v>837</v>
@@ -54834,7 +54834,7 @@
         <v>827</v>
       </c>
       <c r="D472" s="1">
-        <v>434.56760264286788</v>
+        <v>434.56759643554688</v>
       </c>
       <c r="E472" t="s">
         <v>837</v>
@@ -54851,7 +54851,7 @@
         <v>827</v>
       </c>
       <c r="D473" s="1">
-        <v>470.36882884846813</v>
+        <v>470.36883544921875</v>
       </c>
       <c r="E473" t="s">
         <v>837</v>
@@ -54868,7 +54868,7 @@
         <v>827</v>
       </c>
       <c r="D474" s="1">
-        <v>450.87100900337566</v>
+        <v>450.87100219726563</v>
       </c>
       <c r="E474" t="s">
         <v>837</v>
@@ -54885,7 +54885,7 @@
         <v>827</v>
       </c>
       <c r="D475" s="1">
-        <v>428.84304702506319</v>
+        <v>428.84304809570313</v>
       </c>
       <c r="E475" t="s">
         <v>837</v>
@@ -54902,7 +54902,7 @@
         <v>827</v>
       </c>
       <c r="D476" s="1">
-        <v>414.70144617240112</v>
+        <v>414.70144653320313</v>
       </c>
       <c r="E476" t="s">
         <v>837</v>
@@ -54919,7 +54919,7 @@
         <v>827</v>
       </c>
       <c r="D477" s="1">
-        <v>460.61673376189327</v>
+        <v>460.61672973632813</v>
       </c>
       <c r="E477" t="s">
         <v>837</v>
@@ -54936,7 +54936,7 @@
         <v>827</v>
       </c>
       <c r="D478" s="1">
-        <v>504.09738435892399</v>
+        <v>504.09738159179688</v>
       </c>
       <c r="E478" t="s">
         <v>837</v>
@@ -54953,7 +54953,7 @@
         <v>827</v>
       </c>
       <c r="D479" s="1">
-        <v>482.04713765204889</v>
+        <v>482.047119140625</v>
       </c>
       <c r="E479" t="s">
         <v>837</v>
@@ -54970,7 +54970,7 @@
         <v>827</v>
       </c>
       <c r="D480" s="1">
-        <v>509.79162777120882</v>
+        <v>509.7916259765625</v>
       </c>
       <c r="E480" t="s">
         <v>837</v>
@@ -54987,7 +54987,7 @@
         <v>827</v>
       </c>
       <c r="D481" s="1">
-        <v>361.70368694633322</v>
+        <v>361.70367431640625</v>
       </c>
       <c r="E481" t="s">
         <v>837</v>
@@ -55004,7 +55004,7 @@
         <v>827</v>
       </c>
       <c r="D482" s="1">
-        <v>362.56655351130189</v>
+        <v>362.56655883789063</v>
       </c>
       <c r="E482" t="s">
         <v>837</v>
@@ -55021,7 +55021,7 @@
         <v>827</v>
       </c>
       <c r="D483" s="1">
-        <v>435.15657842145481</v>
+        <v>435.15658569335938</v>
       </c>
       <c r="E483" t="s">
         <v>837</v>
@@ -55038,7 +55038,7 @@
         <v>827</v>
       </c>
       <c r="D484" s="1">
-        <v>422.53053353945438</v>
+        <v>422.530517578125</v>
       </c>
       <c r="E484" t="s">
         <v>837</v>
@@ -55055,7 +55055,7 @@
         <v>827</v>
       </c>
       <c r="D485" s="1">
-        <v>440.1526063653908</v>
+        <v>440.152587890625</v>
       </c>
       <c r="E485" t="s">
         <v>837</v>
@@ -55072,7 +55072,7 @@
         <v>827</v>
       </c>
       <c r="D486" s="1">
-        <v>451.42271158370193</v>
+        <v>451.4227294921875</v>
       </c>
       <c r="E486" t="s">
         <v>837</v>
@@ -55089,7 +55089,7 @@
         <v>827</v>
       </c>
       <c r="D487" s="1">
-        <v>452.04235335425977</v>
+        <v>452.0423583984375</v>
       </c>
       <c r="E487" t="s">
         <v>837</v>
@@ -55106,7 +55106,7 @@
         <v>827</v>
       </c>
       <c r="D488" s="1">
-        <v>465.77664773744215</v>
+        <v>465.77664184570313</v>
       </c>
       <c r="E488" t="s">
         <v>837</v>
@@ -55123,7 +55123,7 @@
         <v>827</v>
       </c>
       <c r="D489" s="1">
-        <v>469.76564284657979</v>
+        <v>469.76565551757813</v>
       </c>
       <c r="E489" t="s">
         <v>837</v>
@@ -55140,7 +55140,7 @@
         <v>827</v>
       </c>
       <c r="D490" s="1">
-        <v>492.19667916655607</v>
+        <v>492.19668579101563</v>
       </c>
       <c r="E490" t="s">
         <v>837</v>
@@ -55157,7 +55157,7 @@
         <v>827</v>
       </c>
       <c r="D491" s="1">
-        <v>479.37016782683492</v>
+        <v>479.37014770507813</v>
       </c>
       <c r="E491" t="s">
         <v>837</v>
@@ -55174,7 +55174,7 @@
         <v>827</v>
       </c>
       <c r="D492" s="1">
-        <v>466.9195893207534</v>
+        <v>466.91958618164063</v>
       </c>
       <c r="E492" t="s">
         <v>837</v>
@@ -55191,7 +55191,7 @@
         <v>827</v>
       </c>
       <c r="D493" s="1">
-        <v>344.21607011470695</v>
+        <v>344.216064453125</v>
       </c>
       <c r="E493" t="s">
         <v>837</v>
@@ -55208,7 +55208,7 @@
         <v>827</v>
       </c>
       <c r="D494" s="1">
-        <v>357.05848199046773</v>
+        <v>357.0584716796875</v>
       </c>
       <c r="E494" t="s">
         <v>837</v>
@@ -55225,7 +55225,7 @@
         <v>827</v>
       </c>
       <c r="D495" s="1">
-        <v>418.594278007637</v>
+        <v>418.59426879882813</v>
       </c>
       <c r="E495" t="s">
         <v>837</v>
@@ -55242,7 +55242,7 @@
         <v>827</v>
       </c>
       <c r="D496" s="1">
-        <v>413.78904659135685</v>
+        <v>413.78903198242188</v>
       </c>
       <c r="E496" t="s">
         <v>837</v>
@@ -55259,7 +55259,7 @@
         <v>827</v>
       </c>
       <c r="D497" s="1">
-        <v>437.65929247159647</v>
+        <v>437.65927124023438</v>
       </c>
       <c r="E497" t="s">
         <v>837</v>
@@ -55276,7 +55276,7 @@
         <v>827</v>
       </c>
       <c r="D498" s="1">
-        <v>403.00611986261845</v>
+        <v>403.00613403320313</v>
       </c>
       <c r="E498" t="s">
         <v>837</v>
@@ -55293,7 +55293,7 @@
         <v>827</v>
       </c>
       <c r="D499" s="1">
-        <v>397.73992586817582</v>
+        <v>397.73992919921875</v>
       </c>
       <c r="E499" t="s">
         <v>837</v>
@@ -55310,7 +55310,7 @@
         <v>827</v>
       </c>
       <c r="D500" s="1">
-        <v>433.52447710199363</v>
+        <v>433.52447509765625</v>
       </c>
       <c r="E500" t="s">
         <v>837</v>
@@ -55327,7 +55327,7 @@
         <v>827</v>
       </c>
       <c r="D501" s="1">
-        <v>418.31621032140356</v>
+        <v>418.31622314453125</v>
       </c>
       <c r="E501" t="s">
         <v>837</v>
@@ -55344,7 +55344,7 @@
         <v>827</v>
       </c>
       <c r="D502" s="1">
-        <v>444.06867912729905</v>
+        <v>444.06869506835938</v>
       </c>
       <c r="E502" t="s">
         <v>837</v>
@@ -55361,7 +55361,7 @@
         <v>827</v>
       </c>
       <c r="D503" s="1">
-        <v>471.83411616493248</v>
+        <v>471.83413696289063</v>
       </c>
       <c r="E503" t="s">
         <v>837</v>
@@ -55378,7 +55378,7 @@
         <v>827</v>
       </c>
       <c r="D504" s="1">
-        <v>427.35586348918343</v>
+        <v>427.35586547851563</v>
       </c>
       <c r="E504" t="s">
         <v>837</v>
@@ -55395,7 +55395,7 @@
         <v>827</v>
       </c>
       <c r="D505" s="1">
-        <v>288.5000099329398</v>
+        <v>288.5</v>
       </c>
       <c r="E505" t="s">
         <v>837</v>
@@ -55412,7 +55412,7 @@
         <v>827</v>
       </c>
       <c r="D506" s="1">
-        <v>364.65609671522958</v>
+        <v>364.65609741210938</v>
       </c>
       <c r="E506" t="s">
         <v>837</v>
@@ -55429,7 +55429,7 @@
         <v>827</v>
       </c>
       <c r="D507" s="1">
-        <v>417.48252038787604</v>
+        <v>417.4825439453125</v>
       </c>
       <c r="E507" t="s">
         <v>837</v>
@@ -55446,7 +55446,7 @@
         <v>827</v>
       </c>
       <c r="D508" s="1">
-        <v>378.17749937438106</v>
+        <v>378.177490234375</v>
       </c>
       <c r="E508" t="s">
         <v>837</v>
@@ -55463,7 +55463,7 @@
         <v>827</v>
       </c>
       <c r="D509" s="1">
-        <v>435.94024785969151</v>
+        <v>435.94024658203125</v>
       </c>
       <c r="E509" t="s">
         <v>837</v>
@@ -55480,7 +55480,7 @@
         <v>827</v>
       </c>
       <c r="D510" s="1">
-        <v>432.12314728354642</v>
+        <v>432.1231689453125</v>
       </c>
       <c r="E510" t="s">
         <v>837</v>
@@ -55497,7 +55497,7 @@
         <v>827</v>
       </c>
       <c r="D511" s="1">
-        <v>430.92088988595111</v>
+        <v>430.92086791992188</v>
       </c>
       <c r="E511" t="s">
         <v>837</v>
@@ -55514,7 +55514,7 @@
         <v>827</v>
       </c>
       <c r="D512" s="1">
-        <v>468.71474433013776</v>
+        <v>468.71475219726563</v>
       </c>
       <c r="E512" t="s">
         <v>837</v>
@@ -55531,7 +55531,7 @@
         <v>827</v>
       </c>
       <c r="D513" s="1">
-        <v>443.70375467114712</v>
+        <v>443.7037353515625</v>
       </c>
       <c r="E513" t="s">
         <v>837</v>
@@ -55548,7 +55548,7 @@
         <v>827</v>
       </c>
       <c r="D514" s="1">
-        <v>505.2686245788579</v>
+        <v>505.26861572265625</v>
       </c>
       <c r="E514" t="s">
         <v>837</v>
@@ -55565,7 +55565,7 @@
         <v>827</v>
       </c>
       <c r="D515" s="1">
-        <v>508.99406486141123</v>
+        <v>508.99404907226563</v>
       </c>
       <c r="E515" t="s">
         <v>837</v>
@@ -55582,7 +55582,7 @@
         <v>827</v>
       </c>
       <c r="D516" s="1">
-        <v>443.92238666976647</v>
+        <v>443.92236328125</v>
       </c>
       <c r="E516" t="s">
         <v>837</v>
@@ -55599,7 +55599,7 @@
         <v>827</v>
       </c>
       <c r="D517" s="1">
-        <v>330.92458615471259</v>
+        <v>330.92459106445313</v>
       </c>
       <c r="E517" t="s">
         <v>837</v>
@@ -55616,7 +55616,7 @@
         <v>827</v>
       </c>
       <c r="D518" s="1">
-        <v>350.58450091861363</v>
+        <v>350.58450317382813</v>
       </c>
       <c r="E518" t="s">
         <v>837</v>
@@ -55633,7 +55633,7 @@
         <v>827</v>
       </c>
       <c r="D519" s="1">
-        <v>459.45970869911685</v>
+        <v>459.459716796875</v>
       </c>
       <c r="E519" t="s">
         <v>837</v>
@@ -55650,7 +55650,7 @@
         <v>827</v>
       </c>
       <c r="D520" s="1">
-        <v>452.96321574975963</v>
+        <v>452.96322631835938</v>
       </c>
       <c r="E520" t="s">
         <v>837</v>
@@ -55667,7 +55667,7 @@
         <v>827</v>
       </c>
       <c r="D521" s="1">
-        <v>468.11846465470711</v>
+        <v>468.11846923828125</v>
       </c>
       <c r="E521" t="s">
         <v>837</v>
@@ -55684,7 +55684,7 @@
         <v>827</v>
       </c>
       <c r="D522" s="1">
-        <v>447.67839082861008</v>
+        <v>447.67840576171875</v>
       </c>
       <c r="E522" t="s">
         <v>837</v>
@@ -55701,7 +55701,7 @@
         <v>827</v>
       </c>
       <c r="D523" s="1">
-        <v>429.95322405712972</v>
+        <v>429.95321655273438</v>
       </c>
       <c r="E523" t="s">
         <v>837</v>
@@ -55718,7 +55718,7 @@
         <v>827</v>
       </c>
       <c r="D524" s="1">
-        <v>475.35721567605356</v>
+        <v>475.35720825195313</v>
       </c>
       <c r="E524" t="s">
         <v>837</v>
@@ -55735,7 +55735,7 @@
         <v>827</v>
       </c>
       <c r="D525" s="1">
-        <v>468.99806278346347</v>
+        <v>468.99807739257813</v>
       </c>
       <c r="E525" t="s">
         <v>837</v>
@@ -55752,7 +55752,7 @@
         <v>827</v>
       </c>
       <c r="D526" s="1">
-        <v>519.47669175870465</v>
+        <v>519.4766845703125</v>
       </c>
       <c r="E526" t="s">
         <v>837</v>
@@ -55769,7 +55769,7 @@
         <v>827</v>
       </c>
       <c r="D527" s="1">
-        <v>512.07417628120413</v>
+        <v>512.07415771484375</v>
       </c>
       <c r="E527" t="s">
         <v>837</v>
@@ -55786,7 +55786,7 @@
         <v>827</v>
       </c>
       <c r="D528" s="1">
-        <v>444.14160006701019</v>
+        <v>444.1416015625</v>
       </c>
       <c r="E528" t="s">
         <v>837</v>
@@ -55803,7 +55803,7 @@
         <v>827</v>
       </c>
       <c r="D529" s="1">
-        <v>378.35069267642007</v>
+        <v>378.35067749023438</v>
       </c>
       <c r="E529" t="s">
         <v>837</v>
@@ -55820,7 +55820,7 @@
         <v>827</v>
       </c>
       <c r="D530" s="1">
-        <v>450.31914518111802</v>
+        <v>450.31915283203125</v>
       </c>
       <c r="E530" t="s">
         <v>837</v>
@@ -55837,7 +55837,7 @@
         <v>827</v>
       </c>
       <c r="D531" s="1">
-        <v>450.91102992354564</v>
+        <v>450.91104125976563</v>
       </c>
       <c r="E531" t="s">
         <v>837</v>
@@ -55854,7 +55854,7 @@
         <v>827</v>
       </c>
       <c r="D532" s="1">
-        <v>471.14008841321674</v>
+        <v>471.14010620117188</v>
       </c>
       <c r="E532" t="s">
         <v>837</v>
@@ -55871,7 +55871,7 @@
         <v>827</v>
       </c>
       <c r="D533" s="1">
-        <v>516.50562738873191</v>
+        <v>516.505615234375</v>
       </c>
       <c r="E533" t="s">
         <v>837</v>
@@ -55888,7 +55888,7 @@
         <v>827</v>
       </c>
       <c r="D534" s="1">
-        <v>524.47382490708424</v>
+        <v>524.47381591796875</v>
       </c>
       <c r="E534" t="s">
         <v>837</v>
@@ -55905,7 +55905,7 @@
         <v>827</v>
       </c>
       <c r="D535" s="1">
-        <v>511.656332260895</v>
+        <v>511.65634155273438</v>
       </c>
       <c r="E535" t="s">
         <v>837</v>
@@ -55922,7 +55922,7 @@
         <v>827</v>
       </c>
       <c r="D536" s="1">
-        <v>496.29524763474058</v>
+        <v>496.29525756835938</v>
       </c>
       <c r="E536" t="s">
         <v>837</v>
@@ -55939,7 +55939,7 @@
         <v>827</v>
       </c>
       <c r="D537" s="1">
-        <v>519.64258694025409</v>
+        <v>519.642578125</v>
       </c>
       <c r="E537" t="s">
         <v>837</v>
@@ -55956,7 +55956,7 @@
         <v>827</v>
       </c>
       <c r="D538" s="1">
-        <v>606.27330857190623</v>
+        <v>606.2733154296875</v>
       </c>
       <c r="E538" t="s">
         <v>837</v>
@@ -55973,7 +55973,7 @@
         <v>827</v>
       </c>
       <c r="D539" s="1">
-        <v>553.31603392481907</v>
+        <v>553.3160400390625</v>
       </c>
       <c r="E539" t="s">
         <v>837</v>
@@ -55990,7 +55990,7 @@
         <v>827</v>
       </c>
       <c r="D540" s="1">
-        <v>476.26740593758853</v>
+        <v>476.26739501953125</v>
       </c>
       <c r="E540" t="s">
         <v>837</v>
@@ -56007,7 +56007,7 @@
         <v>827</v>
       </c>
       <c r="D541" s="1">
-        <v>385.33567645897426</v>
+        <v>385.335693359375</v>
       </c>
       <c r="E541" t="s">
         <v>837</v>
@@ -56024,7 +56024,7 @@
         <v>827</v>
       </c>
       <c r="D542" s="1">
-        <v>456.40301903092723</v>
+        <v>456.40304565429688</v>
       </c>
       <c r="E542" t="s">
         <v>837</v>
@@ -56041,7 +56041,7 @@
         <v>827</v>
       </c>
       <c r="D543" s="1">
-        <v>452.93446344198821</v>
+        <v>452.93447875976563</v>
       </c>
       <c r="E543" t="s">
         <v>837</v>
@@ -56058,7 +56058,7 @@
         <v>827</v>
       </c>
       <c r="D544" s="1">
-        <v>368.6841115087816</v>
+        <v>368.68411254882813</v>
       </c>
       <c r="E544" t="s">
         <v>837</v>
@@ -56075,7 +56075,7 @@
         <v>827</v>
       </c>
       <c r="D545" s="1">
-        <v>336.25537976184393</v>
+        <v>336.25537109375</v>
       </c>
       <c r="E545" t="s">
         <v>837</v>
@@ -56092,7 +56092,7 @@
         <v>827</v>
       </c>
       <c r="D546" s="1">
-        <v>372.60660260863688</v>
+        <v>372.60659790039063</v>
       </c>
       <c r="E546" t="s">
         <v>837</v>
@@ -56109,7 +56109,7 @@
         <v>827</v>
       </c>
       <c r="D547" s="1">
-        <v>503.73831681819547</v>
+        <v>503.73831176757813</v>
       </c>
       <c r="E547" t="s">
         <v>837</v>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8787" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8791" uniqueCount="237">
   <si>
     <t>Sección</t>
   </si>
@@ -58446,7 +58446,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D173"/>
+  <dimension ref="A1:D175"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -59672,13 +59672,13 @@
         <v>216</v>
       </c>
       <c r="B88" s="2">
-        <v>36161</v>
+        <v>44013</v>
       </c>
       <c r="C88" s="1">
-        <v>10.85807</v>
+        <v>18.252537140000001</v>
       </c>
       <c r="D88" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89">
@@ -59686,10 +59686,10 @@
         <v>216</v>
       </c>
       <c r="B89" s="2">
-        <v>36251</v>
+        <v>36161</v>
       </c>
       <c r="C89" s="1">
-        <v>15.132585000000001</v>
+        <v>10.85807</v>
       </c>
       <c r="D89" t="s">
         <v>236</v>
@@ -59700,10 +59700,10 @@
         <v>216</v>
       </c>
       <c r="B90" s="2">
-        <v>36342</v>
+        <v>36251</v>
       </c>
       <c r="C90" s="1">
-        <v>1.071712</v>
+        <v>15.132585000000001</v>
       </c>
       <c r="D90" t="s">
         <v>236</v>
@@ -59714,10 +59714,10 @@
         <v>216</v>
       </c>
       <c r="B91" s="2">
-        <v>36434</v>
+        <v>36342</v>
       </c>
       <c r="C91" s="1">
-        <v>0.92839400000000005</v>
+        <v>1.071712</v>
       </c>
       <c r="D91" t="s">
         <v>236</v>
@@ -59728,10 +59728,10 @@
         <v>216</v>
       </c>
       <c r="B92" s="2">
-        <v>36526</v>
+        <v>36434</v>
       </c>
       <c r="C92" s="1">
-        <v>0.25120100000000001</v>
+        <v>0.92839400000000105</v>
       </c>
       <c r="D92" t="s">
         <v>236</v>
@@ -59742,10 +59742,10 @@
         <v>216</v>
       </c>
       <c r="B93" s="2">
-        <v>36617</v>
+        <v>36526</v>
       </c>
       <c r="C93" s="1">
-        <v>-0.22622600000000001</v>
+        <v>0.25120100000000001</v>
       </c>
       <c r="D93" t="s">
         <v>236</v>
@@ -59756,10 +59756,10 @@
         <v>216</v>
       </c>
       <c r="B94" s="2">
-        <v>36708</v>
+        <v>36617</v>
       </c>
       <c r="C94" s="1">
-        <v>0.026589999999999999</v>
+        <v>-0.22622600000000001</v>
       </c>
       <c r="D94" t="s">
         <v>236</v>
@@ -59770,10 +59770,10 @@
         <v>216</v>
       </c>
       <c r="B95" s="2">
-        <v>36800</v>
+        <v>36708</v>
       </c>
       <c r="C95" s="1">
-        <v>18.094066000000002</v>
+        <v>0.026589999999999999</v>
       </c>
       <c r="D95" t="s">
         <v>236</v>
@@ -59784,10 +59784,10 @@
         <v>216</v>
       </c>
       <c r="B96" s="2">
-        <v>36892</v>
+        <v>36800</v>
       </c>
       <c r="C96" s="1">
-        <v>3.7373880000000002</v>
+        <v>18.094066000000002</v>
       </c>
       <c r="D96" t="s">
         <v>236</v>
@@ -59798,10 +59798,10 @@
         <v>216</v>
       </c>
       <c r="B97" s="2">
-        <v>36982</v>
+        <v>36892</v>
       </c>
       <c r="C97" s="1">
-        <v>-1.469676</v>
+        <v>3.7373880000000002</v>
       </c>
       <c r="D97" t="s">
         <v>236</v>
@@ -59812,10 +59812,10 @@
         <v>216</v>
       </c>
       <c r="B98" s="2">
-        <v>37073</v>
+        <v>36982</v>
       </c>
       <c r="C98" s="1">
-        <v>10.002281999999999</v>
+        <v>-1.469676</v>
       </c>
       <c r="D98" t="s">
         <v>236</v>
@@ -59826,10 +59826,10 @@
         <v>216</v>
       </c>
       <c r="B99" s="2">
-        <v>37165</v>
+        <v>37073</v>
       </c>
       <c r="C99" s="1">
-        <v>30.137896999999999</v>
+        <v>10.002281999999999</v>
       </c>
       <c r="D99" t="s">
         <v>236</v>
@@ -59840,10 +59840,10 @@
         <v>216</v>
       </c>
       <c r="B100" s="2">
-        <v>37257</v>
+        <v>37165</v>
       </c>
       <c r="C100" s="1">
-        <v>27.366866000000002</v>
+        <v>30.137896999999999</v>
       </c>
       <c r="D100" t="s">
         <v>236</v>
@@ -59854,10 +59854,10 @@
         <v>216</v>
       </c>
       <c r="B101" s="2">
-        <v>37347</v>
+        <v>37257</v>
       </c>
       <c r="C101" s="1">
-        <v>71.020529999999994</v>
+        <v>27.366866000000002</v>
       </c>
       <c r="D101" t="s">
         <v>236</v>
@@ -59868,10 +59868,10 @@
         <v>216</v>
       </c>
       <c r="B102" s="2">
-        <v>37438</v>
+        <v>37347</v>
       </c>
       <c r="C102" s="1">
-        <v>10.765544</v>
+        <v>71.020529999999994</v>
       </c>
       <c r="D102" t="s">
         <v>236</v>
@@ -59882,10 +59882,10 @@
         <v>216</v>
       </c>
       <c r="B103" s="2">
-        <v>37530</v>
+        <v>37438</v>
       </c>
       <c r="C103" s="1">
-        <v>-1.141977</v>
+        <v>10.765544</v>
       </c>
       <c r="D103" t="s">
         <v>236</v>
@@ -59896,10 +59896,10 @@
         <v>216</v>
       </c>
       <c r="B104" s="2">
-        <v>37622</v>
+        <v>37530</v>
       </c>
       <c r="C104" s="1">
-        <v>13.494045</v>
+        <v>-1.141977</v>
       </c>
       <c r="D104" t="s">
         <v>236</v>
@@ -59910,10 +59910,10 @@
         <v>216</v>
       </c>
       <c r="B105" s="2">
-        <v>37712</v>
+        <v>37622</v>
       </c>
       <c r="C105" s="1">
-        <v>30.070920999999998</v>
+        <v>13.494045</v>
       </c>
       <c r="D105" t="s">
         <v>236</v>
@@ -59924,10 +59924,10 @@
         <v>216</v>
       </c>
       <c r="B106" s="2">
-        <v>37803</v>
+        <v>37712</v>
       </c>
       <c r="C106" s="1">
-        <v>0</v>
+        <v>30.070920999999998</v>
       </c>
       <c r="D106" t="s">
         <v>236</v>
@@ -59938,7 +59938,7 @@
         <v>216</v>
       </c>
       <c r="B107" s="2">
-        <v>37895</v>
+        <v>37803</v>
       </c>
       <c r="C107" s="1">
         <v>0</v>
@@ -59952,10 +59952,10 @@
         <v>216</v>
       </c>
       <c r="B108" s="2">
-        <v>37987</v>
+        <v>37895</v>
       </c>
       <c r="C108" s="1">
-        <v>1.5516270000000001</v>
+        <v>0</v>
       </c>
       <c r="D108" t="s">
         <v>236</v>
@@ -59966,10 +59966,10 @@
         <v>216</v>
       </c>
       <c r="B109" s="2">
-        <v>38078</v>
+        <v>37987</v>
       </c>
       <c r="C109" s="1">
-        <v>42.191212999999998</v>
+        <v>1.5516270000000001</v>
       </c>
       <c r="D109" t="s">
         <v>236</v>
@@ -59980,10 +59980,10 @@
         <v>216</v>
       </c>
       <c r="B110" s="2">
-        <v>38169</v>
+        <v>38078</v>
       </c>
       <c r="C110" s="1">
-        <v>-1.89754</v>
+        <v>42.191212999999998</v>
       </c>
       <c r="D110" t="s">
         <v>236</v>
@@ -59994,10 +59994,10 @@
         <v>216</v>
       </c>
       <c r="B111" s="2">
-        <v>38261</v>
+        <v>38169</v>
       </c>
       <c r="C111" s="1">
-        <v>1.6702440000000001</v>
+        <v>-1.89754</v>
       </c>
       <c r="D111" t="s">
         <v>236</v>
@@ -60008,10 +60008,10 @@
         <v>216</v>
       </c>
       <c r="B112" s="2">
-        <v>38353</v>
+        <v>38261</v>
       </c>
       <c r="C112" s="1">
-        <v>30.412996</v>
+        <v>1.6702440000000001</v>
       </c>
       <c r="D112" t="s">
         <v>236</v>
@@ -60022,10 +60022,10 @@
         <v>216</v>
       </c>
       <c r="B113" s="2">
-        <v>38443</v>
+        <v>38353</v>
       </c>
       <c r="C113" s="1">
-        <v>-11.059087</v>
+        <v>30.412996</v>
       </c>
       <c r="D113" t="s">
         <v>236</v>
@@ -60036,10 +60036,10 @@
         <v>216</v>
       </c>
       <c r="B114" s="2">
-        <v>38534</v>
+        <v>38443</v>
       </c>
       <c r="C114" s="1">
-        <v>0.34495999999999999</v>
+        <v>-11.059087</v>
       </c>
       <c r="D114" t="s">
         <v>236</v>
@@ -60050,10 +60050,10 @@
         <v>216</v>
       </c>
       <c r="B115" s="2">
-        <v>38626</v>
+        <v>38534</v>
       </c>
       <c r="C115" s="1">
-        <v>2.5656889999999999</v>
+        <v>0.34495999999999999</v>
       </c>
       <c r="D115" t="s">
         <v>236</v>
@@ -60064,10 +60064,10 @@
         <v>216</v>
       </c>
       <c r="B116" s="2">
-        <v>38718</v>
+        <v>38626</v>
       </c>
       <c r="C116" s="1">
-        <v>-65.219189999999998</v>
+        <v>2.5656889999999999</v>
       </c>
       <c r="D116" t="s">
         <v>236</v>
@@ -60078,10 +60078,10 @@
         <v>216</v>
       </c>
       <c r="B117" s="2">
-        <v>38808</v>
+        <v>38718</v>
       </c>
       <c r="C117" s="1">
-        <v>53.555705000000003</v>
+        <v>-65.219189999999998</v>
       </c>
       <c r="D117" t="s">
         <v>236</v>
@@ -60092,10 +60092,10 @@
         <v>216</v>
       </c>
       <c r="B118" s="2">
-        <v>38899</v>
+        <v>38808</v>
       </c>
       <c r="C118" s="1">
-        <v>1.5008859999999999</v>
+        <v>53.555705000000003</v>
       </c>
       <c r="D118" t="s">
         <v>236</v>
@@ -60106,10 +60106,10 @@
         <v>216</v>
       </c>
       <c r="B119" s="2">
-        <v>38991</v>
+        <v>38899</v>
       </c>
       <c r="C119" s="1">
-        <v>1.4106270000000001</v>
+        <v>1.5008859999999999</v>
       </c>
       <c r="D119" t="s">
         <v>236</v>
@@ -60120,10 +60120,10 @@
         <v>216</v>
       </c>
       <c r="B120" s="2">
-        <v>39083</v>
+        <v>38991</v>
       </c>
       <c r="C120" s="1">
-        <v>169.57198299999999</v>
+        <v>1.4106270000000001</v>
       </c>
       <c r="D120" t="s">
         <v>236</v>
@@ -60134,10 +60134,10 @@
         <v>216</v>
       </c>
       <c r="B121" s="2">
-        <v>39173</v>
+        <v>39083</v>
       </c>
       <c r="C121" s="1">
-        <v>93.923772999999997</v>
+        <v>169.57198299999999</v>
       </c>
       <c r="D121" t="s">
         <v>236</v>
@@ -60148,10 +60148,10 @@
         <v>216</v>
       </c>
       <c r="B122" s="2">
-        <v>39264</v>
+        <v>39173</v>
       </c>
       <c r="C122" s="1">
-        <v>-145.45596499999999</v>
+        <v>93.923772999999997</v>
       </c>
       <c r="D122" t="s">
         <v>236</v>
@@ -60162,10 +60162,10 @@
         <v>216</v>
       </c>
       <c r="B123" s="2">
-        <v>39356</v>
+        <v>39264</v>
       </c>
       <c r="C123" s="1">
-        <v>15.230097000000001</v>
+        <v>-145.45596499999999</v>
       </c>
       <c r="D123" t="s">
         <v>236</v>
@@ -60176,10 +60176,10 @@
         <v>216</v>
       </c>
       <c r="B124" s="2">
-        <v>39448</v>
+        <v>39356</v>
       </c>
       <c r="C124" s="1">
-        <v>32.722607000000004</v>
+        <v>15.230097000000001</v>
       </c>
       <c r="D124" t="s">
         <v>236</v>
@@ -60190,10 +60190,10 @@
         <v>216</v>
       </c>
       <c r="B125" s="2">
-        <v>39539</v>
+        <v>39448</v>
       </c>
       <c r="C125" s="1">
-        <v>62.621254</v>
+        <v>32.722607000000004</v>
       </c>
       <c r="D125" t="s">
         <v>236</v>
@@ -60204,10 +60204,10 @@
         <v>216</v>
       </c>
       <c r="B126" s="2">
-        <v>39630</v>
+        <v>39539</v>
       </c>
       <c r="C126" s="1">
-        <v>3.9593020000000001</v>
+        <v>62.621254</v>
       </c>
       <c r="D126" t="s">
         <v>236</v>
@@ -60218,10 +60218,10 @@
         <v>216</v>
       </c>
       <c r="B127" s="2">
-        <v>39722</v>
+        <v>39630</v>
       </c>
       <c r="C127" s="1">
-        <v>-1.6047929999999999</v>
+        <v>3.9593020000000001</v>
       </c>
       <c r="D127" t="s">
         <v>236</v>
@@ -60232,10 +60232,10 @@
         <v>216</v>
       </c>
       <c r="B128" s="2">
-        <v>39814</v>
+        <v>39722</v>
       </c>
       <c r="C128" s="1">
-        <v>25.981366000000001</v>
+        <v>-1.6047929999999999</v>
       </c>
       <c r="D128" t="s">
         <v>236</v>
@@ -60246,10 +60246,10 @@
         <v>216</v>
       </c>
       <c r="B129" s="2">
-        <v>39904</v>
+        <v>39814</v>
       </c>
       <c r="C129" s="1">
-        <v>89.093726000000004</v>
+        <v>25.981366000000001</v>
       </c>
       <c r="D129" t="s">
         <v>236</v>
@@ -60260,10 +60260,10 @@
         <v>216</v>
       </c>
       <c r="B130" s="2">
-        <v>39995</v>
+        <v>39904</v>
       </c>
       <c r="C130" s="1">
-        <v>20.757427</v>
+        <v>89.093726000000004</v>
       </c>
       <c r="D130" t="s">
         <v>236</v>
@@ -60274,10 +60274,10 @@
         <v>216</v>
       </c>
       <c r="B131" s="2">
-        <v>40087</v>
+        <v>39995</v>
       </c>
       <c r="C131" s="1">
-        <v>-5.5986830000000003</v>
+        <v>20.757427</v>
       </c>
       <c r="D131" t="s">
         <v>236</v>
@@ -60288,10 +60288,10 @@
         <v>216</v>
       </c>
       <c r="B132" s="2">
-        <v>40179</v>
+        <v>40087</v>
       </c>
       <c r="C132" s="1">
-        <v>21.948791</v>
+        <v>-5.5986830000000003</v>
       </c>
       <c r="D132" t="s">
         <v>236</v>
@@ -60302,10 +60302,10 @@
         <v>216</v>
       </c>
       <c r="B133" s="2">
-        <v>40269</v>
+        <v>40179</v>
       </c>
       <c r="C133" s="1">
-        <v>314.767135</v>
+        <v>21.948791</v>
       </c>
       <c r="D133" t="s">
         <v>236</v>
@@ -60316,10 +60316,10 @@
         <v>216</v>
       </c>
       <c r="B134" s="2">
-        <v>40360</v>
+        <v>40269</v>
       </c>
       <c r="C134" s="1">
-        <v>17.155493</v>
+        <v>314.767135</v>
       </c>
       <c r="D134" t="s">
         <v>236</v>
@@ -60330,10 +60330,10 @@
         <v>216</v>
       </c>
       <c r="B135" s="2">
-        <v>40452</v>
+        <v>40360</v>
       </c>
       <c r="C135" s="1">
-        <v>-95.453181000000001</v>
+        <v>17.155493</v>
       </c>
       <c r="D135" t="s">
         <v>236</v>
@@ -60344,10 +60344,10 @@
         <v>216</v>
       </c>
       <c r="B136" s="2">
-        <v>40544</v>
+        <v>40452</v>
       </c>
       <c r="C136" s="1">
-        <v>-44.403452000000001</v>
+        <v>-95.453181000000001</v>
       </c>
       <c r="D136" t="s">
         <v>236</v>
@@ -60358,10 +60358,10 @@
         <v>216</v>
       </c>
       <c r="B137" s="2">
-        <v>40634</v>
+        <v>40544</v>
       </c>
       <c r="C137" s="1">
-        <v>-45.299624999999999</v>
+        <v>-44.403452000000001</v>
       </c>
       <c r="D137" t="s">
         <v>236</v>
@@ -60372,10 +60372,10 @@
         <v>216</v>
       </c>
       <c r="B138" s="2">
-        <v>40725</v>
+        <v>40634</v>
       </c>
       <c r="C138" s="1">
-        <v>12.108689999999999</v>
+        <v>-45.299624999999999</v>
       </c>
       <c r="D138" t="s">
         <v>236</v>
@@ -60386,10 +60386,10 @@
         <v>216</v>
       </c>
       <c r="B139" s="2">
-        <v>40817</v>
+        <v>40725</v>
       </c>
       <c r="C139" s="1">
-        <v>20.570854000000001</v>
+        <v>12.108689999999999</v>
       </c>
       <c r="D139" t="s">
         <v>236</v>
@@ -60400,10 +60400,10 @@
         <v>216</v>
       </c>
       <c r="B140" s="2">
-        <v>40909</v>
+        <v>40817</v>
       </c>
       <c r="C140" s="1">
-        <v>35.280952999999997</v>
+        <v>20.570854000000001</v>
       </c>
       <c r="D140" t="s">
         <v>236</v>
@@ -60414,10 +60414,10 @@
         <v>216</v>
       </c>
       <c r="B141" s="2">
-        <v>41000</v>
+        <v>40909</v>
       </c>
       <c r="C141" s="1">
-        <v>5.7662560000000003</v>
+        <v>35.280952999999997</v>
       </c>
       <c r="D141" t="s">
         <v>236</v>
@@ -60428,10 +60428,10 @@
         <v>216</v>
       </c>
       <c r="B142" s="2">
-        <v>41091</v>
+        <v>41000</v>
       </c>
       <c r="C142" s="1">
-        <v>-3.2294990000000001</v>
+        <v>5.7662560000000003</v>
       </c>
       <c r="D142" t="s">
         <v>236</v>
@@ -60442,10 +60442,10 @@
         <v>216</v>
       </c>
       <c r="B143" s="2">
-        <v>41183</v>
+        <v>41091</v>
       </c>
       <c r="C143" s="1">
-        <v>18.754607</v>
+        <v>-3.2294990000000001</v>
       </c>
       <c r="D143" t="s">
         <v>236</v>
@@ -60456,10 +60456,10 @@
         <v>216</v>
       </c>
       <c r="B144" s="2">
-        <v>41275</v>
+        <v>41183</v>
       </c>
       <c r="C144" s="1">
-        <v>32.066775</v>
+        <v>18.754607</v>
       </c>
       <c r="D144" t="s">
         <v>236</v>
@@ -60470,10 +60470,10 @@
         <v>216</v>
       </c>
       <c r="B145" s="2">
-        <v>41365</v>
+        <v>41275</v>
       </c>
       <c r="C145" s="1">
-        <v>1290.929224</v>
+        <v>32.066775</v>
       </c>
       <c r="D145" t="s">
         <v>236</v>
@@ -60484,10 +60484,10 @@
         <v>216</v>
       </c>
       <c r="B146" s="2">
-        <v>41456</v>
+        <v>41365</v>
       </c>
       <c r="C146" s="1">
-        <v>208.71636000000001</v>
+        <v>1290.929224</v>
       </c>
       <c r="D146" t="s">
         <v>236</v>
@@ -60498,10 +60498,10 @@
         <v>216</v>
       </c>
       <c r="B147" s="2">
-        <v>41548</v>
+        <v>41456</v>
       </c>
       <c r="C147" s="1">
-        <v>29.688445999999999</v>
+        <v>208.71636000000001</v>
       </c>
       <c r="D147" t="s">
         <v>236</v>
@@ -60512,10 +60512,10 @@
         <v>216</v>
       </c>
       <c r="B148" s="2">
-        <v>41640</v>
+        <v>41548</v>
       </c>
       <c r="C148" s="1">
-        <v>31.216297000000001</v>
+        <v>29.688445999999999</v>
       </c>
       <c r="D148" t="s">
         <v>236</v>
@@ -60526,10 +60526,10 @@
         <v>216</v>
       </c>
       <c r="B149" s="2">
-        <v>41730</v>
+        <v>41640</v>
       </c>
       <c r="C149" s="1">
-        <v>129.65941699999999</v>
+        <v>31.216297000000001</v>
       </c>
       <c r="D149" t="s">
         <v>236</v>
@@ -60540,10 +60540,10 @@
         <v>216</v>
       </c>
       <c r="B150" s="2">
-        <v>41821</v>
+        <v>41730</v>
       </c>
       <c r="C150" s="1">
-        <v>-19.021474999999999</v>
+        <v>129.65941699999999</v>
       </c>
       <c r="D150" t="s">
         <v>236</v>
@@ -60554,10 +60554,10 @@
         <v>216</v>
       </c>
       <c r="B151" s="2">
-        <v>41913</v>
+        <v>41821</v>
       </c>
       <c r="C151" s="1">
-        <v>34.402746</v>
+        <v>-19.021474999999999</v>
       </c>
       <c r="D151" t="s">
         <v>236</v>
@@ -60568,10 +60568,10 @@
         <v>216</v>
       </c>
       <c r="B152" s="2">
-        <v>42005</v>
+        <v>41913</v>
       </c>
       <c r="C152" s="1">
-        <v>17.854156</v>
+        <v>34.402746</v>
       </c>
       <c r="D152" t="s">
         <v>236</v>
@@ -60582,10 +60582,10 @@
         <v>216</v>
       </c>
       <c r="B153" s="2">
-        <v>42095</v>
+        <v>42005</v>
       </c>
       <c r="C153" s="1">
-        <v>56.476317000000002</v>
+        <v>17.854156</v>
       </c>
       <c r="D153" t="s">
         <v>236</v>
@@ -60596,10 +60596,10 @@
         <v>216</v>
       </c>
       <c r="B154" s="2">
-        <v>42186</v>
+        <v>42095</v>
       </c>
       <c r="C154" s="1">
-        <v>-26.106341189999998</v>
+        <v>56.476317000000002</v>
       </c>
       <c r="D154" t="s">
         <v>236</v>
@@ -60610,10 +60610,10 @@
         <v>216</v>
       </c>
       <c r="B155" s="2">
-        <v>42278</v>
+        <v>42186</v>
       </c>
       <c r="C155" s="1">
-        <v>16.896843000000001</v>
+        <v>-26.106341189999998</v>
       </c>
       <c r="D155" t="s">
         <v>236</v>
@@ -60624,10 +60624,10 @@
         <v>216</v>
       </c>
       <c r="B156" s="2">
-        <v>42370</v>
+        <v>42278</v>
       </c>
       <c r="C156" s="1">
-        <v>55.605331669999998</v>
+        <v>16.896843000000001</v>
       </c>
       <c r="D156" t="s">
         <v>236</v>
@@ -60638,10 +60638,10 @@
         <v>216</v>
       </c>
       <c r="B157" s="2">
-        <v>42461</v>
+        <v>42370</v>
       </c>
       <c r="C157" s="1">
-        <v>9.4952309400000008</v>
+        <v>55.605331669999998</v>
       </c>
       <c r="D157" t="s">
         <v>236</v>
@@ -60652,10 +60652,10 @@
         <v>216</v>
       </c>
       <c r="B158" s="2">
-        <v>42552</v>
+        <v>42461</v>
       </c>
       <c r="C158" s="1">
-        <v>12.279509640000001</v>
+        <v>9.4952309400000008</v>
       </c>
       <c r="D158" t="s">
         <v>236</v>
@@ -60666,10 +60666,10 @@
         <v>216</v>
       </c>
       <c r="B159" s="2">
-        <v>42644</v>
+        <v>42552</v>
       </c>
       <c r="C159" s="1">
-        <v>-2.55958877</v>
+        <v>12.279509640000001</v>
       </c>
       <c r="D159" t="s">
         <v>236</v>
@@ -60680,10 +60680,10 @@
         <v>216</v>
       </c>
       <c r="B160" s="2">
-        <v>42736</v>
+        <v>42644</v>
       </c>
       <c r="C160" s="1">
-        <v>37.0275532</v>
+        <v>-2.55958877</v>
       </c>
       <c r="D160" t="s">
         <v>236</v>
@@ -60694,10 +60694,10 @@
         <v>216</v>
       </c>
       <c r="B161" s="2">
-        <v>42826</v>
+        <v>42736</v>
       </c>
       <c r="C161" s="1">
-        <v>31.537870210000001</v>
+        <v>37.0275532</v>
       </c>
       <c r="D161" t="s">
         <v>236</v>
@@ -60708,10 +60708,10 @@
         <v>216</v>
       </c>
       <c r="B162" s="2">
-        <v>42917</v>
+        <v>42826</v>
       </c>
       <c r="C162" s="1">
-        <v>-11.3858745</v>
+        <v>31.537870210000001</v>
       </c>
       <c r="D162" t="s">
         <v>236</v>
@@ -60722,10 +60722,10 @@
         <v>216</v>
       </c>
       <c r="B163" s="2">
-        <v>43009</v>
+        <v>42917</v>
       </c>
       <c r="C163" s="1">
-        <v>7.6352232999999998</v>
+        <v>-11.3858745</v>
       </c>
       <c r="D163" t="s">
         <v>236</v>
@@ -60736,10 +60736,10 @@
         <v>216</v>
       </c>
       <c r="B164" s="2">
-        <v>43101</v>
+        <v>43009</v>
       </c>
       <c r="C164" s="1">
-        <v>48.938785979999999</v>
+        <v>7.6352232999999998</v>
       </c>
       <c r="D164" t="s">
         <v>236</v>
@@ -60750,10 +60750,10 @@
         <v>216</v>
       </c>
       <c r="B165" s="2">
-        <v>43191</v>
+        <v>43101</v>
       </c>
       <c r="C165" s="1">
-        <v>-115.88950180000001</v>
+        <v>48.938785979999999</v>
       </c>
       <c r="D165" t="s">
         <v>236</v>
@@ -60764,10 +60764,10 @@
         <v>216</v>
       </c>
       <c r="B166" s="2">
-        <v>43282</v>
+        <v>43191</v>
       </c>
       <c r="C166" s="1">
-        <v>11.219936929999999</v>
+        <v>-115.88950177</v>
       </c>
       <c r="D166" t="s">
         <v>236</v>
@@ -60778,10 +60778,10 @@
         <v>216</v>
       </c>
       <c r="B167" s="2">
-        <v>43374</v>
+        <v>43282</v>
       </c>
       <c r="C167" s="1">
-        <v>1.8220098</v>
+        <v>11.219936929999999</v>
       </c>
       <c r="D167" t="s">
         <v>236</v>
@@ -60792,10 +60792,10 @@
         <v>216</v>
       </c>
       <c r="B168" s="2">
-        <v>43466</v>
+        <v>43374</v>
       </c>
       <c r="C168" s="1">
-        <v>46.310943479999999</v>
+        <v>1.8220098</v>
       </c>
       <c r="D168" t="s">
         <v>236</v>
@@ -60806,10 +60806,10 @@
         <v>216</v>
       </c>
       <c r="B169" s="2">
-        <v>43556</v>
+        <v>43466</v>
       </c>
       <c r="C169" s="1">
-        <v>9.6661521500000003</v>
+        <v>46.310943479999999</v>
       </c>
       <c r="D169" t="s">
         <v>236</v>
@@ -60820,10 +60820,10 @@
         <v>216</v>
       </c>
       <c r="B170" s="2">
-        <v>43647</v>
+        <v>43556</v>
       </c>
       <c r="C170" s="1">
-        <v>11.318120410000001</v>
+        <v>9.6661521500000003</v>
       </c>
       <c r="D170" t="s">
         <v>236</v>
@@ -60834,10 +60834,10 @@
         <v>216</v>
       </c>
       <c r="B171" s="2">
-        <v>43739</v>
+        <v>43647</v>
       </c>
       <c r="C171" s="1">
-        <v>20.19367154</v>
+        <v>11.318120410000001</v>
       </c>
       <c r="D171" t="s">
         <v>236</v>
@@ -60848,10 +60848,10 @@
         <v>216</v>
       </c>
       <c r="B172" s="2">
-        <v>43831</v>
+        <v>43739</v>
       </c>
       <c r="C172" s="1">
-        <v>94.469589979999995</v>
+        <v>20.196266009999999</v>
       </c>
       <c r="D172" t="s">
         <v>236</v>
@@ -60862,12 +60862,40 @@
         <v>216</v>
       </c>
       <c r="B173" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C173" s="1">
+        <v>109.63393162</v>
+      </c>
+      <c r="D173" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>216</v>
+      </c>
+      <c r="B174" s="2">
         <v>43922</v>
       </c>
-      <c r="C173" s="1">
-        <v>59.19768638</v>
-      </c>
-      <c r="D173" t="s">
+      <c r="C174" s="1">
+        <v>63.190894380000003</v>
+      </c>
+      <c r="D174" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>216</v>
+      </c>
+      <c r="B175" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C175" s="1">
+        <v>18.252537140000001</v>
+      </c>
+      <c r="D175" t="s">
         <v>236</v>
       </c>
     </row>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8828" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8829" uniqueCount="238">
   <si>
     <t>Sección</t>
   </si>
@@ -58080,7 +58080,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -58686,6 +58686,17 @@
       </c>
       <c r="C55" s="1">
         <v>424175</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2">
+        <v>44013</v>
+      </c>
+      <c r="B56" t="s">
+        <v>217</v>
+      </c>
+      <c r="C56" s="1">
+        <v>567335</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8870" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8609" uniqueCount="241">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 01/18/2021</t>
+    <t xml:space="preserve"> 02/11/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -749,13 +749,10 @@
     <t>Miles de pesos</t>
   </si>
   <si>
-    <t>cifras</t>
+    <t>Inversión extranjera directa, cifras preliminares</t>
   </si>
   <si>
-    <t>Preliminares</t>
-  </si>
-  <si>
-    <t>Revisadas</t>
+    <t>Inversión extranjera directa, cifras revisadas</t>
   </si>
 </sst>
 </file>
@@ -60569,7 +60566,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:D88"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -60580,10 +60577,10 @@
         <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>239</v>
       </c>
       <c r="D1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2">
@@ -60596,8 +60593,8 @@
       <c r="C2" s="4">
         <v>10.85807</v>
       </c>
-      <c r="D2" t="s">
-        <v>240</v>
+      <c r="D2" s="4">
+        <v>10.85807</v>
       </c>
     </row>
     <row r="3">
@@ -60610,8 +60607,8 @@
       <c r="C3" s="4">
         <v>15.132585000000001</v>
       </c>
-      <c r="D3" t="s">
-        <v>240</v>
+      <c r="D3" s="4">
+        <v>15.132585000000001</v>
       </c>
     </row>
     <row r="4">
@@ -60624,8 +60621,8 @@
       <c r="C4" s="4">
         <v>1.071712</v>
       </c>
-      <c r="D4" t="s">
-        <v>240</v>
+      <c r="D4" s="4">
+        <v>1.071712</v>
       </c>
     </row>
     <row r="5">
@@ -60638,8 +60635,8 @@
       <c r="C5" s="4">
         <v>0.92839400000000005</v>
       </c>
-      <c r="D5" t="s">
-        <v>240</v>
+      <c r="D5" s="4">
+        <v>0.92839400000000105</v>
       </c>
     </row>
     <row r="6">
@@ -60652,8 +60649,8 @@
       <c r="C6" s="4">
         <v>0.25120100000000001</v>
       </c>
-      <c r="D6" t="s">
-        <v>240</v>
+      <c r="D6" s="4">
+        <v>0.25120100000000001</v>
       </c>
     </row>
     <row r="7">
@@ -60666,8 +60663,8 @@
       <c r="C7" s="4">
         <v>-0.22622600000000001</v>
       </c>
-      <c r="D7" t="s">
-        <v>240</v>
+      <c r="D7" s="4">
+        <v>-0.22622600000000001</v>
       </c>
     </row>
     <row r="8">
@@ -60680,8 +60677,8 @@
       <c r="C8" s="4">
         <v>0.026589999999999999</v>
       </c>
-      <c r="D8" t="s">
-        <v>240</v>
+      <c r="D8" s="4">
+        <v>0.026589999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -60694,8 +60691,8 @@
       <c r="C9" s="4">
         <v>18.094066000000002</v>
       </c>
-      <c r="D9" t="s">
-        <v>240</v>
+      <c r="D9" s="4">
+        <v>18.094066000000002</v>
       </c>
     </row>
     <row r="10">
@@ -60708,8 +60705,8 @@
       <c r="C10" s="4">
         <v>3.7373880000000002</v>
       </c>
-      <c r="D10" t="s">
-        <v>240</v>
+      <c r="D10" s="4">
+        <v>3.7373880000000002</v>
       </c>
     </row>
     <row r="11">
@@ -60722,8 +60719,8 @@
       <c r="C11" s="4">
         <v>-1.469676</v>
       </c>
-      <c r="D11" t="s">
-        <v>240</v>
+      <c r="D11" s="4">
+        <v>-1.469676</v>
       </c>
     </row>
     <row r="12">
@@ -60736,8 +60733,8 @@
       <c r="C12" s="4">
         <v>10.002281999999999</v>
       </c>
-      <c r="D12" t="s">
-        <v>240</v>
+      <c r="D12" s="4">
+        <v>10.002281999999999</v>
       </c>
     </row>
     <row r="13">
@@ -60750,8 +60747,8 @@
       <c r="C13" s="4">
         <v>30.137896999999999</v>
       </c>
-      <c r="D13" t="s">
-        <v>240</v>
+      <c r="D13" s="4">
+        <v>30.137896999999999</v>
       </c>
     </row>
     <row r="14">
@@ -60764,8 +60761,8 @@
       <c r="C14" s="4">
         <v>27.366866000000002</v>
       </c>
-      <c r="D14" t="s">
-        <v>240</v>
+      <c r="D14" s="4">
+        <v>27.366866000000002</v>
       </c>
     </row>
     <row r="15">
@@ -60778,8 +60775,8 @@
       <c r="C15" s="4">
         <v>71.020529999999994</v>
       </c>
-      <c r="D15" t="s">
-        <v>240</v>
+      <c r="D15" s="4">
+        <v>71.020529999999994</v>
       </c>
     </row>
     <row r="16">
@@ -60792,8 +60789,8 @@
       <c r="C16" s="4">
         <v>10.765544</v>
       </c>
-      <c r="D16" t="s">
-        <v>240</v>
+      <c r="D16" s="4">
+        <v>10.765544</v>
       </c>
     </row>
     <row r="17">
@@ -60806,8 +60803,8 @@
       <c r="C17" s="4">
         <v>-1.141977</v>
       </c>
-      <c r="D17" t="s">
-        <v>240</v>
+      <c r="D17" s="4">
+        <v>-1.141977</v>
       </c>
     </row>
     <row r="18">
@@ -60820,8 +60817,8 @@
       <c r="C18" s="4">
         <v>13.494045</v>
       </c>
-      <c r="D18" t="s">
-        <v>240</v>
+      <c r="D18" s="4">
+        <v>13.494045</v>
       </c>
     </row>
     <row r="19">
@@ -60834,8 +60831,8 @@
       <c r="C19" s="4">
         <v>30.070920999999998</v>
       </c>
-      <c r="D19" t="s">
-        <v>240</v>
+      <c r="D19" s="4">
+        <v>30.070920999999998</v>
       </c>
     </row>
     <row r="20">
@@ -60845,12 +60842,8 @@
       <c r="B20" s="5">
         <v>37803</v>
       </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>240</v>
-      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -60859,12 +60852,8 @@
       <c r="B21" s="5">
         <v>37895</v>
       </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>240</v>
-      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -60876,8 +60865,8 @@
       <c r="C22" s="4">
         <v>1.5516270000000001</v>
       </c>
-      <c r="D22" t="s">
-        <v>240</v>
+      <c r="D22" s="4">
+        <v>1.5516270000000001</v>
       </c>
     </row>
     <row r="23">
@@ -60890,8 +60879,8 @@
       <c r="C23" s="4">
         <v>42.191212999999998</v>
       </c>
-      <c r="D23" t="s">
-        <v>240</v>
+      <c r="D23" s="4">
+        <v>42.191212999999998</v>
       </c>
     </row>
     <row r="24">
@@ -60904,8 +60893,8 @@
       <c r="C24" s="4">
         <v>-1.89754</v>
       </c>
-      <c r="D24" t="s">
-        <v>240</v>
+      <c r="D24" s="4">
+        <v>-1.89754</v>
       </c>
     </row>
     <row r="25">
@@ -60918,8 +60907,8 @@
       <c r="C25" s="4">
         <v>1.6702440000000001</v>
       </c>
-      <c r="D25" t="s">
-        <v>240</v>
+      <c r="D25" s="4">
+        <v>1.6702440000000001</v>
       </c>
     </row>
     <row r="26">
@@ -60932,8 +60921,8 @@
       <c r="C26" s="4">
         <v>30.412996</v>
       </c>
-      <c r="D26" t="s">
-        <v>240</v>
+      <c r="D26" s="4">
+        <v>30.412996</v>
       </c>
     </row>
     <row r="27">
@@ -60946,8 +60935,8 @@
       <c r="C27" s="4">
         <v>-11.059087</v>
       </c>
-      <c r="D27" t="s">
-        <v>240</v>
+      <c r="D27" s="4">
+        <v>-11.059087</v>
       </c>
     </row>
     <row r="28">
@@ -60960,8 +60949,8 @@
       <c r="C28" s="4">
         <v>0.34495999999999999</v>
       </c>
-      <c r="D28" t="s">
-        <v>240</v>
+      <c r="D28" s="4">
+        <v>0.34495999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -60974,8 +60963,8 @@
       <c r="C29" s="4">
         <v>2.5656889999999999</v>
       </c>
-      <c r="D29" t="s">
-        <v>240</v>
+      <c r="D29" s="4">
+        <v>2.5656889999999999</v>
       </c>
     </row>
     <row r="30">
@@ -60988,8 +60977,8 @@
       <c r="C30" s="4">
         <v>-65.219189999999998</v>
       </c>
-      <c r="D30" t="s">
-        <v>240</v>
+      <c r="D30" s="4">
+        <v>-65.219189999999998</v>
       </c>
     </row>
     <row r="31">
@@ -61002,8 +60991,8 @@
       <c r="C31" s="4">
         <v>53.555705000000003</v>
       </c>
-      <c r="D31" t="s">
-        <v>240</v>
+      <c r="D31" s="4">
+        <v>53.555705000000003</v>
       </c>
     </row>
     <row r="32">
@@ -61016,8 +61005,8 @@
       <c r="C32" s="4">
         <v>1.5008859999999999</v>
       </c>
-      <c r="D32" t="s">
-        <v>240</v>
+      <c r="D32" s="4">
+        <v>1.5008859999999999</v>
       </c>
     </row>
     <row r="33">
@@ -61030,8 +61019,8 @@
       <c r="C33" s="4">
         <v>1.4106270000000001</v>
       </c>
-      <c r="D33" t="s">
-        <v>240</v>
+      <c r="D33" s="4">
+        <v>1.4106270000000001</v>
       </c>
     </row>
     <row r="34">
@@ -61044,8 +61033,8 @@
       <c r="C34" s="4">
         <v>169.57198299999999</v>
       </c>
-      <c r="D34" t="s">
-        <v>240</v>
+      <c r="D34" s="4">
+        <v>169.57198299999999</v>
       </c>
     </row>
     <row r="35">
@@ -61058,8 +61047,8 @@
       <c r="C35" s="4">
         <v>93.923772999999997</v>
       </c>
-      <c r="D35" t="s">
-        <v>240</v>
+      <c r="D35" s="4">
+        <v>93.923772999999997</v>
       </c>
     </row>
     <row r="36">
@@ -61072,8 +61061,8 @@
       <c r="C36" s="4">
         <v>-145.45596499999999</v>
       </c>
-      <c r="D36" t="s">
-        <v>240</v>
+      <c r="D36" s="4">
+        <v>-145.45596499999999</v>
       </c>
     </row>
     <row r="37">
@@ -61086,8 +61075,8 @@
       <c r="C37" s="4">
         <v>15.230097000000001</v>
       </c>
-      <c r="D37" t="s">
-        <v>240</v>
+      <c r="D37" s="4">
+        <v>15.230097000000001</v>
       </c>
     </row>
     <row r="38">
@@ -61100,8 +61089,8 @@
       <c r="C38" s="4">
         <v>32.722607000000004</v>
       </c>
-      <c r="D38" t="s">
-        <v>240</v>
+      <c r="D38" s="4">
+        <v>32.722607000000004</v>
       </c>
     </row>
     <row r="39">
@@ -61114,8 +61103,8 @@
       <c r="C39" s="4">
         <v>62.621254</v>
       </c>
-      <c r="D39" t="s">
-        <v>240</v>
+      <c r="D39" s="4">
+        <v>62.621254</v>
       </c>
     </row>
     <row r="40">
@@ -61128,8 +61117,8 @@
       <c r="C40" s="4">
         <v>3.9593020000000001</v>
       </c>
-      <c r="D40" t="s">
-        <v>240</v>
+      <c r="D40" s="4">
+        <v>3.9593020000000001</v>
       </c>
     </row>
     <row r="41">
@@ -61142,8 +61131,8 @@
       <c r="C41" s="4">
         <v>-1.6047929999999999</v>
       </c>
-      <c r="D41" t="s">
-        <v>240</v>
+      <c r="D41" s="4">
+        <v>-1.6047929999999999</v>
       </c>
     </row>
     <row r="42">
@@ -61156,8 +61145,8 @@
       <c r="C42" s="4">
         <v>25.981366000000001</v>
       </c>
-      <c r="D42" t="s">
-        <v>240</v>
+      <c r="D42" s="4">
+        <v>25.981366000000001</v>
       </c>
     </row>
     <row r="43">
@@ -61170,8 +61159,8 @@
       <c r="C43" s="4">
         <v>89.093726000000004</v>
       </c>
-      <c r="D43" t="s">
-        <v>240</v>
+      <c r="D43" s="4">
+        <v>89.093726000000004</v>
       </c>
     </row>
     <row r="44">
@@ -61184,8 +61173,8 @@
       <c r="C44" s="4">
         <v>20.757427</v>
       </c>
-      <c r="D44" t="s">
-        <v>240</v>
+      <c r="D44" s="4">
+        <v>20.757427</v>
       </c>
     </row>
     <row r="45">
@@ -61198,8 +61187,8 @@
       <c r="C45" s="4">
         <v>-5.5986830000000003</v>
       </c>
-      <c r="D45" t="s">
-        <v>240</v>
+      <c r="D45" s="4">
+        <v>-5.5986830000000003</v>
       </c>
     </row>
     <row r="46">
@@ -61212,8 +61201,8 @@
       <c r="C46" s="4">
         <v>21.948791</v>
       </c>
-      <c r="D46" t="s">
-        <v>240</v>
+      <c r="D46" s="4">
+        <v>21.948791</v>
       </c>
     </row>
     <row r="47">
@@ -61226,8 +61215,8 @@
       <c r="C47" s="4">
         <v>314.767135</v>
       </c>
-      <c r="D47" t="s">
-        <v>240</v>
+      <c r="D47" s="4">
+        <v>314.767135</v>
       </c>
     </row>
     <row r="48">
@@ -61240,8 +61229,8 @@
       <c r="C48" s="4">
         <v>17.155493</v>
       </c>
-      <c r="D48" t="s">
-        <v>240</v>
+      <c r="D48" s="4">
+        <v>17.155493</v>
       </c>
     </row>
     <row r="49">
@@ -61254,8 +61243,8 @@
       <c r="C49" s="4">
         <v>-95.453181000000001</v>
       </c>
-      <c r="D49" t="s">
-        <v>240</v>
+      <c r="D49" s="4">
+        <v>-95.453181000000001</v>
       </c>
     </row>
     <row r="50">
@@ -61268,8 +61257,8 @@
       <c r="C50" s="4">
         <v>-44.403452000000001</v>
       </c>
-      <c r="D50" t="s">
-        <v>240</v>
+      <c r="D50" s="4">
+        <v>-44.403452000000001</v>
       </c>
     </row>
     <row r="51">
@@ -61282,8 +61271,8 @@
       <c r="C51" s="4">
         <v>-45.299624999999999</v>
       </c>
-      <c r="D51" t="s">
-        <v>240</v>
+      <c r="D51" s="4">
+        <v>-45.299624999999999</v>
       </c>
     </row>
     <row r="52">
@@ -61296,8 +61285,8 @@
       <c r="C52" s="4">
         <v>12.108689999999999</v>
       </c>
-      <c r="D52" t="s">
-        <v>240</v>
+      <c r="D52" s="4">
+        <v>12.108689999999999</v>
       </c>
     </row>
     <row r="53">
@@ -61310,8 +61299,8 @@
       <c r="C53" s="4">
         <v>20.570854000000001</v>
       </c>
-      <c r="D53" t="s">
-        <v>240</v>
+      <c r="D53" s="4">
+        <v>20.570854000000001</v>
       </c>
     </row>
     <row r="54">
@@ -61324,8 +61313,8 @@
       <c r="C54" s="4">
         <v>35.280952999999997</v>
       </c>
-      <c r="D54" t="s">
-        <v>240</v>
+      <c r="D54" s="4">
+        <v>35.280952999999997</v>
       </c>
     </row>
     <row r="55">
@@ -61338,8 +61327,8 @@
       <c r="C55" s="4">
         <v>5.7662560000000003</v>
       </c>
-      <c r="D55" t="s">
-        <v>240</v>
+      <c r="D55" s="4">
+        <v>5.7662560000000003</v>
       </c>
     </row>
     <row r="56">
@@ -61352,8 +61341,8 @@
       <c r="C56" s="4">
         <v>-3.2294990000000001</v>
       </c>
-      <c r="D56" t="s">
-        <v>240</v>
+      <c r="D56" s="4">
+        <v>-3.2294990000000001</v>
       </c>
     </row>
     <row r="57">
@@ -61366,8 +61355,8 @@
       <c r="C57" s="4">
         <v>18.754607</v>
       </c>
-      <c r="D57" t="s">
-        <v>240</v>
+      <c r="D57" s="4">
+        <v>18.754607</v>
       </c>
     </row>
     <row r="58">
@@ -61380,8 +61369,8 @@
       <c r="C58" s="4">
         <v>32.066775</v>
       </c>
-      <c r="D58" t="s">
-        <v>240</v>
+      <c r="D58" s="4">
+        <v>32.066775</v>
       </c>
     </row>
     <row r="59">
@@ -61394,8 +61383,8 @@
       <c r="C59" s="4">
         <v>1290.929224</v>
       </c>
-      <c r="D59" t="s">
-        <v>240</v>
+      <c r="D59" s="4">
+        <v>1290.929224</v>
       </c>
     </row>
     <row r="60">
@@ -61408,8 +61397,8 @@
       <c r="C60" s="4">
         <v>208.71636000000001</v>
       </c>
-      <c r="D60" t="s">
-        <v>240</v>
+      <c r="D60" s="4">
+        <v>208.71636000000001</v>
       </c>
     </row>
     <row r="61">
@@ -61422,8 +61411,8 @@
       <c r="C61" s="4">
         <v>29.688445999999999</v>
       </c>
-      <c r="D61" t="s">
-        <v>240</v>
+      <c r="D61" s="4">
+        <v>29.688445999999999</v>
       </c>
     </row>
     <row r="62">
@@ -61436,8 +61425,8 @@
       <c r="C62" s="4">
         <v>31.216297000000001</v>
       </c>
-      <c r="D62" t="s">
-        <v>240</v>
+      <c r="D62" s="4">
+        <v>31.216297000000001</v>
       </c>
     </row>
     <row r="63">
@@ -61450,8 +61439,8 @@
       <c r="C63" s="4">
         <v>129.65941699999999</v>
       </c>
-      <c r="D63" t="s">
-        <v>240</v>
+      <c r="D63" s="4">
+        <v>129.65941699999999</v>
       </c>
     </row>
     <row r="64">
@@ -61464,8 +61453,8 @@
       <c r="C64" s="4">
         <v>-19.021474999999999</v>
       </c>
-      <c r="D64" t="s">
-        <v>240</v>
+      <c r="D64" s="4">
+        <v>-19.021474999999999</v>
       </c>
     </row>
     <row r="65">
@@ -61478,8 +61467,8 @@
       <c r="C65" s="4">
         <v>34.402746</v>
       </c>
-      <c r="D65" t="s">
-        <v>240</v>
+      <c r="D65" s="4">
+        <v>34.402746</v>
       </c>
     </row>
     <row r="66">
@@ -61492,8 +61481,8 @@
       <c r="C66" s="4">
         <v>17.854156</v>
       </c>
-      <c r="D66" t="s">
-        <v>240</v>
+      <c r="D66" s="4">
+        <v>17.854156</v>
       </c>
     </row>
     <row r="67">
@@ -61506,8 +61495,8 @@
       <c r="C67" s="4">
         <v>56.476317000000002</v>
       </c>
-      <c r="D67" t="s">
-        <v>240</v>
+      <c r="D67" s="4">
+        <v>56.476317000000002</v>
       </c>
     </row>
     <row r="68">
@@ -61520,8 +61509,8 @@
       <c r="C68" s="4">
         <v>-26.106341189999998</v>
       </c>
-      <c r="D68" t="s">
-        <v>240</v>
+      <c r="D68" s="4">
+        <v>-26.106341189999998</v>
       </c>
     </row>
     <row r="69">
@@ -61534,8 +61523,8 @@
       <c r="C69" s="4">
         <v>16.896843000000001</v>
       </c>
-      <c r="D69" t="s">
-        <v>240</v>
+      <c r="D69" s="4">
+        <v>16.896843000000001</v>
       </c>
     </row>
     <row r="70">
@@ -61548,8 +61537,8 @@
       <c r="C70" s="4">
         <v>55.605331669999998</v>
       </c>
-      <c r="D70" t="s">
-        <v>240</v>
+      <c r="D70" s="4">
+        <v>55.605331669999998</v>
       </c>
     </row>
     <row r="71">
@@ -61562,8 +61551,8 @@
       <c r="C71" s="4">
         <v>9.4952309400000008</v>
       </c>
-      <c r="D71" t="s">
-        <v>240</v>
+      <c r="D71" s="4">
+        <v>9.4952309400000008</v>
       </c>
     </row>
     <row r="72">
@@ -61576,8 +61565,8 @@
       <c r="C72" s="4">
         <v>12.279509640000001</v>
       </c>
-      <c r="D72" t="s">
-        <v>240</v>
+      <c r="D72" s="4">
+        <v>12.279509640000001</v>
       </c>
     </row>
     <row r="73">
@@ -61590,8 +61579,8 @@
       <c r="C73" s="4">
         <v>-2.55958877</v>
       </c>
-      <c r="D73" t="s">
-        <v>240</v>
+      <c r="D73" s="4">
+        <v>-2.55958877</v>
       </c>
     </row>
     <row r="74">
@@ -61604,8 +61593,8 @@
       <c r="C74" s="4">
         <v>9.7780274200000008</v>
       </c>
-      <c r="D74" t="s">
-        <v>240</v>
+      <c r="D74" s="4">
+        <v>37.0275532</v>
       </c>
     </row>
     <row r="75">
@@ -61618,8 +61607,8 @@
       <c r="C75" s="4">
         <v>29.865521149999999</v>
       </c>
-      <c r="D75" t="s">
-        <v>240</v>
+      <c r="D75" s="4">
+        <v>31.537870210000001</v>
       </c>
     </row>
     <row r="76">
@@ -61632,8 +61621,8 @@
       <c r="C76" s="4">
         <v>-11.3858745</v>
       </c>
-      <c r="D76" t="s">
-        <v>240</v>
+      <c r="D76" s="4">
+        <v>-11.3858745</v>
       </c>
     </row>
     <row r="77">
@@ -61646,8 +61635,8 @@
       <c r="C77" s="4">
         <v>5.6037043300000002</v>
       </c>
-      <c r="D77" t="s">
-        <v>240</v>
+      <c r="D77" s="4">
+        <v>7.6352232999999998</v>
       </c>
     </row>
     <row r="78">
@@ -61660,8 +61649,8 @@
       <c r="C78" s="4">
         <v>24.60972988</v>
       </c>
-      <c r="D78" t="s">
-        <v>240</v>
+      <c r="D78" s="4">
+        <v>48.938785979999999</v>
       </c>
     </row>
     <row r="79">
@@ -61674,8 +61663,8 @@
       <c r="C79" s="4">
         <v>-124.13095</v>
       </c>
-      <c r="D79" t="s">
-        <v>240</v>
+      <c r="D79" s="4">
+        <v>-115.88950177</v>
       </c>
     </row>
     <row r="80">
@@ -61688,8 +61677,8 @@
       <c r="C80" s="4">
         <v>4.6444489999999998</v>
       </c>
-      <c r="D80" t="s">
-        <v>240</v>
+      <c r="D80" s="4">
+        <v>11.219936929999999</v>
       </c>
     </row>
     <row r="81">
@@ -61702,8 +61691,8 @@
       <c r="C81" s="4">
         <v>-6.26852769</v>
       </c>
-      <c r="D81" t="s">
-        <v>240</v>
+      <c r="D81" s="4">
+        <v>1.8220098</v>
       </c>
     </row>
     <row r="82">
@@ -61716,8 +61705,8 @@
       <c r="C82" s="4">
         <v>21.81209462</v>
       </c>
-      <c r="D82" t="s">
-        <v>240</v>
+      <c r="D82" s="4">
+        <v>46.310943479999999</v>
       </c>
     </row>
     <row r="83">
@@ -61730,8 +61719,8 @@
       <c r="C83" s="4">
         <v>-12.855533449999999</v>
       </c>
-      <c r="D83" t="s">
-        <v>240</v>
+      <c r="D83" s="4">
+        <v>9.6661521500000003</v>
       </c>
     </row>
     <row r="84">
@@ -61744,8 +61733,8 @@
       <c r="C84" s="4">
         <v>11.318120410000001</v>
       </c>
-      <c r="D84" t="s">
-        <v>240</v>
+      <c r="D84" s="4">
+        <v>11.318120410000001</v>
       </c>
     </row>
     <row r="85">
@@ -61758,8 +61747,8 @@
       <c r="C85" s="4">
         <v>20.19367154</v>
       </c>
-      <c r="D85" t="s">
-        <v>240</v>
+      <c r="D85" s="4">
+        <v>20.196266009999999</v>
       </c>
     </row>
     <row r="86">
@@ -61772,8 +61761,8 @@
       <c r="C86" s="4">
         <v>94.469589979999995</v>
       </c>
-      <c r="D86" t="s">
-        <v>240</v>
+      <c r="D86" s="4">
+        <v>109.63393162</v>
       </c>
     </row>
     <row r="87">
@@ -61786,8 +61775,8 @@
       <c r="C87" s="4">
         <v>59.19768638</v>
       </c>
-      <c r="D87" t="s">
-        <v>240</v>
+      <c r="D87" s="4">
+        <v>63.190894380000003</v>
       </c>
     </row>
     <row r="88">
@@ -61800,1226 +61789,8 @@
       <c r="C88" s="4">
         <v>18.252537140000001</v>
       </c>
-      <c r="D88" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>221</v>
-      </c>
-      <c r="B89" s="5">
-        <v>36161</v>
-      </c>
-      <c r="C89" s="4">
-        <v>10.85807</v>
-      </c>
-      <c r="D89" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>221</v>
-      </c>
-      <c r="B90" s="5">
-        <v>36251</v>
-      </c>
-      <c r="C90" s="4">
-        <v>15.132585000000001</v>
-      </c>
-      <c r="D90" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>221</v>
-      </c>
-      <c r="B91" s="5">
-        <v>36342</v>
-      </c>
-      <c r="C91" s="4">
-        <v>1.071712</v>
-      </c>
-      <c r="D91" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>221</v>
-      </c>
-      <c r="B92" s="5">
-        <v>36434</v>
-      </c>
-      <c r="C92" s="4">
-        <v>0.92839400000000105</v>
-      </c>
-      <c r="D92" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>221</v>
-      </c>
-      <c r="B93" s="5">
-        <v>36526</v>
-      </c>
-      <c r="C93" s="4">
-        <v>0.25120100000000001</v>
-      </c>
-      <c r="D93" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>221</v>
-      </c>
-      <c r="B94" s="5">
-        <v>36617</v>
-      </c>
-      <c r="C94" s="4">
-        <v>-0.22622600000000001</v>
-      </c>
-      <c r="D94" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>221</v>
-      </c>
-      <c r="B95" s="5">
-        <v>36708</v>
-      </c>
-      <c r="C95" s="4">
-        <v>0.026589999999999999</v>
-      </c>
-      <c r="D95" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>221</v>
-      </c>
-      <c r="B96" s="5">
-        <v>36800</v>
-      </c>
-      <c r="C96" s="4">
-        <v>18.094066000000002</v>
-      </c>
-      <c r="D96" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>221</v>
-      </c>
-      <c r="B97" s="5">
-        <v>36892</v>
-      </c>
-      <c r="C97" s="4">
-        <v>3.7373880000000002</v>
-      </c>
-      <c r="D97" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>221</v>
-      </c>
-      <c r="B98" s="5">
-        <v>36982</v>
-      </c>
-      <c r="C98" s="4">
-        <v>-1.469676</v>
-      </c>
-      <c r="D98" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>221</v>
-      </c>
-      <c r="B99" s="5">
-        <v>37073</v>
-      </c>
-      <c r="C99" s="4">
-        <v>10.002281999999999</v>
-      </c>
-      <c r="D99" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>221</v>
-      </c>
-      <c r="B100" s="5">
-        <v>37165</v>
-      </c>
-      <c r="C100" s="4">
-        <v>30.137896999999999</v>
-      </c>
-      <c r="D100" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>221</v>
-      </c>
-      <c r="B101" s="5">
-        <v>37257</v>
-      </c>
-      <c r="C101" s="4">
-        <v>27.366866000000002</v>
-      </c>
-      <c r="D101" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>221</v>
-      </c>
-      <c r="B102" s="5">
-        <v>37347</v>
-      </c>
-      <c r="C102" s="4">
-        <v>71.020529999999994</v>
-      </c>
-      <c r="D102" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>221</v>
-      </c>
-      <c r="B103" s="5">
-        <v>37438</v>
-      </c>
-      <c r="C103" s="4">
-        <v>10.765544</v>
-      </c>
-      <c r="D103" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>221</v>
-      </c>
-      <c r="B104" s="5">
-        <v>37530</v>
-      </c>
-      <c r="C104" s="4">
-        <v>-1.141977</v>
-      </c>
-      <c r="D104" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>221</v>
-      </c>
-      <c r="B105" s="5">
-        <v>37622</v>
-      </c>
-      <c r="C105" s="4">
-        <v>13.494045</v>
-      </c>
-      <c r="D105" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>221</v>
-      </c>
-      <c r="B106" s="5">
-        <v>37712</v>
-      </c>
-      <c r="C106" s="4">
-        <v>30.070920999999998</v>
-      </c>
-      <c r="D106" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>221</v>
-      </c>
-      <c r="B107" s="5">
-        <v>37803</v>
-      </c>
-      <c r="C107" s="4">
-        <v>0</v>
-      </c>
-      <c r="D107" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>221</v>
-      </c>
-      <c r="B108" s="5">
-        <v>37895</v>
-      </c>
-      <c r="C108" s="4">
-        <v>0</v>
-      </c>
-      <c r="D108" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>221</v>
-      </c>
-      <c r="B109" s="5">
-        <v>37987</v>
-      </c>
-      <c r="C109" s="4">
-        <v>1.5516270000000001</v>
-      </c>
-      <c r="D109" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>221</v>
-      </c>
-      <c r="B110" s="5">
-        <v>38078</v>
-      </c>
-      <c r="C110" s="4">
-        <v>42.191212999999998</v>
-      </c>
-      <c r="D110" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>221</v>
-      </c>
-      <c r="B111" s="5">
-        <v>38169</v>
-      </c>
-      <c r="C111" s="4">
-        <v>-1.89754</v>
-      </c>
-      <c r="D111" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>221</v>
-      </c>
-      <c r="B112" s="5">
-        <v>38261</v>
-      </c>
-      <c r="C112" s="4">
-        <v>1.6702440000000001</v>
-      </c>
-      <c r="D112" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>221</v>
-      </c>
-      <c r="B113" s="5">
-        <v>38353</v>
-      </c>
-      <c r="C113" s="4">
-        <v>30.412996</v>
-      </c>
-      <c r="D113" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>221</v>
-      </c>
-      <c r="B114" s="5">
-        <v>38443</v>
-      </c>
-      <c r="C114" s="4">
-        <v>-11.059087</v>
-      </c>
-      <c r="D114" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>221</v>
-      </c>
-      <c r="B115" s="5">
-        <v>38534</v>
-      </c>
-      <c r="C115" s="4">
-        <v>0.34495999999999999</v>
-      </c>
-      <c r="D115" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>221</v>
-      </c>
-      <c r="B116" s="5">
-        <v>38626</v>
-      </c>
-      <c r="C116" s="4">
-        <v>2.5656889999999999</v>
-      </c>
-      <c r="D116" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>221</v>
-      </c>
-      <c r="B117" s="5">
-        <v>38718</v>
-      </c>
-      <c r="C117" s="4">
-        <v>-65.219189999999998</v>
-      </c>
-      <c r="D117" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>221</v>
-      </c>
-      <c r="B118" s="5">
-        <v>38808</v>
-      </c>
-      <c r="C118" s="4">
-        <v>53.555705000000003</v>
-      </c>
-      <c r="D118" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>221</v>
-      </c>
-      <c r="B119" s="5">
-        <v>38899</v>
-      </c>
-      <c r="C119" s="4">
-        <v>1.5008859999999999</v>
-      </c>
-      <c r="D119" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>221</v>
-      </c>
-      <c r="B120" s="5">
-        <v>38991</v>
-      </c>
-      <c r="C120" s="4">
-        <v>1.4106270000000001</v>
-      </c>
-      <c r="D120" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>221</v>
-      </c>
-      <c r="B121" s="5">
-        <v>39083</v>
-      </c>
-      <c r="C121" s="4">
-        <v>169.57198299999999</v>
-      </c>
-      <c r="D121" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s">
-        <v>221</v>
-      </c>
-      <c r="B122" s="5">
-        <v>39173</v>
-      </c>
-      <c r="C122" s="4">
-        <v>93.923772999999997</v>
-      </c>
-      <c r="D122" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>221</v>
-      </c>
-      <c r="B123" s="5">
-        <v>39264</v>
-      </c>
-      <c r="C123" s="4">
-        <v>-145.45596499999999</v>
-      </c>
-      <c r="D123" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>221</v>
-      </c>
-      <c r="B124" s="5">
-        <v>39356</v>
-      </c>
-      <c r="C124" s="4">
-        <v>15.230097000000001</v>
-      </c>
-      <c r="D124" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>221</v>
-      </c>
-      <c r="B125" s="5">
-        <v>39448</v>
-      </c>
-      <c r="C125" s="4">
-        <v>32.722607000000004</v>
-      </c>
-      <c r="D125" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>221</v>
-      </c>
-      <c r="B126" s="5">
-        <v>39539</v>
-      </c>
-      <c r="C126" s="4">
-        <v>62.621254</v>
-      </c>
-      <c r="D126" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>221</v>
-      </c>
-      <c r="B127" s="5">
-        <v>39630</v>
-      </c>
-      <c r="C127" s="4">
-        <v>3.9593020000000001</v>
-      </c>
-      <c r="D127" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>221</v>
-      </c>
-      <c r="B128" s="5">
-        <v>39722</v>
-      </c>
-      <c r="C128" s="4">
-        <v>-1.6047929999999999</v>
-      </c>
-      <c r="D128" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>221</v>
-      </c>
-      <c r="B129" s="5">
-        <v>39814</v>
-      </c>
-      <c r="C129" s="4">
-        <v>25.981366000000001</v>
-      </c>
-      <c r="D129" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>221</v>
-      </c>
-      <c r="B130" s="5">
-        <v>39904</v>
-      </c>
-      <c r="C130" s="4">
-        <v>89.093726000000004</v>
-      </c>
-      <c r="D130" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>221</v>
-      </c>
-      <c r="B131" s="5">
-        <v>39995</v>
-      </c>
-      <c r="C131" s="4">
-        <v>20.757427</v>
-      </c>
-      <c r="D131" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>221</v>
-      </c>
-      <c r="B132" s="5">
-        <v>40087</v>
-      </c>
-      <c r="C132" s="4">
-        <v>-5.5986830000000003</v>
-      </c>
-      <c r="D132" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>221</v>
-      </c>
-      <c r="B133" s="5">
-        <v>40179</v>
-      </c>
-      <c r="C133" s="4">
-        <v>21.948791</v>
-      </c>
-      <c r="D133" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>221</v>
-      </c>
-      <c r="B134" s="5">
-        <v>40269</v>
-      </c>
-      <c r="C134" s="4">
-        <v>314.767135</v>
-      </c>
-      <c r="D134" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>221</v>
-      </c>
-      <c r="B135" s="5">
-        <v>40360</v>
-      </c>
-      <c r="C135" s="4">
-        <v>17.155493</v>
-      </c>
-      <c r="D135" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>221</v>
-      </c>
-      <c r="B136" s="5">
-        <v>40452</v>
-      </c>
-      <c r="C136" s="4">
-        <v>-95.453181000000001</v>
-      </c>
-      <c r="D136" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>221</v>
-      </c>
-      <c r="B137" s="5">
-        <v>40544</v>
-      </c>
-      <c r="C137" s="4">
-        <v>-44.403452000000001</v>
-      </c>
-      <c r="D137" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>221</v>
-      </c>
-      <c r="B138" s="5">
-        <v>40634</v>
-      </c>
-      <c r="C138" s="4">
-        <v>-45.299624999999999</v>
-      </c>
-      <c r="D138" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>221</v>
-      </c>
-      <c r="B139" s="5">
-        <v>40725</v>
-      </c>
-      <c r="C139" s="4">
-        <v>12.108689999999999</v>
-      </c>
-      <c r="D139" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>221</v>
-      </c>
-      <c r="B140" s="5">
-        <v>40817</v>
-      </c>
-      <c r="C140" s="4">
-        <v>20.570854000000001</v>
-      </c>
-      <c r="D140" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>221</v>
-      </c>
-      <c r="B141" s="5">
-        <v>40909</v>
-      </c>
-      <c r="C141" s="4">
-        <v>35.280952999999997</v>
-      </c>
-      <c r="D141" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>221</v>
-      </c>
-      <c r="B142" s="5">
-        <v>41000</v>
-      </c>
-      <c r="C142" s="4">
-        <v>5.7662560000000003</v>
-      </c>
-      <c r="D142" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>221</v>
-      </c>
-      <c r="B143" s="5">
-        <v>41091</v>
-      </c>
-      <c r="C143" s="4">
-        <v>-3.2294990000000001</v>
-      </c>
-      <c r="D143" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
-        <v>221</v>
-      </c>
-      <c r="B144" s="5">
-        <v>41183</v>
-      </c>
-      <c r="C144" s="4">
-        <v>18.754607</v>
-      </c>
-      <c r="D144" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s">
-        <v>221</v>
-      </c>
-      <c r="B145" s="5">
-        <v>41275</v>
-      </c>
-      <c r="C145" s="4">
-        <v>32.066775</v>
-      </c>
-      <c r="D145" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
-        <v>221</v>
-      </c>
-      <c r="B146" s="5">
-        <v>41365</v>
-      </c>
-      <c r="C146" s="4">
-        <v>1290.929224</v>
-      </c>
-      <c r="D146" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
-        <v>221</v>
-      </c>
-      <c r="B147" s="5">
-        <v>41456</v>
-      </c>
-      <c r="C147" s="4">
-        <v>208.71636000000001</v>
-      </c>
-      <c r="D147" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s">
-        <v>221</v>
-      </c>
-      <c r="B148" s="5">
-        <v>41548</v>
-      </c>
-      <c r="C148" s="4">
-        <v>29.688445999999999</v>
-      </c>
-      <c r="D148" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s">
-        <v>221</v>
-      </c>
-      <c r="B149" s="5">
-        <v>41640</v>
-      </c>
-      <c r="C149" s="4">
-        <v>31.216297000000001</v>
-      </c>
-      <c r="D149" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
-        <v>221</v>
-      </c>
-      <c r="B150" s="5">
-        <v>41730</v>
-      </c>
-      <c r="C150" s="4">
-        <v>129.65941699999999</v>
-      </c>
-      <c r="D150" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s">
-        <v>221</v>
-      </c>
-      <c r="B151" s="5">
-        <v>41821</v>
-      </c>
-      <c r="C151" s="4">
-        <v>-19.021474999999999</v>
-      </c>
-      <c r="D151" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
-        <v>221</v>
-      </c>
-      <c r="B152" s="5">
-        <v>41913</v>
-      </c>
-      <c r="C152" s="4">
-        <v>34.402746</v>
-      </c>
-      <c r="D152" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s">
-        <v>221</v>
-      </c>
-      <c r="B153" s="5">
-        <v>42005</v>
-      </c>
-      <c r="C153" s="4">
-        <v>17.854156</v>
-      </c>
-      <c r="D153" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s">
-        <v>221</v>
-      </c>
-      <c r="B154" s="5">
-        <v>42095</v>
-      </c>
-      <c r="C154" s="4">
-        <v>56.476317000000002</v>
-      </c>
-      <c r="D154" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
-        <v>221</v>
-      </c>
-      <c r="B155" s="5">
-        <v>42186</v>
-      </c>
-      <c r="C155" s="4">
-        <v>-26.106341189999998</v>
-      </c>
-      <c r="D155" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
-        <v>221</v>
-      </c>
-      <c r="B156" s="5">
-        <v>42278</v>
-      </c>
-      <c r="C156" s="4">
-        <v>16.896843000000001</v>
-      </c>
-      <c r="D156" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
-        <v>221</v>
-      </c>
-      <c r="B157" s="5">
-        <v>42370</v>
-      </c>
-      <c r="C157" s="4">
-        <v>55.605331669999998</v>
-      </c>
-      <c r="D157" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>221</v>
-      </c>
-      <c r="B158" s="5">
-        <v>42461</v>
-      </c>
-      <c r="C158" s="4">
-        <v>9.4952309400000008</v>
-      </c>
-      <c r="D158" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>221</v>
-      </c>
-      <c r="B159" s="5">
-        <v>42552</v>
-      </c>
-      <c r="C159" s="4">
-        <v>12.279509640000001</v>
-      </c>
-      <c r="D159" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>221</v>
-      </c>
-      <c r="B160" s="5">
-        <v>42644</v>
-      </c>
-      <c r="C160" s="4">
-        <v>-2.55958877</v>
-      </c>
-      <c r="D160" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
-        <v>221</v>
-      </c>
-      <c r="B161" s="5">
-        <v>42736</v>
-      </c>
-      <c r="C161" s="4">
-        <v>37.0275532</v>
-      </c>
-      <c r="D161" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>221</v>
-      </c>
-      <c r="B162" s="5">
-        <v>42826</v>
-      </c>
-      <c r="C162" s="4">
-        <v>31.537870210000001</v>
-      </c>
-      <c r="D162" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>221</v>
-      </c>
-      <c r="B163" s="5">
-        <v>42917</v>
-      </c>
-      <c r="C163" s="4">
-        <v>-11.3858745</v>
-      </c>
-      <c r="D163" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>221</v>
-      </c>
-      <c r="B164" s="5">
-        <v>43009</v>
-      </c>
-      <c r="C164" s="4">
-        <v>7.6352232999999998</v>
-      </c>
-      <c r="D164" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s">
-        <v>221</v>
-      </c>
-      <c r="B165" s="5">
-        <v>43101</v>
-      </c>
-      <c r="C165" s="4">
-        <v>48.938785979999999</v>
-      </c>
-      <c r="D165" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s">
-        <v>221</v>
-      </c>
-      <c r="B166" s="5">
-        <v>43191</v>
-      </c>
-      <c r="C166" s="4">
-        <v>-115.88950177</v>
-      </c>
-      <c r="D166" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>221</v>
-      </c>
-      <c r="B167" s="5">
-        <v>43282</v>
-      </c>
-      <c r="C167" s="4">
-        <v>11.219936929999999</v>
-      </c>
-      <c r="D167" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s">
-        <v>221</v>
-      </c>
-      <c r="B168" s="5">
-        <v>43374</v>
-      </c>
-      <c r="C168" s="4">
-        <v>1.8220098</v>
-      </c>
-      <c r="D168" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s">
-        <v>221</v>
-      </c>
-      <c r="B169" s="5">
-        <v>43466</v>
-      </c>
-      <c r="C169" s="4">
-        <v>46.310943479999999</v>
-      </c>
-      <c r="D169" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s">
-        <v>221</v>
-      </c>
-      <c r="B170" s="5">
-        <v>43556</v>
-      </c>
-      <c r="C170" s="4">
-        <v>9.6661521500000003</v>
-      </c>
-      <c r="D170" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s">
-        <v>221</v>
-      </c>
-      <c r="B171" s="5">
-        <v>43647</v>
-      </c>
-      <c r="C171" s="4">
-        <v>11.318120410000001</v>
-      </c>
-      <c r="D171" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s">
-        <v>221</v>
-      </c>
-      <c r="B172" s="5">
-        <v>43739</v>
-      </c>
-      <c r="C172" s="4">
-        <v>20.196266009999999</v>
-      </c>
-      <c r="D172" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s">
-        <v>221</v>
-      </c>
-      <c r="B173" s="5">
-        <v>43831</v>
-      </c>
-      <c r="C173" s="4">
-        <v>109.63393162</v>
-      </c>
-      <c r="D173" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s">
-        <v>221</v>
-      </c>
-      <c r="B174" s="5">
-        <v>43922</v>
-      </c>
-      <c r="C174" s="4">
-        <v>63.190894380000003</v>
-      </c>
-      <c r="D174" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s">
-        <v>221</v>
-      </c>
-      <c r="B175" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C175" s="4">
+      <c r="D88" s="4">
         <v>18.252537140000001</v>
-      </c>
-      <c r="D175" t="s">
-        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8678" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8765" uniqueCount="245">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 02/12/2021</t>
+    <t xml:space="preserve"> 02/14/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -763,6 +763,9 @@
   <si>
     <t>(sum) c</t>
   </si>
+  <si>
+    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
+  </si>
 </sst>
 </file>
 
@@ -60868,8 +60871,8 @@
       <c r="D2" s="4">
         <v>10.85807</v>
       </c>
-      <c r="E2" s="4">
-        <v>0</v>
+      <c r="E2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="3">
@@ -60885,8 +60888,8 @@
       <c r="D3" s="4">
         <v>15.132585000000001</v>
       </c>
-      <c r="E3" s="4">
-        <v>0</v>
+      <c r="E3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="4">
@@ -60902,8 +60905,8 @@
       <c r="D4" s="4">
         <v>1.071712</v>
       </c>
-      <c r="E4" s="4">
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="5">
@@ -60919,8 +60922,8 @@
       <c r="D5" s="4">
         <v>0.92839400000000105</v>
       </c>
-      <c r="E5" s="4">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="6">
@@ -60936,8 +60939,8 @@
       <c r="D6" s="4">
         <v>0.25120100000000001</v>
       </c>
-      <c r="E6" s="4">
-        <v>0</v>
+      <c r="E6" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="7">
@@ -60953,8 +60956,8 @@
       <c r="D7" s="4">
         <v>-0.22622600000000001</v>
       </c>
-      <c r="E7" s="4">
-        <v>0</v>
+      <c r="E7" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="8">
@@ -60970,8 +60973,8 @@
       <c r="D8" s="4">
         <v>0.026589999999999999</v>
       </c>
-      <c r="E8" s="4">
-        <v>0</v>
+      <c r="E8" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="9">
@@ -60987,8 +60990,8 @@
       <c r="D9" s="4">
         <v>18.094066000000002</v>
       </c>
-      <c r="E9" s="4">
-        <v>0</v>
+      <c r="E9" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="10">
@@ -61004,8 +61007,8 @@
       <c r="D10" s="4">
         <v>3.7373880000000002</v>
       </c>
-      <c r="E10" s="4">
-        <v>0</v>
+      <c r="E10" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="11">
@@ -61021,8 +61024,8 @@
       <c r="D11" s="4">
         <v>-1.469676</v>
       </c>
-      <c r="E11" s="4">
-        <v>0</v>
+      <c r="E11" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="12">
@@ -61038,8 +61041,8 @@
       <c r="D12" s="4">
         <v>10.002281999999999</v>
       </c>
-      <c r="E12" s="4">
-        <v>0</v>
+      <c r="E12" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="13">
@@ -61055,8 +61058,8 @@
       <c r="D13" s="4">
         <v>30.137896999999999</v>
       </c>
-      <c r="E13" s="4">
-        <v>0</v>
+      <c r="E13" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="14">
@@ -61072,8 +61075,8 @@
       <c r="D14" s="4">
         <v>27.366866000000002</v>
       </c>
-      <c r="E14" s="4">
-        <v>0</v>
+      <c r="E14" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="15">
@@ -61089,8 +61092,8 @@
       <c r="D15" s="4">
         <v>71.020529999999994</v>
       </c>
-      <c r="E15" s="4">
-        <v>0</v>
+      <c r="E15" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="16">
@@ -61106,8 +61109,8 @@
       <c r="D16" s="4">
         <v>10.765544</v>
       </c>
-      <c r="E16" s="4">
-        <v>0</v>
+      <c r="E16" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="17">
@@ -61123,8 +61126,8 @@
       <c r="D17" s="4">
         <v>-1.141977</v>
       </c>
-      <c r="E17" s="4">
-        <v>0</v>
+      <c r="E17" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="18">
@@ -61140,8 +61143,8 @@
       <c r="D18" s="4">
         <v>13.494045</v>
       </c>
-      <c r="E18" s="4">
-        <v>0</v>
+      <c r="E18" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="19">
@@ -61157,8 +61160,8 @@
       <c r="D19" s="4">
         <v>30.070920999999998</v>
       </c>
-      <c r="E19" s="4">
-        <v>0</v>
+      <c r="E19" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="20">
@@ -61174,8 +61177,8 @@
       <c r="D20" s="4">
         <v>0</v>
       </c>
-      <c r="E20" s="4">
-        <v>1</v>
+      <c r="E20" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="21">
@@ -61191,8 +61194,8 @@
       <c r="D21" s="4">
         <v>0</v>
       </c>
-      <c r="E21" s="4">
-        <v>1</v>
+      <c r="E21" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="22">
@@ -61208,8 +61211,8 @@
       <c r="D22" s="4">
         <v>1.5516270000000001</v>
       </c>
-      <c r="E22" s="4">
-        <v>0</v>
+      <c r="E22" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="23">
@@ -61225,8 +61228,8 @@
       <c r="D23" s="4">
         <v>42.191212999999998</v>
       </c>
-      <c r="E23" s="4">
-        <v>0</v>
+      <c r="E23" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="24">
@@ -61242,8 +61245,8 @@
       <c r="D24" s="4">
         <v>-1.89754</v>
       </c>
-      <c r="E24" s="4">
-        <v>0</v>
+      <c r="E24" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="25">
@@ -61259,8 +61262,8 @@
       <c r="D25" s="4">
         <v>1.6702440000000001</v>
       </c>
-      <c r="E25" s="4">
-        <v>0</v>
+      <c r="E25" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="26">
@@ -61276,8 +61279,8 @@
       <c r="D26" s="4">
         <v>30.412996</v>
       </c>
-      <c r="E26" s="4">
-        <v>0</v>
+      <c r="E26" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="27">
@@ -61293,8 +61296,8 @@
       <c r="D27" s="4">
         <v>-11.059087</v>
       </c>
-      <c r="E27" s="4">
-        <v>0</v>
+      <c r="E27" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="28">
@@ -61310,8 +61313,8 @@
       <c r="D28" s="4">
         <v>0.34495999999999999</v>
       </c>
-      <c r="E28" s="4">
-        <v>0</v>
+      <c r="E28" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="29">
@@ -61327,8 +61330,8 @@
       <c r="D29" s="4">
         <v>2.5656889999999999</v>
       </c>
-      <c r="E29" s="4">
-        <v>0</v>
+      <c r="E29" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="30">
@@ -61344,8 +61347,8 @@
       <c r="D30" s="4">
         <v>-65.219189999999998</v>
       </c>
-      <c r="E30" s="4">
-        <v>0</v>
+      <c r="E30" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="31">
@@ -61361,8 +61364,8 @@
       <c r="D31" s="4">
         <v>53.555705000000003</v>
       </c>
-      <c r="E31" s="4">
-        <v>0</v>
+      <c r="E31" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="32">
@@ -61378,8 +61381,8 @@
       <c r="D32" s="4">
         <v>1.5008859999999999</v>
       </c>
-      <c r="E32" s="4">
-        <v>0</v>
+      <c r="E32" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="33">
@@ -61395,8 +61398,8 @@
       <c r="D33" s="4">
         <v>1.4106270000000001</v>
       </c>
-      <c r="E33" s="4">
-        <v>0</v>
+      <c r="E33" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="34">
@@ -61412,8 +61415,8 @@
       <c r="D34" s="4">
         <v>169.57198299999999</v>
       </c>
-      <c r="E34" s="4">
-        <v>0</v>
+      <c r="E34" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="35">
@@ -61429,8 +61432,8 @@
       <c r="D35" s="4">
         <v>93.923772999999997</v>
       </c>
-      <c r="E35" s="4">
-        <v>0</v>
+      <c r="E35" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="36">
@@ -61446,8 +61449,8 @@
       <c r="D36" s="4">
         <v>-145.45596499999999</v>
       </c>
-      <c r="E36" s="4">
-        <v>0</v>
+      <c r="E36" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="37">
@@ -61463,8 +61466,8 @@
       <c r="D37" s="4">
         <v>15.230097000000001</v>
       </c>
-      <c r="E37" s="4">
-        <v>0</v>
+      <c r="E37" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="38">
@@ -61480,8 +61483,8 @@
       <c r="D38" s="4">
         <v>32.722607000000004</v>
       </c>
-      <c r="E38" s="4">
-        <v>0</v>
+      <c r="E38" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="39">
@@ -61497,8 +61500,8 @@
       <c r="D39" s="4">
         <v>62.621254</v>
       </c>
-      <c r="E39" s="4">
-        <v>0</v>
+      <c r="E39" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="40">
@@ -61514,8 +61517,8 @@
       <c r="D40" s="4">
         <v>3.9593020000000001</v>
       </c>
-      <c r="E40" s="4">
-        <v>0</v>
+      <c r="E40" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="41">
@@ -61531,8 +61534,8 @@
       <c r="D41" s="4">
         <v>-1.6047929999999999</v>
       </c>
-      <c r="E41" s="4">
-        <v>0</v>
+      <c r="E41" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="42">
@@ -61548,8 +61551,8 @@
       <c r="D42" s="4">
         <v>25.981366000000001</v>
       </c>
-      <c r="E42" s="4">
-        <v>0</v>
+      <c r="E42" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="43">
@@ -61565,8 +61568,8 @@
       <c r="D43" s="4">
         <v>89.093726000000004</v>
       </c>
-      <c r="E43" s="4">
-        <v>0</v>
+      <c r="E43" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="44">
@@ -61582,8 +61585,8 @@
       <c r="D44" s="4">
         <v>20.757427</v>
       </c>
-      <c r="E44" s="4">
-        <v>0</v>
+      <c r="E44" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="45">
@@ -61599,8 +61602,8 @@
       <c r="D45" s="4">
         <v>-5.5986830000000003</v>
       </c>
-      <c r="E45" s="4">
-        <v>0</v>
+      <c r="E45" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="46">
@@ -61616,8 +61619,8 @@
       <c r="D46" s="4">
         <v>21.948791</v>
       </c>
-      <c r="E46" s="4">
-        <v>0</v>
+      <c r="E46" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="47">
@@ -61633,8 +61636,8 @@
       <c r="D47" s="4">
         <v>314.767135</v>
       </c>
-      <c r="E47" s="4">
-        <v>0</v>
+      <c r="E47" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="48">
@@ -61650,8 +61653,8 @@
       <c r="D48" s="4">
         <v>17.155493</v>
       </c>
-      <c r="E48" s="4">
-        <v>0</v>
+      <c r="E48" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="49">
@@ -61667,8 +61670,8 @@
       <c r="D49" s="4">
         <v>-95.453181000000001</v>
       </c>
-      <c r="E49" s="4">
-        <v>0</v>
+      <c r="E49" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="50">
@@ -61684,8 +61687,8 @@
       <c r="D50" s="4">
         <v>-44.403452000000001</v>
       </c>
-      <c r="E50" s="4">
-        <v>0</v>
+      <c r="E50" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="51">
@@ -61701,8 +61704,8 @@
       <c r="D51" s="4">
         <v>-45.299624999999999</v>
       </c>
-      <c r="E51" s="4">
-        <v>0</v>
+      <c r="E51" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="52">
@@ -61718,8 +61721,8 @@
       <c r="D52" s="4">
         <v>12.108689999999999</v>
       </c>
-      <c r="E52" s="4">
-        <v>0</v>
+      <c r="E52" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="53">
@@ -61735,8 +61738,8 @@
       <c r="D53" s="4">
         <v>20.570854000000001</v>
       </c>
-      <c r="E53" s="4">
-        <v>0</v>
+      <c r="E53" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="54">
@@ -61752,8 +61755,8 @@
       <c r="D54" s="4">
         <v>35.280952999999997</v>
       </c>
-      <c r="E54" s="4">
-        <v>0</v>
+      <c r="E54" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="55">
@@ -61769,8 +61772,8 @@
       <c r="D55" s="4">
         <v>5.7662560000000003</v>
       </c>
-      <c r="E55" s="4">
-        <v>0</v>
+      <c r="E55" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="56">
@@ -61786,8 +61789,8 @@
       <c r="D56" s="4">
         <v>-3.2294990000000001</v>
       </c>
-      <c r="E56" s="4">
-        <v>0</v>
+      <c r="E56" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="57">
@@ -61803,8 +61806,8 @@
       <c r="D57" s="4">
         <v>18.754607</v>
       </c>
-      <c r="E57" s="4">
-        <v>0</v>
+      <c r="E57" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="58">
@@ -61820,8 +61823,8 @@
       <c r="D58" s="4">
         <v>32.066775</v>
       </c>
-      <c r="E58" s="4">
-        <v>0</v>
+      <c r="E58" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="59">
@@ -61837,8 +61840,8 @@
       <c r="D59" s="4">
         <v>1290.929224</v>
       </c>
-      <c r="E59" s="4">
-        <v>0</v>
+      <c r="E59" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="60">
@@ -61854,8 +61857,8 @@
       <c r="D60" s="4">
         <v>208.71636000000001</v>
       </c>
-      <c r="E60" s="4">
-        <v>0</v>
+      <c r="E60" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="61">
@@ -61871,8 +61874,8 @@
       <c r="D61" s="4">
         <v>29.688445999999999</v>
       </c>
-      <c r="E61" s="4">
-        <v>0</v>
+      <c r="E61" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="62">
@@ -61888,8 +61891,8 @@
       <c r="D62" s="4">
         <v>31.216297000000001</v>
       </c>
-      <c r="E62" s="4">
-        <v>0</v>
+      <c r="E62" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="63">
@@ -61905,8 +61908,8 @@
       <c r="D63" s="4">
         <v>129.65941699999999</v>
       </c>
-      <c r="E63" s="4">
-        <v>0</v>
+      <c r="E63" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="64">
@@ -61922,8 +61925,8 @@
       <c r="D64" s="4">
         <v>-19.021474999999999</v>
       </c>
-      <c r="E64" s="4">
-        <v>0</v>
+      <c r="E64" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="65">
@@ -61939,8 +61942,8 @@
       <c r="D65" s="4">
         <v>34.402746</v>
       </c>
-      <c r="E65" s="4">
-        <v>0</v>
+      <c r="E65" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="66">
@@ -61956,8 +61959,8 @@
       <c r="D66" s="4">
         <v>17.854156</v>
       </c>
-      <c r="E66" s="4">
-        <v>0</v>
+      <c r="E66" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="67">
@@ -61973,8 +61976,8 @@
       <c r="D67" s="4">
         <v>56.476317000000002</v>
       </c>
-      <c r="E67" s="4">
-        <v>0</v>
+      <c r="E67" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="68">
@@ -61990,8 +61993,8 @@
       <c r="D68" s="4">
         <v>-26.106341189999998</v>
       </c>
-      <c r="E68" s="4">
-        <v>0</v>
+      <c r="E68" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="69">
@@ -62007,8 +62010,8 @@
       <c r="D69" s="4">
         <v>16.896843000000001</v>
       </c>
-      <c r="E69" s="4">
-        <v>0</v>
+      <c r="E69" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="70">
@@ -62024,8 +62027,8 @@
       <c r="D70" s="4">
         <v>55.605331669999998</v>
       </c>
-      <c r="E70" s="4">
-        <v>0</v>
+      <c r="E70" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="71">
@@ -62041,8 +62044,8 @@
       <c r="D71" s="4">
         <v>9.4952309400000008</v>
       </c>
-      <c r="E71" s="4">
-        <v>0</v>
+      <c r="E71" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="72">
@@ -62058,8 +62061,8 @@
       <c r="D72" s="4">
         <v>12.279509640000001</v>
       </c>
-      <c r="E72" s="4">
-        <v>0</v>
+      <c r="E72" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="73">
@@ -62075,8 +62078,8 @@
       <c r="D73" s="4">
         <v>-2.55958877</v>
       </c>
-      <c r="E73" s="4">
-        <v>0</v>
+      <c r="E73" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="74">
@@ -62092,8 +62095,8 @@
       <c r="D74" s="4">
         <v>37.0275532</v>
       </c>
-      <c r="E74" s="4">
-        <v>0</v>
+      <c r="E74" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="75">
@@ -62109,8 +62112,8 @@
       <c r="D75" s="4">
         <v>31.537870210000001</v>
       </c>
-      <c r="E75" s="4">
-        <v>0</v>
+      <c r="E75" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="76">
@@ -62126,8 +62129,8 @@
       <c r="D76" s="4">
         <v>-11.3858745</v>
       </c>
-      <c r="E76" s="4">
-        <v>0</v>
+      <c r="E76" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="77">
@@ -62143,8 +62146,8 @@
       <c r="D77" s="4">
         <v>7.6352232999999998</v>
       </c>
-      <c r="E77" s="4">
-        <v>0</v>
+      <c r="E77" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="78">
@@ -62160,8 +62163,8 @@
       <c r="D78" s="4">
         <v>48.938785979999999</v>
       </c>
-      <c r="E78" s="4">
-        <v>0</v>
+      <c r="E78" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="79">
@@ -62177,8 +62180,8 @@
       <c r="D79" s="4">
         <v>-115.88950177</v>
       </c>
-      <c r="E79" s="4">
-        <v>0</v>
+      <c r="E79" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="80">
@@ -62194,8 +62197,8 @@
       <c r="D80" s="4">
         <v>11.219936929999999</v>
       </c>
-      <c r="E80" s="4">
-        <v>0</v>
+      <c r="E80" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="81">
@@ -62211,8 +62214,8 @@
       <c r="D81" s="4">
         <v>1.8220098</v>
       </c>
-      <c r="E81" s="4">
-        <v>0</v>
+      <c r="E81" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="82">
@@ -62228,8 +62231,8 @@
       <c r="D82" s="4">
         <v>46.310943479999999</v>
       </c>
-      <c r="E82" s="4">
-        <v>0</v>
+      <c r="E82" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="83">
@@ -62245,8 +62248,8 @@
       <c r="D83" s="4">
         <v>9.6661521500000003</v>
       </c>
-      <c r="E83" s="4">
-        <v>0</v>
+      <c r="E83" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="84">
@@ -62262,8 +62265,8 @@
       <c r="D84" s="4">
         <v>11.318120410000001</v>
       </c>
-      <c r="E84" s="4">
-        <v>0</v>
+      <c r="E84" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="85">
@@ -62279,8 +62282,8 @@
       <c r="D85" s="4">
         <v>20.196266009999999</v>
       </c>
-      <c r="E85" s="4">
-        <v>0</v>
+      <c r="E85" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="86">
@@ -62296,8 +62299,8 @@
       <c r="D86" s="4">
         <v>109.63393162</v>
       </c>
-      <c r="E86" s="4">
-        <v>0</v>
+      <c r="E86" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="87">
@@ -62313,8 +62316,8 @@
       <c r="D87" s="4">
         <v>63.190894380000003</v>
       </c>
-      <c r="E87" s="4">
-        <v>0</v>
+      <c r="E87" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="88">
@@ -62330,8 +62333,8 @@
       <c r="D88" s="4">
         <v>18.252537140000001</v>
       </c>
-      <c r="E88" s="4">
-        <v>0</v>
+      <c r="E88" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 02/14/2021</t>
+    <t xml:space="preserve"> 02/15/2021</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8789" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8735" uniqueCount="244">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 02/18/2021</t>
+    <t xml:space="preserve"> 02/19/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -749,12 +749,6 @@
     <t>Miles de pesos</t>
   </si>
   <si>
-    <t>parcial</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Inversión extranjera directa, cifras preliminares</t>
   </si>
   <si>
@@ -762,6 +756,9 @@
   </si>
   <si>
     <t>(sum) c</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Cifra parcial u omitida por motivos de confidencialidad</t>
@@ -60181,7 +60178,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:C56"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -60194,9 +60191,6 @@
       <c r="C1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="5">
@@ -60208,9 +60202,6 @@
       <c r="C2" s="4">
         <v>167155</v>
       </c>
-      <c r="D2" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="5">
@@ -60222,9 +60213,6 @@
       <c r="C3" s="4">
         <v>158761</v>
       </c>
-      <c r="D3" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="5">
@@ -60236,9 +60224,6 @@
       <c r="C4" s="4">
         <v>198232</v>
       </c>
-      <c r="D4" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="5">
@@ -60250,9 +60235,6 @@
       <c r="C5" s="4">
         <v>176793</v>
       </c>
-      <c r="D5" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="5">
@@ -60264,9 +60246,6 @@
       <c r="C6" s="4">
         <v>153691</v>
       </c>
-      <c r="D6" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="5">
@@ -60278,9 +60257,6 @@
       <c r="C7" s="4">
         <v>192735</v>
       </c>
-      <c r="D7" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="5">
@@ -60292,9 +60268,6 @@
       <c r="C8" s="4">
         <v>171039</v>
       </c>
-      <c r="D8" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="5">
@@ -60306,9 +60279,6 @@
       <c r="C9" s="4">
         <v>170733</v>
       </c>
-      <c r="D9" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="5">
@@ -60320,9 +60290,6 @@
       <c r="C10" s="4">
         <v>138979</v>
       </c>
-      <c r="D10" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="5">
@@ -60334,9 +60301,6 @@
       <c r="C11" s="4">
         <v>164814</v>
       </c>
-      <c r="D11" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="5">
@@ -60348,9 +60312,6 @@
       <c r="C12" s="4">
         <v>160231</v>
       </c>
-      <c r="D12" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="5">
@@ -60362,9 +60323,6 @@
       <c r="C13" s="4">
         <v>127625</v>
       </c>
-      <c r="D13" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="5">
@@ -60376,9 +60334,6 @@
       <c r="C14" s="4">
         <v>130011</v>
       </c>
-      <c r="D14" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="5">
@@ -60390,9 +60345,6 @@
       <c r="C15" s="4">
         <v>166658</v>
       </c>
-      <c r="D15" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="5">
@@ -60404,9 +60356,6 @@
       <c r="C16" s="4">
         <v>165626</v>
       </c>
-      <c r="D16" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="5">
@@ -60418,9 +60367,6 @@
       <c r="C17" s="4">
         <v>181959</v>
       </c>
-      <c r="D17" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="5">
@@ -60432,9 +60378,6 @@
       <c r="C18" s="4">
         <v>180517</v>
       </c>
-      <c r="D18" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="5">
@@ -60446,9 +60389,6 @@
       <c r="C19" s="4">
         <v>208407</v>
       </c>
-      <c r="D19" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="5">
@@ -60460,9 +60400,6 @@
       <c r="C20" s="4">
         <v>206653</v>
       </c>
-      <c r="D20" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="5">
@@ -60474,9 +60411,6 @@
       <c r="C21" s="4">
         <v>176186</v>
       </c>
-      <c r="D21" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="5">
@@ -60488,9 +60422,6 @@
       <c r="C22" s="4">
         <v>233689</v>
       </c>
-      <c r="D22" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="5">
@@ -60502,9 +60433,6 @@
       <c r="C23" s="4">
         <v>257294</v>
       </c>
-      <c r="D23" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="5">
@@ -60516,9 +60444,6 @@
       <c r="C24" s="4">
         <v>240601</v>
       </c>
-      <c r="D24" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="5">
@@ -60530,9 +60455,6 @@
       <c r="C25" s="4">
         <v>256854</v>
       </c>
-      <c r="D25" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="5">
@@ -60544,9 +60466,6 @@
       <c r="C26" s="4">
         <v>258989</v>
       </c>
-      <c r="D26" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="5">
@@ -60558,9 +60477,6 @@
       <c r="C27" s="4">
         <v>265100</v>
       </c>
-      <c r="D27" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="5">
@@ -60572,9 +60488,6 @@
       <c r="C28" s="4">
         <v>267897</v>
       </c>
-      <c r="D28" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="5">
@@ -60586,9 +60499,6 @@
       <c r="C29" s="4">
         <v>256704</v>
       </c>
-      <c r="D29" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="5">
@@ -60600,9 +60510,6 @@
       <c r="C30" s="4">
         <v>252451</v>
       </c>
-      <c r="D30" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="5">
@@ -60614,9 +60521,6 @@
       <c r="C31" s="4">
         <v>355883</v>
       </c>
-      <c r="D31" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="5">
@@ -60628,9 +60532,6 @@
       <c r="C32" s="4">
         <v>318841</v>
       </c>
-      <c r="D32" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="5">
@@ -60642,9 +60543,6 @@
       <c r="C33" s="4">
         <v>303905</v>
       </c>
-      <c r="D33" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="5">
@@ -60656,9 +60554,6 @@
       <c r="C34" s="4">
         <v>298750</v>
       </c>
-      <c r="D34" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="5">
@@ -60670,9 +60565,6 @@
       <c r="C35" s="4">
         <v>346251</v>
       </c>
-      <c r="D35" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="5">
@@ -60684,9 +60576,6 @@
       <c r="C36" s="4">
         <v>314505</v>
       </c>
-      <c r="D36" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="5">
@@ -60698,9 +60587,6 @@
       <c r="C37" s="4">
         <v>263917</v>
       </c>
-      <c r="D37" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="5">
@@ -60712,9 +60598,6 @@
       <c r="C38" s="4">
         <v>298504</v>
       </c>
-      <c r="D38" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="5">
@@ -60726,9 +60609,6 @@
       <c r="C39" s="4">
         <v>337885</v>
       </c>
-      <c r="D39" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="5">
@@ -60740,9 +60620,6 @@
       <c r="C40" s="4">
         <v>295418</v>
       </c>
-      <c r="D40" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="5">
@@ -60754,9 +60631,6 @@
       <c r="C41" s="4">
         <v>322758</v>
       </c>
-      <c r="D41" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="5">
@@ -60768,9 +60642,6 @@
       <c r="C42" s="4">
         <v>312618</v>
       </c>
-      <c r="D42" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="5">
@@ -60782,9 +60653,6 @@
       <c r="C43" s="4">
         <v>343491</v>
       </c>
-      <c r="D43" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="5">
@@ -60796,9 +60664,6 @@
       <c r="C44" s="4">
         <v>318191</v>
       </c>
-      <c r="D44" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="5">
@@ -60810,9 +60675,6 @@
       <c r="C45" s="4">
         <v>357769</v>
       </c>
-      <c r="D45" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="5">
@@ -60824,9 +60686,6 @@
       <c r="C46" s="4">
         <v>325482</v>
       </c>
-      <c r="D46" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="5">
@@ -60838,9 +60697,6 @@
       <c r="C47" s="4">
         <v>404793</v>
       </c>
-      <c r="D47" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="5">
@@ -60852,9 +60708,6 @@
       <c r="C48" s="4">
         <v>375353</v>
       </c>
-      <c r="D48" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="5">
@@ -60866,9 +60719,6 @@
       <c r="C49" s="4">
         <v>398490</v>
       </c>
-      <c r="D49" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="5">
@@ -60880,9 +60730,6 @@
       <c r="C50" s="4">
         <v>375483</v>
       </c>
-      <c r="D50" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="5">
@@ -60894,9 +60741,6 @@
       <c r="C51" s="4">
         <v>461885</v>
       </c>
-      <c r="D51" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="5">
@@ -60908,9 +60752,6 @@
       <c r="C52" s="4">
         <v>461163</v>
       </c>
-      <c r="D52" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="5">
@@ -60922,9 +60763,6 @@
       <c r="C53" s="4">
         <v>460808</v>
       </c>
-      <c r="D53" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="5">
@@ -60936,9 +60774,6 @@
       <c r="C54" s="4">
         <v>447594</v>
       </c>
-      <c r="D54" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="5">
@@ -60950,9 +60785,6 @@
       <c r="C55" s="4">
         <v>424175</v>
       </c>
-      <c r="D55" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="5">
@@ -60963,9 +60795,6 @@
       </c>
       <c r="C56" s="4">
         <v>567335</v>
-      </c>
-      <c r="D56" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -60974,7 +60803,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E89"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -60985,13 +60814,13 @@
         <v>33</v>
       </c>
       <c r="C1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" t="s">
         <v>241</v>
-      </c>
-      <c r="D1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="2">
@@ -61008,7 +60837,7 @@
         <v>10.85807</v>
       </c>
       <c r="E2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3">
@@ -61025,7 +60854,7 @@
         <v>15.132585000000001</v>
       </c>
       <c r="E3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4">
@@ -61042,7 +60871,7 @@
         <v>1.071712</v>
       </c>
       <c r="E4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5">
@@ -61059,7 +60888,7 @@
         <v>0.92839400000000105</v>
       </c>
       <c r="E5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6">
@@ -61076,7 +60905,7 @@
         <v>0.25120100000000001</v>
       </c>
       <c r="E6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7">
@@ -61093,7 +60922,7 @@
         <v>-0.22622600000000001</v>
       </c>
       <c r="E7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8">
@@ -61110,7 +60939,7 @@
         <v>0.026589999999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9">
@@ -61127,7 +60956,7 @@
         <v>18.094066000000002</v>
       </c>
       <c r="E9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10">
@@ -61144,7 +60973,7 @@
         <v>3.7373880000000002</v>
       </c>
       <c r="E10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11">
@@ -61161,7 +60990,7 @@
         <v>-1.469676</v>
       </c>
       <c r="E11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12">
@@ -61178,7 +61007,7 @@
         <v>10.002281999999999</v>
       </c>
       <c r="E12" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13">
@@ -61195,7 +61024,7 @@
         <v>30.137896999999999</v>
       </c>
       <c r="E13" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14">
@@ -61212,7 +61041,7 @@
         <v>27.366866000000002</v>
       </c>
       <c r="E14" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15">
@@ -61229,7 +61058,7 @@
         <v>71.020529999999994</v>
       </c>
       <c r="E15" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16">
@@ -61246,7 +61075,7 @@
         <v>10.765544</v>
       </c>
       <c r="E16" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17">
@@ -61263,7 +61092,7 @@
         <v>-1.141977</v>
       </c>
       <c r="E17" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18">
@@ -61280,7 +61109,7 @@
         <v>13.494045</v>
       </c>
       <c r="E18" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19">
@@ -61297,7 +61126,7 @@
         <v>30.070920999999998</v>
       </c>
       <c r="E19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20">
@@ -61314,7 +61143,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21">
@@ -61331,7 +61160,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22">
@@ -61348,7 +61177,7 @@
         <v>1.5516270000000001</v>
       </c>
       <c r="E22" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23">
@@ -61365,7 +61194,7 @@
         <v>42.191212999999998</v>
       </c>
       <c r="E23" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24">
@@ -61382,7 +61211,7 @@
         <v>-1.89754</v>
       </c>
       <c r="E24" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25">
@@ -61399,7 +61228,7 @@
         <v>1.6702440000000001</v>
       </c>
       <c r="E25" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26">
@@ -61416,7 +61245,7 @@
         <v>30.412996</v>
       </c>
       <c r="E26" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27">
@@ -61433,7 +61262,7 @@
         <v>-11.059087</v>
       </c>
       <c r="E27" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28">
@@ -61450,7 +61279,7 @@
         <v>0.34495999999999999</v>
       </c>
       <c r="E28" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29">
@@ -61467,7 +61296,7 @@
         <v>2.5656889999999999</v>
       </c>
       <c r="E29" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30">
@@ -61484,7 +61313,7 @@
         <v>-65.219189999999998</v>
       </c>
       <c r="E30" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31">
@@ -61501,7 +61330,7 @@
         <v>53.555705000000003</v>
       </c>
       <c r="E31" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32">
@@ -61518,7 +61347,7 @@
         <v>1.5008859999999999</v>
       </c>
       <c r="E32" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33">
@@ -61535,7 +61364,7 @@
         <v>1.4106270000000001</v>
       </c>
       <c r="E33" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34">
@@ -61552,7 +61381,7 @@
         <v>169.57198299999999</v>
       </c>
       <c r="E34" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35">
@@ -61569,7 +61398,7 @@
         <v>93.923772999999997</v>
       </c>
       <c r="E35" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36">
@@ -61586,7 +61415,7 @@
         <v>-145.45596499999999</v>
       </c>
       <c r="E36" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37">
@@ -61603,7 +61432,7 @@
         <v>15.230097000000001</v>
       </c>
       <c r="E37" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38">
@@ -61620,7 +61449,7 @@
         <v>32.722607000000004</v>
       </c>
       <c r="E38" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39">
@@ -61637,7 +61466,7 @@
         <v>62.621254</v>
       </c>
       <c r="E39" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40">
@@ -61654,7 +61483,7 @@
         <v>3.9593020000000001</v>
       </c>
       <c r="E40" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41">
@@ -61671,7 +61500,7 @@
         <v>-1.6047929999999999</v>
       </c>
       <c r="E41" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42">
@@ -61688,7 +61517,7 @@
         <v>25.981366000000001</v>
       </c>
       <c r="E42" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43">
@@ -61705,7 +61534,7 @@
         <v>89.093726000000004</v>
       </c>
       <c r="E43" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44">
@@ -61722,7 +61551,7 @@
         <v>20.757427</v>
       </c>
       <c r="E44" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45">
@@ -61739,7 +61568,7 @@
         <v>-5.5986830000000003</v>
       </c>
       <c r="E45" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46">
@@ -61756,7 +61585,7 @@
         <v>21.948791</v>
       </c>
       <c r="E46" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47">
@@ -61773,7 +61602,7 @@
         <v>314.767135</v>
       </c>
       <c r="E47" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48">
@@ -61790,7 +61619,7 @@
         <v>17.155493</v>
       </c>
       <c r="E48" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49">
@@ -61807,7 +61636,7 @@
         <v>-95.453181000000001</v>
       </c>
       <c r="E49" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50">
@@ -61824,7 +61653,7 @@
         <v>-44.403452000000001</v>
       </c>
       <c r="E50" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51">
@@ -61841,7 +61670,7 @@
         <v>-45.299624999999999</v>
       </c>
       <c r="E51" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="52">
@@ -61858,7 +61687,7 @@
         <v>12.108689999999999</v>
       </c>
       <c r="E52" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53">
@@ -61875,7 +61704,7 @@
         <v>20.570854000000001</v>
       </c>
       <c r="E53" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54">
@@ -61892,7 +61721,7 @@
         <v>35.280952999999997</v>
       </c>
       <c r="E54" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55">
@@ -61909,7 +61738,7 @@
         <v>5.7662560000000003</v>
       </c>
       <c r="E55" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56">
@@ -61926,7 +61755,7 @@
         <v>-3.2294990000000001</v>
       </c>
       <c r="E56" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57">
@@ -61943,7 +61772,7 @@
         <v>18.754607</v>
       </c>
       <c r="E57" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58">
@@ -61960,7 +61789,7 @@
         <v>32.066775</v>
       </c>
       <c r="E58" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="59">
@@ -61977,7 +61806,7 @@
         <v>1290.929224</v>
       </c>
       <c r="E59" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60">
@@ -61994,7 +61823,7 @@
         <v>208.71636000000001</v>
       </c>
       <c r="E60" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61">
@@ -62011,7 +61840,7 @@
         <v>29.688445999999999</v>
       </c>
       <c r="E61" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62">
@@ -62025,10 +61854,10 @@
         <v>31.216297000000001</v>
       </c>
       <c r="D62" s="4">
-        <v>31.216297000000001</v>
+        <v>31.141797</v>
       </c>
       <c r="E62" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="63">
@@ -62042,10 +61871,10 @@
         <v>129.65941699999999</v>
       </c>
       <c r="D63" s="4">
-        <v>129.65941699999999</v>
+        <v>129.392135</v>
       </c>
       <c r="E63" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64">
@@ -62062,7 +61891,7 @@
         <v>-19.021474999999999</v>
       </c>
       <c r="E64" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="65">
@@ -62079,7 +61908,7 @@
         <v>34.402746</v>
       </c>
       <c r="E65" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="66">
@@ -62096,7 +61925,7 @@
         <v>17.854156</v>
       </c>
       <c r="E66" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67">
@@ -62113,7 +61942,7 @@
         <v>56.476317000000002</v>
       </c>
       <c r="E67" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68">
@@ -62130,7 +61959,7 @@
         <v>-26.106341189999998</v>
       </c>
       <c r="E68" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69">
@@ -62147,7 +61976,7 @@
         <v>16.896843000000001</v>
       </c>
       <c r="E69" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70">
@@ -62164,7 +61993,7 @@
         <v>55.605331669999998</v>
       </c>
       <c r="E70" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71">
@@ -62181,7 +62010,7 @@
         <v>9.4952309400000008</v>
       </c>
       <c r="E71" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72">
@@ -62198,7 +62027,7 @@
         <v>12.279509640000001</v>
       </c>
       <c r="E72" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73">
@@ -62215,7 +62044,7 @@
         <v>-2.55958877</v>
       </c>
       <c r="E73" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="74">
@@ -62232,7 +62061,7 @@
         <v>37.0275532</v>
       </c>
       <c r="E74" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75">
@@ -62249,7 +62078,7 @@
         <v>31.537870210000001</v>
       </c>
       <c r="E75" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76">
@@ -62266,7 +62095,7 @@
         <v>-11.3858745</v>
       </c>
       <c r="E76" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="77">
@@ -62283,7 +62112,7 @@
         <v>7.6352232999999998</v>
       </c>
       <c r="E77" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78">
@@ -62300,7 +62129,7 @@
         <v>48.938785979999999</v>
       </c>
       <c r="E78" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="79">
@@ -62317,7 +62146,7 @@
         <v>-115.88950177</v>
       </c>
       <c r="E79" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="80">
@@ -62334,7 +62163,7 @@
         <v>11.219936929999999</v>
       </c>
       <c r="E80" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81">
@@ -62351,7 +62180,7 @@
         <v>1.8220098</v>
       </c>
       <c r="E81" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82">
@@ -62368,7 +62197,7 @@
         <v>46.310943479999999</v>
       </c>
       <c r="E82" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83">
@@ -62385,7 +62214,7 @@
         <v>9.6661521500000003</v>
       </c>
       <c r="E83" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84">
@@ -62402,7 +62231,7 @@
         <v>11.318120410000001</v>
       </c>
       <c r="E84" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85">
@@ -62419,7 +62248,7 @@
         <v>20.196266009999999</v>
       </c>
       <c r="E85" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86">
@@ -62433,10 +62262,10 @@
         <v>94.469589979999995</v>
       </c>
       <c r="D86" s="4">
-        <v>109.63393162</v>
+        <v>105.12728377000001</v>
       </c>
       <c r="E86" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="87">
@@ -62453,7 +62282,7 @@
         <v>63.190894380000003</v>
       </c>
       <c r="E87" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88">
@@ -62467,10 +62296,27 @@
         <v>18.252537140000001</v>
       </c>
       <c r="D88" s="4">
-        <v>18.252537140000001</v>
+        <v>16.834598710000002</v>
       </c>
       <c r="E88" t="s">
-        <v>240</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>221</v>
+      </c>
+      <c r="B89" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C89" s="4">
+        <v>-12.01292383</v>
+      </c>
+      <c r="D89" s="4">
+        <v>-12.01292383</v>
+      </c>
+      <c r="E89" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 02/19/2021</t>
+    <t xml:space="preserve"> 03/08/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -755,7 +755,7 @@
     <t>Inversión extranjera directa, cifras revisadas</t>
   </si>
   <si>
-    <t>(sum) c</t>
+    <t>Nota</t>
   </si>
   <si>
     <t/>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 03/16/2021</t>
+    <t xml:space="preserve"> 03/22/2021</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8771" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8772" uniqueCount="244">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 03/22/2021</t>
+    <t xml:space="preserve"> 04/08/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -60406,7 +60406,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -61023,6 +61023,17 @@
       </c>
       <c r="C56" s="4">
         <v>567335</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5">
+        <v>44105</v>
+      </c>
+      <c r="B57" t="s">
+        <v>221</v>
+      </c>
+      <c r="C57" s="4">
+        <v>572322</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 04/08/2021</t>
+    <t xml:space="preserve"> 04/12/2021</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/13/2021</t>
+    <t xml:space="preserve"> 05/17/2021</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8844" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8846" uniqueCount="244">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/18/2021</t>
+    <t xml:space="preserve"> 05/21/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -61498,7 +61498,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E90"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -61580,7 +61580,7 @@
         <v>0.92839400000000005</v>
       </c>
       <c r="D5" s="4">
-        <v>0.92839400000000105</v>
+        <v>0.92839400000000005</v>
       </c>
       <c r="E5" t="s">
         <v>242</v>
@@ -63011,6 +63011,23 @@
         <v>-12.01292383</v>
       </c>
       <c r="E89" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>221</v>
+      </c>
+      <c r="B90" s="5">
+        <v>44197</v>
+      </c>
+      <c r="C90" s="4">
+        <v>24.615973910000001</v>
+      </c>
+      <c r="D90" s="4">
+        <v>24.615973910000001</v>
+      </c>
+      <c r="E90" t="s">
         <v>242</v>
       </c>
     </row>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8896" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8897" uniqueCount="246">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 06/21/2021</t>
+    <t xml:space="preserve"> 06/30/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -61196,7 +61196,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -61824,6 +61824,17 @@
       </c>
       <c r="C57" s="4">
         <v>572322</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5">
+        <v>44197</v>
+      </c>
+      <c r="B58" t="s">
+        <v>223</v>
+      </c>
+      <c r="C58" s="4">
+        <v>492024</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 06/30/2021</t>
+    <t xml:space="preserve"> 07/08/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -1648,10 +1648,10 @@
         <v>37924.595000000001</v>
       </c>
       <c r="D17" s="4">
-        <v>1208080.7709999999</v>
+        <v>1208076.0220000001</v>
       </c>
       <c r="E17" s="4">
-        <v>0.031392433279612234</v>
+        <v>0.03139255668464877</v>
       </c>
     </row>
     <row r="18">
@@ -1662,13 +1662,13 @@
         <v>2019</v>
       </c>
       <c r="C18" s="4">
-        <v>39668.322999999997</v>
+        <v>40643.216999999997</v>
       </c>
       <c r="D18" s="4">
-        <v>1216771.2960000001</v>
+        <v>1217549.8500000001</v>
       </c>
       <c r="E18" s="4">
-        <v>0.032601297491488483</v>
+        <v>0.033381152319964552</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8945" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8947" uniqueCount="246">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 08/12/2021</t>
+    <t xml:space="preserve"> 08/17/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -62163,7 +62163,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E91"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -62245,7 +62245,7 @@
         <v>0.92839400000000005</v>
       </c>
       <c r="D5" s="4">
-        <v>0.92839400000000005</v>
+        <v>0.92839400000000105</v>
       </c>
       <c r="E5" t="s">
         <v>244</v>
@@ -63656,7 +63656,7 @@
         <v>18.252537140000001</v>
       </c>
       <c r="D88" s="4">
-        <v>16.834598710000002</v>
+        <v>17.07146582</v>
       </c>
       <c r="E88" t="s">
         <v>244</v>
@@ -63673,7 +63673,7 @@
         <v>-12.01292383</v>
       </c>
       <c r="D89" s="4">
-        <v>-12.01292383</v>
+        <v>-11.758345289999999</v>
       </c>
       <c r="E89" t="s">
         <v>244</v>
@@ -63690,9 +63690,26 @@
         <v>24.615973910000001</v>
       </c>
       <c r="D90" s="4">
-        <v>24.615973910000001</v>
+        <v>21.774143819999999</v>
       </c>
       <c r="E90" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>223</v>
+      </c>
+      <c r="B91" s="5">
+        <v>44287</v>
+      </c>
+      <c r="C91" s="4">
+        <v>12.04286113</v>
+      </c>
+      <c r="D91" s="4">
+        <v>12.04286113</v>
+      </c>
+      <c r="E91" t="s">
         <v>244</v>
       </c>
     </row>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 08/18/2021</t>
+    <t xml:space="preserve"> 08/24/2021</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9007" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9008" uniqueCount="246">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 09/17/2021</t>
+    <t xml:space="preserve"> 09/30/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -61880,7 +61880,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -62519,6 +62519,17 @@
       </c>
       <c r="C58" s="4">
         <v>492024</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5">
+        <v>44287</v>
+      </c>
+      <c r="B59" t="s">
+        <v>223</v>
+      </c>
+      <c r="C59" s="4">
+        <v>658806</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 09/30/2021</t>
+    <t xml:space="preserve"> 10/06/2021</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9080" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9082" uniqueCount="946">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 11/19/2021</t>
+    <t xml:space="preserve"> 11/22/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -2655,6 +2655,9 @@
   </si>
   <si>
     <t>Cifra parcial u omitida por motivos de confidencialidad</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -65091,7 +65094,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E92"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -65173,7 +65176,7 @@
         <v>0.92839400000000005</v>
       </c>
       <c r="D5" s="4">
-        <v>0.92839400000000105</v>
+        <v>0.92839400000000005</v>
       </c>
       <c r="E5" t="s">
         <v>859</v>
@@ -66499,7 +66502,7 @@
         <v>-12.855533449999999</v>
       </c>
       <c r="D83" s="4">
-        <v>9.6661521500000003</v>
+        <v>15.195502940000001</v>
       </c>
       <c r="E83" t="s">
         <v>936</v>
@@ -66533,7 +66536,7 @@
         <v>20.19367154</v>
       </c>
       <c r="D85" s="4">
-        <v>20.196266009999999</v>
+        <v>21.93960697</v>
       </c>
       <c r="E85" t="s">
         <v>938</v>
@@ -66550,7 +66553,7 @@
         <v>94.469589979999995</v>
       </c>
       <c r="D86" s="4">
-        <v>105.12728377000001</v>
+        <v>110.29191034999999</v>
       </c>
       <c r="E86" t="s">
         <v>939</v>
@@ -66567,7 +66570,7 @@
         <v>59.19768638</v>
       </c>
       <c r="D87" s="4">
-        <v>63.190894380000003</v>
+        <v>64.979974260000006</v>
       </c>
       <c r="E87" t="s">
         <v>940</v>
@@ -66601,7 +66604,7 @@
         <v>-12.01292383</v>
       </c>
       <c r="D89" s="4">
-        <v>-11.758345289999999</v>
+        <v>-10.90809191</v>
       </c>
       <c r="E89" t="s">
         <v>942</v>
@@ -66641,6 +66644,23 @@
         <v>944</v>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>851</v>
+      </c>
+      <c r="B92" s="5">
+        <v>44378</v>
+      </c>
+      <c r="C92" s="4">
+        <v>-25.45081957</v>
+      </c>
+      <c r="D92" s="4">
+        <v>-25.45081957</v>
+      </c>
+      <c r="E92" t="s">
+        <v>945</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9119" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9120" uniqueCount="944">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 12/17/2021</t>
+    <t xml:space="preserve"> 01/04/2022</t>
   </si>
   <si>
     <t>Sección</t>
@@ -52066,7 +52066,7 @@
         <v>828</v>
       </c>
       <c r="D108" s="4">
-        <v>205.58375549316406</v>
+        <v>205.58375017864799</v>
       </c>
       <c r="E108" t="s">
         <v>838</v>
@@ -52083,7 +52083,7 @@
         <v>828</v>
       </c>
       <c r="D109" s="4">
-        <v>190.41593933105469</v>
+        <v>190.41594429444365</v>
       </c>
       <c r="E109" t="s">
         <v>838</v>
@@ -52100,7 +52100,7 @@
         <v>828</v>
       </c>
       <c r="D110" s="4">
-        <v>194.18161010742188</v>
+        <v>194.18161691186972</v>
       </c>
       <c r="E110" t="s">
         <v>838</v>
@@ -52117,7 +52117,7 @@
         <v>828</v>
       </c>
       <c r="D111" s="4">
-        <v>205.43424987792969</v>
+        <v>205.43424657534246</v>
       </c>
       <c r="E111" t="s">
         <v>838</v>
@@ -52134,7 +52134,7 @@
         <v>828</v>
       </c>
       <c r="D112" s="4">
-        <v>209.2816162109375</v>
+        <v>209.28161499639509</v>
       </c>
       <c r="E112" t="s">
         <v>838</v>
@@ -52151,7 +52151,7 @@
         <v>828</v>
       </c>
       <c r="D113" s="4">
-        <v>200.19866943359375</v>
+        <v>200.19867597846647</v>
       </c>
       <c r="E113" t="s">
         <v>838</v>
@@ -52168,7 +52168,7 @@
         <v>828</v>
       </c>
       <c r="D114" s="4">
-        <v>209.26652526855469</v>
+        <v>209.26652467685076</v>
       </c>
       <c r="E114" t="s">
         <v>838</v>
@@ -52185,7 +52185,7 @@
         <v>828</v>
       </c>
       <c r="D115" s="4">
-        <v>208.24453735351563</v>
+        <v>208.24453411592077</v>
       </c>
       <c r="E115" t="s">
         <v>838</v>
@@ -52202,7 +52202,7 @@
         <v>828</v>
       </c>
       <c r="D116" s="4">
-        <v>200.11442565917969</v>
+        <v>200.11442970429113</v>
       </c>
       <c r="E116" t="s">
         <v>838</v>
@@ -52219,7 +52219,7 @@
         <v>828</v>
       </c>
       <c r="D117" s="4">
-        <v>208.89598083496094</v>
+        <v>208.89598595848597</v>
       </c>
       <c r="E117" t="s">
         <v>838</v>
@@ -52236,7 +52236,7 @@
         <v>828</v>
       </c>
       <c r="D118" s="4">
-        <v>200.3331298828125</v>
+        <v>200.33312921004287</v>
       </c>
       <c r="E118" t="s">
         <v>838</v>
@@ -52253,7 +52253,7 @@
         <v>828</v>
       </c>
       <c r="D119" s="4">
-        <v>193.4307861328125</v>
+        <v>193.43079315707621</v>
       </c>
       <c r="E119" t="s">
         <v>838</v>
@@ -52270,7 +52270,7 @@
         <v>828</v>
       </c>
       <c r="D120" s="4">
-        <v>204.125732421875</v>
+        <v>204.1257251847731</v>
       </c>
       <c r="E120" t="s">
         <v>838</v>
@@ -52287,7 +52287,7 @@
         <v>828</v>
       </c>
       <c r="D121" s="4">
-        <v>188.44129943847656</v>
+        <v>188.44129392971246</v>
       </c>
       <c r="E121" t="s">
         <v>838</v>
@@ -52304,7 +52304,7 @@
         <v>828</v>
       </c>
       <c r="D122" s="4">
-        <v>199.71034240722656</v>
+        <v>199.71033490528336</v>
       </c>
       <c r="E122" t="s">
         <v>838</v>
@@ -52321,7 +52321,7 @@
         <v>828</v>
       </c>
       <c r="D123" s="4">
-        <v>201.01643371582031</v>
+        <v>201.01643136316503</v>
       </c>
       <c r="E123" t="s">
         <v>838</v>
@@ -52338,7 +52338,7 @@
         <v>828</v>
       </c>
       <c r="D124" s="4">
-        <v>204.11813354492188</v>
+        <v>204.11813446969697</v>
       </c>
       <c r="E124" t="s">
         <v>838</v>
@@ -52355,7 +52355,7 @@
         <v>828</v>
       </c>
       <c r="D125" s="4">
-        <v>199.38967895507813</v>
+        <v>199.38968278894473</v>
       </c>
       <c r="E125" t="s">
         <v>838</v>
@@ -52372,7 +52372,7 @@
         <v>828</v>
       </c>
       <c r="D126" s="4">
-        <v>208.34474182128906</v>
+        <v>208.34473497116676</v>
       </c>
       <c r="E126" t="s">
         <v>838</v>
@@ -52389,7 +52389,7 @@
         <v>828</v>
       </c>
       <c r="D127" s="4">
-        <v>204.27128601074219</v>
+        <v>204.27129262490087</v>
       </c>
       <c r="E127" t="s">
         <v>838</v>
@@ -52406,7 +52406,7 @@
         <v>828</v>
       </c>
       <c r="D128" s="4">
-        <v>203.89047241210938</v>
+        <v>203.89047123769902</v>
       </c>
       <c r="E128" t="s">
         <v>838</v>
@@ -52423,7 +52423,7 @@
         <v>828</v>
       </c>
       <c r="D129" s="4">
-        <v>211.29949951171875</v>
+        <v>211.29950273090404</v>
       </c>
       <c r="E129" t="s">
         <v>838</v>
@@ -52440,7 +52440,7 @@
         <v>828</v>
       </c>
       <c r="D130" s="4">
-        <v>197.49093627929688</v>
+        <v>197.49093233202845</v>
       </c>
       <c r="E130" t="s">
         <v>838</v>
@@ -52457,7 +52457,7 @@
         <v>828</v>
       </c>
       <c r="D131" s="4">
-        <v>198.14967346191406</v>
+        <v>198.14967657414232</v>
       </c>
       <c r="E131" t="s">
         <v>838</v>
@@ -52474,7 +52474,7 @@
         <v>828</v>
       </c>
       <c r="D132" s="4">
-        <v>202.95831298828125</v>
+        <v>202.95831317529431</v>
       </c>
       <c r="E132" t="s">
         <v>838</v>
@@ -52491,7 +52491,7 @@
         <v>828</v>
       </c>
       <c r="D133" s="4">
-        <v>189.64970397949219</v>
+        <v>189.64970678120096</v>
       </c>
       <c r="E133" t="s">
         <v>838</v>
@@ -52508,7 +52508,7 @@
         <v>828</v>
       </c>
       <c r="D134" s="4">
-        <v>199.32933044433594</v>
+        <v>199.32932537120723</v>
       </c>
       <c r="E134" t="s">
         <v>838</v>
@@ -52525,7 +52525,7 @@
         <v>828</v>
       </c>
       <c r="D135" s="4">
-        <v>202.81613159179688</v>
+        <v>202.81613162118779</v>
       </c>
       <c r="E135" t="s">
         <v>838</v>
@@ -52542,7 +52542,7 @@
         <v>828</v>
       </c>
       <c r="D136" s="4">
-        <v>199.84944152832031</v>
+        <v>199.84943944418129</v>
       </c>
       <c r="E136" t="s">
         <v>838</v>
@@ -52559,7 +52559,7 @@
         <v>828</v>
       </c>
       <c r="D137" s="4">
-        <v>201.63107299804688</v>
+        <v>201.6310764579521</v>
       </c>
       <c r="E137" t="s">
         <v>838</v>
@@ -52576,7 +52576,7 @@
         <v>828</v>
       </c>
       <c r="D138" s="4">
-        <v>208.84014892578125</v>
+        <v>208.84014691791759</v>
       </c>
       <c r="E138" t="s">
         <v>838</v>
@@ -52593,7 +52593,7 @@
         <v>828</v>
       </c>
       <c r="D139" s="4">
-        <v>202.17637634277344</v>
+        <v>202.17637820009423</v>
       </c>
       <c r="E139" t="s">
         <v>838</v>
@@ -52610,7 +52610,7 @@
         <v>828</v>
       </c>
       <c r="D140" s="4">
-        <v>198.47415161132813</v>
+        <v>198.47415514899737</v>
       </c>
       <c r="E140" t="s">
         <v>838</v>
@@ -52627,7 +52627,7 @@
         <v>828</v>
       </c>
       <c r="D141" s="4">
-        <v>208.40461730957031</v>
+        <v>208.40461501482253</v>
       </c>
       <c r="E141" t="s">
         <v>838</v>
@@ -52644,7 +52644,7 @@
         <v>828</v>
       </c>
       <c r="D142" s="4">
-        <v>191.849609375</v>
+        <v>191.849606918239</v>
       </c>
       <c r="E142" t="s">
         <v>838</v>
@@ -52661,7 +52661,7 @@
         <v>828</v>
       </c>
       <c r="D143" s="4">
-        <v>195.61753845214844</v>
+        <v>195.61753082516597</v>
       </c>
       <c r="E143" t="s">
         <v>838</v>
@@ -52678,7 +52678,7 @@
         <v>828</v>
       </c>
       <c r="D144" s="4">
-        <v>200.35922241210938</v>
+        <v>200.35922253698459</v>
       </c>
       <c r="E144" t="s">
         <v>838</v>
@@ -52695,7 +52695,7 @@
         <v>828</v>
       </c>
       <c r="D145" s="4">
-        <v>194.44204711914063</v>
+        <v>194.44204685573365</v>
       </c>
       <c r="E145" t="s">
         <v>838</v>
@@ -52712,7 +52712,7 @@
         <v>828</v>
       </c>
       <c r="D146" s="4">
-        <v>198.948974609375</v>
+        <v>198.94898115520147</v>
       </c>
       <c r="E146" t="s">
         <v>838</v>
@@ -52729,7 +52729,7 @@
         <v>828</v>
       </c>
       <c r="D147" s="4">
-        <v>200.93414306640625</v>
+        <v>200.93413855970829</v>
       </c>
       <c r="E147" t="s">
         <v>838</v>
@@ -52746,7 +52746,7 @@
         <v>828</v>
       </c>
       <c r="D148" s="4">
-        <v>202.97276306152344</v>
+        <v>202.97276647250169</v>
       </c>
       <c r="E148" t="s">
         <v>838</v>
@@ -52763,7 +52763,7 @@
         <v>828</v>
       </c>
       <c r="D149" s="4">
-        <v>200.75245666503906</v>
+        <v>200.75245608812148</v>
       </c>
       <c r="E149" t="s">
         <v>838</v>
@@ -52780,7 +52780,7 @@
         <v>828</v>
       </c>
       <c r="D150" s="4">
-        <v>203.96461486816406</v>
+        <v>203.96461630337413</v>
       </c>
       <c r="E150" t="s">
         <v>838</v>
@@ -52797,7 +52797,7 @@
         <v>828</v>
       </c>
       <c r="D151" s="4">
-        <v>204.90628051757813</v>
+        <v>204.90628478147957</v>
       </c>
       <c r="E151" t="s">
         <v>838</v>
@@ -52814,7 +52814,7 @@
         <v>828</v>
       </c>
       <c r="D152" s="4">
-        <v>197.18524169921875</v>
+        <v>197.18524541691306</v>
       </c>
       <c r="E152" t="s">
         <v>838</v>
@@ -52831,7 +52831,7 @@
         <v>828</v>
       </c>
       <c r="D153" s="4">
-        <v>201.33406066894531</v>
+        <v>201.33406193078324</v>
       </c>
       <c r="E153" t="s">
         <v>838</v>
@@ -52848,7 +52848,7 @@
         <v>828</v>
       </c>
       <c r="D154" s="4">
-        <v>194.55671691894531</v>
+        <v>194.55671160609614</v>
       </c>
       <c r="E154" t="s">
         <v>838</v>
@@ -52865,7 +52865,7 @@
         <v>828</v>
       </c>
       <c r="D155" s="4">
-        <v>193.53651428222656</v>
+        <v>193.53651706094774</v>
       </c>
       <c r="E155" t="s">
         <v>838</v>
@@ -52882,7 +52882,7 @@
         <v>828</v>
       </c>
       <c r="D156" s="4">
-        <v>202.58799743652344</v>
+        <v>202.58800205595125</v>
       </c>
       <c r="E156" t="s">
         <v>838</v>
@@ -52899,7 +52899,7 @@
         <v>828</v>
       </c>
       <c r="D157" s="4">
-        <v>183.74801635742188</v>
+        <v>183.74801178203239</v>
       </c>
       <c r="E157" t="s">
         <v>838</v>
@@ -52916,7 +52916,7 @@
         <v>828</v>
       </c>
       <c r="D158" s="4">
-        <v>197.79705810546875</v>
+        <v>197.79705496428051</v>
       </c>
       <c r="E158" t="s">
         <v>838</v>
@@ -52933,7 +52933,7 @@
         <v>828</v>
       </c>
       <c r="D159" s="4">
-        <v>192.14106750488281</v>
+        <v>192.14106674438938</v>
       </c>
       <c r="E159" t="s">
         <v>838</v>
@@ -52950,7 +52950,7 @@
         <v>828</v>
       </c>
       <c r="D160" s="4">
-        <v>207.3681640625</v>
+        <v>207.36817119485832</v>
       </c>
       <c r="E160" t="s">
         <v>838</v>
@@ -52967,7 +52967,7 @@
         <v>828</v>
       </c>
       <c r="D161" s="4">
-        <v>206.27230834960938</v>
+        <v>206.27230115717006</v>
       </c>
       <c r="E161" t="s">
         <v>838</v>
@@ -52984,7 +52984,7 @@
         <v>828</v>
       </c>
       <c r="D162" s="4">
-        <v>201.10862731933594</v>
+        <v>201.10862690299331</v>
       </c>
       <c r="E162" t="s">
         <v>838</v>
@@ -53001,7 +53001,7 @@
         <v>828</v>
       </c>
       <c r="D163" s="4">
-        <v>210.02532958984375</v>
+        <v>210.02533313808757</v>
       </c>
       <c r="E163" t="s">
         <v>838</v>
@@ -53018,7 +53018,7 @@
         <v>828</v>
       </c>
       <c r="D164" s="4">
-        <v>198.49861145019531</v>
+        <v>198.49861313868612</v>
       </c>
       <c r="E164" t="s">
         <v>838</v>
@@ -53035,7 +53035,7 @@
         <v>828</v>
       </c>
       <c r="D165" s="4">
-        <v>204.47862243652344</v>
+        <v>204.47862058866599</v>
       </c>
       <c r="E165" t="s">
         <v>838</v>
@@ -53052,7 +53052,7 @@
         <v>828</v>
       </c>
       <c r="D166" s="4">
-        <v>202.22663879394531</v>
+        <v>202.22663551401868</v>
       </c>
       <c r="E166" t="s">
         <v>838</v>
@@ -53069,7 +53069,7 @@
         <v>828</v>
       </c>
       <c r="D167" s="4">
-        <v>195.28886413574219</v>
+        <v>195.28885771247138</v>
       </c>
       <c r="E167" t="s">
         <v>838</v>
@@ -53086,7 +53086,7 @@
         <v>828</v>
       </c>
       <c r="D168" s="4">
-        <v>205.79014587402344</v>
+        <v>205.79014261435012</v>
       </c>
       <c r="E168" t="s">
         <v>838</v>
@@ -53103,7 +53103,7 @@
         <v>828</v>
       </c>
       <c r="D169" s="4">
-        <v>187.81231689453125</v>
+        <v>187.81231585150266</v>
       </c>
       <c r="E169" t="s">
         <v>838</v>
@@ -53120,7 +53120,7 @@
         <v>828</v>
       </c>
       <c r="D170" s="4">
-        <v>197.14993286132813</v>
+        <v>197.1499255952381</v>
       </c>
       <c r="E170" t="s">
         <v>838</v>
@@ -53137,7 +53137,7 @@
         <v>828</v>
       </c>
       <c r="D171" s="4">
-        <v>199.76333618164063</v>
+        <v>199.76333555901772</v>
       </c>
       <c r="E171" t="s">
         <v>838</v>
@@ -53154,7 +53154,7 @@
         <v>828</v>
       </c>
       <c r="D172" s="4">
-        <v>209.4752197265625</v>
+        <v>209.47521822754845</v>
       </c>
       <c r="E172" t="s">
         <v>838</v>
@@ -53171,7 +53171,7 @@
         <v>828</v>
       </c>
       <c r="D173" s="4">
-        <v>202.86300659179688</v>
+        <v>202.86300965863009</v>
       </c>
       <c r="E173" t="s">
         <v>838</v>
@@ -53188,7 +53188,7 @@
         <v>828</v>
       </c>
       <c r="D174" s="4">
-        <v>201.20440673828125</v>
+        <v>201.20439949804384</v>
       </c>
       <c r="E174" t="s">
         <v>838</v>
@@ -53205,7 +53205,7 @@
         <v>828</v>
       </c>
       <c r="D175" s="4">
-        <v>207.80294799804688</v>
+        <v>207.80294836654568</v>
       </c>
       <c r="E175" t="s">
         <v>838</v>
@@ -53222,7 +53222,7 @@
         <v>828</v>
       </c>
       <c r="D176" s="4">
-        <v>197.76803588867188</v>
+        <v>197.76803856136448</v>
       </c>
       <c r="E176" t="s">
         <v>838</v>
@@ -53239,7 +53239,7 @@
         <v>828</v>
       </c>
       <c r="D177" s="4">
-        <v>210.68910217285156</v>
+        <v>210.68909495548962</v>
       </c>
       <c r="E177" t="s">
         <v>838</v>
@@ -53256,7 +53256,7 @@
         <v>828</v>
       </c>
       <c r="D178" s="4">
-        <v>201.14816284179688</v>
+        <v>201.148156424581</v>
       </c>
       <c r="E178" t="s">
         <v>838</v>
@@ -53273,7 +53273,7 @@
         <v>828</v>
       </c>
       <c r="D179" s="4">
-        <v>192.11128234863281</v>
+        <v>192.11128620741408</v>
       </c>
       <c r="E179" t="s">
         <v>838</v>
@@ -53290,7 +53290,7 @@
         <v>828</v>
       </c>
       <c r="D180" s="4">
-        <v>202.00314331054688</v>
+        <v>202.00314856849968</v>
       </c>
       <c r="E180" t="s">
         <v>838</v>
@@ -53307,7 +53307,7 @@
         <v>828</v>
       </c>
       <c r="D181" s="4">
-        <v>187.89283752441406</v>
+        <v>187.89283634245777</v>
       </c>
       <c r="E181" t="s">
         <v>838</v>
@@ -53324,7 +53324,7 @@
         <v>828</v>
       </c>
       <c r="D182" s="4">
-        <v>203.82730102539063</v>
+        <v>203.8273022751896</v>
       </c>
       <c r="E182" t="s">
         <v>838</v>
@@ -53341,7 +53341,7 @@
         <v>828</v>
       </c>
       <c r="D183" s="4">
-        <v>191.10197448730469</v>
+        <v>191.10197012340333</v>
       </c>
       <c r="E183" t="s">
         <v>838</v>
@@ -53358,7 +53358,7 @@
         <v>828</v>
       </c>
       <c r="D184" s="4">
-        <v>204.05387878417969</v>
+        <v>204.05387713997985</v>
       </c>
       <c r="E184" t="s">
         <v>838</v>
@@ -53375,7 +53375,7 @@
         <v>828</v>
       </c>
       <c r="D185" s="4">
-        <v>198.13360595703125</v>
+        <v>198.13361019619074</v>
       </c>
       <c r="E185" t="s">
         <v>838</v>
@@ -53392,7 +53392,7 @@
         <v>828</v>
       </c>
       <c r="D186" s="4">
-        <v>212.00938415527344</v>
+        <v>212.00938193797896</v>
       </c>
       <c r="E186" t="s">
         <v>838</v>
@@ -53409,7 +53409,7 @@
         <v>828</v>
       </c>
       <c r="D187" s="4">
-        <v>211.096435546875</v>
+        <v>211.09644012944983</v>
       </c>
       <c r="E187" t="s">
         <v>838</v>
@@ -53426,7 +53426,7 @@
         <v>828</v>
       </c>
       <c r="D188" s="4">
-        <v>194.09320068359375</v>
+        <v>194.09320582357978</v>
       </c>
       <c r="E188" t="s">
         <v>838</v>
@@ -53443,7 +53443,7 @@
         <v>828</v>
       </c>
       <c r="D189" s="4">
-        <v>214.00297546386719</v>
+        <v>214.00297935731007</v>
       </c>
       <c r="E189" t="s">
         <v>838</v>
@@ -53460,7 +53460,7 @@
         <v>828</v>
       </c>
       <c r="D190" s="4">
-        <v>200.293212890625</v>
+        <v>200.29321228455919</v>
       </c>
       <c r="E190" t="s">
         <v>838</v>
@@ -53477,7 +53477,7 @@
         <v>828</v>
       </c>
       <c r="D191" s="4">
-        <v>195.51609802246094</v>
+        <v>195.5161039694872</v>
       </c>
       <c r="E191" t="s">
         <v>838</v>
@@ -53494,7 +53494,7 @@
         <v>828</v>
       </c>
       <c r="D192" s="4">
-        <v>200.55435180664063</v>
+        <v>200.55435626102292</v>
       </c>
       <c r="E192" t="s">
         <v>838</v>
@@ -53511,7 +53511,7 @@
         <v>828</v>
       </c>
       <c r="D193" s="4">
-        <v>194.0595703125</v>
+        <v>194.05957119910607</v>
       </c>
       <c r="E193" t="s">
         <v>838</v>
@@ -53528,7 +53528,7 @@
         <v>828</v>
       </c>
       <c r="D194" s="4">
-        <v>207.53564453125</v>
+        <v>207.53564342403629</v>
       </c>
       <c r="E194" t="s">
         <v>838</v>
@@ -53545,7 +53545,7 @@
         <v>828</v>
       </c>
       <c r="D195" s="4">
-        <v>186.97563171386719</v>
+        <v>186.97563013507869</v>
       </c>
       <c r="E195" t="s">
         <v>838</v>
@@ -53562,7 +53562,7 @@
         <v>828</v>
       </c>
       <c r="D196" s="4">
-        <v>193.56271362304688</v>
+        <v>193.56270638656642</v>
       </c>
       <c r="E196" t="s">
         <v>838</v>
@@ -53579,7 +53579,7 @@
         <v>828</v>
       </c>
       <c r="D197" s="4">
-        <v>205.68502807617188</v>
+        <v>205.6850234118387</v>
       </c>
       <c r="E197" t="s">
         <v>838</v>
@@ -53596,7 +53596,7 @@
         <v>828</v>
       </c>
       <c r="D198" s="4">
-        <v>212.94093322753906</v>
+        <v>212.94093358527539</v>
       </c>
       <c r="E198" t="s">
         <v>838</v>
@@ -53613,7 +53613,7 @@
         <v>828</v>
       </c>
       <c r="D199" s="4">
-        <v>204.21621704101563</v>
+        <v>204.21622186607206</v>
       </c>
       <c r="E199" t="s">
         <v>838</v>
@@ -53630,7 +53630,7 @@
         <v>828</v>
       </c>
       <c r="D200" s="4">
-        <v>204.50361633300781</v>
+        <v>204.50360910605218</v>
       </c>
       <c r="E200" t="s">
         <v>838</v>
@@ -53647,7 +53647,7 @@
         <v>828</v>
       </c>
       <c r="D201" s="4">
-        <v>211.19915771484375</v>
+        <v>211.19915954808488</v>
       </c>
       <c r="E201" t="s">
         <v>838</v>
@@ -53664,7 +53664,7 @@
         <v>828</v>
       </c>
       <c r="D202" s="4">
-        <v>197.24951171875</v>
+        <v>197.24950535580268</v>
       </c>
       <c r="E202" t="s">
         <v>838</v>
@@ -53681,7 +53681,7 @@
         <v>828</v>
       </c>
       <c r="D203" s="4">
-        <v>194.84513854980469</v>
+        <v>194.84513122730075</v>
       </c>
       <c r="E203" t="s">
         <v>838</v>
@@ -53698,7 +53698,7 @@
         <v>828</v>
       </c>
       <c r="D204" s="4">
-        <v>195.08221435546875</v>
+        <v>195.08221705850193</v>
       </c>
       <c r="E204" t="s">
         <v>838</v>
@@ -53715,7 +53715,7 @@
         <v>828</v>
       </c>
       <c r="D205" s="4">
-        <v>188.35932922363281</v>
+        <v>188.35932805244468</v>
       </c>
       <c r="E205" t="s">
         <v>838</v>
@@ -53732,7 +53732,7 @@
         <v>828</v>
       </c>
       <c r="D206" s="4">
-        <v>209.32415771484375</v>
+        <v>209.32415672913118</v>
       </c>
       <c r="E206" t="s">
         <v>838</v>
@@ -53749,7 +53749,7 @@
         <v>828</v>
       </c>
       <c r="D207" s="4">
-        <v>200.58094787597656</v>
+        <v>200.58094526687492</v>
       </c>
       <c r="E207" t="s">
         <v>838</v>
@@ -53766,7 +53766,7 @@
         <v>828</v>
       </c>
       <c r="D208" s="4">
-        <v>200.61151123046875</v>
+        <v>200.61151226158037</v>
       </c>
       <c r="E208" t="s">
         <v>838</v>
@@ -53783,7 +53783,7 @@
         <v>828</v>
       </c>
       <c r="D209" s="4">
-        <v>199.43148803710938</v>
+        <v>199.43148450244698</v>
       </c>
       <c r="E209" t="s">
         <v>838</v>
@@ -53800,7 +53800,7 @@
         <v>828</v>
       </c>
       <c r="D210" s="4">
-        <v>210.43394470214844</v>
+        <v>210.43393947527343</v>
       </c>
       <c r="E210" t="s">
         <v>838</v>
@@ -53817,7 +53817,7 @@
         <v>828</v>
       </c>
       <c r="D211" s="4">
-        <v>203.16134643554688</v>
+        <v>203.16134152232419</v>
       </c>
       <c r="E211" t="s">
         <v>838</v>
@@ -53834,7 +53834,7 @@
         <v>828</v>
       </c>
       <c r="D212" s="4">
-        <v>205.75802612304688</v>
+        <v>205.75802469135803</v>
       </c>
       <c r="E212" t="s">
         <v>838</v>
@@ -53851,7 +53851,7 @@
         <v>828</v>
       </c>
       <c r="D213" s="4">
-        <v>209.57260131835938</v>
+        <v>209.57260703572402</v>
       </c>
       <c r="E213" t="s">
         <v>838</v>
@@ -57472,7 +57472,7 @@
         <v>831</v>
       </c>
       <c r="D426" s="4">
-        <v>1322.765869140625</v>
+        <v>1322.7658935604857</v>
       </c>
       <c r="E426" t="s">
         <v>841</v>
@@ -57489,7 +57489,7 @@
         <v>831</v>
       </c>
       <c r="D427" s="4">
-        <v>1500.7821044921875</v>
+        <v>1500.7820684593446</v>
       </c>
       <c r="E427" t="s">
         <v>841</v>
@@ -57506,7 +57506,7 @@
         <v>831</v>
       </c>
       <c r="D428" s="4">
-        <v>1477.1937255859375</v>
+        <v>1477.1937438708385</v>
       </c>
       <c r="E428" t="s">
         <v>841</v>
@@ -57523,7 +57523,7 @@
         <v>831</v>
       </c>
       <c r="D429" s="4">
-        <v>1587.880126953125</v>
+        <v>1587.8801392002008</v>
       </c>
       <c r="E429" t="s">
         <v>841</v>
@@ -57540,7 +57540,7 @@
         <v>831</v>
       </c>
       <c r="D430" s="4">
-        <v>1588.5479736328125</v>
+        <v>1588.5479307316466</v>
       </c>
       <c r="E430" t="s">
         <v>841</v>
@@ -57557,7 +57557,7 @@
         <v>831</v>
       </c>
       <c r="D431" s="4">
-        <v>1618.3179931640625</v>
+        <v>1618.3179412315517</v>
       </c>
       <c r="E431" t="s">
         <v>841</v>
@@ -57574,7 +57574,7 @@
         <v>831</v>
       </c>
       <c r="D432" s="4">
-        <v>1683.5560302734375</v>
+        <v>1683.5560111533227</v>
       </c>
       <c r="E432" t="s">
         <v>841</v>
@@ -57591,7 +57591,7 @@
         <v>831</v>
       </c>
       <c r="D433" s="4">
-        <v>1703.84619140625</v>
+        <v>1703.8461599777781</v>
       </c>
       <c r="E433" t="s">
         <v>841</v>
@@ -57608,7 +57608,7 @@
         <v>831</v>
       </c>
       <c r="D434" s="4">
-        <v>1674.9017333984375</v>
+        <v>1674.9017864099808</v>
       </c>
       <c r="E434" t="s">
         <v>841</v>
@@ -57625,7 +57625,7 @@
         <v>831</v>
       </c>
       <c r="D435" s="4">
-        <v>1886.4296875</v>
+        <v>1886.429660241344</v>
       </c>
       <c r="E435" t="s">
         <v>841</v>
@@ -57642,7 +57642,7 @@
         <v>831</v>
       </c>
       <c r="D436" s="4">
-        <v>2176.138671875</v>
+        <v>2176.1387218604955</v>
       </c>
       <c r="E436" t="s">
         <v>841</v>
@@ -57659,7 +57659,7 @@
         <v>831</v>
       </c>
       <c r="D437" s="4">
-        <v>2110.18505859375</v>
+        <v>2110.1850422238908</v>
       </c>
       <c r="E437" t="s">
         <v>841</v>
@@ -57676,7 +57676,7 @@
         <v>831</v>
       </c>
       <c r="D438" s="4">
-        <v>1740.5582275390625</v>
+        <v>1740.5582261905663</v>
       </c>
       <c r="E438" t="s">
         <v>841</v>
@@ -57693,7 +57693,7 @@
         <v>831</v>
       </c>
       <c r="D439" s="4">
-        <v>1817.870361328125</v>
+        <v>1817.8704143773616</v>
       </c>
       <c r="E439" t="s">
         <v>841</v>
@@ -57710,7 +57710,7 @@
         <v>831</v>
       </c>
       <c r="D440" s="4">
-        <v>2108.54736328125</v>
+        <v>2108.5473214534823</v>
       </c>
       <c r="E440" t="s">
         <v>841</v>
@@ -57727,7 +57727,7 @@
         <v>831</v>
       </c>
       <c r="D441" s="4">
-        <v>2161.85107421875</v>
+        <v>2161.8511466744681</v>
       </c>
       <c r="E441" t="s">
         <v>841</v>
@@ -57744,7 +57744,7 @@
         <v>831</v>
       </c>
       <c r="D442" s="4">
-        <v>2304.39501953125</v>
+        <v>2304.3950997812904</v>
       </c>
       <c r="E442" t="s">
         <v>841</v>
@@ -57761,7 +57761,7 @@
         <v>831</v>
       </c>
       <c r="D443" s="4">
-        <v>2261.25537109375</v>
+        <v>2261.2554606480094</v>
       </c>
       <c r="E443" t="s">
         <v>841</v>
@@ -57778,7 +57778,7 @@
         <v>831</v>
       </c>
       <c r="D444" s="4">
-        <v>2058.333984375</v>
+        <v>2058.333977503255</v>
       </c>
       <c r="E444" t="s">
         <v>841</v>
@@ -57795,7 +57795,7 @@
         <v>831</v>
       </c>
       <c r="D445" s="4">
-        <v>2030.150390625</v>
+        <v>2030.1503987342401</v>
       </c>
       <c r="E445" t="s">
         <v>841</v>
@@ -57812,7 +57812,7 @@
         <v>831</v>
       </c>
       <c r="D446" s="4">
-        <v>2259.13818359375</v>
+        <v>2259.1381096220944</v>
       </c>
       <c r="E446" t="s">
         <v>841</v>
@@ -57829,7 +57829,7 @@
         <v>831</v>
       </c>
       <c r="D447" s="4">
-        <v>2385.70068359375</v>
+        <v>2385.7007605025287</v>
       </c>
       <c r="E447" t="s">
         <v>841</v>
@@ -57846,7 +57846,7 @@
         <v>831</v>
       </c>
       <c r="D448" s="4">
-        <v>2440.857177734375</v>
+        <v>2440.8570659923512</v>
       </c>
       <c r="E448" t="s">
         <v>841</v>
@@ -57863,7 +57863,7 @@
         <v>831</v>
       </c>
       <c r="D449" s="4">
-        <v>2572.76025390625</v>
+        <v>2572.7603324169868</v>
       </c>
       <c r="E449" t="s">
         <v>841</v>
@@ -57880,7 +57880,7 @@
         <v>831</v>
       </c>
       <c r="D450" s="4">
-        <v>1782.1575927734375</v>
+        <v>1782.1575341628463</v>
       </c>
       <c r="E450" t="s">
         <v>841</v>
@@ -57897,7 +57897,7 @@
         <v>831</v>
       </c>
       <c r="D451" s="4">
-        <v>1911.7696533203125</v>
+        <v>1911.7696497658985</v>
       </c>
       <c r="E451" t="s">
         <v>841</v>
@@ -57914,7 +57914,7 @@
         <v>831</v>
       </c>
       <c r="D452" s="4">
-        <v>2183.103759765625</v>
+        <v>2183.1036532686344</v>
       </c>
       <c r="E452" t="s">
         <v>841</v>
@@ -57931,7 +57931,7 @@
         <v>831</v>
       </c>
       <c r="D453" s="4">
-        <v>2083.318115234375</v>
+        <v>2083.3181767249202</v>
       </c>
       <c r="E453" t="s">
         <v>841</v>
@@ -57948,7 +57948,7 @@
         <v>831</v>
       </c>
       <c r="D454" s="4">
-        <v>2202.4208984375</v>
+        <v>2202.4210204919145</v>
       </c>
       <c r="E454" t="s">
         <v>841</v>
@@ -57965,7 +57965,7 @@
         <v>831</v>
       </c>
       <c r="D455" s="4">
-        <v>2238.854736328125</v>
+        <v>2238.8548408005008</v>
       </c>
       <c r="E455" t="s">
         <v>841</v>
@@ -57982,7 +57982,7 @@
         <v>831</v>
       </c>
       <c r="D456" s="4">
-        <v>2164.53759765625</v>
+        <v>2164.5376141778443</v>
       </c>
       <c r="E456" t="s">
         <v>841</v>
@@ -57999,7 +57999,7 @@
         <v>831</v>
       </c>
       <c r="D457" s="4">
-        <v>2303.8134765625</v>
+        <v>2303.813392464981</v>
       </c>
       <c r="E457" t="s">
         <v>841</v>
@@ -58016,7 +58016,7 @@
         <v>831</v>
       </c>
       <c r="D458" s="4">
-        <v>2366.8857421875</v>
+        <v>2366.8857161473748</v>
       </c>
       <c r="E458" t="s">
         <v>841</v>
@@ -58033,7 +58033,7 @@
         <v>831</v>
       </c>
       <c r="D459" s="4">
-        <v>2361.736083984375</v>
+        <v>2361.735987139964</v>
       </c>
       <c r="E459" t="s">
         <v>841</v>
@@ -58050,7 +58050,7 @@
         <v>831</v>
       </c>
       <c r="D460" s="4">
-        <v>2498.6767578125</v>
+        <v>2498.6768309154222</v>
       </c>
       <c r="E460" t="s">
         <v>841</v>
@@ -58067,7 +58067,7 @@
         <v>831</v>
       </c>
       <c r="D461" s="4">
-        <v>2386.900634765625</v>
+        <v>2386.9005367318782</v>
       </c>
       <c r="E461" t="s">
         <v>841</v>
@@ -58084,7 +58084,7 @@
         <v>831</v>
       </c>
       <c r="D462" s="4">
-        <v>1717.99462890625</v>
+        <v>1717.9946386104968</v>
       </c>
       <c r="E462" t="s">
         <v>841</v>
@@ -58101,7 +58101,7 @@
         <v>831</v>
       </c>
       <c r="D463" s="4">
-        <v>1836.3233642578125</v>
+        <v>1836.3234072277965</v>
       </c>
       <c r="E463" t="s">
         <v>841</v>
@@ -58118,7 +58118,7 @@
         <v>831</v>
       </c>
       <c r="D464" s="4">
-        <v>2104.0283203125</v>
+        <v>2104.0282567774939</v>
       </c>
       <c r="E464" t="s">
         <v>841</v>
@@ -58135,7 +58135,7 @@
         <v>831</v>
       </c>
       <c r="D465" s="4">
-        <v>2059.32666015625</v>
+        <v>2059.3267503341549</v>
       </c>
       <c r="E465" t="s">
         <v>841</v>
@@ -58152,7 +58152,7 @@
         <v>831</v>
       </c>
       <c r="D466" s="4">
-        <v>2156.246337890625</v>
+        <v>2156.2463776680579</v>
       </c>
       <c r="E466" t="s">
         <v>841</v>
@@ -58169,7 +58169,7 @@
         <v>831</v>
       </c>
       <c r="D467" s="4">
-        <v>2007.4779052734375</v>
+        <v>2007.4779044581976</v>
       </c>
       <c r="E467" t="s">
         <v>841</v>
@@ -58186,7 +58186,7 @@
         <v>831</v>
       </c>
       <c r="D468" s="4">
-        <v>1950.043701171875</v>
+        <v>1950.0437530624574</v>
       </c>
       <c r="E468" t="s">
         <v>841</v>
@@ -58203,7 +58203,7 @@
         <v>831</v>
       </c>
       <c r="D469" s="4">
-        <v>2115.720703125</v>
+        <v>2115.7207430915155</v>
       </c>
       <c r="E469" t="s">
         <v>841</v>
@@ -58220,7 +58220,7 @@
         <v>831</v>
       </c>
       <c r="D470" s="4">
-        <v>2121.437744140625</v>
+        <v>2121.4376838233939</v>
       </c>
       <c r="E470" t="s">
         <v>841</v>
@@ -58237,7 +58237,7 @@
         <v>831</v>
       </c>
       <c r="D471" s="4">
-        <v>2205.631103515625</v>
+        <v>2205.6311528645642</v>
       </c>
       <c r="E471" t="s">
         <v>841</v>
@@ -58254,7 +58254,7 @@
         <v>831</v>
       </c>
       <c r="D472" s="4">
-        <v>2425.17529296875</v>
+        <v>2425.1752215067163</v>
       </c>
       <c r="E472" t="s">
         <v>841</v>
@@ -58271,7 +58271,7 @@
         <v>831</v>
       </c>
       <c r="D473" s="4">
-        <v>2208.140625</v>
+        <v>2208.1407166927688</v>
       </c>
       <c r="E473" t="s">
         <v>841</v>
@@ -58288,7 +58288,7 @@
         <v>831</v>
       </c>
       <c r="D474" s="4">
-        <v>1424.072509765625</v>
+        <v>1424.0725364045061</v>
       </c>
       <c r="E474" t="s">
         <v>841</v>
@@ -58305,7 +58305,7 @@
         <v>831</v>
       </c>
       <c r="D475" s="4">
-        <v>1984.54443359375</v>
+        <v>1984.544448555971</v>
       </c>
       <c r="E475" t="s">
         <v>841</v>
@@ -58322,7 +58322,7 @@
         <v>831</v>
       </c>
       <c r="D476" s="4">
-        <v>2110.660888671875</v>
+        <v>2110.6609522738736</v>
       </c>
       <c r="E476" t="s">
         <v>841</v>
@@ -58339,7 +58339,7 @@
         <v>831</v>
       </c>
       <c r="D477" s="4">
-        <v>1968.2283935546875</v>
+        <v>1968.2283739867078</v>
       </c>
       <c r="E477" t="s">
         <v>841</v>
@@ -58356,7 +58356,7 @@
         <v>831</v>
       </c>
       <c r="D478" s="4">
-        <v>2102.25244140625</v>
+        <v>2102.252459226494</v>
       </c>
       <c r="E478" t="s">
         <v>841</v>
@@ -58373,7 +58373,7 @@
         <v>831</v>
       </c>
       <c r="D479" s="4">
-        <v>2094.916015625</v>
+        <v>2094.9160156713833</v>
       </c>
       <c r="E479" t="s">
         <v>841</v>
@@ -58390,7 +58390,7 @@
         <v>831</v>
       </c>
       <c r="D480" s="4">
-        <v>2142.72705078125</v>
+        <v>2142.7270252996655</v>
       </c>
       <c r="E480" t="s">
         <v>841</v>
@@ -58407,7 +58407,7 @@
         <v>831</v>
       </c>
       <c r="D481" s="4">
-        <v>2231.705810546875</v>
+        <v>2231.7057534291203</v>
       </c>
       <c r="E481" t="s">
         <v>841</v>
@@ -58424,7 +58424,7 @@
         <v>831</v>
       </c>
       <c r="D482" s="4">
-        <v>2235.299072265625</v>
+        <v>2235.2990162260839</v>
       </c>
       <c r="E482" t="s">
         <v>841</v>
@@ -58441,7 +58441,7 @@
         <v>831</v>
       </c>
       <c r="D483" s="4">
-        <v>2471.009521484375</v>
+        <v>2471.0095516306724</v>
       </c>
       <c r="E483" t="s">
         <v>841</v>
@@ -58458,7 +58458,7 @@
         <v>831</v>
       </c>
       <c r="D484" s="4">
-        <v>2516.94873046875</v>
+        <v>2516.9486876328265</v>
       </c>
       <c r="E484" t="s">
         <v>841</v>
@@ -58475,7 +58475,7 @@
         <v>831</v>
       </c>
       <c r="D485" s="4">
-        <v>2273.15771484375</v>
+        <v>2273.1577821166038</v>
       </c>
       <c r="E485" t="s">
         <v>841</v>
@@ -58492,7 +58492,7 @@
         <v>831</v>
       </c>
       <c r="D486" s="4">
-        <v>1608.0682373046875</v>
+        <v>1608.0682094421982</v>
       </c>
       <c r="E486" t="s">
         <v>841</v>
@@ -58509,7 +58509,7 @@
         <v>831</v>
       </c>
       <c r="D487" s="4">
-        <v>1866.6746826171875</v>
+        <v>1866.6747136849635</v>
       </c>
       <c r="E487" t="s">
         <v>841</v>
@@ -58526,7 +58526,7 @@
         <v>831</v>
       </c>
       <c r="D488" s="4">
-        <v>2330.50927734375</v>
+        <v>2330.5091661176589</v>
       </c>
       <c r="E488" t="s">
         <v>841</v>
@@ -58543,7 +58543,7 @@
         <v>831</v>
       </c>
       <c r="D489" s="4">
-        <v>2267.499267578125</v>
+        <v>2267.4992609739288</v>
       </c>
       <c r="E489" t="s">
         <v>841</v>
@@ -58560,7 +58560,7 @@
         <v>831</v>
       </c>
       <c r="D490" s="4">
-        <v>2234.719970703125</v>
+        <v>2234.7200237605198</v>
       </c>
       <c r="E490" t="s">
         <v>841</v>
@@ -58577,7 +58577,7 @@
         <v>831</v>
       </c>
       <c r="D491" s="4">
-        <v>2206.801513671875</v>
+        <v>2206.8014843215906</v>
       </c>
       <c r="E491" t="s">
         <v>841</v>
@@ -58594,7 +58594,7 @@
         <v>831</v>
       </c>
       <c r="D492" s="4">
-        <v>2136.897705078125</v>
+        <v>2136.897727533586</v>
       </c>
       <c r="E492" t="s">
         <v>841</v>
@@ -58611,7 +58611,7 @@
         <v>831</v>
       </c>
       <c r="D493" s="4">
-        <v>2287.538330078125</v>
+        <v>2287.5383598386979</v>
       </c>
       <c r="E493" t="s">
         <v>841</v>
@@ -58628,7 +58628,7 @@
         <v>831</v>
       </c>
       <c r="D494" s="4">
-        <v>2371.455322265625</v>
+        <v>2371.4552978080951</v>
       </c>
       <c r="E494" t="s">
         <v>841</v>
@@ -58645,7 +58645,7 @@
         <v>831</v>
       </c>
       <c r="D495" s="4">
-        <v>2465.60791015625</v>
+        <v>2465.6078752839571</v>
       </c>
       <c r="E495" t="s">
         <v>841</v>
@@ -58662,7 +58662,7 @@
         <v>831</v>
       </c>
       <c r="D496" s="4">
-        <v>2545.75634765625</v>
+        <v>2545.7562494399617</v>
       </c>
       <c r="E496" t="s">
         <v>841</v>
@@ -58679,7 +58679,7 @@
         <v>831</v>
       </c>
       <c r="D497" s="4">
-        <v>2311.8974609375</v>
+        <v>2311.8974883520905</v>
       </c>
       <c r="E497" t="s">
         <v>841</v>
@@ -58696,7 +58696,7 @@
         <v>831</v>
       </c>
       <c r="D498" s="4">
-        <v>1891.92822265625</v>
+        <v>1891.9281866104473</v>
       </c>
       <c r="E498" t="s">
         <v>841</v>
@@ -58713,7 +58713,7 @@
         <v>831</v>
       </c>
       <c r="D499" s="4">
-        <v>2478.861083984375</v>
+        <v>2478.8610039854152</v>
       </c>
       <c r="E499" t="s">
         <v>841</v>
@@ -58730,7 +58730,7 @@
         <v>831</v>
       </c>
       <c r="D500" s="4">
-        <v>2271.268310546875</v>
+        <v>2271.2684295234403</v>
       </c>
       <c r="E500" t="s">
         <v>841</v>
@@ -58747,7 +58747,7 @@
         <v>831</v>
       </c>
       <c r="D501" s="4">
-        <v>2525.437744140625</v>
+        <v>2525.437684894086</v>
       </c>
       <c r="E501" t="s">
         <v>841</v>
@@ -58764,7 +58764,7 @@
         <v>831</v>
       </c>
       <c r="D502" s="4">
-        <v>2534.0791015625</v>
+        <v>2534.0791808874228</v>
       </c>
       <c r="E502" t="s">
         <v>841</v>
@@ -58781,7 +58781,7 @@
         <v>831</v>
       </c>
       <c r="D503" s="4">
-        <v>2669.44091796875</v>
+        <v>2669.440927721309</v>
       </c>
       <c r="E503" t="s">
         <v>841</v>
@@ -58798,7 +58798,7 @@
         <v>831</v>
       </c>
       <c r="D504" s="4">
-        <v>2470.3505859375</v>
+        <v>2470.3506788362074</v>
       </c>
       <c r="E504" t="s">
         <v>841</v>
@@ -58815,7 +58815,7 @@
         <v>831</v>
       </c>
       <c r="D505" s="4">
-        <v>2394.5126953125</v>
+        <v>2394.5127533479449</v>
       </c>
       <c r="E505" t="s">
         <v>841</v>
@@ -58832,7 +58832,7 @@
         <v>831</v>
       </c>
       <c r="D506" s="4">
-        <v>2699.421875</v>
+        <v>2699.4219920440014</v>
       </c>
       <c r="E506" t="s">
         <v>841</v>
@@ -58849,7 +58849,7 @@
         <v>831</v>
       </c>
       <c r="D507" s="4">
-        <v>2837.6416015625</v>
+        <v>2837.6415069659888</v>
       </c>
       <c r="E507" t="s">
         <v>841</v>
@@ -58866,7 +58866,7 @@
         <v>831</v>
       </c>
       <c r="D508" s="4">
-        <v>2735.871826171875</v>
+        <v>2735.8718828329074</v>
       </c>
       <c r="E508" t="s">
         <v>841</v>
@@ -58883,7 +58883,7 @@
         <v>831</v>
       </c>
       <c r="D509" s="4">
-        <v>2395.22216796875</v>
+        <v>2395.2222211101284</v>
       </c>
       <c r="E509" t="s">
         <v>841</v>
@@ -58900,7 +58900,7 @@
         <v>831</v>
       </c>
       <c r="D510" s="4">
-        <v>1938.53515625</v>
+        <v>1938.5352057766165</v>
       </c>
       <c r="E510" t="s">
         <v>841</v>
@@ -58917,7 +58917,7 @@
         <v>831</v>
       </c>
       <c r="D511" s="4">
-        <v>2160.68408203125</v>
+        <v>2160.6841023729812</v>
       </c>
       <c r="E511" t="s">
         <v>841</v>
@@ -58934,7 +58934,7 @@
         <v>831</v>
       </c>
       <c r="D512" s="4">
-        <v>2247.16455078125</v>
+        <v>2247.1644752436255</v>
       </c>
       <c r="E512" t="s">
         <v>841</v>
@@ -58951,7 +58951,7 @@
         <v>831</v>
       </c>
       <c r="D513" s="4">
-        <v>1923.3531494140625</v>
+        <v>1923.3532058831699</v>
       </c>
       <c r="E513" t="s">
         <v>841</v>
@@ -58968,7 +58968,7 @@
         <v>831</v>
       </c>
       <c r="D514" s="4">
-        <v>1724.7940673828125</v>
+        <v>1724.7940731195047</v>
       </c>
       <c r="E514" t="s">
         <v>841</v>
@@ -58985,7 +58985,7 @@
         <v>831</v>
       </c>
       <c r="D515" s="4">
-        <v>1953.179931640625</v>
+        <v>1953.1798834897727</v>
       </c>
       <c r="E515" t="s">
         <v>841</v>
@@ -59002,7 +59002,7 @@
         <v>831</v>
       </c>
       <c r="D516" s="4">
-        <v>2395.294921875</v>
+        <v>2395.2948744786841</v>
       </c>
       <c r="E516" t="s">
         <v>841</v>
@@ -59019,7 +59019,7 @@
         <v>831</v>
       </c>
       <c r="D517" s="4">
-        <v>2343.697021484375</v>
+        <v>2343.6969012645709</v>
       </c>
       <c r="E517" t="s">
         <v>841</v>
@@ -59036,7 +59036,7 @@
         <v>831</v>
       </c>
       <c r="D518" s="4">
-        <v>2438.34619140625</v>
+        <v>2438.3462350704326</v>
       </c>
       <c r="E518" t="s">
         <v>841</v>
@@ -59053,7 +59053,7 @@
         <v>831</v>
       </c>
       <c r="D519" s="4">
-        <v>2555.4755859375</v>
+        <v>2555.4756431935798</v>
       </c>
       <c r="E519" t="s">
         <v>841</v>
@@ -59070,7 +59070,7 @@
         <v>831</v>
       </c>
       <c r="D520" s="4">
-        <v>2634.99365234375</v>
+        <v>2634.9936040567441</v>
       </c>
       <c r="E520" t="s">
         <v>841</v>
@@ -59087,7 +59087,7 @@
         <v>831</v>
       </c>
       <c r="D521" s="4">
-        <v>2220.02978515625</v>
+        <v>2220.0298084476544</v>
       </c>
       <c r="E521" t="s">
         <v>841</v>
@@ -59104,7 +59104,7 @@
         <v>831</v>
       </c>
       <c r="D522" s="4">
-        <v>1891.411376953125</v>
+        <v>1891.4113379962316</v>
       </c>
       <c r="E522" t="s">
         <v>841</v>
@@ -59121,7 +59121,7 @@
         <v>831</v>
       </c>
       <c r="D523" s="4">
-        <v>2140.560546875</v>
+        <v>2140.5605954620373</v>
       </c>
       <c r="E523" t="s">
         <v>841</v>
@@ -59138,7 +59138,7 @@
         <v>831</v>
       </c>
       <c r="D524" s="4">
-        <v>2144.5830078125</v>
+        <v>2144.5831105576135</v>
       </c>
       <c r="E524" t="s">
         <v>841</v>
@@ -59155,7 +59155,7 @@
         <v>831</v>
       </c>
       <c r="D525" s="4">
-        <v>2247.931640625</v>
+        <v>2247.9315268505648</v>
       </c>
       <c r="E525" t="s">
         <v>841</v>
@@ -59172,7 +59172,7 @@
         <v>831</v>
       </c>
       <c r="D526" s="4">
-        <v>2116.890380859375</v>
+        <v>2116.8904838628168</v>
       </c>
       <c r="E526" t="s">
         <v>841</v>
@@ -59189,7 +59189,7 @@
         <v>831</v>
       </c>
       <c r="D527" s="4">
-        <v>2313.614501953125</v>
+        <v>2313.6145917266426</v>
       </c>
       <c r="E527" t="s">
         <v>841</v>
@@ -59206,7 +59206,7 @@
         <v>831</v>
       </c>
       <c r="D528" s="4">
-        <v>2338.866455078125</v>
+        <v>2338.8664956139896</v>
       </c>
       <c r="E528" t="s">
         <v>841</v>
@@ -59223,7 +59223,7 @@
         <v>831</v>
       </c>
       <c r="D529" s="4">
-        <v>2447.5498046875</v>
+        <v>2447.549746069938</v>
       </c>
       <c r="E529" t="s">
         <v>841</v>
@@ -59240,7 +59240,7 @@
         <v>831</v>
       </c>
       <c r="D530" s="4">
-        <v>2411.474853515625</v>
+        <v>2411.4748952226296</v>
       </c>
       <c r="E530" t="s">
         <v>841</v>
@@ -59257,7 +59257,7 @@
         <v>831</v>
       </c>
       <c r="D531" s="4">
-        <v>2497.73046875</v>
+        <v>2497.7303561642125</v>
       </c>
       <c r="E531" t="s">
         <v>841</v>
@@ -59274,7 +59274,7 @@
         <v>832</v>
       </c>
       <c r="D532" s="4">
-        <v>271.93917846679688</v>
+        <v>271.93917300657495</v>
       </c>
       <c r="E532" t="s">
         <v>842</v>
@@ -59291,7 +59291,7 @@
         <v>832</v>
       </c>
       <c r="D533" s="4">
-        <v>285.77285766601563</v>
+        <v>285.77283474585448</v>
       </c>
       <c r="E533" t="s">
         <v>842</v>
@@ -59308,7 +59308,7 @@
         <v>832</v>
       </c>
       <c r="D534" s="4">
-        <v>286.8438720703125</v>
+        <v>286.84386967693774</v>
       </c>
       <c r="E534" t="s">
         <v>842</v>
@@ -59325,7 +59325,7 @@
         <v>832</v>
       </c>
       <c r="D535" s="4">
-        <v>326.2049560546875</v>
+        <v>326.20496004854317</v>
       </c>
       <c r="E535" t="s">
         <v>842</v>
@@ -59342,7 +59342,7 @@
         <v>832</v>
       </c>
       <c r="D536" s="4">
-        <v>332.45388793945313</v>
+        <v>332.45387644270056</v>
       </c>
       <c r="E536" t="s">
         <v>842</v>
@@ -59359,7 +59359,7 @@
         <v>832</v>
       </c>
       <c r="D537" s="4">
-        <v>323.985107421875</v>
+        <v>323.98510914675438</v>
       </c>
       <c r="E537" t="s">
         <v>842</v>
@@ -59376,7 +59376,7 @@
         <v>832</v>
       </c>
       <c r="D538" s="4">
-        <v>352.31192016601563</v>
+        <v>352.31191555287722</v>
       </c>
       <c r="E538" t="s">
         <v>842</v>
@@ -59393,7 +59393,7 @@
         <v>832</v>
       </c>
       <c r="D539" s="4">
-        <v>354.816650390625</v>
+        <v>354.81664978977307</v>
       </c>
       <c r="E539" t="s">
         <v>842</v>
@@ -59410,7 +59410,7 @@
         <v>832</v>
       </c>
       <c r="D540" s="4">
-        <v>335.17202758789063</v>
+        <v>335.17201579813172</v>
       </c>
       <c r="E540" t="s">
         <v>842</v>
@@ -59427,7 +59427,7 @@
         <v>832</v>
       </c>
       <c r="D541" s="4">
-        <v>394.06759643554688</v>
+        <v>394.0675838174472</v>
       </c>
       <c r="E541" t="s">
         <v>842</v>
@@ -59444,7 +59444,7 @@
         <v>832</v>
       </c>
       <c r="D542" s="4">
-        <v>435.95269775390625</v>
+        <v>435.95267974545612</v>
       </c>
       <c r="E542" t="s">
         <v>842</v>
@@ -59461,7 +59461,7 @@
         <v>832</v>
       </c>
       <c r="D543" s="4">
-        <v>408.17477416992188</v>
+        <v>408.17476642556551</v>
       </c>
       <c r="E543" t="s">
         <v>842</v>
@@ -59478,7 +59478,7 @@
         <v>832</v>
       </c>
       <c r="D544" s="4">
-        <v>355.292724609375</v>
+        <v>355.29271014747167</v>
       </c>
       <c r="E544" t="s">
         <v>842</v>
@@ -59495,7 +59495,7 @@
         <v>832</v>
       </c>
       <c r="D545" s="4">
-        <v>342.56182861328125</v>
+        <v>342.56185308181256</v>
       </c>
       <c r="E545" t="s">
         <v>842</v>
@@ -59512,7 +59512,7 @@
         <v>832</v>
       </c>
       <c r="D546" s="4">
-        <v>421.09869384765625</v>
+        <v>421.09869173111315</v>
       </c>
       <c r="E546" t="s">
         <v>842</v>
@@ -59529,7 +59529,7 @@
         <v>832</v>
       </c>
       <c r="D547" s="4">
-        <v>434.56759643554688</v>
+        <v>434.56760264286788</v>
       </c>
       <c r="E547" t="s">
         <v>842</v>
@@ -59546,7 +59546,7 @@
         <v>832</v>
       </c>
       <c r="D548" s="4">
-        <v>470.36883544921875</v>
+        <v>470.36882884846813</v>
       </c>
       <c r="E548" t="s">
         <v>842</v>
@@ -59563,7 +59563,7 @@
         <v>832</v>
       </c>
       <c r="D549" s="4">
-        <v>450.87100219726563</v>
+        <v>450.87100900337566</v>
       </c>
       <c r="E549" t="s">
         <v>842</v>
@@ -59580,7 +59580,7 @@
         <v>832</v>
       </c>
       <c r="D550" s="4">
-        <v>428.84304809570313</v>
+        <v>428.84304702506319</v>
       </c>
       <c r="E550" t="s">
         <v>842</v>
@@ -59597,7 +59597,7 @@
         <v>832</v>
       </c>
       <c r="D551" s="4">
-        <v>414.70144653320313</v>
+        <v>414.70144617240112</v>
       </c>
       <c r="E551" t="s">
         <v>842</v>
@@ -59614,7 +59614,7 @@
         <v>832</v>
       </c>
       <c r="D552" s="4">
-        <v>460.61672973632813</v>
+        <v>460.61673376189327</v>
       </c>
       <c r="E552" t="s">
         <v>842</v>
@@ -59631,7 +59631,7 @@
         <v>832</v>
       </c>
       <c r="D553" s="4">
-        <v>504.09738159179688</v>
+        <v>504.09738435892399</v>
       </c>
       <c r="E553" t="s">
         <v>842</v>
@@ -59648,7 +59648,7 @@
         <v>832</v>
       </c>
       <c r="D554" s="4">
-        <v>482.047119140625</v>
+        <v>482.04713765204889</v>
       </c>
       <c r="E554" t="s">
         <v>842</v>
@@ -59665,7 +59665,7 @@
         <v>832</v>
       </c>
       <c r="D555" s="4">
-        <v>509.7916259765625</v>
+        <v>509.79162777120882</v>
       </c>
       <c r="E555" t="s">
         <v>842</v>
@@ -59682,7 +59682,7 @@
         <v>832</v>
       </c>
       <c r="D556" s="4">
-        <v>361.70367431640625</v>
+        <v>361.70368694633322</v>
       </c>
       <c r="E556" t="s">
         <v>842</v>
@@ -59699,7 +59699,7 @@
         <v>832</v>
       </c>
       <c r="D557" s="4">
-        <v>362.56655883789063</v>
+        <v>362.56655351130189</v>
       </c>
       <c r="E557" t="s">
         <v>842</v>
@@ -59716,7 +59716,7 @@
         <v>832</v>
       </c>
       <c r="D558" s="4">
-        <v>435.15658569335938</v>
+        <v>435.15657842145481</v>
       </c>
       <c r="E558" t="s">
         <v>842</v>
@@ -59733,7 +59733,7 @@
         <v>832</v>
       </c>
       <c r="D559" s="4">
-        <v>422.530517578125</v>
+        <v>422.53053353945438</v>
       </c>
       <c r="E559" t="s">
         <v>842</v>
@@ -59750,7 +59750,7 @@
         <v>832</v>
       </c>
       <c r="D560" s="4">
-        <v>440.152587890625</v>
+        <v>440.1526063653908</v>
       </c>
       <c r="E560" t="s">
         <v>842</v>
@@ -59767,7 +59767,7 @@
         <v>832</v>
       </c>
       <c r="D561" s="4">
-        <v>451.4227294921875</v>
+        <v>451.42271158370193</v>
       </c>
       <c r="E561" t="s">
         <v>842</v>
@@ -59784,7 +59784,7 @@
         <v>832</v>
       </c>
       <c r="D562" s="4">
-        <v>452.0423583984375</v>
+        <v>452.04235335425977</v>
       </c>
       <c r="E562" t="s">
         <v>842</v>
@@ -59801,7 +59801,7 @@
         <v>832</v>
       </c>
       <c r="D563" s="4">
-        <v>465.77664184570313</v>
+        <v>465.77664773744215</v>
       </c>
       <c r="E563" t="s">
         <v>842</v>
@@ -59818,7 +59818,7 @@
         <v>832</v>
       </c>
       <c r="D564" s="4">
-        <v>469.76565551757813</v>
+        <v>469.76564284657979</v>
       </c>
       <c r="E564" t="s">
         <v>842</v>
@@ -59835,7 +59835,7 @@
         <v>832</v>
       </c>
       <c r="D565" s="4">
-        <v>492.19668579101563</v>
+        <v>492.19667916655607</v>
       </c>
       <c r="E565" t="s">
         <v>842</v>
@@ -59852,7 +59852,7 @@
         <v>832</v>
       </c>
       <c r="D566" s="4">
-        <v>479.37014770507813</v>
+        <v>479.37016782683492</v>
       </c>
       <c r="E566" t="s">
         <v>842</v>
@@ -59869,7 +59869,7 @@
         <v>832</v>
       </c>
       <c r="D567" s="4">
-        <v>466.91958618164063</v>
+        <v>466.9195893207534</v>
       </c>
       <c r="E567" t="s">
         <v>842</v>
@@ -59886,7 +59886,7 @@
         <v>832</v>
       </c>
       <c r="D568" s="4">
-        <v>344.216064453125</v>
+        <v>344.21607011470695</v>
       </c>
       <c r="E568" t="s">
         <v>842</v>
@@ -59903,7 +59903,7 @@
         <v>832</v>
       </c>
       <c r="D569" s="4">
-        <v>357.0584716796875</v>
+        <v>357.05848199046773</v>
       </c>
       <c r="E569" t="s">
         <v>842</v>
@@ -59920,7 +59920,7 @@
         <v>832</v>
       </c>
       <c r="D570" s="4">
-        <v>418.59426879882813</v>
+        <v>418.594278007637</v>
       </c>
       <c r="E570" t="s">
         <v>842</v>
@@ -59937,7 +59937,7 @@
         <v>832</v>
       </c>
       <c r="D571" s="4">
-        <v>413.78903198242188</v>
+        <v>413.78904659135685</v>
       </c>
       <c r="E571" t="s">
         <v>842</v>
@@ -59954,7 +59954,7 @@
         <v>832</v>
       </c>
       <c r="D572" s="4">
-        <v>437.65927124023438</v>
+        <v>437.65929247159647</v>
       </c>
       <c r="E572" t="s">
         <v>842</v>
@@ -59971,7 +59971,7 @@
         <v>832</v>
       </c>
       <c r="D573" s="4">
-        <v>403.00613403320313</v>
+        <v>403.00611986261845</v>
       </c>
       <c r="E573" t="s">
         <v>842</v>
@@ -59988,7 +59988,7 @@
         <v>832</v>
       </c>
       <c r="D574" s="4">
-        <v>397.73992919921875</v>
+        <v>397.73992586817582</v>
       </c>
       <c r="E574" t="s">
         <v>842</v>
@@ -60005,7 +60005,7 @@
         <v>832</v>
       </c>
       <c r="D575" s="4">
-        <v>433.52447509765625</v>
+        <v>433.52447710199363</v>
       </c>
       <c r="E575" t="s">
         <v>842</v>
@@ -60022,7 +60022,7 @@
         <v>832</v>
       </c>
       <c r="D576" s="4">
-        <v>418.31622314453125</v>
+        <v>418.31621032140356</v>
       </c>
       <c r="E576" t="s">
         <v>842</v>
@@ -60039,7 +60039,7 @@
         <v>832</v>
       </c>
       <c r="D577" s="4">
-        <v>444.06869506835938</v>
+        <v>444.06867912729905</v>
       </c>
       <c r="E577" t="s">
         <v>842</v>
@@ -60056,7 +60056,7 @@
         <v>832</v>
       </c>
       <c r="D578" s="4">
-        <v>471.83413696289063</v>
+        <v>471.83411616493248</v>
       </c>
       <c r="E578" t="s">
         <v>842</v>
@@ -60073,7 +60073,7 @@
         <v>832</v>
       </c>
       <c r="D579" s="4">
-        <v>427.35586547851563</v>
+        <v>427.35586348918343</v>
       </c>
       <c r="E579" t="s">
         <v>842</v>
@@ -60090,7 +60090,7 @@
         <v>832</v>
       </c>
       <c r="D580" s="4">
-        <v>288.5</v>
+        <v>288.5000099329398</v>
       </c>
       <c r="E580" t="s">
         <v>842</v>
@@ -60107,7 +60107,7 @@
         <v>832</v>
       </c>
       <c r="D581" s="4">
-        <v>364.65609741210938</v>
+        <v>364.65609671522958</v>
       </c>
       <c r="E581" t="s">
         <v>842</v>
@@ -60124,7 +60124,7 @@
         <v>832</v>
       </c>
       <c r="D582" s="4">
-        <v>417.4825439453125</v>
+        <v>417.48252038787604</v>
       </c>
       <c r="E582" t="s">
         <v>842</v>
@@ -60141,7 +60141,7 @@
         <v>832</v>
       </c>
       <c r="D583" s="4">
-        <v>378.177490234375</v>
+        <v>378.17749937438106</v>
       </c>
       <c r="E583" t="s">
         <v>842</v>
@@ -60158,7 +60158,7 @@
         <v>832</v>
       </c>
       <c r="D584" s="4">
-        <v>435.94024658203125</v>
+        <v>435.94024785969151</v>
       </c>
       <c r="E584" t="s">
         <v>842</v>
@@ -60175,7 +60175,7 @@
         <v>832</v>
       </c>
       <c r="D585" s="4">
-        <v>432.1231689453125</v>
+        <v>432.12314728354642</v>
       </c>
       <c r="E585" t="s">
         <v>842</v>
@@ -60192,7 +60192,7 @@
         <v>832</v>
       </c>
       <c r="D586" s="4">
-        <v>430.92086791992188</v>
+        <v>430.92088988595111</v>
       </c>
       <c r="E586" t="s">
         <v>842</v>
@@ -60209,7 +60209,7 @@
         <v>832</v>
       </c>
       <c r="D587" s="4">
-        <v>468.71475219726563</v>
+        <v>468.71474433013776</v>
       </c>
       <c r="E587" t="s">
         <v>842</v>
@@ -60226,7 +60226,7 @@
         <v>832</v>
       </c>
       <c r="D588" s="4">
-        <v>443.7037353515625</v>
+        <v>443.70375467114712</v>
       </c>
       <c r="E588" t="s">
         <v>842</v>
@@ -60243,7 +60243,7 @@
         <v>832</v>
       </c>
       <c r="D589" s="4">
-        <v>505.26861572265625</v>
+        <v>505.2686245788579</v>
       </c>
       <c r="E589" t="s">
         <v>842</v>
@@ -60260,7 +60260,7 @@
         <v>832</v>
       </c>
       <c r="D590" s="4">
-        <v>508.99404907226563</v>
+        <v>508.99406486141123</v>
       </c>
       <c r="E590" t="s">
         <v>842</v>
@@ -60277,7 +60277,7 @@
         <v>832</v>
       </c>
       <c r="D591" s="4">
-        <v>443.92236328125</v>
+        <v>443.92238666976647</v>
       </c>
       <c r="E591" t="s">
         <v>842</v>
@@ -60294,7 +60294,7 @@
         <v>832</v>
       </c>
       <c r="D592" s="4">
-        <v>330.92459106445313</v>
+        <v>330.92458615471259</v>
       </c>
       <c r="E592" t="s">
         <v>842</v>
@@ -60311,7 +60311,7 @@
         <v>832</v>
       </c>
       <c r="D593" s="4">
-        <v>350.58450317382813</v>
+        <v>350.58450091861363</v>
       </c>
       <c r="E593" t="s">
         <v>842</v>
@@ -60328,7 +60328,7 @@
         <v>832</v>
       </c>
       <c r="D594" s="4">
-        <v>459.459716796875</v>
+        <v>459.45970869911685</v>
       </c>
       <c r="E594" t="s">
         <v>842</v>
@@ -60345,7 +60345,7 @@
         <v>832</v>
       </c>
       <c r="D595" s="4">
-        <v>452.96322631835938</v>
+        <v>452.96321574975963</v>
       </c>
       <c r="E595" t="s">
         <v>842</v>
@@ -60362,7 +60362,7 @@
         <v>832</v>
       </c>
       <c r="D596" s="4">
-        <v>468.11846923828125</v>
+        <v>468.11846465470711</v>
       </c>
       <c r="E596" t="s">
         <v>842</v>
@@ -60379,7 +60379,7 @@
         <v>832</v>
       </c>
       <c r="D597" s="4">
-        <v>447.67840576171875</v>
+        <v>447.67839082861008</v>
       </c>
       <c r="E597" t="s">
         <v>842</v>
@@ -60396,7 +60396,7 @@
         <v>832</v>
       </c>
       <c r="D598" s="4">
-        <v>429.95321655273438</v>
+        <v>429.95322405712972</v>
       </c>
       <c r="E598" t="s">
         <v>842</v>
@@ -60413,7 +60413,7 @@
         <v>832</v>
       </c>
       <c r="D599" s="4">
-        <v>475.35720825195313</v>
+        <v>475.35721567605356</v>
       </c>
       <c r="E599" t="s">
         <v>842</v>
@@ -60430,7 +60430,7 @@
         <v>832</v>
       </c>
       <c r="D600" s="4">
-        <v>468.99807739257813</v>
+        <v>468.99806278346347</v>
       </c>
       <c r="E600" t="s">
         <v>842</v>
@@ -60447,7 +60447,7 @@
         <v>832</v>
       </c>
       <c r="D601" s="4">
-        <v>519.4766845703125</v>
+        <v>519.47669175870465</v>
       </c>
       <c r="E601" t="s">
         <v>842</v>
@@ -60464,7 +60464,7 @@
         <v>832</v>
       </c>
       <c r="D602" s="4">
-        <v>512.07415771484375</v>
+        <v>512.07417628120413</v>
       </c>
       <c r="E602" t="s">
         <v>842</v>
@@ -60481,7 +60481,7 @@
         <v>832</v>
       </c>
       <c r="D603" s="4">
-        <v>444.1416015625</v>
+        <v>444.14160006701019</v>
       </c>
       <c r="E603" t="s">
         <v>842</v>
@@ -60498,7 +60498,7 @@
         <v>832</v>
       </c>
       <c r="D604" s="4">
-        <v>382.17544555664063</v>
+        <v>382.17545056080235</v>
       </c>
       <c r="E604" t="s">
         <v>842</v>
@@ -60515,7 +60515,7 @@
         <v>832</v>
       </c>
       <c r="D605" s="4">
-        <v>465.76022338867188</v>
+        <v>465.7602249375322</v>
       </c>
       <c r="E605" t="s">
         <v>842</v>
@@ -60532,7 +60532,7 @@
         <v>832</v>
       </c>
       <c r="D606" s="4">
-        <v>462.946533203125</v>
+        <v>462.94651673256942</v>
       </c>
       <c r="E606" t="s">
         <v>842</v>
@@ -60549,7 +60549,7 @@
         <v>832</v>
       </c>
       <c r="D607" s="4">
-        <v>482.61611938476563</v>
+        <v>482.61611700714656</v>
       </c>
       <c r="E607" t="s">
         <v>842</v>
@@ -60566,7 +60566,7 @@
         <v>832</v>
       </c>
       <c r="D608" s="4">
-        <v>517.08868408203125</v>
+        <v>517.08868183978302</v>
       </c>
       <c r="E608" t="s">
         <v>842</v>
@@ -60583,7 +60583,7 @@
         <v>832</v>
       </c>
       <c r="D609" s="4">
-        <v>528.90594482421875</v>
+        <v>528.90596821489157</v>
       </c>
       <c r="E609" t="s">
         <v>842</v>
@@ -60600,7 +60600,7 @@
         <v>832</v>
       </c>
       <c r="D610" s="4">
-        <v>523.737548828125</v>
+        <v>523.737520590131</v>
       </c>
       <c r="E610" t="s">
         <v>842</v>
@@ -60617,7 +60617,7 @@
         <v>832</v>
       </c>
       <c r="D611" s="4">
-        <v>505.47311401367188</v>
+        <v>505.4731180763186</v>
       </c>
       <c r="E611" t="s">
         <v>842</v>
@@ -60634,7 +60634,7 @@
         <v>832</v>
       </c>
       <c r="D612" s="4">
-        <v>523.939453125</v>
+        <v>523.93946830649406</v>
       </c>
       <c r="E612" t="s">
         <v>842</v>
@@ -60651,7 +60651,7 @@
         <v>832</v>
       </c>
       <c r="D613" s="4">
-        <v>607.26373291015625</v>
+        <v>607.26373683868871</v>
       </c>
       <c r="E613" t="s">
         <v>842</v>
@@ -60668,7 +60668,7 @@
         <v>832</v>
       </c>
       <c r="D614" s="4">
-        <v>547.9765625</v>
+        <v>547.97656781160822</v>
       </c>
       <c r="E614" t="s">
         <v>842</v>
@@ -60685,7 +60685,7 @@
         <v>832</v>
       </c>
       <c r="D615" s="4">
-        <v>468.30453491210938</v>
+        <v>468.30451681259399</v>
       </c>
       <c r="E615" t="s">
         <v>842</v>
@@ -60702,7 +60702,7 @@
         <v>832</v>
       </c>
       <c r="D616" s="4">
-        <v>388.78167724609375</v>
+        <v>388.78168028385898</v>
       </c>
       <c r="E616" t="s">
         <v>842</v>
@@ -60719,7 +60719,7 @@
         <v>832</v>
       </c>
       <c r="D617" s="4">
-        <v>419.30145263671875</v>
+        <v>419.30143040322616</v>
       </c>
       <c r="E617" t="s">
         <v>842</v>
@@ -60736,7 +60736,7 @@
         <v>832</v>
       </c>
       <c r="D618" s="4">
-        <v>466.36672973632813</v>
+        <v>466.36672524932271</v>
       </c>
       <c r="E618" t="s">
         <v>842</v>
@@ -60753,7 +60753,7 @@
         <v>832</v>
       </c>
       <c r="D619" s="4">
-        <v>359.62017822265625</v>
+        <v>359.62017764232939</v>
       </c>
       <c r="E619" t="s">
         <v>842</v>
@@ -60770,7 +60770,7 @@
         <v>832</v>
       </c>
       <c r="D620" s="4">
-        <v>333.85580444335938</v>
+        <v>333.85580875252066</v>
       </c>
       <c r="E620" t="s">
         <v>842</v>
@@ -60787,7 +60787,7 @@
         <v>832</v>
       </c>
       <c r="D621" s="4">
-        <v>401.73983764648438</v>
+        <v>401.73985006312631</v>
       </c>
       <c r="E621" t="s">
         <v>842</v>
@@ -60804,7 +60804,7 @@
         <v>832</v>
       </c>
       <c r="D622" s="4">
-        <v>510.05630493164063</v>
+        <v>510.05632678351606</v>
       </c>
       <c r="E622" t="s">
         <v>842</v>
@@ -60821,7 +60821,7 @@
         <v>832</v>
       </c>
       <c r="D623" s="4">
-        <v>478.62094116210938</v>
+        <v>478.62092637547119</v>
       </c>
       <c r="E623" t="s">
         <v>842</v>
@@ -60838,7 +60838,7 @@
         <v>832</v>
       </c>
       <c r="D624" s="4">
-        <v>498.65060424804688</v>
+        <v>498.6506053220578</v>
       </c>
       <c r="E624" t="s">
         <v>842</v>
@@ -60855,7 +60855,7 @@
         <v>832</v>
       </c>
       <c r="D625" s="4">
-        <v>539.71429443359375</v>
+        <v>539.71430808808577</v>
       </c>
       <c r="E625" t="s">
         <v>842</v>
@@ -60872,7 +60872,7 @@
         <v>832</v>
       </c>
       <c r="D626" s="4">
-        <v>519.75115966796875</v>
+        <v>519.75118501589657</v>
       </c>
       <c r="E626" t="s">
         <v>842</v>
@@ -60889,7 +60889,7 @@
         <v>832</v>
       </c>
       <c r="D627" s="4">
-        <v>432.56201171875</v>
+        <v>432.56199935550262</v>
       </c>
       <c r="E627" t="s">
         <v>842</v>
@@ -60906,7 +60906,7 @@
         <v>832</v>
       </c>
       <c r="D628" s="4">
-        <v>368.980712890625</v>
+        <v>368.98071718589239</v>
       </c>
       <c r="E628" t="s">
         <v>842</v>
@@ -60923,7 +60923,7 @@
         <v>832</v>
       </c>
       <c r="D629" s="4">
-        <v>403.19454956054688</v>
+        <v>403.19455541677024</v>
       </c>
       <c r="E629" t="s">
         <v>842</v>
@@ -60940,7 +60940,7 @@
         <v>832</v>
       </c>
       <c r="D630" s="4">
-        <v>448.91305541992188</v>
+        <v>448.91305115300952</v>
       </c>
       <c r="E630" t="s">
         <v>842</v>
@@ -60957,7 +60957,7 @@
         <v>832</v>
       </c>
       <c r="D631" s="4">
-        <v>450.8922119140625</v>
+        <v>450.89223055089576</v>
       </c>
       <c r="E631" t="s">
         <v>842</v>
@@ -60974,7 +60974,7 @@
         <v>832</v>
       </c>
       <c r="D632" s="4">
-        <v>424.672607421875</v>
+        <v>424.67260125986837</v>
       </c>
       <c r="E632" t="s">
         <v>842</v>
@@ -60991,7 +60991,7 @@
         <v>832</v>
       </c>
       <c r="D633" s="4">
-        <v>461.4075927734375</v>
+        <v>461.40759259456718</v>
       </c>
       <c r="E633" t="s">
         <v>842</v>
@@ -61008,7 +61008,7 @@
         <v>832</v>
       </c>
       <c r="D634" s="4">
-        <v>492.1768798828125</v>
+        <v>492.17689057877914</v>
       </c>
       <c r="E634" t="s">
         <v>842</v>
@@ -61025,7 +61025,7 @@
         <v>832</v>
       </c>
       <c r="D635" s="4">
-        <v>497.24749755859375</v>
+        <v>497.24748985419251</v>
       </c>
       <c r="E635" t="s">
         <v>842</v>
@@ -61042,7 +61042,7 @@
         <v>832</v>
       </c>
       <c r="D636" s="4">
-        <v>496.1802978515625</v>
+        <v>496.18031103380781</v>
       </c>
       <c r="E636" t="s">
         <v>842</v>
@@ -61059,7 +61059,7 @@
         <v>832</v>
       </c>
       <c r="D637" s="4">
-        <v>523.45587158203125</v>
+        <v>523.45586241360149</v>
       </c>
       <c r="E637" t="s">
         <v>842</v>
@@ -64675,7 +64675,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C60"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -65325,6 +65325,17 @@
       </c>
       <c r="C59" s="4">
         <v>658806</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5">
+        <v>44378</v>
+      </c>
+      <c r="B60" t="s">
+        <v>846</v>
+      </c>
+      <c r="C60" s="4">
+        <v>700961</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 02/08/2022</t>
+    <t xml:space="preserve"> 02/18/2022</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9192" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9194" uniqueCount="945">
   <si>
     <t>Base de datos</t>
   </si>
@@ -2649,6 +2649,9 @@
   </si>
   <si>
     <t>Cifra parcial u omitida por motivos de confidencialidad</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -65798,7 +65801,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E93"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -65880,7 +65883,7 @@
         <v>0.92839400000000005</v>
       </c>
       <c r="D5" s="4">
-        <v>0.92839400000000005</v>
+        <v>0.92839400000000105</v>
       </c>
       <c r="E5" t="s">
         <v>857</v>
@@ -67240,7 +67243,7 @@
         <v>20.19367154</v>
       </c>
       <c r="D85" s="4">
-        <v>21.93960697</v>
+        <v>17.703138360000001</v>
       </c>
       <c r="E85" t="s">
         <v>936</v>
@@ -67257,7 +67260,7 @@
         <v>94.469589979999995</v>
       </c>
       <c r="D86" s="4">
-        <v>110.29191034999999</v>
+        <v>107.93902339</v>
       </c>
       <c r="E86" t="s">
         <v>937</v>
@@ -67274,7 +67277,7 @@
         <v>59.19768638</v>
       </c>
       <c r="D87" s="4">
-        <v>64.979974260000006</v>
+        <v>67.324975640000005</v>
       </c>
       <c r="E87" t="s">
         <v>938</v>
@@ -67325,7 +67328,7 @@
         <v>24.615973910000001</v>
       </c>
       <c r="D90" s="4">
-        <v>21.774143819999999</v>
+        <v>12.36206129</v>
       </c>
       <c r="E90" t="s">
         <v>941</v>
@@ -67365,6 +67368,23 @@
         <v>943</v>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>849</v>
+      </c>
+      <c r="B93" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C93" s="4">
+        <v>102.97053859</v>
+      </c>
+      <c r="D93" s="4">
+        <v>102.97053859</v>
+      </c>
+      <c r="E93" t="s">
+        <v>944</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 02/21/2022</t>
+    <t xml:space="preserve"> 03/04/2022</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9230" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9231" uniqueCount="945">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 03/18/2022</t>
+    <t xml:space="preserve"> 03/31/2022</t>
   </si>
   <si>
     <t>Sección</t>
@@ -65360,7 +65360,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -66021,6 +66021,17 @@
       </c>
       <c r="C60" s="4">
         <v>700961</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5">
+        <v>44470</v>
+      </c>
+      <c r="B61" t="s">
+        <v>846</v>
+      </c>
+      <c r="C61" s="4">
+        <v>668157</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/19/2022</t>
+    <t xml:space="preserve"> 05/24/2022</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/24/2022</t>
+    <t xml:space="preserve"> 05/26/2022</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9303" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9305" uniqueCount="946">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/26/2022</t>
+    <t xml:space="preserve"> 05/31/2022</t>
   </si>
   <si>
     <t>Sección</t>
@@ -2649,6 +2649,9 @@
   </si>
   <si>
     <t>Cifra parcial u omitida por motivos de confidencialidad</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -66496,7 +66499,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E94"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -66578,7 +66581,7 @@
         <v>0.92839400000000005</v>
       </c>
       <c r="D5" s="4">
-        <v>0.92839400000000105</v>
+        <v>0.92839400000000005</v>
       </c>
       <c r="E5" t="s">
         <v>857</v>
@@ -68074,10 +68077,27 @@
         <v>102.97053859</v>
       </c>
       <c r="D93" s="4">
-        <v>102.97053859</v>
+        <v>103.05299589000001</v>
       </c>
       <c r="E93" t="s">
         <v>944</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>849</v>
+      </c>
+      <c r="B94" s="5">
+        <v>44562</v>
+      </c>
+      <c r="C94" s="4">
+        <v>127.25330667</v>
+      </c>
+      <c r="D94" s="4">
+        <v>127.25330667</v>
+      </c>
+      <c r="E94" t="s">
+        <v>945</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 08/12/2022</t>
+    <t xml:space="preserve"> 08/18/2022</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9407" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9409" uniqueCount="953">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 08/18/2022</t>
+    <t xml:space="preserve"> 08/23/2022</t>
   </si>
   <si>
     <t>Sección</t>
@@ -2667,6 +2667,9 @@
   </si>
   <si>
     <t>Cifra parcial u omitida por motivos de confidencialidad</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -67162,7 +67165,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E95"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -68757,10 +68760,27 @@
         <v>127.25330667</v>
       </c>
       <c r="D94" s="4">
-        <v>127.25330667</v>
+        <v>142.7045756</v>
       </c>
       <c r="E94" t="s">
         <v>951</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>855</v>
+      </c>
+      <c r="B95" s="5">
+        <v>44652</v>
+      </c>
+      <c r="C95" s="4">
+        <v>84.773502379999996</v>
+      </c>
+      <c r="D95" s="4">
+        <v>84.773502379999996</v>
+      </c>
+      <c r="E95" t="s">
+        <v>952</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9972" uniqueCount="1078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9973" uniqueCount="1078">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 12/14/2022</t>
+    <t xml:space="preserve"> 01/02/2023</t>
   </si>
   <si>
     <t>Sección</t>
@@ -69081,7 +69081,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C64"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -69775,6 +69775,17 @@
       </c>
       <c r="C63" s="4">
         <v>819685</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B64" t="s">
+        <v>976</v>
+      </c>
+      <c r="C64" s="4">
+        <v>768251</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 02/14/2023</t>
+    <t xml:space="preserve"> 02/20/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 03/07/2023</t>
+    <t xml:space="preserve"> 03/14/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 03/14/2023</t>
+    <t xml:space="preserve"> 03/24/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10083" uniqueCount="1079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10084" uniqueCount="1079">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 03/24/2023</t>
+    <t xml:space="preserve"> 03/31/2023</t>
   </si>
   <si>
     <t>Sección</t>
@@ -69768,7 +69768,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -70473,6 +70473,17 @@
       </c>
       <c r="C64" s="4">
         <v>768251</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B65" t="s">
+        <v>976</v>
+      </c>
+      <c r="C65" s="4">
+        <v>753488</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/15/2023</t>
+    <t xml:space="preserve"> 05/19/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/19/2023</t>
+    <t xml:space="preserve"> 05/22/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/22/2023</t>
+    <t xml:space="preserve"> 05/24/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/24/2023</t>
+    <t xml:space="preserve"> 05/30/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/30/2023</t>
+    <t xml:space="preserve"> 05/31/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/31/2023</t>
+    <t xml:space="preserve"> 06/05/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 06/05/2023</t>
+    <t xml:space="preserve"> 06/06/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 06/06/2023</t>
+    <t xml:space="preserve"> 06/28/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10168" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10129" uniqueCount="1052">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 06/28/2023</t>
+    <t xml:space="preserve"> 07/07/2023</t>
   </si>
   <si>
     <t>Sección</t>
@@ -3014,6 +3014,75 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Cifra parcial u omitida por motivos de confidencialidad</t>
   </si>
   <si>
@@ -3026,133 +3095,7 @@
     <t/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
+    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
   </si>
   <si>
     <t/>
@@ -70292,7 +70235,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C66"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -71008,6 +70951,17 @@
       </c>
       <c r="C65" s="4">
         <v>753488</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5">
+        <v>44927</v>
+      </c>
+      <c r="B66" t="s">
+        <v>968</v>
+      </c>
+      <c r="C66" s="4">
+        <v>781549</v>
       </c>
     </row>
   </sheetData>
@@ -71016,7 +70970,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E77"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -71044,10 +70998,10 @@
         <v>36161</v>
       </c>
       <c r="C2" s="4">
-        <v>10.85807</v>
+        <v>32.124859000000001</v>
       </c>
       <c r="D2" s="4">
-        <v>10.85807</v>
+        <v>32.124859000000001</v>
       </c>
       <c r="E2" t="s">
         <v>976</v>
@@ -71058,13 +71012,13 @@
         <v>971</v>
       </c>
       <c r="B3" s="5">
-        <v>36251</v>
+        <v>36526</v>
       </c>
       <c r="C3" s="4">
-        <v>15.132585000000001</v>
+        <v>13.391639</v>
       </c>
       <c r="D3" s="4">
-        <v>15.132585000000001</v>
+        <v>13.391639</v>
       </c>
       <c r="E3" t="s">
         <v>977</v>
@@ -71075,13 +71029,13 @@
         <v>971</v>
       </c>
       <c r="B4" s="5">
-        <v>36342</v>
+        <v>36892</v>
       </c>
       <c r="C4" s="4">
-        <v>1.071712</v>
+        <v>-8.2605120000000003</v>
       </c>
       <c r="D4" s="4">
-        <v>1.071712</v>
+        <v>-8.2605120000000003</v>
       </c>
       <c r="E4" t="s">
         <v>978</v>
@@ -71092,13 +71046,13 @@
         <v>971</v>
       </c>
       <c r="B5" s="5">
-        <v>36434</v>
+        <v>37257</v>
       </c>
       <c r="C5" s="4">
-        <v>0.92839400000000005</v>
+        <v>6.3225850000000001</v>
       </c>
       <c r="D5" s="4">
-        <v>0.92839400000000105</v>
+        <v>6.3225850000000001</v>
       </c>
       <c r="E5" t="s">
         <v>979</v>
@@ -71109,13 +71063,13 @@
         <v>971</v>
       </c>
       <c r="B6" s="5">
-        <v>36526</v>
+        <v>37622</v>
       </c>
       <c r="C6" s="4">
-        <v>0.25120100000000001</v>
+        <v>54.115645999999998</v>
       </c>
       <c r="D6" s="4">
-        <v>0.25120100000000001</v>
+        <v>54.115645999999998</v>
       </c>
       <c r="E6" t="s">
         <v>980</v>
@@ -71126,13 +71080,13 @@
         <v>971</v>
       </c>
       <c r="B7" s="5">
-        <v>36617</v>
+        <v>37987</v>
       </c>
       <c r="C7" s="4">
-        <v>-0.22622600000000001</v>
+        <v>175.93960100000001</v>
       </c>
       <c r="D7" s="4">
-        <v>-0.22622600000000001</v>
+        <v>175.93960100000001</v>
       </c>
       <c r="E7" t="s">
         <v>981</v>
@@ -71143,13 +71097,13 @@
         <v>971</v>
       </c>
       <c r="B8" s="5">
-        <v>36708</v>
+        <v>38353</v>
       </c>
       <c r="C8" s="4">
-        <v>0.026589999999999999</v>
+        <v>33.380966000000001</v>
       </c>
       <c r="D8" s="4">
-        <v>0.026589999999999999</v>
+        <v>33.380966000000001</v>
       </c>
       <c r="E8" t="s">
         <v>982</v>
@@ -71160,13 +71114,13 @@
         <v>971</v>
       </c>
       <c r="B9" s="5">
-        <v>36800</v>
+        <v>38718</v>
       </c>
       <c r="C9" s="4">
-        <v>18.094066000000002</v>
+        <v>35.407032000000001</v>
       </c>
       <c r="D9" s="4">
-        <v>18.094066000000002</v>
+        <v>36.022925999999998</v>
       </c>
       <c r="E9" t="s">
         <v>983</v>
@@ -71177,13 +71131,13 @@
         <v>971</v>
       </c>
       <c r="B10" s="5">
-        <v>36892</v>
+        <v>38808</v>
       </c>
       <c r="C10" s="4">
-        <v>3.7373880000000002</v>
+        <v>142.78949499999999</v>
       </c>
       <c r="D10" s="4">
-        <v>3.7373880000000002</v>
+        <v>144.60505900000001</v>
       </c>
       <c r="E10" t="s">
         <v>984</v>
@@ -71194,13 +71148,13 @@
         <v>971</v>
       </c>
       <c r="B11" s="5">
-        <v>36982</v>
+        <v>38899</v>
       </c>
       <c r="C11" s="4">
-        <v>-1.469676</v>
+        <v>1.233144</v>
       </c>
       <c r="D11" s="4">
-        <v>-1.469676</v>
+        <v>1.1368769999999999</v>
       </c>
       <c r="E11" t="s">
         <v>985</v>
@@ -71211,13 +71165,13 @@
         <v>971</v>
       </c>
       <c r="B12" s="5">
-        <v>37073</v>
+        <v>38991</v>
       </c>
       <c r="C12" s="4">
-        <v>10.002281999999999</v>
+        <v>0.864174</v>
       </c>
       <c r="D12" s="4">
-        <v>10.002281999999999</v>
+        <v>0.231150999999993</v>
       </c>
       <c r="E12" t="s">
         <v>986</v>
@@ -71228,13 +71182,13 @@
         <v>971</v>
       </c>
       <c r="B13" s="5">
-        <v>37165</v>
+        <v>39083</v>
       </c>
       <c r="C13" s="4">
-        <v>30.137896999999999</v>
+        <v>10.051874</v>
       </c>
       <c r="D13" s="4">
-        <v>30.137896999999999</v>
+        <v>10.776911999999999</v>
       </c>
       <c r="E13" t="s">
         <v>987</v>
@@ -71245,13 +71199,13 @@
         <v>971</v>
       </c>
       <c r="B14" s="5">
-        <v>37257</v>
+        <v>39173</v>
       </c>
       <c r="C14" s="4">
-        <v>27.366866000000002</v>
+        <v>97.507626999999999</v>
       </c>
       <c r="D14" s="4">
-        <v>27.366866000000002</v>
+        <v>97.508762000000004</v>
       </c>
       <c r="E14" t="s">
         <v>988</v>
@@ -71262,13 +71216,13 @@
         <v>971</v>
       </c>
       <c r="B15" s="5">
-        <v>37347</v>
+        <v>39264</v>
       </c>
       <c r="C15" s="4">
-        <v>71.020529999999994</v>
+        <v>6.5748280000000001</v>
       </c>
       <c r="D15" s="4">
-        <v>71.020529999999994</v>
+        <v>6.5311529999999998</v>
       </c>
       <c r="E15" t="s">
         <v>989</v>
@@ -71279,13 +71233,13 @@
         <v>971</v>
       </c>
       <c r="B16" s="5">
-        <v>37438</v>
+        <v>39356</v>
       </c>
       <c r="C16" s="4">
-        <v>10.765544</v>
+        <v>8.375591</v>
       </c>
       <c r="D16" s="4">
-        <v>10.765544</v>
+        <v>7.5636190000000001</v>
       </c>
       <c r="E16" t="s">
         <v>990</v>
@@ -71296,13 +71250,13 @@
         <v>971</v>
       </c>
       <c r="B17" s="5">
-        <v>37530</v>
+        <v>39448</v>
       </c>
       <c r="C17" s="4">
-        <v>-1.141977</v>
+        <v>24.33887</v>
       </c>
       <c r="D17" s="4">
-        <v>-1.141977</v>
+        <v>24.33887</v>
       </c>
       <c r="E17" t="s">
         <v>991</v>
@@ -71313,13 +71267,13 @@
         <v>971</v>
       </c>
       <c r="B18" s="5">
-        <v>37622</v>
+        <v>39539</v>
       </c>
       <c r="C18" s="4">
-        <v>13.494045</v>
+        <v>92.103211000000002</v>
       </c>
       <c r="D18" s="4">
-        <v>13.494045</v>
+        <v>92.104412999999994</v>
       </c>
       <c r="E18" t="s">
         <v>992</v>
@@ -71330,13 +71284,13 @@
         <v>971</v>
       </c>
       <c r="B19" s="5">
-        <v>37712</v>
+        <v>39630</v>
       </c>
       <c r="C19" s="4">
-        <v>30.070920999999998</v>
+        <v>25.884105999999999</v>
       </c>
       <c r="D19" s="4">
-        <v>30.070920999999998</v>
+        <v>25.720434999999998</v>
       </c>
       <c r="E19" t="s">
         <v>993</v>
@@ -71347,13 +71301,13 @@
         <v>971</v>
       </c>
       <c r="B20" s="5">
-        <v>37803</v>
+        <v>39722</v>
       </c>
       <c r="C20" s="4">
-        <v>0</v>
+        <v>-3.4030800000000001</v>
       </c>
       <c r="D20" s="4">
-        <v>0</v>
+        <v>-4.5217660000000004</v>
       </c>
       <c r="E20" t="s">
         <v>994</v>
@@ -71364,16 +71318,16 @@
         <v>971</v>
       </c>
       <c r="B21" s="5">
-        <v>37895</v>
+        <v>39814</v>
       </c>
       <c r="C21" s="4">
-        <v>0</v>
+        <v>107.092057</v>
       </c>
       <c r="D21" s="4">
-        <v>0</v>
+        <v>107.092057</v>
       </c>
       <c r="E21" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="22">
@@ -71381,16 +71335,16 @@
         <v>971</v>
       </c>
       <c r="B22" s="5">
-        <v>37987</v>
+        <v>39904</v>
       </c>
       <c r="C22" s="4">
-        <v>1.5516270000000001</v>
+        <v>23.631817000000002</v>
       </c>
       <c r="D22" s="4">
-        <v>1.5516270000000001</v>
+        <v>23.631817000000002</v>
       </c>
       <c r="E22" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="23">
@@ -71398,16 +71352,16 @@
         <v>971</v>
       </c>
       <c r="B23" s="5">
-        <v>38078</v>
+        <v>39995</v>
       </c>
       <c r="C23" s="4">
-        <v>42.191212999999998</v>
+        <v>17.194789</v>
       </c>
       <c r="D23" s="4">
-        <v>42.191212999999998</v>
+        <v>17.195347999999999</v>
       </c>
       <c r="E23" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="24">
@@ -71415,16 +71369,16 @@
         <v>971</v>
       </c>
       <c r="B24" s="5">
-        <v>38169</v>
+        <v>40087</v>
       </c>
       <c r="C24" s="4">
-        <v>-1.89754</v>
+        <v>35.453484000000003</v>
       </c>
       <c r="D24" s="4">
-        <v>-1.89754</v>
+        <v>34.890306000000002</v>
       </c>
       <c r="E24" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="25">
@@ -71432,16 +71386,16 @@
         <v>971</v>
       </c>
       <c r="B25" s="5">
-        <v>38261</v>
+        <v>40179</v>
       </c>
       <c r="C25" s="4">
-        <v>1.6702440000000001</v>
+        <v>-34.510694999999998</v>
       </c>
       <c r="D25" s="4">
-        <v>1.6702440000000001</v>
+        <v>-34.510694999999998</v>
       </c>
       <c r="E25" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="26">
@@ -71449,16 +71403,16 @@
         <v>971</v>
       </c>
       <c r="B26" s="5">
-        <v>38353</v>
+        <v>40269</v>
       </c>
       <c r="C26" s="4">
-        <v>30.412996</v>
+        <v>71.386230999999995</v>
       </c>
       <c r="D26" s="4">
-        <v>30.412996</v>
+        <v>72.237650000000002</v>
       </c>
       <c r="E26" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -71466,16 +71420,16 @@
         <v>971</v>
       </c>
       <c r="B27" s="5">
-        <v>38443</v>
+        <v>40360</v>
       </c>
       <c r="C27" s="4">
-        <v>-11.059087</v>
+        <v>68.156650999999997</v>
       </c>
       <c r="D27" s="4">
-        <v>-11.059087</v>
+        <v>68.161359000000004</v>
       </c>
       <c r="E27" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="28">
@@ -71483,16 +71437,16 @@
         <v>971</v>
       </c>
       <c r="B28" s="5">
-        <v>38534</v>
+        <v>40452</v>
       </c>
       <c r="C28" s="4">
-        <v>0.34495999999999999</v>
+        <v>100.803505</v>
       </c>
       <c r="D28" s="4">
-        <v>0.34495999999999999</v>
+        <v>100.803505</v>
       </c>
       <c r="E28" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="29">
@@ -71500,16 +71454,16 @@
         <v>971</v>
       </c>
       <c r="B29" s="5">
-        <v>38626</v>
+        <v>40544</v>
       </c>
       <c r="C29" s="4">
-        <v>2.5656889999999999</v>
+        <v>43.684673879999998</v>
       </c>
       <c r="D29" s="4">
-        <v>2.5656889999999999</v>
+        <v>43.684673879999998</v>
       </c>
       <c r="E29" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="30">
@@ -71517,16 +71471,16 @@
         <v>971</v>
       </c>
       <c r="B30" s="5">
-        <v>38718</v>
+        <v>40634</v>
       </c>
       <c r="C30" s="4">
-        <v>-65.219189999999998</v>
+        <v>19.73422806</v>
       </c>
       <c r="D30" s="4">
-        <v>-65.219189999999998</v>
+        <v>20.659064059999999</v>
       </c>
       <c r="E30" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="31">
@@ -71534,16 +71488,16 @@
         <v>971</v>
       </c>
       <c r="B31" s="5">
-        <v>38808</v>
+        <v>40725</v>
       </c>
       <c r="C31" s="4">
-        <v>53.555705000000003</v>
+        <v>44.232025999999998</v>
       </c>
       <c r="D31" s="4">
-        <v>53.555705000000003</v>
+        <v>52.493823999999996</v>
       </c>
       <c r="E31" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="32">
@@ -71551,16 +71505,16 @@
         <v>971</v>
       </c>
       <c r="B32" s="5">
-        <v>38899</v>
+        <v>40817</v>
       </c>
       <c r="C32" s="4">
-        <v>1.5008859999999999</v>
+        <v>93.315053000000006</v>
       </c>
       <c r="D32" s="4">
-        <v>1.5008859999999999</v>
+        <v>93.315066999999999</v>
       </c>
       <c r="E32" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="33">
@@ -71568,16 +71522,16 @@
         <v>971</v>
       </c>
       <c r="B33" s="5">
-        <v>38991</v>
+        <v>40909</v>
       </c>
       <c r="C33" s="4">
-        <v>1.4106270000000001</v>
+        <v>142.1318449</v>
       </c>
       <c r="D33" s="4">
-        <v>1.4106270000000001</v>
+        <v>142.1318449</v>
       </c>
       <c r="E33" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="34">
@@ -71585,16 +71539,16 @@
         <v>971</v>
       </c>
       <c r="B34" s="5">
-        <v>39083</v>
+        <v>41000</v>
       </c>
       <c r="C34" s="4">
-        <v>169.57198299999999</v>
+        <v>-19.877410000000001</v>
       </c>
       <c r="D34" s="4">
-        <v>169.57198299999999</v>
+        <v>-19.453471</v>
       </c>
       <c r="E34" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="35">
@@ -71602,16 +71556,16 @@
         <v>971</v>
       </c>
       <c r="B35" s="5">
-        <v>39173</v>
+        <v>41091</v>
       </c>
       <c r="C35" s="4">
-        <v>93.923772999999997</v>
+        <v>63.942528000000003</v>
       </c>
       <c r="D35" s="4">
-        <v>93.923772999999997</v>
+        <v>63.942528000000003</v>
       </c>
       <c r="E35" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="36">
@@ -71619,16 +71573,16 @@
         <v>971</v>
       </c>
       <c r="B36" s="5">
-        <v>39264</v>
+        <v>41183</v>
       </c>
       <c r="C36" s="4">
-        <v>-145.45596499999999</v>
+        <v>6.2472269999999996</v>
       </c>
       <c r="D36" s="4">
-        <v>-145.45596499999999</v>
+        <v>6.2472269999999996</v>
       </c>
       <c r="E36" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="37">
@@ -71636,16 +71590,16 @@
         <v>971</v>
       </c>
       <c r="B37" s="5">
-        <v>39356</v>
+        <v>41275</v>
       </c>
       <c r="C37" s="4">
-        <v>15.230097000000001</v>
+        <v>53.926803</v>
       </c>
       <c r="D37" s="4">
-        <v>15.230097000000001</v>
+        <v>53.926803</v>
       </c>
       <c r="E37" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="38">
@@ -71653,16 +71607,16 @@
         <v>971</v>
       </c>
       <c r="B38" s="5">
-        <v>39448</v>
+        <v>41365</v>
       </c>
       <c r="C38" s="4">
-        <v>32.722607000000004</v>
+        <v>2.3103600000000002</v>
       </c>
       <c r="D38" s="4">
-        <v>32.722607000000004</v>
+        <v>4.4530659999999997</v>
       </c>
       <c r="E38" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="39">
@@ -71670,16 +71624,16 @@
         <v>971</v>
       </c>
       <c r="B39" s="5">
-        <v>39539</v>
+        <v>41456</v>
       </c>
       <c r="C39" s="4">
-        <v>62.621254</v>
+        <v>-7.1997200000000001</v>
       </c>
       <c r="D39" s="4">
-        <v>62.621254</v>
+        <v>-7.1997200000000001</v>
       </c>
       <c r="E39" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="40">
@@ -71687,16 +71641,16 @@
         <v>971</v>
       </c>
       <c r="B40" s="5">
-        <v>39630</v>
+        <v>41548</v>
       </c>
       <c r="C40" s="4">
-        <v>3.9593020000000001</v>
+        <v>-24.20411</v>
       </c>
       <c r="D40" s="4">
-        <v>3.9593020000000001</v>
+        <v>-24.20411</v>
       </c>
       <c r="E40" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="41">
@@ -71704,16 +71658,16 @@
         <v>971</v>
       </c>
       <c r="B41" s="5">
-        <v>39722</v>
+        <v>41640</v>
       </c>
       <c r="C41" s="4">
-        <v>-1.6047929999999999</v>
+        <v>106.921645</v>
       </c>
       <c r="D41" s="4">
-        <v>-1.6047929999999999</v>
+        <v>106.921645</v>
       </c>
       <c r="E41" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="42">
@@ -71721,16 +71675,16 @@
         <v>971</v>
       </c>
       <c r="B42" s="5">
-        <v>39814</v>
+        <v>41730</v>
       </c>
       <c r="C42" s="4">
-        <v>25.981366000000001</v>
+        <v>55.878743</v>
       </c>
       <c r="D42" s="4">
-        <v>25.981366000000001</v>
+        <v>58.21358</v>
       </c>
       <c r="E42" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="43">
@@ -71738,16 +71692,16 @@
         <v>971</v>
       </c>
       <c r="B43" s="5">
-        <v>39904</v>
+        <v>41821</v>
       </c>
       <c r="C43" s="4">
-        <v>89.093726000000004</v>
+        <v>0</v>
       </c>
       <c r="D43" s="4">
-        <v>89.093726000000004</v>
+        <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="44">
@@ -71755,16 +71709,16 @@
         <v>971</v>
       </c>
       <c r="B44" s="5">
-        <v>39995</v>
+        <v>41913</v>
       </c>
       <c r="C44" s="4">
-        <v>20.757427</v>
+        <v>10.270702999999999</v>
       </c>
       <c r="D44" s="4">
-        <v>20.757427</v>
+        <v>10.270702999999999</v>
       </c>
       <c r="E44" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="45">
@@ -71772,16 +71726,16 @@
         <v>971</v>
       </c>
       <c r="B45" s="5">
-        <v>40087</v>
+        <v>42005</v>
       </c>
       <c r="C45" s="4">
-        <v>-5.5986830000000003</v>
+        <v>76.350967400000002</v>
       </c>
       <c r="D45" s="4">
-        <v>-5.5986830000000003</v>
+        <v>76.350967400000002</v>
       </c>
       <c r="E45" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="46">
@@ -71789,16 +71743,16 @@
         <v>971</v>
       </c>
       <c r="B46" s="5">
-        <v>40179</v>
+        <v>42095</v>
       </c>
       <c r="C46" s="4">
-        <v>21.948791</v>
+        <v>71.532873510000002</v>
       </c>
       <c r="D46" s="4">
-        <v>21.948791</v>
+        <v>72.938716510000006</v>
       </c>
       <c r="E46" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="47">
@@ -71806,16 +71760,16 @@
         <v>971</v>
       </c>
       <c r="B47" s="5">
-        <v>40269</v>
+        <v>42186</v>
       </c>
       <c r="C47" s="4">
-        <v>314.767135</v>
+        <v>0</v>
       </c>
       <c r="D47" s="4">
-        <v>314.767135</v>
+        <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="48">
@@ -71823,16 +71777,16 @@
         <v>971</v>
       </c>
       <c r="B48" s="5">
-        <v>40360</v>
+        <v>42278</v>
       </c>
       <c r="C48" s="4">
-        <v>17.155493</v>
+        <v>8.4004280700000002</v>
       </c>
       <c r="D48" s="4">
-        <v>17.155493</v>
+        <v>8.4004280700000002</v>
       </c>
       <c r="E48" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="49">
@@ -71840,16 +71794,16 @@
         <v>971</v>
       </c>
       <c r="B49" s="5">
-        <v>40452</v>
+        <v>42370</v>
       </c>
       <c r="C49" s="4">
-        <v>-95.453181000000001</v>
+        <v>48.084005259999998</v>
       </c>
       <c r="D49" s="4">
-        <v>-95.453181000000001</v>
+        <v>48.084005259999998</v>
       </c>
       <c r="E49" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="50">
@@ -71857,16 +71811,16 @@
         <v>971</v>
       </c>
       <c r="B50" s="5">
-        <v>40544</v>
+        <v>42461</v>
       </c>
       <c r="C50" s="4">
-        <v>-44.403452000000001</v>
+        <v>45.380200739999999</v>
       </c>
       <c r="D50" s="4">
-        <v>-44.403452000000001</v>
+        <v>45.48282923</v>
       </c>
       <c r="E50" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="51">
@@ -71874,16 +71828,16 @@
         <v>971</v>
       </c>
       <c r="B51" s="5">
-        <v>40634</v>
+        <v>42552</v>
       </c>
       <c r="C51" s="4">
-        <v>-45.299624999999999</v>
+        <v>44.838380919999999</v>
       </c>
       <c r="D51" s="4">
-        <v>-45.299624999999999</v>
+        <v>44.937473140000002</v>
       </c>
       <c r="E51" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="52">
@@ -71891,16 +71845,16 @@
         <v>971</v>
       </c>
       <c r="B52" s="5">
-        <v>40725</v>
+        <v>42644</v>
       </c>
       <c r="C52" s="4">
-        <v>12.108689999999999</v>
+        <v>-13.57669761</v>
       </c>
       <c r="D52" s="4">
-        <v>12.108689999999999</v>
+        <v>-13.57669761</v>
       </c>
       <c r="E52" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="53">
@@ -71908,16 +71862,16 @@
         <v>971</v>
       </c>
       <c r="B53" s="5">
-        <v>40817</v>
+        <v>42736</v>
       </c>
       <c r="C53" s="4">
-        <v>20.570854000000001</v>
+        <v>28.429899240000001</v>
       </c>
       <c r="D53" s="4">
-        <v>20.570854000000001</v>
+        <v>25.058038329999999</v>
       </c>
       <c r="E53" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="54">
@@ -71925,16 +71879,16 @@
         <v>971</v>
       </c>
       <c r="B54" s="5">
-        <v>40909</v>
+        <v>42826</v>
       </c>
       <c r="C54" s="4">
-        <v>35.280952999999997</v>
+        <v>-23.867920519999998</v>
       </c>
       <c r="D54" s="4">
-        <v>35.280952999999997</v>
+        <v>-21.783898059999999</v>
       </c>
       <c r="E54" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="55">
@@ -71942,16 +71896,16 @@
         <v>971</v>
       </c>
       <c r="B55" s="5">
-        <v>41000</v>
+        <v>42917</v>
       </c>
       <c r="C55" s="4">
-        <v>5.7662560000000003</v>
+        <v>0.99654856999999997</v>
       </c>
       <c r="D55" s="4">
-        <v>5.7662560000000003</v>
+        <v>1.1587567999999999</v>
       </c>
       <c r="E55" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="56">
@@ -71959,16 +71913,16 @@
         <v>971</v>
       </c>
       <c r="B56" s="5">
-        <v>41091</v>
+        <v>43009</v>
       </c>
       <c r="C56" s="4">
-        <v>-3.2294990000000001</v>
+        <v>87.126033629999995</v>
       </c>
       <c r="D56" s="4">
-        <v>-3.2294990000000001</v>
+        <v>88.571864199999993</v>
       </c>
       <c r="E56" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="57">
@@ -71976,16 +71930,16 @@
         <v>971</v>
       </c>
       <c r="B57" s="5">
-        <v>41183</v>
+        <v>43101</v>
       </c>
       <c r="C57" s="4">
-        <v>18.754607</v>
+        <v>30.36065666</v>
       </c>
       <c r="D57" s="4">
-        <v>18.754607</v>
+        <v>49.757082019999999</v>
       </c>
       <c r="E57" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="58">
@@ -71993,16 +71947,16 @@
         <v>971</v>
       </c>
       <c r="B58" s="5">
-        <v>41275</v>
+        <v>43191</v>
       </c>
       <c r="C58" s="4">
-        <v>32.066775</v>
+        <v>17.617138270000002</v>
       </c>
       <c r="D58" s="4">
-        <v>32.066775</v>
+        <v>9.5781336899999996</v>
       </c>
       <c r="E58" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="59">
@@ -72010,16 +71964,16 @@
         <v>971</v>
       </c>
       <c r="B59" s="5">
-        <v>41365</v>
+        <v>43282</v>
       </c>
       <c r="C59" s="4">
-        <v>1290.929224</v>
+        <v>-19.511189000000002</v>
       </c>
       <c r="D59" s="4">
-        <v>1290.929224</v>
+        <v>-20.819504120000001</v>
       </c>
       <c r="E59" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="60">
@@ -72027,16 +71981,16 @@
         <v>971</v>
       </c>
       <c r="B60" s="5">
-        <v>41456</v>
+        <v>43374</v>
       </c>
       <c r="C60" s="4">
-        <v>208.71636000000001</v>
+        <v>10.74422212</v>
       </c>
       <c r="D60" s="4">
-        <v>208.71636000000001</v>
+        <v>10.903322470000001</v>
       </c>
       <c r="E60" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="61">
@@ -72044,16 +71998,16 @@
         <v>971</v>
       </c>
       <c r="B61" s="5">
-        <v>41548</v>
+        <v>43466</v>
       </c>
       <c r="C61" s="4">
-        <v>29.688445999999999</v>
+        <v>79.689138319999998</v>
       </c>
       <c r="D61" s="4">
-        <v>29.688445999999999</v>
+        <v>187.26689388</v>
       </c>
       <c r="E61" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="62">
@@ -72061,16 +72015,16 @@
         <v>971</v>
       </c>
       <c r="B62" s="5">
-        <v>41640</v>
+        <v>43556</v>
       </c>
       <c r="C62" s="4">
-        <v>31.216297000000001</v>
+        <v>-13.32591543</v>
       </c>
       <c r="D62" s="4">
-        <v>31.141797</v>
+        <v>-27.273915559999999</v>
       </c>
       <c r="E62" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="63">
@@ -72078,16 +72032,16 @@
         <v>971</v>
       </c>
       <c r="B63" s="5">
-        <v>41730</v>
+        <v>43647</v>
       </c>
       <c r="C63" s="4">
-        <v>129.65941699999999</v>
+        <v>-17.82495977</v>
       </c>
       <c r="D63" s="4">
-        <v>129.392135</v>
+        <v>9.5613868400000008</v>
       </c>
       <c r="E63" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="64">
@@ -72095,16 +72049,16 @@
         <v>971</v>
       </c>
       <c r="B64" s="5">
-        <v>41821</v>
+        <v>43739</v>
       </c>
       <c r="C64" s="4">
-        <v>-19.021474999999999</v>
+        <v>-20.882492289999998</v>
       </c>
       <c r="D64" s="4">
-        <v>-19.021474999999999</v>
+        <v>-74.921453830000004</v>
       </c>
       <c r="E64" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="65">
@@ -72112,16 +72066,16 @@
         <v>971</v>
       </c>
       <c r="B65" s="5">
-        <v>41913</v>
+        <v>43831</v>
       </c>
       <c r="C65" s="4">
-        <v>34.402746</v>
+        <v>91.802762509999994</v>
       </c>
       <c r="D65" s="4">
-        <v>34.402746</v>
+        <v>222.08340511</v>
       </c>
       <c r="E65" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="66">
@@ -72129,16 +72083,16 @@
         <v>971</v>
       </c>
       <c r="B66" s="5">
-        <v>42005</v>
+        <v>43922</v>
       </c>
       <c r="C66" s="4">
-        <v>17.854156</v>
+        <v>-29.8667084</v>
       </c>
       <c r="D66" s="4">
-        <v>17.854156</v>
+        <v>-30.971591969999999</v>
       </c>
       <c r="E66" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="67">
@@ -72146,16 +72100,16 @@
         <v>971</v>
       </c>
       <c r="B67" s="5">
-        <v>42095</v>
+        <v>44013</v>
       </c>
       <c r="C67" s="4">
-        <v>56.476317000000002</v>
+        <v>-53.794111090000001</v>
       </c>
       <c r="D67" s="4">
-        <v>56.476317000000002</v>
+        <v>-53.185052829999997</v>
       </c>
       <c r="E67" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="68">
@@ -72163,16 +72117,16 @@
         <v>971</v>
       </c>
       <c r="B68" s="5">
-        <v>42186</v>
+        <v>44105</v>
       </c>
       <c r="C68" s="4">
-        <v>-26.106341189999998</v>
+        <v>-58.938021579999997</v>
       </c>
       <c r="D68" s="4">
-        <v>-26.106341189999998</v>
+        <v>-58.938021579999997</v>
       </c>
       <c r="E68" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="69">
@@ -72180,16 +72134,16 @@
         <v>971</v>
       </c>
       <c r="B69" s="5">
-        <v>42278</v>
+        <v>44197</v>
       </c>
       <c r="C69" s="4">
-        <v>16.896843000000001</v>
+        <v>48.6941998</v>
       </c>
       <c r="D69" s="4">
-        <v>16.896843000000001</v>
+        <v>30.341548</v>
       </c>
       <c r="E69" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="70">
@@ -72197,16 +72151,16 @@
         <v>971</v>
       </c>
       <c r="B70" s="5">
-        <v>42370</v>
+        <v>44287</v>
       </c>
       <c r="C70" s="4">
-        <v>55.605331669999998</v>
+        <v>28.207569899999999</v>
       </c>
       <c r="D70" s="4">
-        <v>55.605331669999998</v>
+        <v>28.847471670000001</v>
       </c>
       <c r="E70" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="71">
@@ -72214,16 +72168,16 @@
         <v>971</v>
       </c>
       <c r="B71" s="5">
-        <v>42461</v>
+        <v>44378</v>
       </c>
       <c r="C71" s="4">
-        <v>9.4952309400000008</v>
+        <v>-47.043202170000001</v>
       </c>
       <c r="D71" s="4">
-        <v>9.4952309400000008</v>
+        <v>-47.043202170000001</v>
       </c>
       <c r="E71" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="72">
@@ -72231,16 +72185,16 @@
         <v>971</v>
       </c>
       <c r="B72" s="5">
-        <v>42552</v>
+        <v>44470</v>
       </c>
       <c r="C72" s="4">
-        <v>12.279509640000001</v>
+        <v>23.672811859999999</v>
       </c>
       <c r="D72" s="4">
-        <v>12.279509640000001</v>
+        <v>23.382115500000001</v>
       </c>
       <c r="E72" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="73">
@@ -72248,16 +72202,16 @@
         <v>971</v>
       </c>
       <c r="B73" s="5">
-        <v>42644</v>
+        <v>44562</v>
       </c>
       <c r="C73" s="4">
-        <v>-2.55958877</v>
+        <v>31.844414010000001</v>
       </c>
       <c r="D73" s="4">
-        <v>-2.55958877</v>
+        <v>59.426708040802801</v>
       </c>
       <c r="E73" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="74">
@@ -72265,16 +72219,16 @@
         <v>971</v>
       </c>
       <c r="B74" s="5">
-        <v>42736</v>
+        <v>44652</v>
       </c>
       <c r="C74" s="4">
-        <v>9.7780274200000008</v>
+        <v>-9.8002826499999998</v>
       </c>
       <c r="D74" s="4">
-        <v>37.0275532</v>
+        <v>-6.5324768382263896</v>
       </c>
       <c r="E74" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="75">
@@ -72282,16 +72236,16 @@
         <v>971</v>
       </c>
       <c r="B75" s="5">
-        <v>42826</v>
+        <v>44743</v>
       </c>
       <c r="C75" s="4">
-        <v>29.865521149999999</v>
+        <v>-6.7558598999999999</v>
       </c>
       <c r="D75" s="4">
-        <v>31.537870210000001</v>
+        <v>-3.5348598834468699</v>
       </c>
       <c r="E75" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="76">
@@ -72299,16 +72253,16 @@
         <v>971</v>
       </c>
       <c r="B76" s="5">
-        <v>42917</v>
+        <v>44835</v>
       </c>
       <c r="C76" s="4">
-        <v>-11.3858745</v>
+        <v>-21.471369072611001</v>
       </c>
       <c r="D76" s="4">
-        <v>-11.3858745</v>
+        <v>-21.7000443976677</v>
       </c>
       <c r="E76" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="77">
@@ -72316,356 +72270,16 @@
         <v>971</v>
       </c>
       <c r="B77" s="5">
-        <v>43009</v>
+        <v>44927</v>
       </c>
       <c r="C77" s="4">
-        <v>5.6037043300000002</v>
+        <v>25.4766835724744</v>
       </c>
       <c r="D77" s="4">
-        <v>7.6352232999999998</v>
+        <v>25.4766835724744</v>
       </c>
       <c r="E77" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>971</v>
-      </c>
-      <c r="B78" s="5">
-        <v>43101</v>
-      </c>
-      <c r="C78" s="4">
-        <v>24.60972988</v>
-      </c>
-      <c r="D78" s="4">
-        <v>48.938785979999999</v>
-      </c>
-      <c r="E78" t="s">
         <v>1051</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>971</v>
-      </c>
-      <c r="B79" s="5">
-        <v>43191</v>
-      </c>
-      <c r="C79" s="4">
-        <v>-124.13095</v>
-      </c>
-      <c r="D79" s="4">
-        <v>-115.88950177</v>
-      </c>
-      <c r="E79" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>971</v>
-      </c>
-      <c r="B80" s="5">
-        <v>43282</v>
-      </c>
-      <c r="C80" s="4">
-        <v>4.6444489999999998</v>
-      </c>
-      <c r="D80" s="4">
-        <v>11.219936929999999</v>
-      </c>
-      <c r="E80" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>971</v>
-      </c>
-      <c r="B81" s="5">
-        <v>43374</v>
-      </c>
-      <c r="C81" s="4">
-        <v>-6.26852769</v>
-      </c>
-      <c r="D81" s="4">
-        <v>1.8220098</v>
-      </c>
-      <c r="E81" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>971</v>
-      </c>
-      <c r="B82" s="5">
-        <v>43466</v>
-      </c>
-      <c r="C82" s="4">
-        <v>21.81209462</v>
-      </c>
-      <c r="D82" s="4">
-        <v>46.310943479999999</v>
-      </c>
-      <c r="E82" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>971</v>
-      </c>
-      <c r="B83" s="5">
-        <v>43556</v>
-      </c>
-      <c r="C83" s="4">
-        <v>-12.855533449999999</v>
-      </c>
-      <c r="D83" s="4">
-        <v>15.195502940000001</v>
-      </c>
-      <c r="E83" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>971</v>
-      </c>
-      <c r="B84" s="5">
-        <v>43647</v>
-      </c>
-      <c r="C84" s="4">
-        <v>11.318120410000001</v>
-      </c>
-      <c r="D84" s="4">
-        <v>11.318120410000001</v>
-      </c>
-      <c r="E84" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>971</v>
-      </c>
-      <c r="B85" s="5">
-        <v>43739</v>
-      </c>
-      <c r="C85" s="4">
-        <v>20.19367154</v>
-      </c>
-      <c r="D85" s="4">
-        <v>17.703138360000001</v>
-      </c>
-      <c r="E85" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>971</v>
-      </c>
-      <c r="B86" s="5">
-        <v>43831</v>
-      </c>
-      <c r="C86" s="4">
-        <v>94.469589979999995</v>
-      </c>
-      <c r="D86" s="4">
-        <v>107.93902339</v>
-      </c>
-      <c r="E86" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>971</v>
-      </c>
-      <c r="B87" s="5">
-        <v>43922</v>
-      </c>
-      <c r="C87" s="4">
-        <v>59.19768638</v>
-      </c>
-      <c r="D87" s="4">
-        <v>67.324975640000005</v>
-      </c>
-      <c r="E87" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>971</v>
-      </c>
-      <c r="B88" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C88" s="4">
-        <v>18.252537140000001</v>
-      </c>
-      <c r="D88" s="4">
-        <v>17.07146582</v>
-      </c>
-      <c r="E88" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>971</v>
-      </c>
-      <c r="B89" s="5">
-        <v>44105</v>
-      </c>
-      <c r="C89" s="4">
-        <v>-12.01292383</v>
-      </c>
-      <c r="D89" s="4">
-        <v>-10.90809191</v>
-      </c>
-      <c r="E89" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>971</v>
-      </c>
-      <c r="B90" s="5">
-        <v>44197</v>
-      </c>
-      <c r="C90" s="4">
-        <v>24.615973910000001</v>
-      </c>
-      <c r="D90" s="4">
-        <v>12.36206129</v>
-      </c>
-      <c r="E90" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>971</v>
-      </c>
-      <c r="B91" s="5">
-        <v>44287</v>
-      </c>
-      <c r="C91" s="4">
-        <v>12.04286113</v>
-      </c>
-      <c r="D91" s="4">
-        <v>12.04286113</v>
-      </c>
-      <c r="E91" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>971</v>
-      </c>
-      <c r="B92" s="5">
-        <v>44378</v>
-      </c>
-      <c r="C92" s="4">
-        <v>-25.45081957</v>
-      </c>
-      <c r="D92" s="4">
-        <v>-25.45081957</v>
-      </c>
-      <c r="E92" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>971</v>
-      </c>
-      <c r="B93" s="5">
-        <v>44470</v>
-      </c>
-      <c r="C93" s="4">
-        <v>102.97053859</v>
-      </c>
-      <c r="D93" s="4">
-        <v>103.05299589000001</v>
-      </c>
-      <c r="E93" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>971</v>
-      </c>
-      <c r="B94" s="5">
-        <v>44562</v>
-      </c>
-      <c r="C94" s="4">
-        <v>127.25330667</v>
-      </c>
-      <c r="D94" s="4">
-        <v>150.56530020412899</v>
-      </c>
-      <c r="E94" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>971</v>
-      </c>
-      <c r="B95" s="5">
-        <v>44652</v>
-      </c>
-      <c r="C95" s="4">
-        <v>84.773502379999996</v>
-      </c>
-      <c r="D95" s="4">
-        <v>77.624686692438104</v>
-      </c>
-      <c r="E95" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>971</v>
-      </c>
-      <c r="B96" s="5">
-        <v>44743</v>
-      </c>
-      <c r="C96" s="4">
-        <v>76.26223856</v>
-      </c>
-      <c r="D96" s="4">
-        <v>66.625704598682702</v>
-      </c>
-      <c r="E96" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>971</v>
-      </c>
-      <c r="B97" s="5">
-        <v>44835</v>
-      </c>
-      <c r="C97" s="4">
-        <v>133.460125469258</v>
-      </c>
-      <c r="D97" s="4">
-        <v>133.460125469258</v>
-      </c>
-      <c r="E97" t="s">
-        <v>1070</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 07/07/2023</t>
+    <t xml:space="preserve"> 07/31/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 08/09/2023</t>
+    <t xml:space="preserve"> 08/29/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10153" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10155" uniqueCount="1053">
   <si>
     <t>Base de datos</t>
   </si>
@@ -3186,6 +3186,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
   </si>
 </sst>
 </file>
@@ -71154,7 +71157,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E78"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -71304,7 +71307,7 @@
         <v>35.407032000000001</v>
       </c>
       <c r="D9" s="4">
-        <v>36.022925999999998</v>
+        <v>36.361175000000003</v>
       </c>
       <c r="E9" t="s">
         <v>983</v>
@@ -71355,7 +71358,7 @@
         <v>0.864174</v>
       </c>
       <c r="D12" s="4">
-        <v>0.231150999999993</v>
+        <v>0.22879699999999301</v>
       </c>
       <c r="E12" t="s">
         <v>986</v>
@@ -71372,7 +71375,7 @@
         <v>10.051874</v>
       </c>
       <c r="D13" s="4">
-        <v>10.776911999999999</v>
+        <v>10.774476</v>
       </c>
       <c r="E13" t="s">
         <v>987</v>
@@ -71423,7 +71426,7 @@
         <v>8.375591</v>
       </c>
       <c r="D16" s="4">
-        <v>7.5636190000000001</v>
+        <v>7.6734809999999998</v>
       </c>
       <c r="E16" t="s">
         <v>990</v>
@@ -71440,7 +71443,7 @@
         <v>24.33887</v>
       </c>
       <c r="D17" s="4">
-        <v>24.33887</v>
+        <v>25.425827000000002</v>
       </c>
       <c r="E17" t="s">
         <v>991</v>
@@ -71457,7 +71460,7 @@
         <v>92.103211000000002</v>
       </c>
       <c r="D18" s="4">
-        <v>92.104412999999994</v>
+        <v>116.19623799999999</v>
       </c>
       <c r="E18" t="s">
         <v>992</v>
@@ -71491,7 +71494,7 @@
         <v>-3.4030800000000001</v>
       </c>
       <c r="D20" s="4">
-        <v>-4.5217660000000004</v>
+        <v>-4.4860230000000003</v>
       </c>
       <c r="E20" t="s">
         <v>994</v>
@@ -71508,7 +71511,7 @@
         <v>107.092057</v>
       </c>
       <c r="D21" s="4">
-        <v>107.092057</v>
+        <v>108.365594</v>
       </c>
       <c r="E21" t="s">
         <v>995</v>
@@ -71525,7 +71528,7 @@
         <v>23.631817000000002</v>
       </c>
       <c r="D22" s="4">
-        <v>23.631817000000002</v>
+        <v>6.5702660000000002</v>
       </c>
       <c r="E22" t="s">
         <v>996</v>
@@ -71542,7 +71545,7 @@
         <v>17.194789</v>
       </c>
       <c r="D23" s="4">
-        <v>17.195347999999999</v>
+        <v>38.775173000000002</v>
       </c>
       <c r="E23" t="s">
         <v>997</v>
@@ -71559,7 +71562,7 @@
         <v>35.453484000000003</v>
       </c>
       <c r="D24" s="4">
-        <v>34.890306000000002</v>
+        <v>28.264696000000001</v>
       </c>
       <c r="E24" t="s">
         <v>998</v>
@@ -71593,7 +71596,7 @@
         <v>71.386230999999995</v>
       </c>
       <c r="D26" s="4">
-        <v>72.237650000000002</v>
+        <v>78.038644000000005</v>
       </c>
       <c r="E26" t="s">
         <v>1000</v>
@@ -71610,7 +71613,7 @@
         <v>68.156650999999997</v>
       </c>
       <c r="D27" s="4">
-        <v>68.161359000000004</v>
+        <v>43.471086999999997</v>
       </c>
       <c r="E27" t="s">
         <v>1001</v>
@@ -71661,7 +71664,7 @@
         <v>19.73422806</v>
       </c>
       <c r="D30" s="4">
-        <v>20.659064059999999</v>
+        <v>16.88271306</v>
       </c>
       <c r="E30" t="s">
         <v>1004</v>
@@ -71678,7 +71681,7 @@
         <v>44.232025999999998</v>
       </c>
       <c r="D31" s="4">
-        <v>52.493823999999996</v>
+        <v>56.979137000000001</v>
       </c>
       <c r="E31" t="s">
         <v>1005</v>
@@ -71712,7 +71715,7 @@
         <v>142.1318449</v>
       </c>
       <c r="D33" s="4">
-        <v>142.1318449</v>
+        <v>148.29629194</v>
       </c>
       <c r="E33" t="s">
         <v>1007</v>
@@ -71729,7 +71732,7 @@
         <v>-19.877410000000001</v>
       </c>
       <c r="D34" s="4">
-        <v>-19.453471</v>
+        <v>-22.798701999999999</v>
       </c>
       <c r="E34" t="s">
         <v>1008</v>
@@ -71746,7 +71749,7 @@
         <v>63.942528000000003</v>
       </c>
       <c r="D35" s="4">
-        <v>63.942528000000003</v>
+        <v>61.847982000000002</v>
       </c>
       <c r="E35" t="s">
         <v>1009</v>
@@ -71763,7 +71766,7 @@
         <v>6.2472269999999996</v>
       </c>
       <c r="D36" s="4">
-        <v>6.2472269999999996</v>
+        <v>14.714812999999999</v>
       </c>
       <c r="E36" t="s">
         <v>1010</v>
@@ -71780,7 +71783,7 @@
         <v>53.926803</v>
       </c>
       <c r="D37" s="4">
-        <v>53.926803</v>
+        <v>32.106642999999998</v>
       </c>
       <c r="E37" t="s">
         <v>1011</v>
@@ -71797,7 +71800,7 @@
         <v>2.3103600000000002</v>
       </c>
       <c r="D38" s="4">
-        <v>4.4530659999999997</v>
+        <v>16.106157</v>
       </c>
       <c r="E38" t="s">
         <v>1012</v>
@@ -71814,7 +71817,7 @@
         <v>-7.1997200000000001</v>
       </c>
       <c r="D39" s="4">
-        <v>-7.1997200000000001</v>
+        <v>7.017093</v>
       </c>
       <c r="E39" t="s">
         <v>1013</v>
@@ -71831,7 +71834,7 @@
         <v>-24.20411</v>
       </c>
       <c r="D40" s="4">
-        <v>-24.20411</v>
+        <v>-21.032851999999998</v>
       </c>
       <c r="E40" t="s">
         <v>1014</v>
@@ -71865,7 +71868,7 @@
         <v>55.878743</v>
       </c>
       <c r="D42" s="4">
-        <v>58.21358</v>
+        <v>45.888359999999999</v>
       </c>
       <c r="E42" t="s">
         <v>1016</v>
@@ -71899,7 +71902,7 @@
         <v>10.270702999999999</v>
       </c>
       <c r="D44" s="4">
-        <v>10.270702999999999</v>
+        <v>46.522357</v>
       </c>
       <c r="E44" t="s">
         <v>1018</v>
@@ -71916,7 +71919,7 @@
         <v>76.350967400000002</v>
       </c>
       <c r="D45" s="4">
-        <v>76.350967400000002</v>
+        <v>83.479393400000006</v>
       </c>
       <c r="E45" t="s">
         <v>1019</v>
@@ -71933,7 +71936,7 @@
         <v>71.532873510000002</v>
       </c>
       <c r="D46" s="4">
-        <v>72.938716510000006</v>
+        <v>70.346358510000002</v>
       </c>
       <c r="E46" t="s">
         <v>1020</v>
@@ -71984,7 +71987,7 @@
         <v>48.084005259999998</v>
       </c>
       <c r="D49" s="4">
-        <v>48.084005259999998</v>
+        <v>39.404233140000002</v>
       </c>
       <c r="E49" t="s">
         <v>1023</v>
@@ -72001,7 +72004,7 @@
         <v>45.380200739999999</v>
       </c>
       <c r="D50" s="4">
-        <v>45.48282923</v>
+        <v>47.742206230000001</v>
       </c>
       <c r="E50" t="s">
         <v>1024</v>
@@ -72018,7 +72021,7 @@
         <v>44.838380919999999</v>
       </c>
       <c r="D51" s="4">
-        <v>44.937473140000002</v>
+        <v>40.888051140000002</v>
       </c>
       <c r="E51" t="s">
         <v>1025</v>
@@ -72035,7 +72038,7 @@
         <v>-13.57669761</v>
       </c>
       <c r="D52" s="4">
-        <v>-13.57669761</v>
+        <v>-9.0709219799999996</v>
       </c>
       <c r="E52" t="s">
         <v>1026</v>
@@ -72052,7 +72055,7 @@
         <v>28.429899240000001</v>
       </c>
       <c r="D53" s="4">
-        <v>25.058038329999999</v>
+        <v>41.229468060000002</v>
       </c>
       <c r="E53" t="s">
         <v>1027</v>
@@ -72069,7 +72072,7 @@
         <v>-23.867920519999998</v>
       </c>
       <c r="D54" s="4">
-        <v>-21.783898059999999</v>
+        <v>-19.55643242</v>
       </c>
       <c r="E54" t="s">
         <v>1028</v>
@@ -72086,7 +72089,7 @@
         <v>0.99654856999999997</v>
       </c>
       <c r="D55" s="4">
-        <v>1.1587567999999999</v>
+        <v>4.8975158700000003</v>
       </c>
       <c r="E55" t="s">
         <v>1029</v>
@@ -72103,7 +72106,7 @@
         <v>87.126033629999995</v>
       </c>
       <c r="D56" s="4">
-        <v>88.571864199999993</v>
+        <v>87.187689539999994</v>
       </c>
       <c r="E56" t="s">
         <v>1030</v>
@@ -72120,7 +72123,7 @@
         <v>30.36065666</v>
       </c>
       <c r="D57" s="4">
-        <v>49.757082019999999</v>
+        <v>44.610923159999999</v>
       </c>
       <c r="E57" t="s">
         <v>1031</v>
@@ -72137,7 +72140,7 @@
         <v>17.617138270000002</v>
       </c>
       <c r="D58" s="4">
-        <v>9.5781336899999996</v>
+        <v>-9.6109348899999993</v>
       </c>
       <c r="E58" t="s">
         <v>1032</v>
@@ -72154,7 +72157,7 @@
         <v>-19.511189000000002</v>
       </c>
       <c r="D59" s="4">
-        <v>-20.819504120000001</v>
+        <v>-8.2590534499999997</v>
       </c>
       <c r="E59" t="s">
         <v>1033</v>
@@ -72171,7 +72174,7 @@
         <v>10.74422212</v>
       </c>
       <c r="D60" s="4">
-        <v>10.903322470000001</v>
+        <v>4.5185911599999997</v>
       </c>
       <c r="E60" t="s">
         <v>1034</v>
@@ -72188,7 +72191,7 @@
         <v>79.689138319999998</v>
       </c>
       <c r="D61" s="4">
-        <v>187.26689388</v>
+        <v>155.85243663</v>
       </c>
       <c r="E61" t="s">
         <v>1035</v>
@@ -72205,7 +72208,7 @@
         <v>-13.32591543</v>
       </c>
       <c r="D62" s="4">
-        <v>-27.273915559999999</v>
+        <v>23.792233370000002</v>
       </c>
       <c r="E62" t="s">
         <v>1036</v>
@@ -72222,7 +72225,7 @@
         <v>-17.82495977</v>
       </c>
       <c r="D63" s="4">
-        <v>9.5613868400000008</v>
+        <v>-17.873075929999999</v>
       </c>
       <c r="E63" t="s">
         <v>1037</v>
@@ -72239,7 +72242,7 @@
         <v>-20.882492289999998</v>
       </c>
       <c r="D64" s="4">
-        <v>-74.921453830000004</v>
+        <v>-66.906718359999999</v>
       </c>
       <c r="E64" t="s">
         <v>1038</v>
@@ -72256,7 +72259,7 @@
         <v>91.802762509999994</v>
       </c>
       <c r="D65" s="4">
-        <v>222.08340511</v>
+        <v>187.90314068000001</v>
       </c>
       <c r="E65" t="s">
         <v>1039</v>
@@ -72273,7 +72276,7 @@
         <v>-29.8667084</v>
       </c>
       <c r="D66" s="4">
-        <v>-30.971591969999999</v>
+        <v>-14.76269858</v>
       </c>
       <c r="E66" t="s">
         <v>1040</v>
@@ -72290,7 +72293,7 @@
         <v>-53.794111090000001</v>
       </c>
       <c r="D67" s="4">
-        <v>-53.185052829999997</v>
+        <v>-40.671090200000002</v>
       </c>
       <c r="E67" t="s">
         <v>1041</v>
@@ -72307,7 +72310,7 @@
         <v>-58.938021579999997</v>
       </c>
       <c r="D68" s="4">
-        <v>-58.938021579999997</v>
+        <v>-38.769029830000001</v>
       </c>
       <c r="E68" t="s">
         <v>1042</v>
@@ -72324,7 +72327,7 @@
         <v>48.6941998</v>
       </c>
       <c r="D69" s="4">
-        <v>30.341548</v>
+        <v>21.337118499999999</v>
       </c>
       <c r="E69" t="s">
         <v>1043</v>
@@ -72341,7 +72344,7 @@
         <v>28.207569899999999</v>
       </c>
       <c r="D70" s="4">
-        <v>28.847471670000001</v>
+        <v>24.458013569999999</v>
       </c>
       <c r="E70" t="s">
         <v>1044</v>
@@ -72358,7 +72361,7 @@
         <v>-47.043202170000001</v>
       </c>
       <c r="D71" s="4">
-        <v>-47.043202170000001</v>
+        <v>-41.485719660000001</v>
       </c>
       <c r="E71" t="s">
         <v>1045</v>
@@ -72375,7 +72378,7 @@
         <v>23.672811859999999</v>
       </c>
       <c r="D72" s="4">
-        <v>23.382115500000001</v>
+        <v>23.317427129999999</v>
       </c>
       <c r="E72" t="s">
         <v>1046</v>
@@ -72392,7 +72395,7 @@
         <v>31.844414010000001</v>
       </c>
       <c r="D73" s="4">
-        <v>59.426708040802801</v>
+        <v>55.663285540802804</v>
       </c>
       <c r="E73" t="s">
         <v>1047</v>
@@ -72409,7 +72412,7 @@
         <v>-9.8002826499999998</v>
       </c>
       <c r="D74" s="4">
-        <v>-6.5324768382263896</v>
+        <v>-7.7003073382263896</v>
       </c>
       <c r="E74" t="s">
         <v>1048</v>
@@ -72426,7 +72429,7 @@
         <v>-6.7558598999999999</v>
       </c>
       <c r="D75" s="4">
-        <v>-3.5348598834468699</v>
+        <v>-0.123591553446874</v>
       </c>
       <c r="E75" t="s">
         <v>1049</v>
@@ -72443,7 +72446,7 @@
         <v>-21.471369072611001</v>
       </c>
       <c r="D76" s="4">
-        <v>-21.7000443976677</v>
+        <v>-19.597700976310001</v>
       </c>
       <c r="E76" t="s">
         <v>1050</v>
@@ -72460,10 +72463,27 @@
         <v>25.4766835724744</v>
       </c>
       <c r="D77" s="4">
-        <v>25.4766835724744</v>
+        <v>24.8328826522356</v>
       </c>
       <c r="E77" t="s">
         <v>1051</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>971</v>
+      </c>
+      <c r="B78" s="5">
+        <v>45017</v>
+      </c>
+      <c r="C78" s="4">
+        <v>0</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1052</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10167" uniqueCount="1053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10168" uniqueCount="1053">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 09/06/2023</t>
+    <t xml:space="preserve"> 10/02/2023</t>
   </si>
   <si>
     <t>Sección</t>
@@ -70514,7 +70514,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -71241,6 +71241,17 @@
       </c>
       <c r="C66" s="4">
         <v>781549</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5">
+        <v>45017</v>
+      </c>
+      <c r="B67" t="s">
+        <v>968</v>
+      </c>
+      <c r="C67" s="4">
+        <v>925146</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 10/02/2023</t>
+    <t xml:space="preserve"> 10/03/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -3809,13 +3809,13 @@
         <v>2003</v>
       </c>
       <c r="C2" s="4">
-        <v>17574.449000000001</v>
+        <v>20709.817999999999</v>
       </c>
       <c r="D2" s="4">
-        <v>794957.32200000004</v>
+        <v>1212171.1969999999</v>
       </c>
       <c r="E2" s="4">
-        <v>0.022107411949845529</v>
+        <v>0.017084895311202483</v>
       </c>
     </row>
     <row r="3">
@@ -3826,13 +3826,13 @@
         <v>2004</v>
       </c>
       <c r="C3" s="4">
-        <v>18959.023000000001</v>
+        <v>22640.441999999999</v>
       </c>
       <c r="D3" s="4">
-        <v>819238.31000000006</v>
+        <v>1246901.3899999999</v>
       </c>
       <c r="E3" s="4">
-        <v>0.023142256372263647</v>
+        <v>0.018157363670915468</v>
       </c>
     </row>
     <row r="4">
@@ -3843,13 +3843,13 @@
         <v>2005</v>
       </c>
       <c r="C4" s="4">
-        <v>21430.906999999999</v>
+        <v>25123.721000000001</v>
       </c>
       <c r="D4" s="4">
-        <v>842128.81299999997</v>
+        <v>1274855.8219999999</v>
       </c>
       <c r="E4" s="4">
-        <v>0.025448490384332688</v>
+        <v>0.019707107710882778</v>
       </c>
     </row>
     <row r="5">
@@ -3860,13 +3860,13 @@
         <v>2006</v>
       </c>
       <c r="C5" s="4">
-        <v>23037.223999999998</v>
+        <v>26098.117999999999</v>
       </c>
       <c r="D5" s="4">
-        <v>886009.72600000002</v>
+        <v>1340006.101</v>
       </c>
       <c r="E5" s="4">
-        <v>0.026001096064717462</v>
+        <v>0.019476118788208412</v>
       </c>
     </row>
     <row r="6">
@@ -3877,13 +3877,13 @@
         <v>2007</v>
       </c>
       <c r="C6" s="4">
-        <v>23445.876</v>
+        <v>26596.653999999999</v>
       </c>
       <c r="D6" s="4">
-        <v>913139.83400000003</v>
+        <v>1380125.9169999999</v>
       </c>
       <c r="E6" s="4">
-        <v>0.025676106908287609</v>
+        <v>0.019271179297765482</v>
       </c>
     </row>
     <row r="7">
@@ -3894,13 +3894,13 @@
         <v>2008</v>
       </c>
       <c r="C7" s="4">
-        <v>26251.291000000001</v>
+        <v>30312.725999999999</v>
       </c>
       <c r="D7" s="4">
-        <v>918573.45600000001</v>
+        <v>1408019.743</v>
       </c>
       <c r="E7" s="4">
-        <v>0.02857832525916142</v>
+        <v>0.021528622841192644</v>
       </c>
     </row>
     <row r="8">
@@ -3911,13 +3911,13 @@
         <v>2009</v>
       </c>
       <c r="C8" s="4">
-        <v>25628.073</v>
+        <v>29738.597000000002</v>
       </c>
       <c r="D8" s="4">
-        <v>870319.09999999998</v>
+        <v>1315481.838</v>
       </c>
       <c r="E8" s="4">
-        <v>0.029446754644359755</v>
+        <v>0.022606619218105847</v>
       </c>
     </row>
     <row r="9">
@@ -3928,13 +3928,13 @@
         <v>2010</v>
       </c>
       <c r="C9" s="4">
-        <v>25840.709999999999</v>
+        <v>30470.787</v>
       </c>
       <c r="D9" s="4">
-        <v>925371.83700000006</v>
+        <v>1393675.3570000001</v>
       </c>
       <c r="E9" s="4">
-        <v>0.027924677374852935</v>
+        <v>0.0218636189891388</v>
       </c>
     </row>
     <row r="10">
@@ -3945,13 +3945,13 @@
         <v>2011</v>
       </c>
       <c r="C10" s="4">
-        <v>25037.269</v>
+        <v>28589.499</v>
       </c>
       <c r="D10" s="4">
-        <v>953148.05599999998</v>
+        <v>1433185.382</v>
       </c>
       <c r="E10" s="4">
-        <v>0.026267974678636917</v>
+        <v>0.019948221185526995</v>
       </c>
     </row>
     <row r="11">
@@ -3962,13 +3962,13 @@
         <v>2012</v>
       </c>
       <c r="C11" s="4">
-        <v>28535.172999999999</v>
+        <v>31778.016</v>
       </c>
       <c r="D11" s="4">
-        <v>995285.99899999995</v>
+        <v>1488616.797</v>
       </c>
       <c r="E11" s="4">
-        <v>0.028670324940439557</v>
+        <v>0.021347344772705799</v>
       </c>
     </row>
     <row r="12">
@@ -3979,13 +3979,13 @@
         <v>2013</v>
       </c>
       <c r="C12" s="4">
-        <v>30894.27</v>
+        <v>34363.470999999998</v>
       </c>
       <c r="D12" s="4">
-        <v>1018578.607</v>
+        <v>1514072.5970000001</v>
       </c>
       <c r="E12" s="4">
-        <v>0.030330766607196181</v>
+        <v>0.022696052400715892</v>
       </c>
     </row>
     <row r="13">
@@ -3996,13 +3996,13 @@
         <v>2014</v>
       </c>
       <c r="C13" s="4">
-        <v>31745.548999999999</v>
+        <v>37452.142999999996</v>
       </c>
       <c r="D13" s="4">
-        <v>1067256.7620000001</v>
+        <v>1567647.173</v>
       </c>
       <c r="E13" s="4">
-        <v>0.029744996827670598</v>
+        <v>0.023890671092990895</v>
       </c>
     </row>
     <row r="14">
@@ -4013,13 +4013,13 @@
         <v>2015</v>
       </c>
       <c r="C14" s="4">
-        <v>33306.052000000003</v>
+        <v>38524.286</v>
       </c>
       <c r="D14" s="4">
-        <v>1104884.8700000001</v>
+        <v>1626750.8130000001</v>
       </c>
       <c r="E14" s="4">
-        <v>0.030144364272089271</v>
+        <v>0.023681737665128186</v>
       </c>
     </row>
     <row r="15">
@@ -4030,13 +4030,13 @@
         <v>2016</v>
       </c>
       <c r="C15" s="4">
-        <v>35348.633000000002</v>
+        <v>38753.300999999999</v>
       </c>
       <c r="D15" s="4">
-        <v>1149129.548</v>
+        <v>1676418.736</v>
       </c>
       <c r="E15" s="4">
-        <v>0.030761225365340622</v>
+        <v>0.023116719091595739</v>
       </c>
     </row>
     <row r="16">
@@ -4047,13 +4047,13 @@
         <v>2017</v>
       </c>
       <c r="C16" s="4">
-        <v>36609.618999999999</v>
+        <v>40768.107000000004</v>
       </c>
       <c r="D16" s="4">
-        <v>1176616.034</v>
+        <v>1708140.0179999999</v>
       </c>
       <c r="E16" s="4">
-        <v>0.031114329519667246</v>
+        <v>0.023866958545783572</v>
       </c>
     </row>
     <row r="17">
@@ -4064,13 +4064,13 @@
         <v>2018</v>
       </c>
       <c r="C17" s="4">
-        <v>37924.595000000001</v>
+        <v>42532.631999999998</v>
       </c>
       <c r="D17" s="4">
-        <v>1208076.0220000001</v>
+        <v>1754179.51</v>
       </c>
       <c r="E17" s="4">
-        <v>0.03139255668464877</v>
+        <v>0.024246453545680738</v>
       </c>
     </row>
     <row r="18">
@@ -4081,13 +4081,13 @@
         <v>2019</v>
       </c>
       <c r="C18" s="4">
-        <v>40527.120999999999</v>
+        <v>47158.419999999998</v>
       </c>
       <c r="D18" s="4">
-        <v>1216735.696</v>
+        <v>1767625.0630000001</v>
       </c>
       <c r="E18" s="4">
-        <v>0.033308072684340807</v>
+        <v>0.026678972247634394</v>
       </c>
     </row>
     <row r="19">
@@ -4098,13 +4098,13 @@
         <v>2020</v>
       </c>
       <c r="C19" s="4">
-        <v>33676.535000000003</v>
+        <v>40646.574999999997</v>
       </c>
       <c r="D19" s="4">
-        <v>1126205.8729999999</v>
+        <v>1611191.787</v>
       </c>
       <c r="E19" s="4">
-        <v>0.029902645517459494</v>
+        <v>0.025227645354177812</v>
       </c>
     </row>
     <row r="20">
@@ -4115,13 +4115,13 @@
         <v>2021</v>
       </c>
       <c r="C20" s="4">
-        <v>38726.250999999997</v>
+        <v>45345.633000000002</v>
       </c>
       <c r="D20" s="4">
-        <v>1186918.9639999999</v>
+        <v>1694872.7209999999</v>
       </c>
       <c r="E20" s="4">
-        <v>0.032627544233929689</v>
+        <v>0.026754594866123877</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10192" uniqueCount="1053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10194" uniqueCount="1053">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 11/08/2023</t>
+    <t xml:space="preserve"> 11/27/2023</t>
   </si>
   <si>
     <t>Sección</t>
@@ -3095,6 +3095,9 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Cifra parcial u omitida por motivos de confidencialidad</t>
   </si>
   <si>
@@ -3182,13 +3185,10 @@
     <t/>
   </si>
   <si>
+    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
   </si>
 </sst>
 </file>
@@ -71444,7 +71444,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E79"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -71594,7 +71594,7 @@
         <v>35.407032000000001</v>
       </c>
       <c r="D9" s="4">
-        <v>36.361175000000003</v>
+        <v>35.407032000000001</v>
       </c>
       <c r="E9" t="s">
         <v>983</v>
@@ -71611,7 +71611,7 @@
         <v>142.78949499999999</v>
       </c>
       <c r="D10" s="4">
-        <v>144.60505900000001</v>
+        <v>144.795412</v>
       </c>
       <c r="E10" t="s">
         <v>984</v>
@@ -71628,7 +71628,7 @@
         <v>1.233144</v>
       </c>
       <c r="D11" s="4">
-        <v>1.1368769999999999</v>
+        <v>0.60574399999999995</v>
       </c>
       <c r="E11" t="s">
         <v>985</v>
@@ -71645,7 +71645,7 @@
         <v>0.864174</v>
       </c>
       <c r="D12" s="4">
-        <v>0.22879699999999301</v>
+        <v>1.1721379999999899</v>
       </c>
       <c r="E12" t="s">
         <v>986</v>
@@ -71662,7 +71662,7 @@
         <v>10.051874</v>
       </c>
       <c r="D13" s="4">
-        <v>10.774476</v>
+        <v>8.9418939999999996</v>
       </c>
       <c r="E13" t="s">
         <v>987</v>
@@ -71679,7 +71679,7 @@
         <v>97.507626999999999</v>
       </c>
       <c r="D14" s="4">
-        <v>97.508762000000004</v>
+        <v>97.510344000000003</v>
       </c>
       <c r="E14" t="s">
         <v>988</v>
@@ -71696,7 +71696,7 @@
         <v>6.5748280000000001</v>
       </c>
       <c r="D15" s="4">
-        <v>6.5311529999999998</v>
+        <v>19.561360000000001</v>
       </c>
       <c r="E15" t="s">
         <v>989</v>
@@ -71713,7 +71713,7 @@
         <v>8.375591</v>
       </c>
       <c r="D16" s="4">
-        <v>7.6734809999999998</v>
+        <v>66.206388000000004</v>
       </c>
       <c r="E16" t="s">
         <v>990</v>
@@ -71730,7 +71730,7 @@
         <v>24.33887</v>
       </c>
       <c r="D17" s="4">
-        <v>25.425827000000002</v>
+        <v>26.881447999999999</v>
       </c>
       <c r="E17" t="s">
         <v>991</v>
@@ -71747,7 +71747,7 @@
         <v>92.103211000000002</v>
       </c>
       <c r="D18" s="4">
-        <v>116.19623799999999</v>
+        <v>116.048455</v>
       </c>
       <c r="E18" t="s">
         <v>992</v>
@@ -71764,7 +71764,7 @@
         <v>25.884105999999999</v>
       </c>
       <c r="D19" s="4">
-        <v>25.720434999999998</v>
+        <v>25.789076999999999</v>
       </c>
       <c r="E19" t="s">
         <v>993</v>
@@ -71781,7 +71781,7 @@
         <v>-3.4030800000000001</v>
       </c>
       <c r="D20" s="4">
-        <v>-4.4860230000000003</v>
+        <v>21.873425000000001</v>
       </c>
       <c r="E20" t="s">
         <v>994</v>
@@ -71798,7 +71798,7 @@
         <v>107.092057</v>
       </c>
       <c r="D21" s="4">
-        <v>108.365594</v>
+        <v>107.661252</v>
       </c>
       <c r="E21" t="s">
         <v>995</v>
@@ -71815,7 +71815,7 @@
         <v>23.631817000000002</v>
       </c>
       <c r="D22" s="4">
-        <v>6.5702660000000002</v>
+        <v>6.5668810000000004</v>
       </c>
       <c r="E22" t="s">
         <v>996</v>
@@ -71832,7 +71832,7 @@
         <v>17.194789</v>
       </c>
       <c r="D23" s="4">
-        <v>38.775173000000002</v>
+        <v>38.725738999999997</v>
       </c>
       <c r="E23" t="s">
         <v>997</v>
@@ -71849,7 +71849,7 @@
         <v>35.453484000000003</v>
       </c>
       <c r="D24" s="4">
-        <v>28.264696000000001</v>
+        <v>39.208061000000001</v>
       </c>
       <c r="E24" t="s">
         <v>998</v>
@@ -71866,7 +71866,7 @@
         <v>-34.510694999999998</v>
       </c>
       <c r="D25" s="4">
-        <v>-34.510694999999998</v>
+        <v>-41.307448000000001</v>
       </c>
       <c r="E25" t="s">
         <v>999</v>
@@ -71883,7 +71883,7 @@
         <v>71.386230999999995</v>
       </c>
       <c r="D26" s="4">
-        <v>78.038644000000005</v>
+        <v>77.165627000000001</v>
       </c>
       <c r="E26" t="s">
         <v>1000</v>
@@ -71917,7 +71917,7 @@
         <v>100.803505</v>
       </c>
       <c r="D28" s="4">
-        <v>100.803505</v>
+        <v>103.943774</v>
       </c>
       <c r="E28" t="s">
         <v>1002</v>
@@ -71934,7 +71934,7 @@
         <v>43.684673879999998</v>
       </c>
       <c r="D29" s="4">
-        <v>43.684673879999998</v>
+        <v>37.594674879999999</v>
       </c>
       <c r="E29" t="s">
         <v>1003</v>
@@ -71951,7 +71951,7 @@
         <v>19.73422806</v>
       </c>
       <c r="D30" s="4">
-        <v>16.88271306</v>
+        <v>15.954130060000001</v>
       </c>
       <c r="E30" t="s">
         <v>1004</v>
@@ -71968,7 +71968,7 @@
         <v>44.232025999999998</v>
       </c>
       <c r="D31" s="4">
-        <v>56.979137000000001</v>
+        <v>48.645688</v>
       </c>
       <c r="E31" t="s">
         <v>1005</v>
@@ -71985,7 +71985,7 @@
         <v>93.315053000000006</v>
       </c>
       <c r="D32" s="4">
-        <v>93.315066999999999</v>
+        <v>94.550937000000005</v>
       </c>
       <c r="E32" t="s">
         <v>1006</v>
@@ -72002,7 +72002,7 @@
         <v>142.1318449</v>
       </c>
       <c r="D33" s="4">
-        <v>148.29629194</v>
+        <v>142.1318449</v>
       </c>
       <c r="E33" t="s">
         <v>1007</v>
@@ -72019,7 +72019,7 @@
         <v>-19.877410000000001</v>
       </c>
       <c r="D34" s="4">
-        <v>-22.798701999999999</v>
+        <v>-23.223050000000001</v>
       </c>
       <c r="E34" t="s">
         <v>1008</v>
@@ -72036,7 +72036,7 @@
         <v>63.942528000000003</v>
       </c>
       <c r="D35" s="4">
-        <v>61.847982000000002</v>
+        <v>61.847814</v>
       </c>
       <c r="E35" t="s">
         <v>1009</v>
@@ -72053,7 +72053,7 @@
         <v>6.2472269999999996</v>
       </c>
       <c r="D36" s="4">
-        <v>14.714812999999999</v>
+        <v>32.055304999999997</v>
       </c>
       <c r="E36" t="s">
         <v>1010</v>
@@ -72070,7 +72070,7 @@
         <v>53.926803</v>
       </c>
       <c r="D37" s="4">
-        <v>32.106642999999998</v>
+        <v>32.104905000000002</v>
       </c>
       <c r="E37" t="s">
         <v>1011</v>
@@ -72087,7 +72087,7 @@
         <v>2.3103600000000002</v>
       </c>
       <c r="D38" s="4">
-        <v>16.106157</v>
+        <v>2.0717319999999999</v>
       </c>
       <c r="E38" t="s">
         <v>1012</v>
@@ -72104,7 +72104,7 @@
         <v>-7.1997200000000001</v>
       </c>
       <c r="D39" s="4">
-        <v>7.017093</v>
+        <v>7.0137460000000003</v>
       </c>
       <c r="E39" t="s">
         <v>1013</v>
@@ -72121,7 +72121,7 @@
         <v>-24.20411</v>
       </c>
       <c r="D40" s="4">
-        <v>-21.032851999999998</v>
+        <v>-24.598381</v>
       </c>
       <c r="E40" t="s">
         <v>1014</v>
@@ -72155,7 +72155,7 @@
         <v>55.878743</v>
       </c>
       <c r="D42" s="4">
-        <v>45.888359999999999</v>
+        <v>12.183121999999999</v>
       </c>
       <c r="E42" t="s">
         <v>1016</v>
@@ -72189,7 +72189,7 @@
         <v>10.270702999999999</v>
       </c>
       <c r="D44" s="4">
-        <v>46.522357</v>
+        <v>55.897874999999999</v>
       </c>
       <c r="E44" t="s">
         <v>1018</v>
@@ -72206,7 +72206,7 @@
         <v>76.350967400000002</v>
       </c>
       <c r="D45" s="4">
-        <v>83.479393400000006</v>
+        <v>81.312223399999993</v>
       </c>
       <c r="E45" t="s">
         <v>1019</v>
@@ -72223,7 +72223,7 @@
         <v>71.532873510000002</v>
       </c>
       <c r="D46" s="4">
-        <v>70.346358510000002</v>
+        <v>55.645211510000003</v>
       </c>
       <c r="E46" t="s">
         <v>1020</v>
@@ -72257,7 +72257,7 @@
         <v>8.4004280700000002</v>
       </c>
       <c r="D48" s="4">
-        <v>8.4004280700000002</v>
+        <v>0</v>
       </c>
       <c r="E48" t="s">
         <v>1022</v>
@@ -72274,7 +72274,7 @@
         <v>48.084005259999998</v>
       </c>
       <c r="D49" s="4">
-        <v>39.404233140000002</v>
+        <v>36.947426139999997</v>
       </c>
       <c r="E49" t="s">
         <v>1023</v>
@@ -72291,7 +72291,7 @@
         <v>45.380200739999999</v>
       </c>
       <c r="D50" s="4">
-        <v>47.742206230000001</v>
+        <v>45.570245739999997</v>
       </c>
       <c r="E50" t="s">
         <v>1024</v>
@@ -72308,7 +72308,7 @@
         <v>44.838380919999999</v>
       </c>
       <c r="D51" s="4">
-        <v>40.888051140000002</v>
+        <v>40.788958919999999</v>
       </c>
       <c r="E51" t="s">
         <v>1025</v>
@@ -72325,7 +72325,7 @@
         <v>-13.57669761</v>
       </c>
       <c r="D52" s="4">
-        <v>-9.0709219799999996</v>
+        <v>-10.37095659</v>
       </c>
       <c r="E52" t="s">
         <v>1026</v>
@@ -72342,7 +72342,7 @@
         <v>28.429899240000001</v>
       </c>
       <c r="D53" s="4">
-        <v>41.229468060000002</v>
+        <v>32.62301489</v>
       </c>
       <c r="E53" t="s">
         <v>1027</v>
@@ -72359,7 +72359,7 @@
         <v>-23.867920519999998</v>
       </c>
       <c r="D54" s="4">
-        <v>-19.55643242</v>
+        <v>-9.6817594299999996</v>
       </c>
       <c r="E54" t="s">
         <v>1028</v>
@@ -72376,7 +72376,7 @@
         <v>0.99654856999999997</v>
       </c>
       <c r="D55" s="4">
-        <v>4.8975158700000003</v>
+        <v>4.2272140800000004</v>
       </c>
       <c r="E55" t="s">
         <v>1029</v>
@@ -72393,7 +72393,7 @@
         <v>87.126033629999995</v>
       </c>
       <c r="D56" s="4">
-        <v>87.187689539999994</v>
+        <v>75.544562119999995</v>
       </c>
       <c r="E56" t="s">
         <v>1030</v>
@@ -72410,7 +72410,7 @@
         <v>30.36065666</v>
       </c>
       <c r="D57" s="4">
-        <v>44.610923159999999</v>
+        <v>31.150632829999999</v>
       </c>
       <c r="E57" t="s">
         <v>1031</v>
@@ -72427,7 +72427,7 @@
         <v>17.617138270000002</v>
       </c>
       <c r="D58" s="4">
-        <v>-9.6109348899999993</v>
+        <v>-10.73237642</v>
       </c>
       <c r="E58" t="s">
         <v>1032</v>
@@ -72444,7 +72444,7 @@
         <v>-19.511189000000002</v>
       </c>
       <c r="D59" s="4">
-        <v>-8.2590534499999997</v>
+        <v>-12.95494334</v>
       </c>
       <c r="E59" t="s">
         <v>1033</v>
@@ -72461,7 +72461,7 @@
         <v>10.74422212</v>
       </c>
       <c r="D60" s="4">
-        <v>4.5185911599999997</v>
+        <v>2.82519746</v>
       </c>
       <c r="E60" t="s">
         <v>1034</v>
@@ -72478,7 +72478,7 @@
         <v>79.689138319999998</v>
       </c>
       <c r="D61" s="4">
-        <v>155.85243663</v>
+        <v>140.74685425000001</v>
       </c>
       <c r="E61" t="s">
         <v>1035</v>
@@ -72495,7 +72495,7 @@
         <v>-13.32591543</v>
       </c>
       <c r="D62" s="4">
-        <v>23.792233370000002</v>
+        <v>12.72810028</v>
       </c>
       <c r="E62" t="s">
         <v>1036</v>
@@ -72512,7 +72512,7 @@
         <v>-17.82495977</v>
       </c>
       <c r="D63" s="4">
-        <v>-17.873075929999999</v>
+        <v>-11.11717056</v>
       </c>
       <c r="E63" t="s">
         <v>1037</v>
@@ -72529,7 +72529,7 @@
         <v>-20.882492289999998</v>
       </c>
       <c r="D64" s="4">
-        <v>-66.906718359999999</v>
+        <v>-59.983047040000002</v>
       </c>
       <c r="E64" t="s">
         <v>1038</v>
@@ -72546,7 +72546,7 @@
         <v>91.802762509999994</v>
       </c>
       <c r="D65" s="4">
-        <v>187.90314068000001</v>
+        <v>173.88659584000001</v>
       </c>
       <c r="E65" t="s">
         <v>1039</v>
@@ -72563,7 +72563,7 @@
         <v>-29.8667084</v>
       </c>
       <c r="D66" s="4">
-        <v>-14.76269858</v>
+        <v>-15.317855570000001</v>
       </c>
       <c r="E66" t="s">
         <v>1040</v>
@@ -72580,7 +72580,7 @@
         <v>-53.794111090000001</v>
       </c>
       <c r="D67" s="4">
-        <v>-40.671090200000002</v>
+        <v>-40.739038219999998</v>
       </c>
       <c r="E67" t="s">
         <v>1041</v>
@@ -72614,7 +72614,7 @@
         <v>48.6941998</v>
       </c>
       <c r="D69" s="4">
-        <v>21.337118499999999</v>
+        <v>13.798340809999999</v>
       </c>
       <c r="E69" t="s">
         <v>1043</v>
@@ -72631,7 +72631,7 @@
         <v>28.207569899999999</v>
       </c>
       <c r="D70" s="4">
-        <v>24.458013569999999</v>
+        <v>22.297113169999999</v>
       </c>
       <c r="E70" t="s">
         <v>1044</v>
@@ -72648,7 +72648,7 @@
         <v>-47.043202170000001</v>
       </c>
       <c r="D71" s="4">
-        <v>-41.485719660000001</v>
+        <v>-42.53102389</v>
       </c>
       <c r="E71" t="s">
         <v>1045</v>
@@ -72665,7 +72665,7 @@
         <v>23.672811859999999</v>
       </c>
       <c r="D72" s="4">
-        <v>23.317427129999999</v>
+        <v>36.066230959999999</v>
       </c>
       <c r="E72" t="s">
         <v>1046</v>
@@ -72682,7 +72682,7 @@
         <v>31.844414010000001</v>
       </c>
       <c r="D73" s="4">
-        <v>55.663285540802804</v>
+        <v>42.193028780802798</v>
       </c>
       <c r="E73" t="s">
         <v>1047</v>
@@ -72699,7 +72699,7 @@
         <v>-9.8002826499999998</v>
       </c>
       <c r="D74" s="4">
-        <v>-7.7003073382263896</v>
+        <v>-10.9699398448886</v>
       </c>
       <c r="E74" t="s">
         <v>1048</v>
@@ -72716,7 +72716,7 @@
         <v>-6.7558598999999999</v>
       </c>
       <c r="D75" s="4">
-        <v>-0.123591553446874</v>
+        <v>-4.3954741935352599</v>
       </c>
       <c r="E75" t="s">
         <v>1049</v>
@@ -72733,7 +72733,7 @@
         <v>-21.471369072611001</v>
       </c>
       <c r="D76" s="4">
-        <v>-19.597700976310001</v>
+        <v>-16.617340835978201</v>
       </c>
       <c r="E76" t="s">
         <v>1050</v>
@@ -72750,7 +72750,7 @@
         <v>25.4766835724744</v>
       </c>
       <c r="D77" s="4">
-        <v>24.8328826522356</v>
+        <v>0</v>
       </c>
       <c r="E77" t="s">
         <v>1051</v>
@@ -72770,6 +72770,23 @@
         <v>0</v>
       </c>
       <c r="E78" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>971</v>
+      </c>
+      <c r="B79" s="5">
+        <v>45108</v>
+      </c>
+      <c r="C79" s="4">
+        <v>0</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
         <v>1052</v>
       </c>
     </row>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 12/07/2023</t>
+    <t xml:space="preserve"> 12/08/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 07/08/2024</t>
+    <t xml:space="preserve"> 07/19/2024</t>
   </si>
   <si>
     <t>Sección</t>
@@ -72472,10 +72472,10 @@
         <v>36161</v>
       </c>
       <c r="C2" s="4">
-        <v>32.124859000000001</v>
+        <v>32.124858856201172</v>
       </c>
       <c r="D2" s="4">
-        <v>32.124859000000001</v>
+        <v>32.124858856201172</v>
       </c>
       <c r="E2" t="s">
         <v>988</v>
@@ -72489,10 +72489,10 @@
         <v>36526</v>
       </c>
       <c r="C3" s="4">
-        <v>13.391639</v>
+        <v>13.39163875579834</v>
       </c>
       <c r="D3" s="4">
-        <v>13.391639</v>
+        <v>13.39163875579834</v>
       </c>
       <c r="E3" t="s">
         <v>989</v>
@@ -72506,10 +72506,10 @@
         <v>36892</v>
       </c>
       <c r="C4" s="4">
-        <v>-8.2605120000000003</v>
+        <v>-8.2605123519897461</v>
       </c>
       <c r="D4" s="4">
-        <v>-8.2605120000000003</v>
+        <v>-8.2605123519897461</v>
       </c>
       <c r="E4" t="s">
         <v>990</v>
@@ -72523,10 +72523,10 @@
         <v>37257</v>
       </c>
       <c r="C5" s="4">
-        <v>6.3225850000000001</v>
+        <v>6.3225851058959961</v>
       </c>
       <c r="D5" s="4">
-        <v>6.3225850000000001</v>
+        <v>6.3225851058959961</v>
       </c>
       <c r="E5" t="s">
         <v>991</v>
@@ -72540,10 +72540,10 @@
         <v>37622</v>
       </c>
       <c r="C6" s="4">
-        <v>54.115645999999998</v>
+        <v>54.115646362304688</v>
       </c>
       <c r="D6" s="4">
-        <v>54.115645999999998</v>
+        <v>54.115646362304688</v>
       </c>
       <c r="E6" t="s">
         <v>992</v>
@@ -72557,10 +72557,10 @@
         <v>37987</v>
       </c>
       <c r="C7" s="4">
-        <v>175.93960100000001</v>
+        <v>175.93960571289063</v>
       </c>
       <c r="D7" s="4">
-        <v>175.93960100000001</v>
+        <v>175.93960571289063</v>
       </c>
       <c r="E7" t="s">
         <v>993</v>
@@ -72574,10 +72574,10 @@
         <v>38353</v>
       </c>
       <c r="C8" s="4">
-        <v>33.380966000000001</v>
+        <v>33.380966186523438</v>
       </c>
       <c r="D8" s="4">
-        <v>33.380966000000001</v>
+        <v>33.380966186523438</v>
       </c>
       <c r="E8" t="s">
         <v>994</v>
@@ -72591,10 +72591,10 @@
         <v>38718</v>
       </c>
       <c r="C9" s="4">
-        <v>35.407032000000001</v>
+        <v>35.407032012939453</v>
       </c>
       <c r="D9" s="4">
-        <v>35.874479000000001</v>
+        <v>35.874477386474609</v>
       </c>
       <c r="E9" t="s">
         <v>995</v>
@@ -72608,10 +72608,10 @@
         <v>38808</v>
       </c>
       <c r="C10" s="4">
-        <v>142.78949499999999</v>
+        <v>142.78948974609375</v>
       </c>
       <c r="D10" s="4">
-        <v>144.795412</v>
+        <v>144.79541015625</v>
       </c>
       <c r="E10" t="s">
         <v>996</v>
@@ -72625,10 +72625,10 @@
         <v>38899</v>
       </c>
       <c r="C11" s="4">
-        <v>1.233144</v>
+        <v>1.2331440448760986</v>
       </c>
       <c r="D11" s="4">
-        <v>0.60574399999999995</v>
+        <v>0.60574400424957275</v>
       </c>
       <c r="E11" t="s">
         <v>997</v>
@@ -72642,10 +72642,10 @@
         <v>38991</v>
       </c>
       <c r="C12" s="4">
-        <v>0.864174</v>
+        <v>0.8641740083694458</v>
       </c>
       <c r="D12" s="4">
-        <v>1.1721379999999899</v>
+        <v>1.172137975692749</v>
       </c>
       <c r="E12" t="s">
         <v>998</v>
@@ -72659,10 +72659,10 @@
         <v>39083</v>
       </c>
       <c r="C13" s="4">
-        <v>10.051874</v>
+        <v>10.051874160766602</v>
       </c>
       <c r="D13" s="4">
-        <v>10.051874</v>
+        <v>10.051874160766602</v>
       </c>
       <c r="E13" t="s">
         <v>999</v>
@@ -72676,10 +72676,10 @@
         <v>39173</v>
       </c>
       <c r="C14" s="4">
-        <v>97.507626999999999</v>
+        <v>97.50762939453125</v>
       </c>
       <c r="D14" s="4">
-        <v>97.510344000000003</v>
+        <v>97.510345458984375</v>
       </c>
       <c r="E14" t="s">
         <v>1000</v>
@@ -72693,10 +72693,10 @@
         <v>39264</v>
       </c>
       <c r="C15" s="4">
-        <v>6.5748280000000001</v>
+        <v>6.5748281478881836</v>
       </c>
       <c r="D15" s="4">
-        <v>19.561360000000001</v>
+        <v>19.561359405517578</v>
       </c>
       <c r="E15" t="s">
         <v>1001</v>
@@ -72710,10 +72710,10 @@
         <v>39356</v>
       </c>
       <c r="C16" s="4">
-        <v>8.375591</v>
+        <v>8.3755912780761719</v>
       </c>
       <c r="D16" s="4">
-        <v>66.206388000000004</v>
+        <v>66.206390380859375</v>
       </c>
       <c r="E16" t="s">
         <v>1002</v>
@@ -72727,10 +72727,10 @@
         <v>39448</v>
       </c>
       <c r="C17" s="4">
-        <v>24.33887</v>
+        <v>24.338869094848633</v>
       </c>
       <c r="D17" s="4">
-        <v>24.33887</v>
+        <v>24.338869094848633</v>
       </c>
       <c r="E17" t="s">
         <v>1003</v>
@@ -72744,10 +72744,10 @@
         <v>39539</v>
       </c>
       <c r="C18" s="4">
-        <v>92.103211000000002</v>
+        <v>92.10321044921875</v>
       </c>
       <c r="D18" s="4">
-        <v>116.048455</v>
+        <v>116.04845428466797</v>
       </c>
       <c r="E18" t="s">
         <v>1004</v>
@@ -72761,10 +72761,10 @@
         <v>39630</v>
       </c>
       <c r="C19" s="4">
-        <v>25.884105999999999</v>
+        <v>25.884105682373047</v>
       </c>
       <c r="D19" s="4">
-        <v>25.789076999999999</v>
+        <v>25.789077758789063</v>
       </c>
       <c r="E19" t="s">
         <v>1005</v>
@@ -72778,10 +72778,10 @@
         <v>39722</v>
       </c>
       <c r="C20" s="4">
-        <v>-3.4030800000000001</v>
+        <v>-3.4030799865722656</v>
       </c>
       <c r="D20" s="4">
-        <v>21.873425000000001</v>
+        <v>21.873424530029297</v>
       </c>
       <c r="E20" t="s">
         <v>1006</v>
@@ -72795,10 +72795,10 @@
         <v>39814</v>
       </c>
       <c r="C21" s="4">
-        <v>107.092057</v>
+        <v>107.09205627441406</v>
       </c>
       <c r="D21" s="4">
-        <v>107.661252</v>
+        <v>107.6612548828125</v>
       </c>
       <c r="E21" t="s">
         <v>1007</v>
@@ -72812,10 +72812,10 @@
         <v>39904</v>
       </c>
       <c r="C22" s="4">
-        <v>23.631817000000002</v>
+        <v>23.631816864013672</v>
       </c>
       <c r="D22" s="4">
-        <v>6.5668810000000004</v>
+        <v>6.5668811798095703</v>
       </c>
       <c r="E22" t="s">
         <v>1008</v>
@@ -72829,10 +72829,10 @@
         <v>39995</v>
       </c>
       <c r="C23" s="4">
-        <v>17.194789</v>
+        <v>17.194789886474609</v>
       </c>
       <c r="D23" s="4">
-        <v>38.725738999999997</v>
+        <v>38.725738525390625</v>
       </c>
       <c r="E23" t="s">
         <v>1009</v>
@@ -72846,10 +72846,10 @@
         <v>40087</v>
       </c>
       <c r="C24" s="4">
-        <v>35.453484000000003</v>
+        <v>35.453483581542969</v>
       </c>
       <c r="D24" s="4">
-        <v>39.208061000000001</v>
+        <v>39.208061218261719</v>
       </c>
       <c r="E24" t="s">
         <v>1010</v>
@@ -72863,10 +72863,10 @@
         <v>40179</v>
       </c>
       <c r="C25" s="4">
-        <v>-34.510694999999998</v>
+        <v>-34.510696411132813</v>
       </c>
       <c r="D25" s="4">
-        <v>-34.510694999999998</v>
+        <v>-34.510696411132813</v>
       </c>
       <c r="E25" t="s">
         <v>1011</v>
@@ -72880,10 +72880,10 @@
         <v>40269</v>
       </c>
       <c r="C26" s="4">
-        <v>71.386230999999995</v>
+        <v>71.38623046875</v>
       </c>
       <c r="D26" s="4">
-        <v>77.165627000000001</v>
+        <v>77.165626525878906</v>
       </c>
       <c r="E26" t="s">
         <v>1012</v>
@@ -72897,10 +72897,10 @@
         <v>40360</v>
       </c>
       <c r="C27" s="4">
-        <v>68.156650999999997</v>
+        <v>68.156654357910156</v>
       </c>
       <c r="D27" s="4">
-        <v>43.471086999999997</v>
+        <v>43.471088409423828</v>
       </c>
       <c r="E27" t="s">
         <v>1013</v>
@@ -72914,10 +72914,10 @@
         <v>40452</v>
       </c>
       <c r="C28" s="4">
-        <v>100.803505</v>
+        <v>100.80350494384766</v>
       </c>
       <c r="D28" s="4">
-        <v>103.943774</v>
+        <v>103.94377136230469</v>
       </c>
       <c r="E28" t="s">
         <v>1014</v>
@@ -72931,10 +72931,10 @@
         <v>40544</v>
       </c>
       <c r="C29" s="4">
-        <v>43.684673879999998</v>
+        <v>43.684673309326172</v>
       </c>
       <c r="D29" s="4">
-        <v>37.594674879999999</v>
+        <v>37.594673156738281</v>
       </c>
       <c r="E29" t="s">
         <v>1015</v>
@@ -72948,10 +72948,10 @@
         <v>40634</v>
       </c>
       <c r="C30" s="4">
-        <v>19.73422806</v>
+        <v>19.734228134155273</v>
       </c>
       <c r="D30" s="4">
-        <v>15.954130060000001</v>
+        <v>15.954130172729492</v>
       </c>
       <c r="E30" t="s">
         <v>1016</v>
@@ -72965,10 +72965,10 @@
         <v>40725</v>
       </c>
       <c r="C31" s="4">
-        <v>44.232025999999998</v>
+        <v>44.232025146484375</v>
       </c>
       <c r="D31" s="4">
-        <v>48.645688</v>
+        <v>48.645687103271484</v>
       </c>
       <c r="E31" t="s">
         <v>1017</v>
@@ -72982,10 +72982,10 @@
         <v>40817</v>
       </c>
       <c r="C32" s="4">
-        <v>93.315053000000006</v>
+        <v>93.315055847167969</v>
       </c>
       <c r="D32" s="4">
-        <v>94.550937000000005</v>
+        <v>94.550933837890625</v>
       </c>
       <c r="E32" t="s">
         <v>1018</v>
@@ -72999,10 +72999,10 @@
         <v>40909</v>
       </c>
       <c r="C33" s="4">
-        <v>142.1318449</v>
+        <v>142.13185119628906</v>
       </c>
       <c r="D33" s="4">
-        <v>148.29622394</v>
+        <v>148.29621887207031</v>
       </c>
       <c r="E33" t="s">
         <v>1019</v>
@@ -73016,10 +73016,10 @@
         <v>41000</v>
       </c>
       <c r="C34" s="4">
-        <v>-19.877410000000001</v>
+        <v>-19.877410888671875</v>
       </c>
       <c r="D34" s="4">
-        <v>-23.223050000000001</v>
+        <v>-23.223049163818359</v>
       </c>
       <c r="E34" t="s">
         <v>1020</v>
@@ -73033,10 +73033,10 @@
         <v>41091</v>
       </c>
       <c r="C35" s="4">
-        <v>63.942528000000003</v>
+        <v>63.942527770996094</v>
       </c>
       <c r="D35" s="4">
-        <v>61.847814</v>
+        <v>61.847812652587891</v>
       </c>
       <c r="E35" t="s">
         <v>1021</v>
@@ -73050,10 +73050,10 @@
         <v>41183</v>
       </c>
       <c r="C36" s="4">
-        <v>6.2472269999999996</v>
+        <v>6.2472271919250488</v>
       </c>
       <c r="D36" s="4">
-        <v>32.055304999999997</v>
+        <v>32.055305480957031</v>
       </c>
       <c r="E36" t="s">
         <v>1022</v>
@@ -73067,10 +73067,10 @@
         <v>41275</v>
       </c>
       <c r="C37" s="4">
-        <v>53.926803</v>
+        <v>53.926803588867188</v>
       </c>
       <c r="D37" s="4">
-        <v>53.926803</v>
+        <v>53.926803588867188</v>
       </c>
       <c r="E37" t="s">
         <v>1023</v>
@@ -73084,10 +73084,10 @@
         <v>41365</v>
       </c>
       <c r="C38" s="4">
-        <v>2.3103600000000002</v>
+        <v>2.3103599548339844</v>
       </c>
       <c r="D38" s="4">
-        <v>2.0717319999999999</v>
+        <v>2.0717320442199707</v>
       </c>
       <c r="E38" t="s">
         <v>1024</v>
@@ -73101,10 +73101,10 @@
         <v>41456</v>
       </c>
       <c r="C39" s="4">
-        <v>-7.1997200000000001</v>
+        <v>-7.1997199058532715</v>
       </c>
       <c r="D39" s="4">
-        <v>7.0137460000000003</v>
+        <v>7.0137457847595215</v>
       </c>
       <c r="E39" t="s">
         <v>1025</v>
@@ -73118,10 +73118,10 @@
         <v>41548</v>
       </c>
       <c r="C40" s="4">
-        <v>-24.20411</v>
+        <v>-24.204109191894531</v>
       </c>
       <c r="D40" s="4">
-        <v>-24.598381</v>
+        <v>-24.598381042480469</v>
       </c>
       <c r="E40" t="s">
         <v>1026</v>
@@ -73135,10 +73135,10 @@
         <v>41640</v>
       </c>
       <c r="C41" s="4">
-        <v>106.921645</v>
+        <v>106.92164611816406</v>
       </c>
       <c r="D41" s="4">
-        <v>106.921645</v>
+        <v>106.92164611816406</v>
       </c>
       <c r="E41" t="s">
         <v>1027</v>
@@ -73152,10 +73152,10 @@
         <v>41730</v>
       </c>
       <c r="C42" s="4">
-        <v>55.878743</v>
+        <v>55.878742218017578</v>
       </c>
       <c r="D42" s="4">
-        <v>12.183121999999999</v>
+        <v>12.183121681213379</v>
       </c>
       <c r="E42" t="s">
         <v>1028</v>
@@ -73186,10 +73186,10 @@
         <v>41913</v>
       </c>
       <c r="C44" s="4">
-        <v>10.270702999999999</v>
+        <v>10.270703315734863</v>
       </c>
       <c r="D44" s="4">
-        <v>55.897874999999999</v>
+        <v>55.897876739501953</v>
       </c>
       <c r="E44" t="s">
         <v>1030</v>
@@ -73203,10 +73203,10 @@
         <v>42005</v>
       </c>
       <c r="C45" s="4">
-        <v>76.350967400000002</v>
+        <v>76.350967407226563</v>
       </c>
       <c r="D45" s="4">
-        <v>76.350967400000002</v>
+        <v>76.350967407226563</v>
       </c>
       <c r="E45" t="s">
         <v>1031</v>
@@ -73220,10 +73220,10 @@
         <v>42095</v>
       </c>
       <c r="C46" s="4">
-        <v>71.532873510000002</v>
+        <v>71.532875061035156</v>
       </c>
       <c r="D46" s="4">
-        <v>55.645211510000003</v>
+        <v>55.645210266113281</v>
       </c>
       <c r="E46" t="s">
         <v>1032</v>
@@ -73254,7 +73254,7 @@
         <v>42278</v>
       </c>
       <c r="C48" s="4">
-        <v>8.4004280700000002</v>
+        <v>8.4004278182983398</v>
       </c>
       <c r="D48" s="4">
         <v>0</v>
@@ -73271,10 +73271,10 @@
         <v>42370</v>
       </c>
       <c r="C49" s="4">
-        <v>48.084005259999998</v>
+        <v>48.084003448486328</v>
       </c>
       <c r="D49" s="4">
-        <v>36.947426139999997</v>
+        <v>36.947425842285156</v>
       </c>
       <c r="E49" t="s">
         <v>1035</v>
@@ -73288,10 +73288,10 @@
         <v>42461</v>
       </c>
       <c r="C50" s="4">
-        <v>45.380200739999999</v>
+        <v>45.380199432373047</v>
       </c>
       <c r="D50" s="4">
-        <v>45.570245739999997</v>
+        <v>45.570243835449219</v>
       </c>
       <c r="E50" t="s">
         <v>1036</v>
@@ -73305,10 +73305,10 @@
         <v>42552</v>
       </c>
       <c r="C51" s="4">
-        <v>44.838380919999999</v>
+        <v>44.838382720947266</v>
       </c>
       <c r="D51" s="4">
-        <v>40.788958919999999</v>
+        <v>40.788959503173828</v>
       </c>
       <c r="E51" t="s">
         <v>1037</v>
@@ -73322,10 +73322,10 @@
         <v>42644</v>
       </c>
       <c r="C52" s="4">
-        <v>-13.57669761</v>
+        <v>-13.57669734954834</v>
       </c>
       <c r="D52" s="4">
-        <v>-10.37095659</v>
+        <v>-10.370956420898438</v>
       </c>
       <c r="E52" t="s">
         <v>1038</v>
@@ -73339,10 +73339,10 @@
         <v>42736</v>
       </c>
       <c r="C53" s="4">
-        <v>28.429899240000001</v>
+        <v>28.429899215698242</v>
       </c>
       <c r="D53" s="4">
-        <v>32.62301489</v>
+        <v>32.623016357421875</v>
       </c>
       <c r="E53" t="s">
         <v>1039</v>
@@ -73356,10 +73356,10 @@
         <v>42826</v>
       </c>
       <c r="C54" s="4">
-        <v>-23.867920519999998</v>
+        <v>-23.867919921875</v>
       </c>
       <c r="D54" s="4">
-        <v>-9.6817594299999996</v>
+        <v>-9.6817598342895508</v>
       </c>
       <c r="E54" t="s">
         <v>1040</v>
@@ -73373,10 +73373,10 @@
         <v>42917</v>
       </c>
       <c r="C55" s="4">
-        <v>0.99654856999999997</v>
+        <v>0.99654859304428101</v>
       </c>
       <c r="D55" s="4">
-        <v>4.2272140800000004</v>
+        <v>4.2272138595581055</v>
       </c>
       <c r="E55" t="s">
         <v>1041</v>
@@ -73390,10 +73390,10 @@
         <v>43009</v>
       </c>
       <c r="C56" s="4">
-        <v>87.126033629999995</v>
+        <v>87.126029968261719</v>
       </c>
       <c r="D56" s="4">
-        <v>75.544562119999995</v>
+        <v>75.544563293457031</v>
       </c>
       <c r="E56" t="s">
         <v>1042</v>
@@ -73407,10 +73407,10 @@
         <v>43101</v>
       </c>
       <c r="C57" s="4">
-        <v>30.36065666</v>
+        <v>30.36065673828125</v>
       </c>
       <c r="D57" s="4">
-        <v>31.150632829999999</v>
+        <v>31.150632858276367</v>
       </c>
       <c r="E57" t="s">
         <v>1043</v>
@@ -73424,10 +73424,10 @@
         <v>43191</v>
       </c>
       <c r="C58" s="4">
-        <v>17.617138270000002</v>
+        <v>17.617137908935547</v>
       </c>
       <c r="D58" s="4">
-        <v>-10.73237642</v>
+        <v>-10.732376098632813</v>
       </c>
       <c r="E58" t="s">
         <v>1044</v>
@@ -73441,10 +73441,10 @@
         <v>43282</v>
       </c>
       <c r="C59" s="4">
-        <v>-19.511189000000002</v>
+        <v>-19.511188507080078</v>
       </c>
       <c r="D59" s="4">
-        <v>-12.95494334</v>
+        <v>-12.954943656921387</v>
       </c>
       <c r="E59" t="s">
         <v>1045</v>
@@ -73458,10 +73458,10 @@
         <v>43374</v>
       </c>
       <c r="C60" s="4">
-        <v>10.74422212</v>
+        <v>10.744221687316895</v>
       </c>
       <c r="D60" s="4">
-        <v>2.82519746</v>
+        <v>2.8251974582672119</v>
       </c>
       <c r="E60" t="s">
         <v>1046</v>
@@ -73475,10 +73475,10 @@
         <v>43466</v>
       </c>
       <c r="C61" s="4">
-        <v>79.689138319999998</v>
+        <v>79.689140319824219</v>
       </c>
       <c r="D61" s="4">
-        <v>140.74685425000001</v>
+        <v>140.74685668945313</v>
       </c>
       <c r="E61" t="s">
         <v>1047</v>
@@ -73492,10 +73492,10 @@
         <v>43556</v>
       </c>
       <c r="C62" s="4">
-        <v>-13.32591543</v>
+        <v>-13.325915336608887</v>
       </c>
       <c r="D62" s="4">
-        <v>12.72810028</v>
+        <v>12.728099822998047</v>
       </c>
       <c r="E62" t="s">
         <v>1048</v>
@@ -73509,10 +73509,10 @@
         <v>43647</v>
       </c>
       <c r="C63" s="4">
-        <v>-17.82495977</v>
+        <v>-17.824960708618164</v>
       </c>
       <c r="D63" s="4">
-        <v>-11.11717056</v>
+        <v>-11.117170333862305</v>
       </c>
       <c r="E63" t="s">
         <v>1049</v>
@@ -73526,10 +73526,10 @@
         <v>43739</v>
       </c>
       <c r="C64" s="4">
-        <v>-20.882492289999998</v>
+        <v>-20.882492065429688</v>
       </c>
       <c r="D64" s="4">
-        <v>-59.983047040000002</v>
+        <v>-59.983047485351563</v>
       </c>
       <c r="E64" t="s">
         <v>1050</v>
@@ -73543,10 +73543,10 @@
         <v>43831</v>
       </c>
       <c r="C65" s="4">
-        <v>91.802762509999994</v>
+        <v>91.802764892578125</v>
       </c>
       <c r="D65" s="4">
-        <v>173.88659584000001</v>
+        <v>173.8865966796875</v>
       </c>
       <c r="E65" t="s">
         <v>1051</v>
@@ -73560,10 +73560,10 @@
         <v>43922</v>
       </c>
       <c r="C66" s="4">
-        <v>-29.8667084</v>
+        <v>-29.866708755493164</v>
       </c>
       <c r="D66" s="4">
-        <v>-15.317855570000001</v>
+        <v>-15.317855834960938</v>
       </c>
       <c r="E66" t="s">
         <v>1052</v>
@@ -73577,10 +73577,10 @@
         <v>44013</v>
       </c>
       <c r="C67" s="4">
-        <v>-53.794111090000001</v>
+        <v>-53.794109344482422</v>
       </c>
       <c r="D67" s="4">
-        <v>-40.739038219999998</v>
+        <v>-40.739036560058594</v>
       </c>
       <c r="E67" t="s">
         <v>1053</v>
@@ -73594,10 +73594,10 @@
         <v>44105</v>
       </c>
       <c r="C68" s="4">
-        <v>-58.938021579999997</v>
+        <v>-58.938022613525391</v>
       </c>
       <c r="D68" s="4">
-        <v>-38.769029830000001</v>
+        <v>-38.769031524658203</v>
       </c>
       <c r="E68" t="s">
         <v>1054</v>
@@ -73611,10 +73611,10 @@
         <v>44197</v>
       </c>
       <c r="C69" s="4">
-        <v>48.6941998</v>
+        <v>48.694198608398438</v>
       </c>
       <c r="D69" s="4">
-        <v>13.798340809999999</v>
+        <v>13.798340797424316</v>
       </c>
       <c r="E69" t="s">
         <v>1055</v>
@@ -73628,10 +73628,10 @@
         <v>44287</v>
       </c>
       <c r="C70" s="4">
-        <v>28.207569899999999</v>
+        <v>28.207569122314453</v>
       </c>
       <c r="D70" s="4">
-        <v>22.297113169999999</v>
+        <v>22.297113418579102</v>
       </c>
       <c r="E70" t="s">
         <v>1056</v>
@@ -73645,10 +73645,10 @@
         <v>44378</v>
       </c>
       <c r="C71" s="4">
-        <v>-47.043202170000001</v>
+        <v>-47.043201446533203</v>
       </c>
       <c r="D71" s="4">
-        <v>-42.53102389</v>
+        <v>-42.531024932861328</v>
       </c>
       <c r="E71" t="s">
         <v>1057</v>
@@ -73662,10 +73662,10 @@
         <v>44470</v>
       </c>
       <c r="C72" s="4">
-        <v>23.672811859999999</v>
+        <v>23.672811508178711</v>
       </c>
       <c r="D72" s="4">
-        <v>36.066230959999999</v>
+        <v>36.066230773925781</v>
       </c>
       <c r="E72" t="s">
         <v>1058</v>
@@ -73679,10 +73679,10 @@
         <v>44562</v>
       </c>
       <c r="C73" s="4">
-        <v>31.844414010000001</v>
+        <v>31.844413757324219</v>
       </c>
       <c r="D73" s="4">
-        <v>42.193028780802798</v>
+        <v>42.193027496337891</v>
       </c>
       <c r="E73" t="s">
         <v>1059</v>
@@ -73696,10 +73696,10 @@
         <v>44652</v>
       </c>
       <c r="C74" s="4">
-        <v>-9.8002826499999998</v>
+        <v>-9.8002824783325195</v>
       </c>
       <c r="D74" s="4">
-        <v>-10.9699398448886</v>
+        <v>-10.969940185546875</v>
       </c>
       <c r="E74" t="s">
         <v>1060</v>
@@ -73713,10 +73713,10 @@
         <v>44743</v>
       </c>
       <c r="C75" s="4">
-        <v>-6.7558598999999999</v>
+        <v>-6.7558598518371582</v>
       </c>
       <c r="D75" s="4">
-        <v>-4.3954741935352599</v>
+        <v>-4.3954739570617676</v>
       </c>
       <c r="E75" t="s">
         <v>1061</v>
@@ -73730,10 +73730,10 @@
         <v>44835</v>
       </c>
       <c r="C76" s="4">
-        <v>-21.471369072611001</v>
+        <v>-21.471368789672852</v>
       </c>
       <c r="D76" s="4">
-        <v>-16.617340835978201</v>
+        <v>-16.617340087890625</v>
       </c>
       <c r="E76" t="s">
         <v>1062</v>
@@ -73747,10 +73747,10 @@
         <v>44927</v>
       </c>
       <c r="C77" s="4">
-        <v>25.4766835724744</v>
+        <v>25.476682662963867</v>
       </c>
       <c r="D77" s="4">
-        <v>15.3228621930113</v>
+        <v>15.32286262512207</v>
       </c>
       <c r="E77" t="s">
         <v>1063</v>
@@ -73798,10 +73798,10 @@
         <v>45200</v>
       </c>
       <c r="C80" s="4">
-        <v>47.656292576854298</v>
+        <v>47.656291961669922</v>
       </c>
       <c r="D80" s="4">
-        <v>47.656292576854298</v>
+        <v>47.656291961669922</v>
       </c>
       <c r="E80" t="s">
         <v>1065</v>
@@ -73815,10 +73815,10 @@
         <v>45292</v>
       </c>
       <c r="C81" s="4">
-        <v>80.797575192648296</v>
+        <v>80.797576904296875</v>
       </c>
       <c r="D81" s="4">
-        <v>80.797575192648296</v>
+        <v>80.797576904296875</v>
       </c>
       <c r="E81" t="s">
         <v>1066</v>

--- a/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_BEBIDASYTABACO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10356" uniqueCount="1068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10357" uniqueCount="1068">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria de las bebidas y del tabaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> 09/18/2024</t>
+    <t xml:space="preserve"> 09/30/2024</t>
   </si>
   <si>
     <t>Sección</t>
@@ -3860,7 +3860,7 @@
         <v>37622</v>
       </c>
       <c r="E2" s="4">
-        <v>0.017084895311202483</v>
+        <v>0.017084894701838493</v>
       </c>
     </row>
     <row r="3">
@@ -3877,7 +3877,7 @@
         <v>37987</v>
       </c>
       <c r="E3" s="4">
-        <v>0.018157363670915468</v>
+        <v>0.018157362937927246</v>
       </c>
     </row>
     <row r="4">
@@ -3894,7 +3894,7 @@
         <v>38353</v>
       </c>
       <c r="E4" s="4">
-        <v>0.019707107710882778</v>
+        <v>0.019707107916474342</v>
       </c>
     </row>
     <row r="5">
@@ -3911,7 +3911,7 @@
         <v>38718</v>
       </c>
       <c r="E5" s="4">
-        <v>0.019476118788208412</v>
+        <v>0.019476119428873062</v>
       </c>
     </row>
     <row r="6">
@@ -3928,7 +3928,7 @@
         <v>39083</v>
       </c>
       <c r="E6" s="4">
-        <v>0.019271179297765482</v>
+        <v>0.019271180033683777</v>
       </c>
     </row>
     <row r="7">
@@ -3945,7 +3945,7 @@
         <v>39448</v>
       </c>
       <c r="E7" s="4">
-        <v>0.021528622841192644</v>
+        <v>0.021528622135519981</v>
       </c>
     </row>
     <row r="8">
@@ -3962,7 +3962,7 @@
         <v>39814</v>
       </c>
       <c r="E8" s="4">
-        <v>0.022606619218105847</v>
+        <v>0.022606618702411652</v>
       </c>
     </row>
     <row r="9">
@@ -3979,7 +3979,7 @@
         <v>40179</v>
       </c>
       <c r="E9" s="4">
-        <v>0.0218636189891388</v>
+        <v>0.021863618865609169</v>
       </c>
     </row>
     <row r="10">
@@ -3996,7 +3996,7 @@
         <v>40544</v>
       </c>
       <c r="E10" s="4">
-        <v>0.019948221185526995</v>
+        <v>0.019948221743106842</v>
       </c>
     </row>
     <row r="11">
@@ -4013,7 +4013,7 @@
         <v>40909</v>
       </c>
       <c r="E11" s="4">
-        <v>0.021347344772705799</v>
+        <v>0.021347343921661377</v>
       </c>
     </row>
     <row r="12">
@@ -4030,7 +4030,7 @@
         <v>41275</v>
       </c>
       <c r="E12" s="4">
-        <v>0.022696052400715892</v>
+        <v>0.022696051746606827</v>
       </c>
     </row>
     <row r="13">
@@ -4047,7 +4047,7 @@
         <v>41640</v>
       </c>
       <c r="E13" s="4">
-        <v>0.023890671092990895</v>
+        <v>0.023890670388936996</v>
       </c>
     </row>
     <row r="14">
@@ -4064,7 +4064,7 @@
         <v>42005</v>
       </c>
       <c r="E14" s="4">
-        <v>0.023681737665128186</v>
+        <v>0.02368173748254776</v>
       </c>
     </row>
     <row r="15">
@@ -4081,7 +4081,7 @@
         <v>42370</v>
       </c>
       <c r="E15" s="4">
-        <v>0.023116719091595739</v>
+        <v>0.023116718977689743</v>
       </c>
     </row>
     <row r="16">
@@ -4098,7 +4098,7 @@
         <v>42736</v>
       </c>
       <c r="E16" s="4">
-        <v>0.023866958545783572</v>
+        <v>0.023866958916187286</v>
       </c>
     </row>
     <row r="17">
@@ -4115,7 +4115,7 @@
         <v>43101</v>
       </c>
       <c r="E17" s="4">
-        <v>0.024246453545680738</v>
+        <v>0.024246454238891602</v>
       </c>
     </row>
     <row r="18">
@@ -4132,7 +4132,7 @@
         <v>43466</v>
       </c>
       <c r="E18" s="4">
-        <v>0.026892866213147404</v>
+        <v>0.026892866939306259</v>
       </c>
     </row>
     <row r="19">
@@ -4149,7 +4149,7 @@
         <v>43831</v>
       </c>
       <c r="E19" s="4">
-        <v>0.025090675668400533</v>
+        <v>0.025090675801038742</v>
       </c>
     </row>
     <row r="20">
@@ -4166,7 +4166,7 @@
         <v>44197</v>
       </c>
       <c r="E20" s="4">
-        <v>0.026228855062119361</v>
+        <v>0.026228854432702065</v>
       </c>
     </row>
     <row r="21">
@@ -4183,7 +4183,7 @@
         <v>44562</v>
       </c>
       <c r="E21" s="4">
-        <v>0.026445676484818655</v>
+        <v>0.026445675641298294</v>
       </c>
     </row>
   </sheetData>
@@ -71892,7 +71892,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C71"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -72663,6 +72663,17 @@
       </c>
       <c r="C70" s="4">
         <v>658678</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5">
+        <v>45383</v>
+      </c>
+      <c r="B71" t="s">
+        <v>980</v>
+      </c>
+      <c r="C71" s="4">
+        <v>795031</v>
       </c>
     </row>
   </sheetData>
@@ -72699,10 +72710,10 @@
         <v>36161</v>
       </c>
       <c r="C2" s="4">
-        <v>32.124859000000001</v>
+        <v>32.124858856201172</v>
       </c>
       <c r="D2" s="4">
-        <v>32.124859000000001</v>
+        <v>32.124858856201172</v>
       </c>
       <c r="E2" t="s">
         <v>988</v>
@@ -72716,10 +72727,10 @@
         <v>36526</v>
       </c>
       <c r="C3" s="4">
-        <v>13.391639</v>
+        <v>13.39163875579834</v>
       </c>
       <c r="D3" s="4">
-        <v>13.391639</v>
+        <v>13.39163875579834</v>
       </c>
       <c r="E3" t="s">
         <v>989</v>
@@ -72733,10 +72744,10 @@
         <v>36892</v>
       </c>
       <c r="C4" s="4">
-        <v>-8.2605120000000003</v>
+        <v>-8.2605123519897461</v>
       </c>
       <c r="D4" s="4">
-        <v>-8.2605120000000003</v>
+        <v>-8.2605123519897461</v>
       </c>
       <c r="E4" t="s">
         <v>990</v>
@@ -72750,10 +72761,10 @@
         <v>37257</v>
       </c>
       <c r="C5" s="4">
-        <v>6.3225850000000001</v>
+        <v>6.3225851058959961</v>
       </c>
       <c r="D5" s="4">
-        <v>6.3225850000000001</v>
+        <v>6.3225851058959961</v>
       </c>
       <c r="E5" t="s">
         <v>991</v>
@@ -72767,10 +72778,10 @@
         <v>37622</v>
       </c>
       <c r="C6" s="4">
-        <v>54.115645999999998</v>
+        <v>54.115646362304688</v>
       </c>
       <c r="D6" s="4">
-        <v>54.115645999999998</v>
+        <v>54.115646362304688</v>
       </c>
       <c r="E6" t="s">
         <v>992</v>
@@ -72784,10 +72795,10 @@
         <v>37987</v>
       </c>
       <c r="C7" s="4">
-        <v>175.93960100000001</v>
+        <v>175.93960571289063</v>
       </c>
       <c r="D7" s="4">
-        <v>175.93960100000001</v>
+        <v>175.93960571289063</v>
       </c>
       <c r="E7" t="s">
         <v>993</v>
@@ -72801,10 +72812,10 @@
         <v>38353</v>
       </c>
       <c r="C8" s="4">
-        <v>33.380966000000001</v>
+        <v>33.380966186523438</v>
       </c>
       <c r="D8" s="4">
-        <v>33.380966000000001</v>
+        <v>33.380966186523438</v>
       </c>
       <c r="E8" t="s">
         <v>994</v>
@@ -72818,10 +72829,10 @@
         <v>38718</v>
       </c>
       <c r="C9" s="4">
-        <v>35.407032000000001</v>
+        <v>35.407032012939453</v>
       </c>
       <c r="D9" s="4">
-        <v>35.407032000000001</v>
+        <v>35.407032012939453</v>
       </c>
       <c r="E9" t="s">
         <v>995</v>
@@ -72835,10 +72846,10 @@
         <v>38808</v>
       </c>
       <c r="C10" s="4">
-        <v>142.78949499999999</v>
+        <v>142.78948974609375</v>
       </c>
       <c r="D10" s="4">
-        <v>144.795412</v>
+        <v>144.79541015625</v>
       </c>
       <c r="E10" t="s">
         <v>996</v>
@@ -72852,10 +72863,10 @@
         <v>38899</v>
       </c>
       <c r="C11" s="4">
-        <v>1.233144</v>
+        <v>1.2331440448760986</v>
       </c>
       <c r="D11" s="4">
-        <v>0.60574399999999995</v>
+        <v>0.60574400424957275</v>
       </c>
       <c r="E11" t="s">
         <v>997</v>
@@ -72869,10 +72880,10 @@
         <v>38991</v>
       </c>
       <c r="C12" s="4">
-        <v>0.864174</v>
+        <v>0.8641740083694458</v>
       </c>
       <c r="D12" s="4">
-        <v>1.1721379999999899</v>
+        <v>1.172137975692749</v>
       </c>
       <c r="E12" t="s">
         <v>998</v>
@@ -72886,10 +72897,10 @@
         <v>39083</v>
       </c>
       <c r="C13" s="4">
-        <v>10.051874</v>
+        <v>10.051874160766602</v>
       </c>
       <c r="D13" s="4">
-        <v>8.9418939999999996</v>
+        <v>8.9418935775756836</v>
       </c>
       <c r="E13" t="s">
         <v>999</v>
@@ -72903,10 +72914,10 @@
         <v>39173</v>
       </c>
       <c r="C14" s="4">
-        <v>97.507626999999999</v>
+        <v>97.50762939453125</v>
       </c>
       <c r="D14" s="4">
-        <v>97.510344000000003</v>
+        <v>97.510345458984375</v>
       </c>
       <c r="E14" t="s">
         <v>1000</v>
@@ -72920,10 +72931,10 @@
         <v>39264</v>
       </c>
       <c r="C15" s="4">
-        <v>6.5748280000000001</v>
+        <v>6.5748281478881836</v>
       </c>
       <c r="D15" s="4">
-        <v>19.561360000000001</v>
+        <v>19.561359405517578</v>
       </c>
       <c r="E15" t="s">
         <v>1001</v>
@@ -72937,10 +72948,10 @@
         <v>39356</v>
       </c>
       <c r="C16" s="4">
-        <v>8.375591</v>
+        <v>8.3755912780761719</v>
       </c>
       <c r="D16" s="4">
-        <v>66.206388000000004</v>
+        <v>66.206390380859375</v>
       </c>
       <c r="E16" t="s">
         <v>1002</v>
@@ -72954,10 +72965,10 @@
         <v>39448</v>
       </c>
       <c r="C17" s="4">
-        <v>24.33887</v>
+        <v>24.338869094848633</v>
       </c>
       <c r="D17" s="4">
-        <v>24.33887</v>
+        <v>24.338869094848633</v>
       </c>
       <c r="E17" t="s">
         <v>1003</v>
@@ -72971,10 +72982,10 @@
         <v>39539</v>
       </c>
       <c r="C18" s="4">
-        <v>92.103211000000002</v>
+        <v>92.10321044921875</v>
       </c>
       <c r="D18" s="4">
-        <v>116.048455</v>
+        <v>116.04845428466797</v>
       </c>
       <c r="E18" t="s">
         <v>1004</v>
@@ -72988,10 +72999,10 @@
         <v>39630</v>
       </c>
       <c r="C19" s="4">
-        <v>25.884105999999999</v>
+        <v>25.884105682373047</v>
       </c>
       <c r="D19" s="4">
-        <v>25.789076999999999</v>
+        <v>25.789077758789063</v>
       </c>
       <c r="E19" t="s">
         <v>1005</v>
@@ -73005,10 +73016,10 @@
         <v>39722</v>
       </c>
       <c r="C20" s="4">
-        <v>-3.4030800000000001</v>
+        <v>-3.4030799865722656</v>
       </c>
       <c r="D20" s="4">
-        <v>21.873425000000001</v>
+        <v>21.873424530029297</v>
       </c>
       <c r="E20" t="s">
         <v>1006</v>
@@ -73022,10 +73033,10 @@
         <v>39814</v>
       </c>
       <c r="C21" s="4">
-        <v>107.092057</v>
+        <v>107.09205627441406</v>
       </c>
       <c r="D21" s="4">
-        <v>107.092057</v>
+        <v>107.09205627441406</v>
       </c>
       <c r="E21" t="s">
         <v>1007</v>
@@ -73039,10 +73050,10 @@
         <v>39904</v>
       </c>
       <c r="C22" s="4">
-        <v>23.631817000000002</v>
+        <v>23.631816864013672</v>
       </c>
       <c r="D22" s="4">
-        <v>6.5668810000000004</v>
+        <v>6.5668811798095703</v>
       </c>
       <c r="E22" t="s">
         <v>1008</v>
@@ -73056,10 +73067,10 @@
         <v>39995</v>
       </c>
       <c r="C23" s="4">
-        <v>17.194789</v>
+        <v>17.194789886474609</v>
       </c>
       <c r="D23" s="4">
-        <v>38.725738999999997</v>
+        <v>38.725738525390625</v>
       </c>
       <c r="E23" t="s">
         <v>1009</v>
@@ -73073,10 +73084,10 @@
         <v>40087</v>
       </c>
       <c r="C24" s="4">
-        <v>35.453484000000003</v>
+        <v>35.453483581542969</v>
       </c>
       <c r="D24" s="4">
-        <v>39.208061000000001</v>
+        <v>39.208061218261719</v>
       </c>
       <c r="E24" t="s">
         <v>1010</v>
@@ -73090,10 +73101,10 @@
         <v>40179</v>
       </c>
       <c r="C25" s="4">
-        <v>-34.510694999999998</v>
+        <v>-34.510696411132813</v>
       </c>
       <c r="D25" s="4">
-        <v>-41.307448000000001</v>
+        <v>-41.307449340820313</v>
       </c>
       <c r="E25" t="s">
         <v>1011</v>
@@ -73107,10 +73118,10 @@
         <v>40269</v>
       </c>
       <c r="C26" s="4">
-        <v>71.386230999999995</v>
+        <v>71.38623046875</v>
       </c>
       <c r="D26" s="4">
-        <v>77.165627000000001</v>
+        <v>77.165626525878906</v>
       </c>
       <c r="E26" t="s">
         <v>1012</v>
@@ -73124,10 +73135,10 @@
         <v>40360</v>
       </c>
       <c r="C27" s="4">
-        <v>68.156650999999997</v>
+        <v>68.156654357910156</v>
       </c>
       <c r="D27" s="4">
-        <v>43.471086999999997</v>
+        <v>43.471088409423828</v>
       </c>
       <c r="E27" t="s">
         <v>1013</v>
@@ -73141,10 +73152,10 @@
         <v>40452</v>
       </c>
       <c r="C28" s="4">
-        <v>100.803505</v>
+        <v>100.80350494384766</v>
       </c>
       <c r="D28" s="4">
-        <v>103.943774</v>
+        <v>103.94377136230469</v>
       </c>
       <c r="E28" t="s">
         <v>1014</v>
@@ -73158,10 +73169,10 @@
         <v>40544</v>
       </c>
       <c r="C29" s="4">
-        <v>43.684673879999998</v>
+        <v>43.684673309326172</v>
       </c>
       <c r="D29" s="4">
-        <v>37.594674879999999</v>
+        <v>37.594673156738281</v>
       </c>
       <c r="E29" t="s">
         <v>1015</v>
@@ -73175,10 +73186,10 @@
         <v>40634</v>
       </c>
       <c r="C30" s="4">
-        <v>19.73422806</v>
+        <v>19.734228134155273</v>
       </c>
       <c r="D30" s="4">
-        <v>15.954130060000001</v>
+        <v>15.954130172729492</v>
       </c>
       <c r="E30" t="s">
         <v>1016</v>
@@ -73192,10 +73203,10 @@
         <v>40725</v>
       </c>
       <c r="C31" s="4">
-        <v>44.232025999999998</v>
+        <v>44.232025146484375</v>
       </c>
       <c r="D31" s="4">
-        <v>48.645688</v>
+        <v>48.645687103271484</v>
       </c>
       <c r="E31" t="s">
         <v>1017</v>
@@ -73209,10 +73220,10 @@
         <v>40817</v>
       </c>
       <c r="C32" s="4">
-        <v>93.315053000000006</v>
+        <v>93.315055847167969</v>
       </c>
       <c r="D32" s="4">
-        <v>94.550937000000005</v>
+        <v>94.550933837890625</v>
       </c>
       <c r="E32" t="s">
         <v>1018</v>
@@ -73226,10 +73237,10 @@
         <v>40909</v>
       </c>
       <c r="C33" s="4">
-        <v>142.1318449</v>
+        <v>142.13185119628906</v>
       </c>
       <c r="D33" s="4">
-        <v>142.1318449</v>
+        <v>142.13185119628906</v>
       </c>
       <c r="E33" t="s">
         <v>1019</v>
@@ -73243,10 +73254,10 @@
         <v>41000</v>
       </c>
       <c r="C34" s="4">
-        <v>-19.877410000000001</v>
+        <v>-19.877410888671875</v>
       </c>
       <c r="D34" s="4">
-        <v>-23.223050000000001</v>
+        <v>-23.223049163818359</v>
       </c>
       <c r="E34" t="s">
         <v>1020</v>
@@ -73260,10 +73271,10 @@
         <v>41091</v>
       </c>
       <c r="C35" s="4">
-        <v>63.942528000000003</v>
+        <v>63.942527770996094</v>
       </c>
       <c r="D35" s="4">
-        <v>61.847814</v>
+        <v>61.847812652587891</v>
       </c>
       <c r="E35" t="s">
         <v>1021</v>
@@ -73277,10 +73288,10 @@
         <v>41183</v>
       </c>
       <c r="C36" s="4">
-        <v>6.2472269999999996</v>
+        <v>6.2472271919250488</v>
       </c>
       <c r="D36" s="4">
-        <v>32.055304999999997</v>
+        <v>32.055305480957031</v>
       </c>
       <c r="E36" t="s">
         <v>1022</v>
@@ -73294,10 +73305,10 @@
         <v>41275</v>
       </c>
       <c r="C37" s="4">
-        <v>53.926803</v>
+        <v>53.926803588867188</v>
       </c>
       <c r="D37" s="4">
-        <v>32.104905000000002</v>
+        <v>32.104904174804688</v>
       </c>
       <c r="E37" t="s">
         <v>1023</v>
@@ -73311,10 +73322,10 @@
         <v>41365</v>
       </c>
       <c r="C38" s="4">
-        <v>2.3103600000000002</v>
+        <v>2.3103599548339844</v>
       </c>
       <c r="D38" s="4">
-        <v>2.0717319999999999</v>
+        <v>2.0717320442199707</v>
       </c>
       <c r="E38" t="s">
         <v>1024</v>
@@ -73328,10 +73339,10 @@
         <v>41456</v>
       </c>
       <c r="C39" s="4">
-        <v>-7.1997200000000001</v>
+        <v>-7.1997199058532715</v>
       </c>
       <c r="D39" s="4">
-        <v>7.0137460000000003</v>
+        <v>7.0137457847595215</v>
       </c>
       <c r="E39" t="s">
         <v>1025</v>
@@ -73345,10 +73356,10 @@
         <v>41548</v>
       </c>
       <c r="C40" s="4">
-        <v>-24.20411</v>
+        <v>-24.204109191894531</v>
       </c>
       <c r="D40" s="4">
-        <v>-24.598381</v>
+        <v>-24.598381042480469</v>
       </c>
       <c r="E40" t="s">
         <v>1026</v>
@@ -73362,10 +73373,10 @@
         <v>41640</v>
       </c>
       <c r="C41" s="4">
-        <v>106.921645</v>
+        <v>106.92164611816406</v>
       </c>
       <c r="D41" s="4">
-        <v>106.921645</v>
+        <v>106.92164611816406</v>
       </c>
       <c r="E41" t="s">
         <v>1027</v>
@@ -73379,10 +73390,10 @@
         <v>41730</v>
       </c>
       <c r="C42" s="4">
-        <v>55.878743</v>
+        <v>55.878742218017578</v>
       </c>
       <c r="D42" s="4">
-        <v>12.183121999999999</v>
+        <v>12.183121681213379</v>
       </c>
       <c r="E42" t="s">
         <v>1028</v>
@@ -73413,10 +73424,10 @@
         <v>41913</v>
       </c>
       <c r="C44" s="4">
-        <v>10.270702999999999</v>
+        <v>10.270703315734863</v>
       </c>
       <c r="D44" s="4">
-        <v>55.897874999999999</v>
+        <v>55.897876739501953</v>
       </c>
       <c r="E44" t="s">
         <v>1030</v>
@@ -73430,10 +73441,10 @@
         <v>42005</v>
       </c>
       <c r="C45" s="4">
-        <v>76.350967400000002</v>
+        <v>76.350967407226563</v>
       </c>
       <c r="D45" s="4">
-        <v>76.350967400000002</v>
+        <v>76.350967407226563</v>
       </c>
       <c r="E45" t="s">
         <v>1031</v>
@@ -73447,10 +73458,10 @@
         <v>42095</v>
       </c>
       <c r="C46" s="4">
-        <v>71.532873510000002</v>
+        <v>71.532875061035156</v>
       </c>
       <c r="D46" s="4">
-        <v>55.645211510000003</v>
+        <v>55.645210266113281</v>
       </c>
       <c r="E46" t="s">
         <v>1032</v>
@@ -73481,7 +73492,7 @@
         <v>42278</v>
       </c>
       <c r="C48" s="4">
-        <v>8.4004280700000002</v>
+        <v>8.4004278182983398</v>
       </c>
       <c r="D48" s="4">
         <v>0</v>
@@ -73498,10 +73509,10 @@
         <v>42370</v>
       </c>
       <c r="C49" s="4">
-        <v>48.084005259999998</v>
+        <v>48.084003448486328</v>
       </c>
       <c r="D49" s="4">
-        <v>36.947426139999997</v>
+        <v>36.947425842285156</v>
       </c>
       <c r="E49" t="s">
         <v>1035</v>
@@ -73515,10 +73526,10 @@
         <v>42461</v>
       </c>
       <c r="C50" s="4">
-        <v>45.380200739999999</v>
+        <v>45.380199432373047</v>
       </c>
       <c r="D50" s="4">
-        <v>45.570245739999997</v>
+        <v>45.570243835449219</v>
       </c>
       <c r="E50" t="s">
         <v>1036</v>
@@ -73532,10 +73543,10 @@
         <v>42552</v>
       </c>
       <c r="C51" s="4">
-        <v>44.838380919999999</v>
+        <v>44.838382720947266</v>
       </c>
       <c r="D51" s="4">
-        <v>40.788958919999999</v>
+        <v>40.788959503173828</v>
       </c>
       <c r="E51" t="s">
         <v>1037</v>
@@ -73549,10 +73560,10 @@
         <v>42644</v>
       </c>
       <c r="C52" s="4">
-        <v>-13.57669761</v>
+        <v>-13.57669734954834</v>
       </c>
       <c r="D52" s="4">
-        <v>-10.37095659</v>
+        <v>-10.370956420898438</v>
       </c>
       <c r="E52" t="s">
         <v>1038</v>
@@ -73566,10 +73577,10 @@
         <v>42736</v>
       </c>
       <c r="C53" s="4">
-        <v>28.429899240000001</v>
+        <v>28.429899215698242</v>
       </c>
       <c r="D53" s="4">
-        <v>32.62301489</v>
+        <v>32.623016357421875</v>
       </c>
       <c r="E53" t="s">
         <v>1039</v>
@@ -73583,10 +73594,10 @@
         <v>42826</v>
       </c>
       <c r="C54" s="4">
-        <v>-23.867920519999998</v>
+        <v>-23.867919921875</v>
       </c>
       <c r="D54" s="4">
-        <v>-9.6817594299999996</v>
+        <v>-9.6817598342895508</v>
       </c>
       <c r="E54" t="s">
         <v>1040</v>
@@ -73600,10 +73611,10 @@
         <v>42917</v>
       </c>
       <c r="C55" s="4">
-        <v>0.99654856999999997</v>
+        <v>0.99654859304428101</v>
       </c>
       <c r="D55" s="4">
-        <v>4.2272140800000004</v>
+        <v>4.2272138595581055</v>
       </c>
       <c r="E55" t="s">
         <v>1041</v>
@@ -73617,10 +73628,10 @@
         <v>43009</v>
       </c>
       <c r="C56" s="4">
-        <v>87.126033629999995</v>
+        <v>87.126029968261719</v>
       </c>
       <c r="D56" s="4">
-        <v>75.544562119999995</v>
+        <v>75.544563293457031</v>
       </c>
       <c r="E56" t="s">
         <v>1042</v>
@@ -73634,10 +73645,10 @@
         <v>43101</v>
       </c>
       <c r="C57" s="4">
-        <v>30.36065666</v>
+        <v>30.36065673828125</v>
       </c>
       <c r="D57" s="4">
-        <v>31.150632829999999</v>
+        <v>31.150632858276367</v>
       </c>
       <c r="E57" t="s">
         <v>1043</v>
@@ -73651,10 +73662,10 @@
         <v>43191</v>
       </c>
       <c r="C58" s="4">
-        <v>17.617138270000002</v>
+        <v>17.617137908935547</v>
       </c>
       <c r="D58" s="4">
-        <v>-10.73237642</v>
+        <v>-10.732376098632813</v>
       </c>
       <c r="E58" t="s">
         <v>1044</v>
@@ -73668,10 +73679,10 @@
         <v>43282</v>
       </c>
       <c r="C59" s="4">
-        <v>-19.511189000000002</v>
+        <v>-19.511188507080078</v>
       </c>
       <c r="D59" s="4">
-        <v>-12.95494334</v>
+        <v>-12.954943656921387</v>
       </c>
       <c r="E59" t="s">
         <v>1045</v>
@@ -73685,10 +73696,10 @@
         <v>43374</v>
       </c>
       <c r="C60" s="4">
-        <v>10.74422212</v>
+        <v>10.744221687316895</v>
       </c>
       <c r="D60" s="4">
-        <v>2.82519746</v>
+        <v>2.8251974582672119</v>
       </c>
       <c r="E60" t="s">
         <v>1046</v>
@@ -73702,10 +73713,10 @@
         <v>43466</v>
       </c>
       <c r="C61" s="4">
-        <v>79.689138319999998</v>
+        <v>79.689140319824219</v>
       </c>
       <c r="D61" s="4">
-        <v>140.74685425000001</v>
+        <v>140.74685668945313</v>
       </c>
       <c r="E61" t="s">
         <v>1047</v>
@@ -73719,10 +73730,10 @@
         <v>43556</v>
       </c>
       <c r="C62" s="4">
-        <v>-13.32591543</v>
+        <v>-13.325915336608887</v>
       </c>
       <c r="D62" s="4">
-        <v>12.72810028</v>
+        <v>12.728099822998047</v>
       </c>
       <c r="E62" t="s">
         <v>1048</v>
@@ -73736,10 +73747,10 @@
         <v>43647</v>
       </c>
       <c r="C63" s="4">
-        <v>-17.82495977</v>
+        <v>-17.824960708618164</v>
       </c>
       <c r="D63" s="4">
-        <v>-11.11717056</v>
+        <v>-11.117170333862305</v>
       </c>
       <c r="E63" t="s">
         <v>1049</v>
@@ -73753,10 +73764,10 @@
         <v>43739</v>
       </c>
       <c r="C64" s="4">
-        <v>-20.882492289999998</v>
+        <v>-20.882492065429688</v>
       </c>
       <c r="D64" s="4">
-        <v>-59.983047040000002</v>
+        <v>-59.983047485351563</v>
       </c>
       <c r="E64" t="s">
         <v>1050</v>
@@ -73770,10 +73781,10 @@
         <v>43831</v>
       </c>
       <c r="C65" s="4">
-        <v>91.802762509999994</v>
+        <v>91.802764892578125</v>
       </c>
       <c r="D65" s="4">
-        <v>173.88659584000001</v>
+        <v>173.8865966796875</v>
       </c>
       <c r="E65" t="s">
         <v>1051</v>
@@ -73787,10 +73798,10 @@
         <v>43922</v>
       </c>
       <c r="C66" s="4">
-        <v>-29.8667084</v>
+        <v>-29.866708755493164</v>
       </c>
       <c r="D66" s="4">
-        <v>-15.317855570000001</v>
+        <v>-15.317855834960938</v>
       </c>
       <c r="E66" t="s">
         <v>1052</v>
@@ -73804,10 +73815,10 @@
         <v>44013</v>
       </c>
       <c r="C67" s="4">
-        <v>-53.794111090000001</v>
+        <v>-53.794109344482422</v>
       </c>
       <c r="D67" s="4">
-        <v>-40.739038219999998</v>
+        <v>-40.739036560058594</v>
       </c>
       <c r="E67" t="s">
         <v>1053</v>
@@ -73821,10 +73832,10 @@
         <v>44105</v>
       </c>
       <c r="C68" s="4">
-        <v>-58.938021579999997</v>
+        <v>-58.938022613525391</v>
       </c>
       <c r="D68" s="4">
-        <v>-38.769029830000001</v>
+        <v>-38.769031524658203</v>
       </c>
       <c r="E68" t="s">
         <v>1054</v>
@@ -73838,10 +73849,10 @@
         <v>44197</v>
       </c>
       <c r="C69" s="4">
-        <v>48.6941998</v>
+        <v>48.694198608398438</v>
       </c>
       <c r="D69" s="4">
-        <v>13.798340809999999</v>
+        <v>13.798340797424316</v>
       </c>
       <c r="E69" t="s">
         <v>1055</v>
@@ -73855,10 +73866,10 @@
         <v>44287</v>
       </c>
       <c r="C70" s="4">
-        <v>28.207569899999999</v>
+        <v>28.207569122314453</v>
       </c>
       <c r="D70" s="4">
-        <v>22.297113169999999</v>
+        <v>22.297113418579102</v>
       </c>
       <c r="E70" t="s">
         <v>1056</v>
@@ -73872,10 +73883,10 @@
         <v>44378</v>
       </c>
       <c r="C71" s="4">
-        <v>-47.043202170000001</v>
+        <v>-47.043201446533203</v>
       </c>
       <c r="D71" s="4">
-        <v>-42.53102389</v>
+        <v>-42.531024932861328</v>
       </c>
       <c r="E71" t="s">
         <v>1057</v>
@@ -73889,10 +73900,10 @@
         <v>44470</v>
       </c>
       <c r="C72" s="4">
-        <v>23.672811859999999</v>
+        <v>23.672811508178711</v>
       </c>
       <c r="D72" s="4">
-        <v>36.066230959999999</v>
+        <v>36.066230773925781</v>
       </c>
       <c r="E72" t="s">
         <v>1058</v>
@@ -73906,10 +73917,10 @@
         <v>44562</v>
       </c>
       <c r="C73" s="4">
-        <v>31.844414010000001</v>
+        <v>31.844413757324219</v>
       </c>
       <c r="D73" s="4">
-        <v>42.193028780802798</v>
+        <v>42.193027496337891</v>
       </c>
       <c r="E73" t="s">
         <v>1059</v>
@@ -73923,10 +73934,10 @@
         <v>44652</v>
       </c>
       <c r="C74" s="4">
-        <v>-9.8002826499999998</v>
+        <v>-9.8002824783325195</v>
       </c>
       <c r="D74" s="4">
-        <v>-10.9699398448886</v>
+        <v>-10.969940185546875</v>
       </c>
       <c r="E74" t="s">
         <v>1060</v>
@@ -73940,10 +73951,10 @@
         <v>44743</v>
       </c>
       <c r="C75" s="4">
-        <v>-6.7558598999999999</v>
+        <v>-6.7558598518371582</v>
       </c>
       <c r="D75" s="4">
-        <v>-4.3954741935352599</v>
+        <v>-4.3954739570617676</v>
       </c>
       <c r="E75" t="s">
         <v>1061</v>
@@ -73957,10 +73968,10 @@
         <v>44835</v>
       </c>
       <c r="C76" s="4">
-        <v>-21.471369072611001</v>
+        <v>-21.471368789672852</v>
       </c>
       <c r="D76" s="4">
-        <v>-16.617340835978201</v>
+        <v>-16.617340087890625</v>
       </c>
       <c r="E76" t="s">
         <v>1062</v>
@@ -73974,10 +73985,10 @@
         <v>44927</v>
       </c>
       <c r="C77" s="4">
-        <v>25.4766835724744</v>
+        <v>25.476682662963867</v>
       </c>
       <c r="D77" s="4">
-        <v>15.3228621930113</v>
+        <v>15.32286262512207</v>
       </c>
       <c r="E77" t="s">
         <v>1063</v>
@@ -74025,10 +74036,10 @@
         <v>45200</v>
       </c>
       <c r="C80" s="4">
-        <v>47.656292576854298</v>
+        <v>47.656291961669922</v>
       </c>
       <c r="D80" s="4">
-        <v>47.656292576854298</v>
+        <v>47.656291961669922</v>
       </c>
       <c r="E80" t="s">
         <v>1065</v>
@@ -74042,10 +74053,10 @@
         <v>45292</v>
       </c>
       <c r="C81" s="4">
-        <v>80.797575192648296</v>
+        <v>80.797576904296875</v>
       </c>
       <c r="D81" s="4">
-        <v>88.983656985637495</v>
+        <v>88.983657836914063</v>
       </c>
       <c r="E81" t="s">
         <v>1066</v>
@@ -74059,10 +74070,10 @@
         <v>45383</v>
       </c>
       <c r="C82" s="4">
-        <v>-122.40001348308201</v>
+        <v>-122.40001678466797</v>
       </c>
       <c r="D82" s="4">
-        <v>-122.40001348308201</v>
+        <v>-122.40001678466797</v>
       </c>
       <c r="E82" t="s">
         <v>1067</v>
